--- a/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
+++ b/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="126">
   <si>
     <t>资金</t>
   </si>
@@ -163,9 +163,6 @@
     <t>002409</t>
   </si>
   <si>
-    <t>雄塑科技</t>
-  </si>
-  <si>
     <t>钢研高纳</t>
   </si>
   <si>
@@ -175,12 +172,15 @@
     <t>002723</t>
   </si>
   <si>
+    <t>金时科技</t>
+  </si>
+  <si>
+    <t>002951</t>
+  </si>
+  <si>
     <t>达志科技</t>
   </si>
   <si>
-    <t>蔚蓝生物</t>
-  </si>
-  <si>
     <t>蓝帆医疗</t>
   </si>
   <si>
@@ -193,6 +193,9 @@
     <t>002918</t>
   </si>
   <si>
+    <t>英科医疗</t>
+  </si>
+  <si>
     <t>苏州固锝</t>
   </si>
   <si>
@@ -220,21 +223,39 @@
     <t>福斯特</t>
   </si>
   <si>
+    <t>石基信息</t>
+  </si>
+  <si>
+    <t>002153</t>
+  </si>
+  <si>
     <t>皇马科技</t>
   </si>
   <si>
-    <t>环旭电子</t>
-  </si>
-  <si>
-    <t>漫步者</t>
-  </si>
-  <si>
-    <t>002351</t>
+    <t>百润股份</t>
+  </si>
+  <si>
+    <t>002568</t>
+  </si>
+  <si>
+    <t>电魂网络</t>
+  </si>
+  <si>
+    <t>王府井</t>
+  </si>
+  <si>
+    <t>玉龙股份</t>
   </si>
   <si>
     <t>深信服</t>
   </si>
   <si>
+    <t>泸州老窖</t>
+  </si>
+  <si>
+    <t>000568</t>
+  </si>
+  <si>
     <t>江山欧派</t>
   </si>
   <si>
@@ -244,12 +265,24 @@
     <t>梦百合</t>
   </si>
   <si>
+    <t>易尚展示</t>
+  </si>
+  <si>
+    <t>002751</t>
+  </si>
+  <si>
     <t>新华百货</t>
   </si>
   <si>
     <t>振德医疗</t>
   </si>
   <si>
+    <t>恒铭达</t>
+  </si>
+  <si>
+    <t>002947</t>
+  </si>
+  <si>
     <t>恒立液压</t>
   </si>
   <si>
@@ -268,12 +301,6 @@
     <t>安井食品</t>
   </si>
   <si>
-    <t>宁波银行</t>
-  </si>
-  <si>
-    <t>002142</t>
-  </si>
-  <si>
     <t>大亚圣象</t>
   </si>
   <si>
@@ -298,9 +325,6 @@
     <t>002749</t>
   </si>
   <si>
-    <t>司太立</t>
-  </si>
-  <si>
     <t>双林生物</t>
   </si>
   <si>
@@ -313,27 +337,12 @@
     <t>002481</t>
   </si>
   <si>
-    <t>博实股份</t>
-  </si>
-  <si>
-    <t>002698</t>
-  </si>
-  <si>
     <t>博创科技</t>
   </si>
   <si>
-    <t>华西股份</t>
-  </si>
-  <si>
-    <t>000936</t>
-  </si>
-  <si>
     <t>华宝添益</t>
   </si>
   <si>
-    <t>华大基因</t>
-  </si>
-  <si>
     <t>华夏航空</t>
   </si>
   <si>
@@ -343,13 +352,16 @@
     <t>华图山鼎</t>
   </si>
   <si>
+    <t>华中数控</t>
+  </si>
+  <si>
     <t>凯撒文化</t>
   </si>
   <si>
     <t>002425</t>
   </si>
   <si>
-    <t>凯伦股份</t>
+    <t>健友股份</t>
   </si>
   <si>
     <t>信捷电气</t>
@@ -361,9 +373,6 @@
     <t>亿嘉和</t>
   </si>
   <si>
-    <t>云南城投</t>
-  </si>
-  <si>
     <t>中路股份</t>
   </si>
   <si>
@@ -374,6 +383,12 @@
   </si>
   <si>
     <t>东宏股份</t>
+  </si>
+  <si>
+    <t>上海机场</t>
+  </si>
+  <si>
+    <t>上海临港</t>
   </si>
   <si>
     <t>万业企业</t>
@@ -768,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -848,28 +863,28 @@
         <v>1720175912</v>
       </c>
       <c r="C3" s="4">
-        <v>26675197.24</v>
+        <v>5631509.85</v>
       </c>
       <c r="D3" s="4">
-        <v>26675197.24</v>
+        <v>4969189.37</v>
       </c>
       <c r="E3" s="4">
-        <v>26675197.24</v>
+        <v>4969189.37</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>662320.48</v>
       </c>
       <c r="G3" s="4">
-        <v>21431456.61</v>
+        <v>19480251.14</v>
       </c>
       <c r="H3" s="4">
-        <v>48106653.85</v>
+        <v>24449440.51</v>
       </c>
       <c r="I3" s="4">
-        <v>530222.19</v>
+        <v>560517.24</v>
       </c>
       <c r="J3" s="4">
-        <v>2244</v>
+        <v>-184995.75</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -976,10 +991,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="4">
-        <v>2104000</v>
+        <v>2173000</v>
       </c>
       <c r="C8" s="4">
-        <v>2104500</v>
+        <v>2173500</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -993,7 +1008,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="4">
-        <v>3932000</v>
+        <v>4061500</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -1084,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>15.64</v>
+        <v>15.58</v>
       </c>
       <c r="G12" s="7">
         <v>15.896</v>
@@ -1093,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>106352</v>
+        <v>105944</v>
       </c>
       <c r="J12" s="7">
-        <v>-1742.99</v>
+        <v>-2150.99</v>
       </c>
       <c r="K12" s="7">
-        <v>2244</v>
+        <v>136</v>
       </c>
       <c r="L12" s="8">
-        <v>-1.61</v>
+        <v>-1.99</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>25</v>
@@ -1128,25 +1143,25 @@
         <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>46.74</v>
+        <v>46.73</v>
       </c>
       <c r="G13" s="7">
-        <v>50.208</v>
+        <v>49.708</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>864690</v>
+        <v>864505</v>
       </c>
       <c r="J13" s="7">
-        <v>-64158.45</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>-55093.45</v>
+      </c>
+      <c r="K13" s="7">
+        <v>-3145</v>
       </c>
       <c r="L13" s="8">
-        <v>-6.91</v>
+        <v>-5.99</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>25</v>
@@ -1172,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>12.81</v>
+        <v>12.86</v>
       </c>
       <c r="G14" s="7">
         <v>13.201</v>
@@ -1181,16 +1196,16 @@
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>137067</v>
+        <v>137602</v>
       </c>
       <c r="J14" s="7">
-        <v>-4186.95</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>14</v>
+        <v>-3651.95</v>
+      </c>
+      <c r="K14" s="7">
+        <v>-2996</v>
       </c>
       <c r="L14" s="8">
-        <v>-2.96</v>
+        <v>-2.58</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>25</v>
@@ -1216,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>43.25</v>
+        <v>45.13</v>
       </c>
       <c r="G15" s="7">
         <v>45.434</v>
@@ -1225,16 +1240,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>454125</v>
+        <v>473865</v>
       </c>
       <c r="J15" s="7">
-        <v>-22929.73</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>-3189.73</v>
+      </c>
+      <c r="K15" s="7">
+        <v>-2100</v>
       </c>
       <c r="L15" s="8">
-        <v>-4.81</v>
+        <v>-0.67</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>23</v>
@@ -1251,34 +1266,34 @@
         <v>46</v>
       </c>
       <c r="C16" s="6">
-        <v>62600</v>
+        <v>0</v>
       </c>
       <c r="D16" s="6">
-        <v>62600</v>
+        <v>0</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>9.99</v>
+        <v>9.95</v>
       </c>
       <c r="G16" s="7">
-        <v>10.292</v>
+        <v>0</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>625374</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7">
-        <v>-18876.3</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>14</v>
+        <v>-23008.85</v>
+      </c>
+      <c r="K16" s="7">
+        <v>-12270.55</v>
       </c>
       <c r="L16" s="8">
-        <v>-2.93</v>
+        <v>0</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>25</v>
@@ -1304,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>46.9</v>
+        <v>45.48</v>
       </c>
       <c r="G17" s="7">
         <v>50.652</v>
@@ -1313,16 +1328,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>797300</v>
+        <v>773160</v>
       </c>
       <c r="J17" s="7">
-        <v>-63788.28</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>14</v>
+        <v>-87928.28</v>
+      </c>
+      <c r="K17" s="7">
+        <v>-33660</v>
       </c>
       <c r="L17" s="8">
-        <v>-7.41</v>
+        <v>-10.21</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>25</v>
@@ -1336,37 +1351,37 @@
         <v>49</v>
       </c>
       <c r="B18" s="6">
-        <v>300599</v>
+        <v>300034</v>
       </c>
       <c r="C18" s="6">
-        <v>24400</v>
+        <v>100</v>
       </c>
       <c r="D18" s="6">
-        <v>24400</v>
+        <v>100</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>13.83</v>
+        <v>17.75</v>
       </c>
       <c r="G18" s="7">
-        <v>14.167</v>
+        <v>56.862</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>337452</v>
+        <v>1775</v>
       </c>
       <c r="J18" s="7">
-        <v>-8218.49</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>14</v>
+        <v>-3911.22</v>
+      </c>
+      <c r="K18" s="7">
+        <v>-7</v>
       </c>
       <c r="L18" s="8">
-        <v>-2.38</v>
+        <v>-68.78</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>25</v>
@@ -1376,85 +1391,85 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="6">
-        <v>300034</v>
-      </c>
-      <c r="C19" s="6">
-        <v>100</v>
-      </c>
-      <c r="D19" s="6">
-        <v>100</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>17.82</v>
-      </c>
-      <c r="G19" s="7">
-        <v>56.862</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1782</v>
-      </c>
-      <c r="J19" s="7">
-        <v>-3904.22</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="8">
-        <v>-68.66</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="8" t="s">
+      <c r="B19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="10">
+        <v>10500</v>
+      </c>
+      <c r="D19" s="10">
+        <v>10500</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>17.2</v>
+      </c>
+      <c r="G19" s="11">
+        <v>16.202</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>180600</v>
+      </c>
+      <c r="J19" s="11">
+        <v>10475.43</v>
+      </c>
+      <c r="K19" s="11">
+        <v>525</v>
+      </c>
+      <c r="L19" s="9">
+        <v>6.16</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="10">
-        <v>10500</v>
+        <v>4200</v>
       </c>
       <c r="D20" s="10">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="E20" s="10">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="F20" s="11">
-        <v>16.79</v>
+        <v>17.59</v>
       </c>
       <c r="G20" s="11">
-        <v>16.202</v>
+        <v>17.574</v>
       </c>
       <c r="H20" s="11">
         <v>0</v>
       </c>
       <c r="I20" s="11">
-        <v>176295</v>
+        <v>73878</v>
       </c>
       <c r="J20" s="11">
-        <v>6170.43</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>14</v>
+        <v>67.09</v>
+      </c>
+      <c r="K20" s="11">
+        <v>67.09</v>
       </c>
       <c r="L20" s="9">
-        <v>3.63</v>
+        <v>0.09</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>25</v>
@@ -1465,7 +1480,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" s="10">
         <v>300530</v>
@@ -1480,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="11">
-        <v>37.83</v>
+        <v>38.25</v>
       </c>
       <c r="G21" s="11">
         <v>35.762</v>
@@ -1489,16 +1504,16 @@
         <v>0</v>
       </c>
       <c r="I21" s="11">
-        <v>37830</v>
+        <v>38250</v>
       </c>
       <c r="J21" s="11">
-        <v>2067.7</v>
+        <v>2487.7</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>14</v>
       </c>
       <c r="L21" s="9">
-        <v>5.78</v>
+        <v>6.96</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>25</v>
@@ -1508,85 +1523,85 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="6">
-        <v>603739</v>
-      </c>
-      <c r="C22" s="6">
-        <v>4500</v>
-      </c>
-      <c r="D22" s="6">
-        <v>4500</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>25.38</v>
-      </c>
-      <c r="G22" s="7">
-        <v>27.362</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>114210</v>
-      </c>
-      <c r="J22" s="7">
-        <v>-8920.49</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="8">
-        <v>-7.24</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>22</v>
+      <c r="A22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>30.56</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <v>2734.37</v>
+      </c>
+      <c r="K22" s="11">
+        <v>6272.97</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C23" s="6">
-        <v>12700</v>
+        <v>600</v>
       </c>
       <c r="D23" s="6">
-        <v>12700</v>
+        <v>600</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
       <c r="F23" s="7">
-        <v>30.25</v>
+        <v>29.72</v>
       </c>
       <c r="G23" s="7">
-        <v>30.579</v>
+        <v>80.583</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>384175</v>
+        <v>17832</v>
       </c>
       <c r="J23" s="7">
-        <v>-4173.6</v>
+        <v>-30517.7</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L23" s="8">
-        <v>-1.08</v>
+        <v>-63.12</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>25</v>
@@ -1596,85 +1611,85 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="6">
-        <v>25600</v>
-      </c>
-      <c r="D24" s="6">
-        <v>25600</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>28.5</v>
-      </c>
-      <c r="G24" s="7">
-        <v>31.148</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>729600</v>
-      </c>
-      <c r="J24" s="7">
-        <v>-67795.7</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="8">
-        <v>-8.5</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="8" t="s">
+      <c r="A24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="10">
+        <v>300677</v>
+      </c>
+      <c r="C24" s="10">
+        <v>3300</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>3300</v>
+      </c>
+      <c r="F24" s="11">
+        <v>116</v>
+      </c>
+      <c r="G24" s="11">
+        <v>115.648</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>382800</v>
+      </c>
+      <c r="J24" s="11">
+        <v>1161.88</v>
+      </c>
+      <c r="K24" s="11">
+        <v>1161.88</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="10">
-        <v>83500</v>
+        <v>52200</v>
       </c>
       <c r="D25" s="10">
-        <v>83500</v>
+        <v>52200</v>
       </c>
       <c r="E25" s="10">
         <v>0</v>
       </c>
       <c r="F25" s="11">
-        <v>12.8</v>
+        <v>13.04</v>
       </c>
       <c r="G25" s="11">
-        <v>10.948</v>
+        <v>9.727</v>
       </c>
       <c r="H25" s="11">
         <v>0</v>
       </c>
       <c r="I25" s="11">
-        <v>1068800</v>
+        <v>680688</v>
       </c>
       <c r="J25" s="11">
-        <v>154671.99</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>14</v>
+        <v>172922.34</v>
+      </c>
+      <c r="K25" s="11">
+        <v>17415.35</v>
       </c>
       <c r="L25" s="9">
-        <v>16.92</v>
+        <v>34.06</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>25</v>
@@ -1684,52 +1699,52 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="6">
-        <v>2900</v>
-      </c>
-      <c r="D26" s="6">
-        <v>2900</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>42.08</v>
-      </c>
-      <c r="G26" s="7">
-        <v>44.878</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>122032</v>
-      </c>
-      <c r="J26" s="7">
-        <v>-8113.64</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="8">
-        <v>-6.23</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N26" s="8" t="s">
+      <c r="B26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="10">
+        <v>2700</v>
+      </c>
+      <c r="D26" s="10">
+        <v>2700</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>48.04</v>
+      </c>
+      <c r="G26" s="11">
+        <v>45.083</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>129708</v>
+      </c>
+      <c r="J26" s="11">
+        <v>7983.91</v>
+      </c>
+      <c r="K26" s="11">
+        <v>11799</v>
+      </c>
+      <c r="L26" s="9">
+        <v>6.56</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="6">
         <v>300709</v>
@@ -1744,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>82.1</v>
+        <v>83.19</v>
       </c>
       <c r="G27" s="7">
         <v>89.349</v>
@@ -1753,16 +1768,16 @@
         <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>864513</v>
+        <v>875990.7</v>
       </c>
       <c r="J27" s="7">
-        <v>-76327.15</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>14</v>
+        <v>-64849.45</v>
+      </c>
+      <c r="K27" s="7">
+        <v>-32011.2</v>
       </c>
       <c r="L27" s="8">
-        <v>-8.11</v>
+        <v>-6.89</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>25</v>
@@ -1773,7 +1788,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" s="6">
         <v>300662</v>
@@ -1788,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="7">
-        <v>42.55</v>
+        <v>43.08</v>
       </c>
       <c r="G28" s="7">
         <v>44.509</v>
@@ -1797,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>208495</v>
+        <v>211092</v>
       </c>
       <c r="J28" s="7">
-        <v>-9597.16</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>14</v>
+        <v>-7000.16</v>
+      </c>
+      <c r="K28" s="7">
+        <v>1029</v>
       </c>
       <c r="L28" s="8">
-        <v>-4.4</v>
+        <v>-3.21</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>25</v>
@@ -1817,16 +1832,16 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="13">
-        <v>2104500</v>
+        <v>2173500</v>
       </c>
       <c r="D29" s="13">
-        <v>2104500</v>
+        <v>2173500</v>
       </c>
       <c r="E29" s="13">
         <v>0</v>
@@ -1861,7 +1876,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" s="10">
         <v>603806</v>
@@ -1876,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="11">
-        <v>41.89</v>
+        <v>44.02</v>
       </c>
       <c r="G30" s="11">
         <v>40.561</v>
@@ -1885,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="I30" s="11">
-        <v>16756</v>
+        <v>17608</v>
       </c>
       <c r="J30" s="11">
-        <v>531.72</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>14</v>
+        <v>1383.72</v>
+      </c>
+      <c r="K30" s="11">
+        <v>332</v>
       </c>
       <c r="L30" s="9">
-        <v>3.28</v>
+        <v>8.53</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>23</v>
@@ -1905,84 +1920,84 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="10">
-        <v>603181</v>
+        <v>69</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="C31" s="10">
-        <v>45300</v>
+        <v>9700</v>
       </c>
       <c r="D31" s="10">
-        <v>45300</v>
+        <v>0</v>
       </c>
       <c r="E31" s="10">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="F31" s="11">
-        <v>21</v>
+        <v>37.24</v>
       </c>
       <c r="G31" s="11">
-        <v>20.358</v>
+        <v>36.863</v>
       </c>
       <c r="H31" s="11">
         <v>0</v>
       </c>
       <c r="I31" s="11">
-        <v>951300</v>
+        <v>361228</v>
       </c>
       <c r="J31" s="11">
-        <v>29070.97</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>14</v>
+        <v>3655.05</v>
+      </c>
+      <c r="K31" s="11">
+        <v>3655.05</v>
       </c>
       <c r="L31" s="9">
-        <v>3.15</v>
+        <v>1.02</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32" s="10">
-        <v>601231</v>
+        <v>603181</v>
       </c>
       <c r="C32" s="10">
-        <v>34</v>
+        <v>24100</v>
       </c>
       <c r="D32" s="10">
-        <v>34</v>
+        <v>24100</v>
       </c>
       <c r="E32" s="10">
         <v>0</v>
       </c>
       <c r="F32" s="11">
-        <v>18.54</v>
+        <v>21.82</v>
       </c>
       <c r="G32" s="11">
-        <v>-83.731</v>
+        <v>19.052</v>
       </c>
       <c r="H32" s="11">
         <v>0</v>
       </c>
       <c r="I32" s="11">
-        <v>630.36</v>
+        <v>525862</v>
       </c>
       <c r="J32" s="11">
-        <v>3477.23</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>14</v>
+        <v>66707.39</v>
+      </c>
+      <c r="K32" s="11">
+        <v>4820</v>
       </c>
       <c r="L32" s="9">
-        <v>0</v>
+        <v>14.53</v>
       </c>
       <c r="M32" s="9" t="s">
         <v>23</v>
@@ -1992,305 +2007,305 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="6">
-        <v>26100</v>
-      </c>
-      <c r="D33" s="6">
-        <v>26100</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7">
-        <v>20.55</v>
-      </c>
-      <c r="G33" s="7">
-        <v>21.554</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>536355</v>
-      </c>
-      <c r="J33" s="7">
-        <v>-26192.97</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" s="8">
-        <v>-4.66</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N33" s="8" t="s">
+      <c r="A33" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="10">
+        <v>8000</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>8000</v>
+      </c>
+      <c r="F33" s="11">
+        <v>42.4</v>
+      </c>
+      <c r="G33" s="11">
+        <v>42.087</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>339200</v>
+      </c>
+      <c r="J33" s="11">
+        <v>2503.89</v>
+      </c>
+      <c r="K33" s="11">
+        <v>2503.89</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0.74</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B34" s="6">
-        <v>300454</v>
+        <v>603258</v>
       </c>
       <c r="C34" s="6">
-        <v>5200</v>
+        <v>6700</v>
       </c>
       <c r="D34" s="6">
-        <v>5200</v>
+        <v>6700</v>
       </c>
       <c r="E34" s="6">
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>178.27</v>
+        <v>48.71</v>
       </c>
       <c r="G34" s="7">
-        <v>179.614</v>
+        <v>50.029</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>927004</v>
+        <v>326357</v>
       </c>
       <c r="J34" s="7">
-        <v>-6991.04</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>14</v>
+        <v>-8838.89</v>
+      </c>
+      <c r="K34" s="7">
+        <v>-14070</v>
       </c>
       <c r="L34" s="8">
-        <v>-0.75</v>
+        <v>-2.64</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="10">
-        <v>603208</v>
-      </c>
-      <c r="C35" s="10">
-        <v>1200</v>
-      </c>
-      <c r="D35" s="10">
-        <v>1200</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0</v>
-      </c>
-      <c r="F35" s="11">
-        <v>105</v>
-      </c>
-      <c r="G35" s="11">
-        <v>101.821</v>
-      </c>
-      <c r="H35" s="11">
-        <v>0</v>
-      </c>
-      <c r="I35" s="11">
-        <v>126000</v>
-      </c>
-      <c r="J35" s="11">
-        <v>3814.91</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" s="9">
-        <v>3.12</v>
-      </c>
-      <c r="M35" s="9" t="s">
+      <c r="A35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="6">
+        <v>600859</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>41.7</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <v>-3313.67</v>
+      </c>
+      <c r="K35" s="7">
+        <v>-15506.05</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N35" s="9" t="s">
+      <c r="N35" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="6">
-        <v>300609</v>
-      </c>
-      <c r="C36" s="6">
-        <v>9100</v>
-      </c>
-      <c r="D36" s="6">
-        <v>9100</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="7">
-        <v>39.29</v>
-      </c>
-      <c r="G36" s="7">
-        <v>44.156</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>357539</v>
-      </c>
-      <c r="J36" s="7">
-        <v>-44282.02</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" s="8">
-        <v>-11.02</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>24</v>
+      <c r="A36" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="10">
+        <v>601028</v>
+      </c>
+      <c r="C36" s="10">
+        <v>36200</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <v>36200</v>
+      </c>
+      <c r="F36" s="11">
+        <v>10.03</v>
+      </c>
+      <c r="G36" s="11">
+        <v>10.01</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>363086</v>
+      </c>
+      <c r="J36" s="11">
+        <v>719.76</v>
+      </c>
+      <c r="K36" s="11">
+        <v>719.76</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" s="6">
-        <v>603313</v>
+        <v>300454</v>
       </c>
       <c r="C37" s="6">
-        <v>4800</v>
+        <v>5200</v>
       </c>
       <c r="D37" s="6">
-        <v>4800</v>
+        <v>5200</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="7">
-        <v>23.54</v>
+        <v>174.9</v>
       </c>
       <c r="G37" s="7">
-        <v>26.83</v>
+        <v>179.614</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>112992</v>
+        <v>909480</v>
       </c>
       <c r="J37" s="7">
-        <v>-15790.01</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>14</v>
+        <v>-24515.04</v>
+      </c>
+      <c r="K37" s="7">
+        <v>-19240</v>
       </c>
       <c r="L37" s="8">
-        <v>-12.26</v>
+        <v>-2.62</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="6">
-        <v>600785</v>
-      </c>
-      <c r="C38" s="6">
-        <v>100</v>
-      </c>
-      <c r="D38" s="6">
-        <v>100</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7">
-        <v>15.88</v>
-      </c>
-      <c r="G38" s="7">
-        <v>32.591</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>1588</v>
-      </c>
-      <c r="J38" s="7">
-        <v>-1671.14</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" s="8">
-        <v>-51.27</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>22</v>
+      <c r="A38" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="10">
+        <v>4100</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
+        <v>4100</v>
+      </c>
+      <c r="F38" s="11">
+        <v>89.6</v>
+      </c>
+      <c r="G38" s="11">
+        <v>89.07</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>367360</v>
+      </c>
+      <c r="J38" s="11">
+        <v>2171.46</v>
+      </c>
+      <c r="K38" s="11">
+        <v>2171.46</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B39" s="10">
-        <v>603301</v>
+        <v>603208</v>
       </c>
       <c r="C39" s="10">
-        <v>11140</v>
+        <v>1200</v>
       </c>
       <c r="D39" s="10">
-        <v>11140</v>
+        <v>1200</v>
       </c>
       <c r="E39" s="10">
         <v>0</v>
       </c>
       <c r="F39" s="11">
-        <v>47.01</v>
+        <v>113.99</v>
       </c>
       <c r="G39" s="11">
-        <v>41.414</v>
+        <v>101.821</v>
       </c>
       <c r="H39" s="11">
         <v>0</v>
       </c>
       <c r="I39" s="11">
-        <v>523691.4</v>
+        <v>136788</v>
       </c>
       <c r="J39" s="11">
-        <v>62337.84</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>14</v>
+        <v>14602.91</v>
+      </c>
+      <c r="K39" s="11">
+        <v>744</v>
       </c>
       <c r="L39" s="9">
-        <v>13.51</v>
+        <v>11.95</v>
       </c>
       <c r="M39" s="9" t="s">
         <v>23</v>
@@ -2300,85 +2315,85 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="10">
-        <v>601100</v>
-      </c>
-      <c r="C40" s="10">
-        <v>602</v>
-      </c>
-      <c r="D40" s="10">
-        <v>602</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0</v>
-      </c>
-      <c r="F40" s="11">
-        <v>73.9</v>
-      </c>
-      <c r="G40" s="11">
-        <v>34.696</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <v>44487.8</v>
-      </c>
-      <c r="J40" s="11">
-        <v>23600.92</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" s="9">
-        <v>112.99</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>22</v>
+      <c r="A40" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="6">
+        <v>300609</v>
+      </c>
+      <c r="C40" s="6">
+        <v>9100</v>
+      </c>
+      <c r="D40" s="6">
+        <v>9100</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>40.34</v>
+      </c>
+      <c r="G40" s="7">
+        <v>44.151</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>367094</v>
+      </c>
+      <c r="J40" s="7">
+        <v>-34678.39</v>
+      </c>
+      <c r="K40" s="7">
+        <v>8736</v>
+      </c>
+      <c r="L40" s="8">
+        <v>-8.63</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B41" s="6">
-        <v>603801</v>
+        <v>603313</v>
       </c>
       <c r="C41" s="6">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="D41" s="6">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41" s="7">
-        <v>24.4</v>
+        <v>24.83</v>
       </c>
       <c r="G41" s="7">
-        <v>24.881</v>
+        <v>0</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>219600</v>
+        <v>0</v>
       </c>
       <c r="J41" s="7">
-        <v>-4326.44</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>14</v>
+        <v>-9807.4</v>
+      </c>
+      <c r="K41" s="7">
+        <v>-3.46</v>
       </c>
       <c r="L41" s="8">
-        <v>-1.93</v>
+        <v>0</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>23</v>
@@ -2388,349 +2403,349 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="10">
-        <v>603987</v>
-      </c>
-      <c r="C42" s="10">
-        <v>54200</v>
-      </c>
-      <c r="D42" s="10">
-        <v>54200</v>
-      </c>
-      <c r="E42" s="10">
-        <v>0</v>
-      </c>
-      <c r="F42" s="11">
-        <v>15.26</v>
-      </c>
-      <c r="G42" s="11">
-        <v>14.285</v>
-      </c>
-      <c r="H42" s="11">
-        <v>0</v>
-      </c>
-      <c r="I42" s="11">
-        <v>827092</v>
-      </c>
-      <c r="J42" s="11">
-        <v>52818.11</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L42" s="9">
-        <v>6.83</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N42" s="9" t="s">
-        <v>22</v>
+      <c r="A42" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="6">
+        <v>12700</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>12700</v>
+      </c>
+      <c r="F42" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="G42" s="7">
+        <v>23.43</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>297180</v>
+      </c>
+      <c r="J42" s="7">
+        <v>-378</v>
+      </c>
+      <c r="K42" s="7">
+        <v>-378</v>
+      </c>
+      <c r="L42" s="8">
+        <v>-0.13</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B43" s="6">
-        <v>300671</v>
+        <v>600785</v>
       </c>
       <c r="C43" s="6">
-        <v>11100</v>
+        <v>100</v>
       </c>
       <c r="D43" s="6">
-        <v>11100</v>
+        <v>100</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="7">
-        <v>26.06</v>
+        <v>15.66</v>
       </c>
       <c r="G43" s="7">
-        <v>30.216</v>
+        <v>32.591</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>289266</v>
+        <v>1566</v>
       </c>
       <c r="J43" s="7">
-        <v>-46131.36</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>14</v>
+        <v>-1693.14</v>
+      </c>
+      <c r="K43" s="7">
+        <v>-13</v>
       </c>
       <c r="L43" s="8">
-        <v>-13.75</v>
+        <v>-51.95</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="6">
-        <v>300572</v>
-      </c>
-      <c r="C44" s="6">
-        <v>6800</v>
-      </c>
-      <c r="D44" s="6">
-        <v>6800</v>
-      </c>
-      <c r="E44" s="6">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7">
-        <v>57.17</v>
-      </c>
-      <c r="G44" s="7">
-        <v>61.119</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>388756</v>
-      </c>
-      <c r="J44" s="7">
-        <v>-26854.88</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L44" s="8">
-        <v>-6.46</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>24</v>
+      <c r="A44" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="10">
+        <v>603301</v>
+      </c>
+      <c r="C44" s="10">
+        <v>0</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0</v>
+      </c>
+      <c r="F44" s="11">
+        <v>45.89</v>
+      </c>
+      <c r="G44" s="11">
+        <v>0</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>43268.06</v>
+      </c>
+      <c r="K44" s="11">
+        <v>-40.45</v>
+      </c>
+      <c r="L44" s="9">
+        <v>0</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="10">
-        <v>603345</v>
-      </c>
-      <c r="C45" s="10">
-        <v>5700</v>
-      </c>
-      <c r="D45" s="10">
-        <v>5700</v>
-      </c>
-      <c r="E45" s="10">
-        <v>0</v>
-      </c>
-      <c r="F45" s="11">
-        <v>116.59</v>
-      </c>
-      <c r="G45" s="11">
-        <v>107.72</v>
-      </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
-        <v>664563</v>
-      </c>
-      <c r="J45" s="11">
-        <v>50561.03</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L45" s="9">
-        <v>8.23</v>
-      </c>
-      <c r="M45" s="9" t="s">
+      <c r="A45" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="6">
+        <v>5300</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>5300</v>
+      </c>
+      <c r="F45" s="7">
+        <v>55.9</v>
+      </c>
+      <c r="G45" s="7">
+        <v>55.959</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>296270</v>
+      </c>
+      <c r="J45" s="7">
+        <v>-313</v>
+      </c>
+      <c r="K45" s="7">
+        <v>-313</v>
+      </c>
+      <c r="L45" s="8">
+        <v>-0.11</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="10">
+        <v>601100</v>
+      </c>
+      <c r="C46" s="10">
+        <v>602</v>
+      </c>
+      <c r="D46" s="10">
+        <v>602</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>74.47</v>
+      </c>
+      <c r="G46" s="11">
+        <v>34.696</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11">
+        <v>44830.94</v>
+      </c>
+      <c r="J46" s="11">
+        <v>23944.06</v>
+      </c>
+      <c r="K46" s="11">
+        <v>355.18</v>
+      </c>
+      <c r="L46" s="9">
+        <v>114.64</v>
+      </c>
+      <c r="M46" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N45" s="9" t="s">
+      <c r="N46" s="9" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="6">
-        <v>52</v>
-      </c>
-      <c r="D46" s="6">
-        <v>52</v>
-      </c>
-      <c r="E46" s="6">
-        <v>0</v>
-      </c>
-      <c r="F46" s="7">
-        <v>25.79</v>
-      </c>
-      <c r="G46" s="7">
-        <v>511.059</v>
-      </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>1341.08</v>
-      </c>
-      <c r="J46" s="7">
-        <v>-25233.99</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L46" s="8">
-        <v>-94.95</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="B47" s="10">
+        <v>603801</v>
       </c>
       <c r="C47" s="10">
-        <v>55800</v>
+        <v>9000</v>
       </c>
       <c r="D47" s="10">
-        <v>55800</v>
+        <v>9000</v>
       </c>
       <c r="E47" s="10">
         <v>0</v>
       </c>
       <c r="F47" s="11">
-        <v>15.3</v>
+        <v>25.65</v>
       </c>
       <c r="G47" s="11">
-        <v>15.136</v>
+        <v>24.881</v>
       </c>
       <c r="H47" s="11">
         <v>0</v>
       </c>
       <c r="I47" s="11">
-        <v>853740</v>
+        <v>230850</v>
       </c>
       <c r="J47" s="11">
-        <v>9141.57</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>14</v>
+        <v>6923.56</v>
+      </c>
+      <c r="K47" s="11">
+        <v>-3240</v>
       </c>
       <c r="L47" s="9">
-        <v>1.08</v>
+        <v>3.09</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="6">
-        <v>4300</v>
-      </c>
-      <c r="D48" s="6">
-        <v>4300</v>
-      </c>
-      <c r="E48" s="6">
-        <v>0</v>
-      </c>
-      <c r="F48" s="7">
-        <v>82.4</v>
-      </c>
-      <c r="G48" s="7">
-        <v>83.3</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>354320</v>
-      </c>
-      <c r="J48" s="7">
-        <v>-3869.11</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L48" s="8">
-        <v>-1.08</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>24</v>
+      <c r="A48" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="10">
+        <v>603987</v>
+      </c>
+      <c r="C48" s="10">
+        <v>54200</v>
+      </c>
+      <c r="D48" s="10">
+        <v>54200</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>16.19</v>
+      </c>
+      <c r="G48" s="11">
+        <v>14.285</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>877498</v>
+      </c>
+      <c r="J48" s="11">
+        <v>103224.11</v>
+      </c>
+      <c r="K48" s="11">
+        <v>-542</v>
+      </c>
+      <c r="L48" s="9">
+        <v>13.34</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="B49" s="6">
+        <v>300671</v>
       </c>
       <c r="C49" s="6">
-        <v>8800</v>
+        <v>0</v>
       </c>
       <c r="D49" s="6">
-        <v>8800</v>
+        <v>0</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
       </c>
       <c r="F49" s="7">
-        <v>28.65</v>
+        <v>27.22</v>
       </c>
       <c r="G49" s="7">
-        <v>29.231</v>
+        <v>0</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>252120</v>
+        <v>0</v>
       </c>
       <c r="J49" s="7">
-        <v>-5110.85</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>14</v>
+        <v>-39255.95</v>
+      </c>
+      <c r="K49" s="7">
+        <v>-11550.59</v>
       </c>
       <c r="L49" s="8">
-        <v>-1.99</v>
+        <v>0</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>25</v>
@@ -2741,40 +2756,40 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="8" t="s">
         <v>93</v>
       </c>
+      <c r="B50" s="6">
+        <v>300572</v>
+      </c>
       <c r="C50" s="6">
-        <v>10743</v>
+        <v>6800</v>
       </c>
       <c r="D50" s="6">
-        <v>10743</v>
+        <v>6800</v>
       </c>
       <c r="E50" s="6">
         <v>0</v>
       </c>
       <c r="F50" s="7">
-        <v>12.3</v>
+        <v>56.65</v>
       </c>
       <c r="G50" s="7">
-        <v>13.59</v>
+        <v>61.119</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>132138.9</v>
+        <v>385220</v>
       </c>
       <c r="J50" s="7">
-        <v>-13858.97</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>14</v>
+        <v>-30390.88</v>
+      </c>
+      <c r="K50" s="7">
+        <v>-5100</v>
       </c>
       <c r="L50" s="8">
-        <v>-9.49</v>
+        <v>-7.31</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>25</v>
@@ -2788,37 +2803,37 @@
         <v>94</v>
       </c>
       <c r="B51" s="10">
-        <v>603520</v>
+        <v>603345</v>
       </c>
       <c r="C51" s="10">
-        <v>3200</v>
+        <v>5700</v>
       </c>
       <c r="D51" s="10">
-        <v>3200</v>
+        <v>5700</v>
       </c>
       <c r="E51" s="10">
         <v>0</v>
       </c>
       <c r="F51" s="11">
-        <v>83.9</v>
+        <v>119.4</v>
       </c>
       <c r="G51" s="11">
-        <v>40.379</v>
+        <v>107.72</v>
       </c>
       <c r="H51" s="11">
         <v>0</v>
       </c>
       <c r="I51" s="11">
-        <v>268480</v>
+        <v>680580</v>
       </c>
       <c r="J51" s="11">
-        <v>139266.43</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>14</v>
+        <v>66578.03</v>
+      </c>
+      <c r="K51" s="11">
+        <v>8094</v>
       </c>
       <c r="L51" s="9">
-        <v>107.78</v>
+        <v>10.84</v>
       </c>
       <c r="M51" s="9" t="s">
         <v>23</v>
@@ -2835,34 +2850,34 @@
         <v>96</v>
       </c>
       <c r="C52" s="10">
-        <v>11700</v>
+        <v>55800</v>
       </c>
       <c r="D52" s="10">
-        <v>11700</v>
+        <v>55800</v>
       </c>
       <c r="E52" s="10">
         <v>0</v>
       </c>
       <c r="F52" s="11">
-        <v>66.2</v>
+        <v>15.66</v>
       </c>
       <c r="G52" s="11">
-        <v>65.958</v>
+        <v>15.136</v>
       </c>
       <c r="H52" s="11">
         <v>0</v>
       </c>
       <c r="I52" s="11">
-        <v>774540</v>
+        <v>873828</v>
       </c>
       <c r="J52" s="11">
-        <v>2832.39</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>14</v>
+        <v>29229.57</v>
+      </c>
+      <c r="K52" s="11">
+        <v>-13392</v>
       </c>
       <c r="L52" s="9">
-        <v>0.37</v>
+        <v>3.46</v>
       </c>
       <c r="M52" s="9" t="s">
         <v>25</v>
@@ -2879,34 +2894,34 @@
         <v>98</v>
       </c>
       <c r="C53" s="10">
-        <v>57600</v>
+        <v>4300</v>
       </c>
       <c r="D53" s="10">
-        <v>57600</v>
+        <v>4300</v>
       </c>
       <c r="E53" s="10">
         <v>0</v>
       </c>
       <c r="F53" s="11">
-        <v>17.8</v>
+        <v>86.23</v>
       </c>
       <c r="G53" s="11">
-        <v>16.314</v>
+        <v>83.3</v>
       </c>
       <c r="H53" s="11">
         <v>0</v>
       </c>
       <c r="I53" s="11">
-        <v>1025280</v>
+        <v>370789</v>
       </c>
       <c r="J53" s="11">
-        <v>85576.23</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>14</v>
+        <v>12599.89</v>
+      </c>
+      <c r="K53" s="11">
+        <v>-9417</v>
       </c>
       <c r="L53" s="9">
-        <v>9.11</v>
+        <v>3.52</v>
       </c>
       <c r="M53" s="9" t="s">
         <v>25</v>
@@ -2916,46 +2931,46 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="10">
-        <v>50</v>
-      </c>
-      <c r="D54" s="10">
-        <v>50</v>
-      </c>
-      <c r="E54" s="10">
-        <v>0</v>
-      </c>
-      <c r="F54" s="11">
-        <v>12.02</v>
-      </c>
-      <c r="G54" s="11">
-        <v>-181.334</v>
-      </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11">
-        <v>601</v>
-      </c>
-      <c r="J54" s="11">
-        <v>9667.68</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L54" s="9">
-        <v>0</v>
-      </c>
-      <c r="M54" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N54" s="9" t="s">
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>27.4</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
+        <v>-11131.26</v>
+      </c>
+      <c r="K54" s="7">
+        <v>-9100.41</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N54" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2963,38 +2978,38 @@
       <c r="A55" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="6">
-        <v>300548</v>
+      <c r="B55" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="C55" s="6">
-        <v>6540</v>
+        <v>10743</v>
       </c>
       <c r="D55" s="6">
-        <v>6540</v>
+        <v>10743</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
       </c>
       <c r="F55" s="7">
-        <v>49.4</v>
+        <v>12.73</v>
       </c>
       <c r="G55" s="7">
-        <v>52.565</v>
+        <v>13.59</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>323076</v>
+        <v>136758.39</v>
       </c>
       <c r="J55" s="7">
-        <v>-20701.8</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>14</v>
+        <v>-9239.48</v>
+      </c>
+      <c r="K55" s="7">
+        <v>3760.05</v>
       </c>
       <c r="L55" s="8">
-        <v>-6.02</v>
+        <v>-6.33</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>25</v>
@@ -3005,40 +3020,40 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C56" s="10">
-        <v>39</v>
+        <v>11700</v>
       </c>
       <c r="D56" s="10">
-        <v>39</v>
+        <v>11700</v>
       </c>
       <c r="E56" s="10">
         <v>0</v>
       </c>
       <c r="F56" s="11">
-        <v>12.7</v>
+        <v>67.52</v>
       </c>
       <c r="G56" s="11">
-        <v>-4555.488</v>
+        <v>65.958</v>
       </c>
       <c r="H56" s="11">
         <v>0</v>
       </c>
       <c r="I56" s="11">
-        <v>495.3</v>
+        <v>789984</v>
       </c>
       <c r="J56" s="11">
-        <v>178159.32</v>
-      </c>
-      <c r="K56" s="11" t="s">
-        <v>14</v>
+        <v>18276.39</v>
+      </c>
+      <c r="K56" s="11">
+        <v>-9126</v>
       </c>
       <c r="L56" s="9">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="M56" s="9" t="s">
         <v>25</v>
@@ -3049,216 +3064,216 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" s="10">
+        <v>105</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="10">
+        <v>57600</v>
+      </c>
+      <c r="D57" s="10">
+        <v>57600</v>
+      </c>
+      <c r="E57" s="10">
+        <v>0</v>
+      </c>
+      <c r="F57" s="11">
+        <v>17.9</v>
+      </c>
+      <c r="G57" s="11">
+        <v>16.314</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0</v>
+      </c>
+      <c r="I57" s="11">
+        <v>1031040</v>
+      </c>
+      <c r="J57" s="11">
+        <v>91336.23</v>
+      </c>
+      <c r="K57" s="11">
+        <v>3456</v>
+      </c>
+      <c r="L57" s="9">
+        <v>9.72</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="6">
+        <v>300548</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>49</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7">
+        <v>-341.48</v>
+      </c>
+      <c r="K58" s="7">
+        <v>19.09</v>
+      </c>
+      <c r="L58" s="8">
+        <v>0</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="10">
         <v>511990</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C59" s="10">
         <v>6</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D59" s="10">
         <v>6</v>
       </c>
-      <c r="E57" s="10">
-        <v>0</v>
-      </c>
-      <c r="F57" s="11">
-        <v>100.006</v>
-      </c>
-      <c r="G57" s="11">
+      <c r="E59" s="10">
+        <v>0</v>
+      </c>
+      <c r="F59" s="11">
+        <v>99.998</v>
+      </c>
+      <c r="G59" s="11">
         <v>-27441.665</v>
       </c>
-      <c r="H57" s="11">
-        <v>0</v>
-      </c>
-      <c r="I57" s="11">
-        <v>600.04</v>
-      </c>
-      <c r="J57" s="11">
-        <v>165250.03</v>
-      </c>
-      <c r="K57" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L57" s="9">
-        <v>0</v>
-      </c>
-      <c r="M57" s="9" t="s">
+      <c r="H59" s="11">
+        <v>0</v>
+      </c>
+      <c r="I59" s="11">
+        <v>599.99</v>
+      </c>
+      <c r="J59" s="11">
+        <v>165249.98</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="L59" s="9">
+        <v>0</v>
+      </c>
+      <c r="M59" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N57" s="9" t="s">
+      <c r="N59" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B58" s="10">
-        <v>300676</v>
-      </c>
-      <c r="C58" s="10">
-        <v>57</v>
-      </c>
-      <c r="D58" s="10">
-        <v>57</v>
-      </c>
-      <c r="E58" s="10">
-        <v>0</v>
-      </c>
-      <c r="F58" s="11">
-        <v>141.58</v>
-      </c>
-      <c r="G58" s="11">
-        <v>-492.347</v>
-      </c>
-      <c r="H58" s="11">
-        <v>0</v>
-      </c>
-      <c r="I58" s="11">
-        <v>8070.06</v>
-      </c>
-      <c r="J58" s="11">
-        <v>36133.84</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L58" s="9">
-        <v>0</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N58" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" s="6">
+    <row r="60" spans="1:14">
+      <c r="A60" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="6">
         <v>46100</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D60" s="6">
         <v>46100</v>
       </c>
-      <c r="E59" s="6">
-        <v>0</v>
-      </c>
-      <c r="F59" s="7">
-        <v>15.23</v>
-      </c>
-      <c r="G59" s="7">
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>15.07</v>
+      </c>
+      <c r="G60" s="7">
         <v>15.985</v>
       </c>
-      <c r="H59" s="7">
-        <v>0</v>
-      </c>
-      <c r="I59" s="7">
-        <v>702103</v>
-      </c>
-      <c r="J59" s="7">
-        <v>-34824.36</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L59" s="8">
-        <v>-4.72</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="10">
-        <v>300492</v>
-      </c>
-      <c r="C60" s="10">
-        <v>6300</v>
-      </c>
-      <c r="D60" s="10">
-        <v>6300</v>
-      </c>
-      <c r="E60" s="10">
-        <v>0</v>
-      </c>
-      <c r="F60" s="11">
-        <v>67.36</v>
-      </c>
-      <c r="G60" s="11">
-        <v>62.582</v>
-      </c>
-      <c r="H60" s="11">
-        <v>0</v>
-      </c>
-      <c r="I60" s="11">
-        <v>424368</v>
-      </c>
-      <c r="J60" s="11">
-        <v>30103.68</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L60" s="9">
-        <v>7.63</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N60" s="9" t="s">
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>694727</v>
+      </c>
+      <c r="J60" s="7">
+        <v>-42200.36</v>
+      </c>
+      <c r="K60" s="7">
+        <v>-5993</v>
+      </c>
+      <c r="L60" s="8">
+        <v>-5.72</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N60" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="B61" s="10">
+        <v>300492</v>
       </c>
       <c r="C61" s="10">
-        <v>42300</v>
+        <v>0</v>
       </c>
       <c r="D61" s="10">
-        <v>42300</v>
+        <v>0</v>
       </c>
       <c r="E61" s="10">
         <v>0</v>
       </c>
       <c r="F61" s="11">
-        <v>11.28</v>
+        <v>69.97</v>
       </c>
       <c r="G61" s="11">
-        <v>8.582</v>
+        <v>0</v>
       </c>
       <c r="H61" s="11">
         <v>0</v>
       </c>
       <c r="I61" s="11">
-        <v>477144</v>
+        <v>0</v>
       </c>
       <c r="J61" s="11">
-        <v>114124.45</v>
-      </c>
-      <c r="K61" s="11" t="s">
-        <v>14</v>
+        <v>45618.17</v>
+      </c>
+      <c r="K61" s="11">
+        <v>-15481.51</v>
       </c>
       <c r="L61" s="9">
-        <v>31.44</v>
+        <v>0</v>
       </c>
       <c r="M61" s="9" t="s">
         <v>25</v>
@@ -3269,40 +3284,40 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B62" s="6">
-        <v>300715</v>
+        <v>300161</v>
       </c>
       <c r="C62" s="6">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="D62" s="6">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="E62" s="6">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="F62" s="7">
-        <v>38.25</v>
+        <v>22.2</v>
       </c>
       <c r="G62" s="7">
-        <v>38.431</v>
+        <v>22.394</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
       </c>
       <c r="I62" s="7">
-        <v>198900</v>
+        <v>108780</v>
       </c>
       <c r="J62" s="7">
-        <v>-941.94</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>14</v>
+        <v>-951</v>
+      </c>
+      <c r="K62" s="7">
+        <v>-951</v>
       </c>
       <c r="L62" s="8">
-        <v>-0.47</v>
+        <v>-0.87</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>25</v>
@@ -3312,398 +3327,530 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63" s="6">
+      <c r="A63" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="10">
+        <v>42300</v>
+      </c>
+      <c r="D63" s="10">
+        <v>42300</v>
+      </c>
+      <c r="E63" s="10">
+        <v>0</v>
+      </c>
+      <c r="F63" s="11">
+        <v>13.65</v>
+      </c>
+      <c r="G63" s="11">
+        <v>8.582</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0</v>
+      </c>
+      <c r="I63" s="11">
+        <v>577395</v>
+      </c>
+      <c r="J63" s="11">
+        <v>214375.45</v>
+      </c>
+      <c r="K63" s="11">
+        <v>52452</v>
+      </c>
+      <c r="L63" s="9">
+        <v>59.05</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="6">
+        <v>603707</v>
+      </c>
+      <c r="C64" s="6">
+        <v>5700</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6">
+        <v>5700</v>
+      </c>
+      <c r="F64" s="7">
+        <v>61.84</v>
+      </c>
+      <c r="G64" s="7">
+        <v>61.898</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>352488</v>
+      </c>
+      <c r="J64" s="7">
+        <v>-331.02</v>
+      </c>
+      <c r="K64" s="7">
+        <v>-331.02</v>
+      </c>
+      <c r="L64" s="8">
+        <v>-0.09</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="6">
         <v>603416</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C65" s="6">
         <v>5000</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D65" s="6">
         <v>5000</v>
       </c>
-      <c r="E63" s="6">
-        <v>0</v>
-      </c>
-      <c r="F63" s="7">
-        <v>36.49</v>
-      </c>
-      <c r="G63" s="7">
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>36.99</v>
+      </c>
+      <c r="G65" s="7">
         <v>39.662</v>
       </c>
-      <c r="H63" s="7">
-        <v>0</v>
-      </c>
-      <c r="I63" s="7">
-        <v>182450</v>
-      </c>
-      <c r="J63" s="7">
-        <v>-15857.56</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L63" s="8">
-        <v>-8</v>
-      </c>
-      <c r="M63" s="8" t="s">
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>184950</v>
+      </c>
+      <c r="J65" s="7">
+        <v>-13357.56</v>
+      </c>
+      <c r="K65" s="7">
+        <v>-2700</v>
+      </c>
+      <c r="L65" s="8">
+        <v>-6.74</v>
+      </c>
+      <c r="M65" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N63" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64" s="10">
-        <v>300673</v>
-      </c>
-      <c r="C64" s="10">
-        <v>4900</v>
-      </c>
-      <c r="D64" s="10">
-        <v>4900</v>
-      </c>
-      <c r="E64" s="10">
-        <v>0</v>
-      </c>
-      <c r="F64" s="11">
-        <v>36.45</v>
-      </c>
-      <c r="G64" s="11">
-        <v>36.102</v>
-      </c>
-      <c r="H64" s="11">
-        <v>0</v>
-      </c>
-      <c r="I64" s="11">
-        <v>178605</v>
-      </c>
-      <c r="J64" s="11">
-        <v>1703.83</v>
-      </c>
-      <c r="K64" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L64" s="9">
-        <v>0.96</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N64" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" s="10">
-        <v>603666</v>
-      </c>
-      <c r="C65" s="10">
-        <v>2000</v>
-      </c>
-      <c r="D65" s="10">
-        <v>2000</v>
-      </c>
-      <c r="E65" s="10">
-        <v>0</v>
-      </c>
-      <c r="F65" s="11">
-        <v>107.39</v>
-      </c>
-      <c r="G65" s="11">
-        <v>97.311</v>
-      </c>
-      <c r="H65" s="11">
-        <v>0</v>
-      </c>
-      <c r="I65" s="11">
-        <v>214780</v>
-      </c>
-      <c r="J65" s="11">
-        <v>20158.71</v>
-      </c>
-      <c r="K65" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L65" s="9">
-        <v>10.36</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N65" s="9" t="s">
+      <c r="N65" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B66" s="10">
-        <v>600239</v>
+        <v>300673</v>
       </c>
       <c r="C66" s="10">
-        <v>45</v>
+        <v>4900</v>
       </c>
       <c r="D66" s="10">
-        <v>45</v>
+        <v>4900</v>
       </c>
       <c r="E66" s="10">
         <v>0</v>
       </c>
       <c r="F66" s="11">
-        <v>4.63</v>
+        <v>37.1</v>
       </c>
       <c r="G66" s="11">
-        <v>-294.55</v>
+        <v>36.102</v>
       </c>
       <c r="H66" s="11">
         <v>0</v>
       </c>
       <c r="I66" s="11">
-        <v>208.35</v>
+        <v>181790</v>
       </c>
       <c r="J66" s="11">
-        <v>13463.1</v>
-      </c>
-      <c r="K66" s="11" t="s">
-        <v>14</v>
+        <v>4888.83</v>
+      </c>
+      <c r="K66" s="11">
+        <v>490</v>
       </c>
       <c r="L66" s="9">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="M66" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="10">
+        <v>603666</v>
+      </c>
+      <c r="C67" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D67" s="10">
+        <v>2000</v>
+      </c>
+      <c r="E67" s="10">
+        <v>0</v>
+      </c>
+      <c r="F67" s="11">
+        <v>103.61</v>
+      </c>
+      <c r="G67" s="11">
+        <v>97.311</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0</v>
+      </c>
+      <c r="I67" s="11">
+        <v>207220</v>
+      </c>
+      <c r="J67" s="11">
+        <v>12598.71</v>
+      </c>
+      <c r="K67" s="11">
+        <v>-14740</v>
+      </c>
+      <c r="L67" s="9">
+        <v>6.47</v>
+      </c>
+      <c r="M67" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N66" s="9" t="s">
+      <c r="N67" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B67" s="6">
+    <row r="68" spans="1:14">
+      <c r="A68" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" s="6">
         <v>600818</v>
       </c>
-      <c r="C67" s="6">
-        <v>400</v>
-      </c>
-      <c r="D67" s="6">
-        <v>400</v>
-      </c>
-      <c r="E67" s="6">
-        <v>0</v>
-      </c>
-      <c r="F67" s="7">
-        <v>11.77</v>
-      </c>
-      <c r="G67" s="7">
-        <v>15.002</v>
-      </c>
-      <c r="H67" s="7">
-        <v>0</v>
-      </c>
-      <c r="I67" s="7">
-        <v>4708</v>
-      </c>
-      <c r="J67" s="7">
-        <v>-1292.64</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L67" s="8">
-        <v>-21.54</v>
-      </c>
-      <c r="M67" s="8" t="s">
+      <c r="C68" s="6">
+        <v>0</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>12.34</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <v>0</v>
+      </c>
+      <c r="J68" s="7">
+        <v>-1206.54</v>
+      </c>
+      <c r="K68" s="7">
+        <v>-13.9</v>
+      </c>
+      <c r="L68" s="8">
+        <v>0</v>
+      </c>
+      <c r="M68" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N67" s="8" t="s">
+      <c r="N68" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B68" s="10">
+    <row r="69" spans="1:14">
+      <c r="A69" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="10">
         <v>300684</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C69" s="10">
         <v>13000</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D69" s="10">
         <v>13000</v>
       </c>
-      <c r="E68" s="10">
-        <v>0</v>
-      </c>
-      <c r="F68" s="11">
-        <v>32.83</v>
-      </c>
-      <c r="G68" s="11">
+      <c r="E69" s="10">
+        <v>0</v>
+      </c>
+      <c r="F69" s="11">
+        <v>32.85</v>
+      </c>
+      <c r="G69" s="11">
         <v>29.371</v>
       </c>
-      <c r="H68" s="11">
-        <v>0</v>
-      </c>
-      <c r="I68" s="11">
-        <v>426790</v>
-      </c>
-      <c r="J68" s="11">
-        <v>44972.2</v>
-      </c>
-      <c r="K68" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L68" s="9">
-        <v>11.78</v>
-      </c>
-      <c r="M68" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N68" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B69" s="6">
-        <v>300526</v>
-      </c>
-      <c r="C69" s="6">
-        <v>1600</v>
-      </c>
-      <c r="D69" s="6">
-        <v>1600</v>
-      </c>
-      <c r="E69" s="6">
-        <v>0</v>
-      </c>
-      <c r="F69" s="7">
-        <v>129</v>
-      </c>
-      <c r="G69" s="7">
-        <v>142.091</v>
-      </c>
-      <c r="H69" s="7">
-        <v>0</v>
-      </c>
-      <c r="I69" s="7">
-        <v>206400</v>
-      </c>
-      <c r="J69" s="7">
-        <v>-20946.28</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L69" s="8">
-        <v>-9.21</v>
-      </c>
-      <c r="M69" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N69" s="8" t="s">
+      <c r="H69" s="11">
+        <v>0</v>
+      </c>
+      <c r="I69" s="11">
+        <v>427050</v>
+      </c>
+      <c r="J69" s="11">
+        <v>45232.2</v>
+      </c>
+      <c r="K69" s="11">
+        <v>-12220</v>
+      </c>
+      <c r="L69" s="9">
+        <v>11.85</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B70" s="6">
+        <v>300526</v>
+      </c>
+      <c r="C70" s="6">
+        <v>1600</v>
+      </c>
+      <c r="D70" s="6">
+        <v>600</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F70" s="7">
+        <v>124.86</v>
+      </c>
+      <c r="G70" s="7">
+        <v>141.417</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <v>199776</v>
+      </c>
+      <c r="J70" s="7">
+        <v>-26490.59</v>
+      </c>
+      <c r="K70" s="7">
+        <v>-6312.31</v>
+      </c>
+      <c r="L70" s="8">
+        <v>-11.71</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N70" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="6">
         <v>603856</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C71" s="6">
         <v>26900</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D71" s="6">
         <v>26900</v>
       </c>
-      <c r="E70" s="6">
-        <v>0</v>
-      </c>
-      <c r="F70" s="7">
-        <v>14.71</v>
-      </c>
-      <c r="G70" s="7">
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="7">
+        <v>14.61</v>
+      </c>
+      <c r="G71" s="7">
         <v>16.82</v>
       </c>
-      <c r="H70" s="7">
-        <v>0</v>
-      </c>
-      <c r="I70" s="7">
-        <v>395699</v>
-      </c>
-      <c r="J70" s="7">
-        <v>-56752.1</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L70" s="8">
-        <v>-12.54</v>
-      </c>
-      <c r="M70" s="8" t="s">
+      <c r="H71" s="7">
+        <v>0</v>
+      </c>
+      <c r="I71" s="7">
+        <v>393009</v>
+      </c>
+      <c r="J71" s="7">
+        <v>-59442.1</v>
+      </c>
+      <c r="K71" s="7">
+        <v>-11029</v>
+      </c>
+      <c r="L71" s="8">
+        <v>-13.14</v>
+      </c>
+      <c r="M71" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N70" s="8" t="s">
+      <c r="N71" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="10">
+    <row r="72" spans="1:14">
+      <c r="A72" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="10">
+        <v>600009</v>
+      </c>
+      <c r="C72" s="10">
+        <v>5100</v>
+      </c>
+      <c r="D72" s="10">
+        <v>0</v>
+      </c>
+      <c r="E72" s="10">
+        <v>5100</v>
+      </c>
+      <c r="F72" s="11">
+        <v>70.8</v>
+      </c>
+      <c r="G72" s="11">
+        <v>70.53</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0</v>
+      </c>
+      <c r="I72" s="11">
+        <v>361080</v>
+      </c>
+      <c r="J72" s="11">
+        <v>1378.74</v>
+      </c>
+      <c r="K72" s="11">
+        <v>1378.74</v>
+      </c>
+      <c r="L72" s="9">
+        <v>0.38</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N72" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="6">
+        <v>600848</v>
+      </c>
+      <c r="C73" s="6">
+        <v>17400</v>
+      </c>
+      <c r="D73" s="6">
+        <v>0</v>
+      </c>
+      <c r="E73" s="6">
+        <v>17400</v>
+      </c>
+      <c r="F73" s="7">
+        <v>21.56</v>
+      </c>
+      <c r="G73" s="7">
+        <v>21.711</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>375144</v>
+      </c>
+      <c r="J73" s="7">
+        <v>-2629.54</v>
+      </c>
+      <c r="K73" s="7">
+        <v>-2629.54</v>
+      </c>
+      <c r="L73" s="8">
+        <v>-0.7</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="6">
         <v>600641</v>
       </c>
-      <c r="C71" s="10">
-        <v>46014</v>
-      </c>
-      <c r="D71" s="10">
-        <v>46014</v>
-      </c>
-      <c r="E71" s="10">
-        <v>0</v>
-      </c>
-      <c r="F71" s="11">
-        <v>21.88</v>
-      </c>
-      <c r="G71" s="11">
-        <v>21.339</v>
-      </c>
-      <c r="H71" s="11">
-        <v>0</v>
-      </c>
-      <c r="I71" s="11">
-        <v>1006786.32</v>
-      </c>
-      <c r="J71" s="11">
-        <v>24908.49</v>
-      </c>
-      <c r="K71" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L71" s="9">
-        <v>2.54</v>
-      </c>
-      <c r="M71" s="9" t="s">
+      <c r="C74" s="6">
+        <v>35014</v>
+      </c>
+      <c r="D74" s="6">
+        <v>35014</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>21.08</v>
+      </c>
+      <c r="G74" s="7">
+        <v>21.422</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="I74" s="7">
+        <v>738095.12</v>
+      </c>
+      <c r="J74" s="7">
+        <v>-11974.57</v>
+      </c>
+      <c r="K74" s="7">
+        <v>-47466.28</v>
+      </c>
+      <c r="L74" s="8">
+        <v>-1.6</v>
+      </c>
+      <c r="M74" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N71" s="9" t="s">
+      <c r="N74" s="8" t="s">
         <v>22</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
+++ b/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="121">
   <si>
     <t>资金</t>
   </si>
@@ -55,12 +55,12 @@
     <t>人民币</t>
   </si>
   <si>
+    <t>港币</t>
+  </si>
+  <si>
     <t>--</t>
   </si>
   <si>
-    <t>港币</t>
-  </si>
-  <si>
     <t>美元</t>
   </si>
   <si>
@@ -133,10 +133,7 @@
     <t>交易市场</t>
   </si>
   <si>
-    <t>TCL科技</t>
-  </si>
-  <si>
-    <t>000100</t>
+    <t>三安光电</t>
   </si>
   <si>
     <t>上海机场</t>
@@ -145,7 +142,19 @@
     <t>上海洗霸</t>
   </si>
   <si>
-    <t>中潜股份</t>
+    <t>世纪华通</t>
+  </si>
+  <si>
+    <t>002602</t>
+  </si>
+  <si>
+    <t>东方财富</t>
+  </si>
+  <si>
+    <t>中环股份</t>
+  </si>
+  <si>
+    <t>002129</t>
   </si>
   <si>
     <t>中石科技</t>
@@ -160,9 +169,6 @@
     <t>佩蒂股份</t>
   </si>
   <si>
-    <t>佳力图</t>
-  </si>
-  <si>
     <t>信维通信</t>
   </si>
   <si>
@@ -172,6 +178,9 @@
     <t>华中数控</t>
   </si>
   <si>
+    <t>华北制药</t>
+  </si>
+  <si>
     <t>华夏航空</t>
   </si>
   <si>
@@ -196,10 +205,7 @@
     <t>司太立</t>
   </si>
   <si>
-    <t>国光股份</t>
-  </si>
-  <si>
-    <t>002749</t>
+    <t>同和药业</t>
   </si>
   <si>
     <t>坚朗五金</t>
@@ -214,28 +220,28 @@
     <t>000910</t>
   </si>
   <si>
+    <t>奥飞数据</t>
+  </si>
+  <si>
     <t>威华股份</t>
   </si>
   <si>
     <t>002240</t>
   </si>
   <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
     <t>宇信科技</t>
   </si>
   <si>
-    <t>安井食品</t>
-  </si>
-  <si>
     <t>安车检测</t>
   </si>
   <si>
     <t>康德莱</t>
   </si>
   <si>
-    <t>德联集团</t>
-  </si>
-  <si>
-    <t>002666</t>
+    <t>康跃科技</t>
   </si>
   <si>
     <t>恒立液压</t>
@@ -247,16 +253,16 @@
     <t>002947</t>
   </si>
   <si>
-    <t>拓斯达</t>
-  </si>
-  <si>
     <t>捷顺科技</t>
   </si>
   <si>
     <t>002609</t>
   </si>
   <si>
-    <t>新华百货</t>
+    <t>欧菲光</t>
+  </si>
+  <si>
+    <t>002456</t>
   </si>
   <si>
     <t>汇纳科技</t>
@@ -274,6 +280,12 @@
     <t>深信服</t>
   </si>
   <si>
+    <t>游族网络</t>
+  </si>
+  <si>
+    <t>002174</t>
+  </si>
+  <si>
     <t>玉龙股份</t>
   </si>
   <si>
@@ -292,24 +304,24 @@
     <t>002153</t>
   </si>
   <si>
-    <t>福斯特</t>
-  </si>
-  <si>
     <t>科创额度</t>
   </si>
   <si>
     <t>SHKCED</t>
   </si>
   <si>
+    <t>科大讯飞</t>
+  </si>
+  <si>
+    <t>002230</t>
+  </si>
+  <si>
     <t>科锐国际</t>
   </si>
   <si>
     <t>精研科技</t>
   </si>
   <si>
-    <t>美康生物</t>
-  </si>
-  <si>
     <t>苏博特</t>
   </si>
   <si>
@@ -328,40 +340,40 @@
     <t>002918</t>
   </si>
   <si>
-    <t>达安基因</t>
-  </si>
-  <si>
-    <t>002030</t>
+    <t>蓝帆医疗</t>
+  </si>
+  <si>
+    <t>002382</t>
+  </si>
+  <si>
+    <t>赤峰黄金</t>
   </si>
   <si>
     <t>达志科技</t>
   </si>
   <si>
-    <t>迈瑞医疗</t>
-  </si>
-  <si>
-    <t>金时科技</t>
-  </si>
-  <si>
-    <t>002951</t>
-  </si>
-  <si>
-    <t>金莱特</t>
-  </si>
-  <si>
-    <t>002723</t>
-  </si>
-  <si>
-    <t>飞科电器</t>
+    <t>通威股份</t>
+  </si>
+  <si>
+    <t>金财互联</t>
+  </si>
+  <si>
+    <t>002530</t>
+  </si>
+  <si>
+    <t>青松股份</t>
+  </si>
+  <si>
+    <t>风华高科</t>
+  </si>
+  <si>
+    <t>000636</t>
   </si>
   <si>
     <t>鲁亿通</t>
   </si>
   <si>
-    <t>黔源电力</t>
-  </si>
-  <si>
-    <t>002039</t>
+    <t>鹏辉能源</t>
   </si>
   <si>
     <t>鼎龙股份</t>
@@ -756,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -836,28 +848,28 @@
         <v>1720175912</v>
       </c>
       <c r="C3" s="4">
-        <v>5741616.57</v>
+        <v>2321806.68</v>
       </c>
       <c r="D3" s="4">
-        <v>5741616.57</v>
+        <v>2527334.14</v>
       </c>
       <c r="E3" s="4">
-        <v>5741616.57</v>
+        <v>2321806.68</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>-205527.46</v>
       </c>
       <c r="G3" s="4">
-        <v>19105152.06</v>
+        <v>22952426.68</v>
       </c>
       <c r="H3" s="4">
-        <v>24846768.63</v>
+        <v>25479760.82</v>
       </c>
       <c r="I3" s="4">
-        <v>807692.3</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>13</v>
+        <v>1416594.37</v>
+      </c>
+      <c r="J3" s="4">
+        <v>538630.51</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -865,7 +877,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>1720175912</v>
@@ -892,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -927,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -964,10 +976,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="4">
-        <v>2446000</v>
+        <v>2851000</v>
       </c>
       <c r="C8" s="4">
-        <v>2446500</v>
+        <v>2851000</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -981,7 +993,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="4">
-        <v>4580500</v>
+        <v>5783000</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -1059,82 +1071,82 @@
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>40</v>
+      <c r="B12" s="6">
+        <v>600703</v>
       </c>
       <c r="C12" s="6">
-        <v>63800</v>
+        <v>15700</v>
       </c>
       <c r="D12" s="6">
-        <v>63800</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
+        <v>15700</v>
       </c>
       <c r="F12" s="7">
-        <v>6.15</v>
+        <v>25</v>
       </c>
       <c r="G12" s="7">
-        <v>6.118</v>
+        <v>24.711</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>392370</v>
+        <v>392500</v>
       </c>
       <c r="J12" s="7">
-        <v>2046.16</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>4532.53</v>
+      </c>
+      <c r="K12" s="7">
+        <v>4532.53</v>
       </c>
       <c r="L12" s="8">
-        <v>0.52</v>
+        <v>1.17</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="6">
         <v>600009</v>
       </c>
       <c r="C13" s="6">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="D13" s="6">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>71.52</v>
+        <v>72.07</v>
       </c>
       <c r="G13" s="7">
-        <v>70.526</v>
+        <v>0</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>364752</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7">
-        <v>5068.68</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>13</v>
+        <v>6073</v>
+      </c>
+      <c r="K13" s="7">
+        <v>6308.32</v>
       </c>
       <c r="L13" s="8">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>23</v>
@@ -1144,90 +1156,90 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="10">
+        <v>603200</v>
+      </c>
+      <c r="C14" s="10">
+        <v>8300</v>
+      </c>
+      <c r="D14" s="10">
+        <v>8300</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>40.89</v>
+      </c>
+      <c r="G14" s="11">
+        <v>43.525</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>339387</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-21873.63</v>
+      </c>
+      <c r="K14" s="11">
+        <v>-2573</v>
+      </c>
+      <c r="L14" s="9">
+        <v>-6.05</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="6">
-        <v>603200</v>
-      </c>
-      <c r="C14" s="6">
-        <v>8300</v>
-      </c>
-      <c r="D14" s="6">
-        <v>8300</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>43.8</v>
-      </c>
-      <c r="G14" s="7">
-        <v>43.525</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>363540</v>
-      </c>
-      <c r="J14" s="7">
-        <v>2279.37</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0.63</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="10">
-        <v>300526</v>
-      </c>
-      <c r="C15" s="10">
-        <v>1600</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1600</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>122.45</v>
-      </c>
-      <c r="G15" s="11">
-        <v>141.413</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>195920</v>
-      </c>
-      <c r="J15" s="11">
-        <v>-30341.42</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="9">
-        <v>-13.41</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="9" t="s">
+      <c r="C15" s="6">
+        <v>23500</v>
+      </c>
+      <c r="D15" s="6">
+        <v>23500</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>15.31</v>
+      </c>
+      <c r="G15" s="7">
+        <v>15.036</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>359785</v>
+      </c>
+      <c r="J15" s="7">
+        <v>6442.61</v>
+      </c>
+      <c r="K15" s="7">
+        <v>4935</v>
+      </c>
+      <c r="L15" s="8">
+        <v>1.82</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1236,37 +1248,37 @@
         <v>44</v>
       </c>
       <c r="B16" s="6">
-        <v>300684</v>
+        <v>300059</v>
       </c>
       <c r="C16" s="6">
-        <v>13000</v>
+        <v>19900</v>
       </c>
       <c r="D16" s="6">
-        <v>13000</v>
+        <v>19300</v>
       </c>
       <c r="E16" s="6">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F16" s="7">
-        <v>33.23</v>
+        <v>20.2</v>
       </c>
       <c r="G16" s="7">
-        <v>29.371</v>
+        <v>18.565</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>431990</v>
+        <v>401980</v>
       </c>
       <c r="J16" s="7">
-        <v>50172.2</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>32544.11</v>
+      </c>
+      <c r="K16" s="7">
+        <v>32973</v>
       </c>
       <c r="L16" s="8">
-        <v>13.14</v>
+        <v>8.81</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>25</v>
@@ -1276,354 +1288,354 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="10">
-        <v>603456</v>
-      </c>
-      <c r="C17" s="10">
-        <v>12320</v>
-      </c>
-      <c r="D17" s="10">
-        <v>12320</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
-        <v>28.25</v>
-      </c>
-      <c r="G17" s="11">
-        <v>28.456</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>348040</v>
-      </c>
-      <c r="J17" s="11">
-        <v>-2540.1</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="9">
-        <v>-0.72</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>22</v>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="6">
+        <v>19100</v>
+      </c>
+      <c r="D17" s="6">
+        <v>19100</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>22.46</v>
+      </c>
+      <c r="G17" s="7">
+        <v>21.087</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>428986</v>
+      </c>
+      <c r="J17" s="7">
+        <v>26230.6</v>
+      </c>
+      <c r="K17" s="7">
+        <v>24066</v>
+      </c>
+      <c r="L17" s="8">
+        <v>6.51</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="6">
+        <v>300684</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>34.7</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>69794.41</v>
+      </c>
+      <c r="K18" s="7">
+        <v>34182.21</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="10">
+        <v>603456</v>
+      </c>
+      <c r="C19" s="10">
+        <v>12320</v>
+      </c>
+      <c r="D19" s="10">
+        <v>12320</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>27.1</v>
+      </c>
+      <c r="G19" s="11">
+        <v>28.456</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>333872</v>
+      </c>
+      <c r="J19" s="11">
+        <v>-16708.1</v>
+      </c>
+      <c r="K19" s="11">
+        <v>-5297.6</v>
+      </c>
+      <c r="L19" s="9">
+        <v>-4.77</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="6">
         <v>603666</v>
       </c>
-      <c r="C18" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D18" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>103.6</v>
-      </c>
-      <c r="G18" s="7">
-        <v>97.311</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>207200</v>
-      </c>
-      <c r="J18" s="7">
-        <v>12578.71</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="8">
-        <v>6.46</v>
-      </c>
-      <c r="M18" s="8" t="s">
+      <c r="C20" s="6">
+        <v>3900</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3900</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>87.76</v>
+      </c>
+      <c r="G20" s="7">
+        <v>72.526</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>342264</v>
+      </c>
+      <c r="J20" s="7">
+        <v>59413.28</v>
+      </c>
+      <c r="K20" s="7">
+        <v>27768</v>
+      </c>
+      <c r="L20" s="8">
+        <v>21</v>
+      </c>
+      <c r="M20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="N20" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="6">
+    <row r="21" spans="1:14">
+      <c r="A21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="6">
         <v>300673</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C21" s="6">
         <v>4900</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D21" s="6">
         <v>4900</v>
       </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>37.32</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>38.88</v>
+      </c>
+      <c r="G21" s="7">
         <v>36.102</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>182868</v>
-      </c>
-      <c r="J19" s="7">
-        <v>5966.83</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="8">
-        <v>3.37</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="10">
-        <v>603912</v>
-      </c>
-      <c r="C20" s="10">
-        <v>16800</v>
-      </c>
-      <c r="D20" s="10">
-        <v>16800</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
-      <c r="F20" s="11">
-        <v>22.57</v>
-      </c>
-      <c r="G20" s="11">
-        <v>22.974</v>
-      </c>
-      <c r="H20" s="11">
-        <v>0</v>
-      </c>
-      <c r="I20" s="11">
-        <v>379176</v>
-      </c>
-      <c r="J20" s="11">
-        <v>-6781.15</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="9">
-        <v>-1.76</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="10">
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>190512</v>
+      </c>
+      <c r="J21" s="7">
+        <v>13610.83</v>
+      </c>
+      <c r="K21" s="7">
+        <v>-392</v>
+      </c>
+      <c r="L21" s="8">
+        <v>7.69</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="6">
         <v>300136</v>
       </c>
-      <c r="C21" s="10">
-        <v>7900</v>
-      </c>
-      <c r="D21" s="10">
-        <v>7900</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="11">
-        <v>48.55</v>
-      </c>
-      <c r="G21" s="11">
-        <v>48.981</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>383545</v>
-      </c>
-      <c r="J21" s="11">
-        <v>-3404.42</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="9">
-        <v>-0.88</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="10">
-        <v>603707</v>
-      </c>
-      <c r="C22" s="10">
-        <v>5700</v>
-      </c>
-      <c r="D22" s="10">
-        <v>5700</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0</v>
-      </c>
-      <c r="F22" s="11">
-        <v>61.53</v>
-      </c>
-      <c r="G22" s="11">
-        <v>61.884</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11">
-        <v>350721</v>
-      </c>
-      <c r="J22" s="11">
-        <v>-2015.33</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="9">
-        <v>-0.57</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>22</v>
+      <c r="C22" s="6">
+        <v>3500</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3500</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>53.02</v>
+      </c>
+      <c r="G22" s="7">
+        <v>47.773</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>185570</v>
+      </c>
+      <c r="J22" s="7">
+        <v>18365.94</v>
+      </c>
+      <c r="K22" s="7">
+        <v>16870</v>
+      </c>
+      <c r="L22" s="8">
+        <v>10.98</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" s="6">
+        <v>603707</v>
+      </c>
+      <c r="C23" s="6">
+        <v>5700</v>
+      </c>
+      <c r="D23" s="6">
+        <v>5700</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>64.57</v>
+      </c>
+      <c r="G23" s="7">
+        <v>61.884</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>368049</v>
+      </c>
+      <c r="J23" s="7">
+        <v>15312.67</v>
+      </c>
+      <c r="K23" s="7">
+        <v>20406</v>
+      </c>
+      <c r="L23" s="8">
+        <v>4.34</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="6">
         <v>300161</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C24" s="6">
         <v>4900</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D24" s="6">
         <v>4900</v>
       </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>22.41</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>23.98</v>
+      </c>
+      <c r="G24" s="7">
         <v>22.39</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>109809</v>
-      </c>
-      <c r="J23" s="7">
-        <v>99.84</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="10">
-        <v>46100</v>
-      </c>
-      <c r="D24" s="10">
-        <v>46100</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0</v>
-      </c>
-      <c r="F24" s="11">
-        <v>15.2</v>
-      </c>
-      <c r="G24" s="11">
-        <v>15.985</v>
-      </c>
-      <c r="H24" s="11">
-        <v>0</v>
-      </c>
-      <c r="I24" s="11">
-        <v>700720</v>
-      </c>
-      <c r="J24" s="11">
-        <v>-36207.36</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="9">
-        <v>-4.91</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="9" t="s">
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>117502</v>
+      </c>
+      <c r="J24" s="7">
+        <v>7792.84</v>
+      </c>
+      <c r="K24" s="7">
+        <v>7791</v>
+      </c>
+      <c r="L24" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1632,37 +1644,37 @@
         <v>54</v>
       </c>
       <c r="B25" s="6">
-        <v>511990</v>
+        <v>600812</v>
       </c>
       <c r="C25" s="6">
-        <v>6</v>
+        <v>24800</v>
       </c>
       <c r="D25" s="6">
-        <v>6</v>
+        <v>24800</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="F25" s="7">
-        <v>99.991</v>
+        <v>12.89</v>
       </c>
       <c r="G25" s="7">
-        <v>-27441.665</v>
+        <v>12.066</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>599.95</v>
+        <v>319672</v>
       </c>
       <c r="J25" s="7">
-        <v>165249.94</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>13</v>
+        <v>20444.11</v>
+      </c>
+      <c r="K25" s="7">
+        <v>21824</v>
       </c>
       <c r="L25" s="8">
-        <v>0</v>
+        <v>6.83</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>23</v>
@@ -1672,46 +1684,46 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="6">
-        <v>57600</v>
-      </c>
-      <c r="D26" s="6">
-        <v>57600</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>17.44</v>
-      </c>
-      <c r="G26" s="7">
-        <v>16.314</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1004544</v>
-      </c>
-      <c r="J26" s="7">
-        <v>64840.23</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L26" s="8">
-        <v>6.9</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N26" s="8" t="s">
+      <c r="C26" s="10">
+        <v>0</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>15.05</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>-44888.44</v>
+      </c>
+      <c r="K26" s="11">
+        <v>15751.92</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1719,131 +1731,131 @@
       <c r="A27" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>58</v>
+      <c r="B27" s="6">
+        <v>511990</v>
       </c>
       <c r="C27" s="6">
-        <v>11700</v>
+        <v>40015</v>
       </c>
       <c r="D27" s="6">
-        <v>11700</v>
+        <v>40015</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>69.88</v>
+        <v>99.974</v>
       </c>
       <c r="G27" s="7">
-        <v>65.958</v>
+        <v>95.849</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>817596</v>
+        <v>4000459.61</v>
       </c>
       <c r="J27" s="7">
-        <v>45888.39</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
+        <v>165069.6</v>
+      </c>
+      <c r="K27" s="7">
+        <v>-40.02</v>
       </c>
       <c r="L27" s="8">
-        <v>5.95</v>
+        <v>4.3</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="6">
-        <v>603520</v>
-      </c>
       <c r="C28" s="6">
-        <v>4600</v>
+        <v>57600</v>
       </c>
       <c r="D28" s="6">
-        <v>4600</v>
+        <v>57600</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
       </c>
       <c r="F28" s="7">
-        <v>81.52</v>
+        <v>17.32</v>
       </c>
       <c r="G28" s="7">
-        <v>81.155</v>
+        <v>16.314</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>374992</v>
+        <v>997632</v>
       </c>
       <c r="J28" s="7">
-        <v>1680.8</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>13</v>
+        <v>57928.23</v>
+      </c>
+      <c r="K28" s="7">
+        <v>35712</v>
       </c>
       <c r="L28" s="8">
-        <v>0.45</v>
+        <v>6.17</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="10">
-        <v>4743</v>
-      </c>
-      <c r="D29" s="10">
-        <v>4743</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11">
-        <v>13.37</v>
-      </c>
-      <c r="G29" s="11">
-        <v>13.907</v>
-      </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11">
-        <v>63413.91</v>
-      </c>
-      <c r="J29" s="11">
-        <v>-2546.5</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L29" s="9">
-        <v>-3.86</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N29" s="9" t="s">
+      <c r="C29" s="6">
+        <v>11700</v>
+      </c>
+      <c r="D29" s="6">
+        <v>11700</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>74.13</v>
+      </c>
+      <c r="G29" s="7">
+        <v>65.958</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>867321</v>
+      </c>
+      <c r="J29" s="7">
+        <v>95613.39</v>
+      </c>
+      <c r="K29" s="7">
+        <v>3861</v>
+      </c>
+      <c r="L29" s="8">
+        <v>12.39</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1851,82 +1863,82 @@
       <c r="A30" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>63</v>
+      <c r="B30" s="6">
+        <v>603520</v>
       </c>
       <c r="C30" s="6">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="D30" s="6">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="E30" s="6">
         <v>0</v>
       </c>
       <c r="F30" s="7">
-        <v>88</v>
+        <v>84.06</v>
       </c>
       <c r="G30" s="7">
-        <v>83.3</v>
+        <v>81.155</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>378400</v>
+        <v>386676</v>
       </c>
       <c r="J30" s="7">
-        <v>20210.89</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>13</v>
+        <v>13364.8</v>
+      </c>
+      <c r="K30" s="7">
+        <v>-2944</v>
       </c>
       <c r="L30" s="8">
-        <v>5.64</v>
+        <v>3.58</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="B31" s="6">
+        <v>300636</v>
       </c>
       <c r="C31" s="6">
-        <v>55800</v>
+        <v>2720</v>
       </c>
       <c r="D31" s="6">
-        <v>55800</v>
+        <v>2720</v>
       </c>
       <c r="E31" s="6">
         <v>0</v>
       </c>
       <c r="F31" s="7">
-        <v>16.16</v>
+        <v>40.03</v>
       </c>
       <c r="G31" s="7">
-        <v>15.136</v>
+        <v>37.925</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>901728</v>
+        <v>108881.6</v>
       </c>
       <c r="J31" s="7">
-        <v>57129.57</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
+        <v>5725.2</v>
+      </c>
+      <c r="K31" s="7">
+        <v>-81.6</v>
       </c>
       <c r="L31" s="8">
-        <v>6.77</v>
+        <v>5.55</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>25</v>
@@ -1937,40 +1949,40 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32" s="6">
-        <v>22400</v>
+        <v>4300</v>
       </c>
       <c r="D32" s="6">
-        <v>22400</v>
+        <v>4300</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="F32" s="7">
-        <v>12.53</v>
+        <v>94.09</v>
       </c>
       <c r="G32" s="7">
-        <v>12.235</v>
+        <v>83.3</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>280672</v>
+        <v>404587</v>
       </c>
       <c r="J32" s="7">
-        <v>6619.15</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>13</v>
+        <v>46397.89</v>
+      </c>
+      <c r="K32" s="7">
+        <v>8987</v>
       </c>
       <c r="L32" s="8">
-        <v>2.41</v>
+        <v>12.95</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>25</v>
@@ -1981,40 +1993,40 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="6">
-        <v>300674</v>
+        <v>66</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C33" s="6">
-        <v>8800</v>
+        <v>55800</v>
       </c>
       <c r="D33" s="6">
-        <v>8800</v>
+        <v>55800</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
       <c r="F33" s="7">
-        <v>42.02</v>
+        <v>15.54</v>
       </c>
       <c r="G33" s="7">
-        <v>41.59</v>
+        <v>15.136</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
       </c>
       <c r="I33" s="7">
-        <v>369776</v>
+        <v>867132</v>
       </c>
       <c r="J33" s="7">
-        <v>3784.06</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>13</v>
+        <v>22533.57</v>
+      </c>
+      <c r="K33" s="7">
+        <v>-2232</v>
       </c>
       <c r="L33" s="8">
-        <v>1.03</v>
+        <v>2.67</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>25</v>
@@ -2025,89 +2037,89 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="6">
+        <v>300738</v>
+      </c>
+      <c r="C34" s="6">
+        <v>4300</v>
+      </c>
+      <c r="D34" s="6">
+        <v>4300</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>57.68</v>
+      </c>
+      <c r="G34" s="7">
+        <v>57.07</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>248024</v>
+      </c>
+      <c r="J34" s="7">
+        <v>2622.57</v>
+      </c>
+      <c r="K34" s="7">
+        <v>473</v>
+      </c>
+      <c r="L34" s="8">
+        <v>1.07</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="6">
-        <v>603345</v>
-      </c>
-      <c r="C34" s="6">
-        <v>5700</v>
-      </c>
-      <c r="D34" s="6">
-        <v>5700</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0</v>
-      </c>
-      <c r="F34" s="7">
-        <v>121.29</v>
-      </c>
-      <c r="G34" s="7">
-        <v>107.72</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>691353</v>
-      </c>
-      <c r="J34" s="7">
-        <v>77351.03</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L34" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="10">
-        <v>300572</v>
-      </c>
-      <c r="C35" s="10">
-        <v>4200</v>
-      </c>
-      <c r="D35" s="10">
-        <v>4200</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0</v>
-      </c>
-      <c r="F35" s="11">
-        <v>59.47</v>
-      </c>
-      <c r="G35" s="11">
-        <v>63.528</v>
-      </c>
-      <c r="H35" s="11">
-        <v>0</v>
-      </c>
-      <c r="I35" s="11">
-        <v>249774</v>
-      </c>
-      <c r="J35" s="11">
-        <v>-17043.04</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L35" s="9">
-        <v>-6.39</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" s="9" t="s">
+      <c r="C35" s="6">
+        <v>22400</v>
+      </c>
+      <c r="D35" s="6">
+        <v>22400</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>12.87</v>
+      </c>
+      <c r="G35" s="7">
+        <v>12.235</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>288288</v>
+      </c>
+      <c r="J35" s="7">
+        <v>14235.15</v>
+      </c>
+      <c r="K35" s="7">
+        <v>1792</v>
+      </c>
+      <c r="L35" s="8">
+        <v>5.19</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2116,81 +2128,81 @@
         <v>71</v>
       </c>
       <c r="B36" s="6">
-        <v>603987</v>
+        <v>300750</v>
       </c>
       <c r="C36" s="6">
-        <v>54200</v>
+        <v>2200</v>
       </c>
       <c r="D36" s="6">
-        <v>54200</v>
+        <v>2200</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
       </c>
       <c r="F36" s="7">
-        <v>15.25</v>
+        <v>174.36</v>
       </c>
       <c r="G36" s="7">
-        <v>14.285</v>
+        <v>167.885</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>826550</v>
+        <v>383592</v>
       </c>
       <c r="J36" s="7">
-        <v>52276.11</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>13</v>
+        <v>14244.68</v>
+      </c>
+      <c r="K36" s="7">
+        <v>7304</v>
       </c>
       <c r="L36" s="8">
-        <v>6.76</v>
+        <v>3.86</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>73</v>
+      <c r="B37" s="6">
+        <v>300674</v>
       </c>
       <c r="C37" s="6">
-        <v>3000</v>
+        <v>8800</v>
       </c>
       <c r="D37" s="6">
-        <v>3000</v>
+        <v>8800</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="7">
-        <v>7.02</v>
+        <v>43.15</v>
       </c>
       <c r="G37" s="7">
-        <v>6.901</v>
+        <v>41.59</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>21060</v>
+        <v>379720</v>
       </c>
       <c r="J37" s="7">
-        <v>357.52</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>13</v>
+        <v>13728.06</v>
+      </c>
+      <c r="K37" s="7">
+        <v>17160</v>
       </c>
       <c r="L37" s="8">
-        <v>1.72</v>
+        <v>3.75</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>25</v>
@@ -2201,128 +2213,128 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" s="6">
-        <v>601100</v>
+        <v>300572</v>
       </c>
       <c r="C38" s="6">
-        <v>602</v>
+        <v>4200</v>
       </c>
       <c r="D38" s="6">
-        <v>602</v>
+        <v>4200</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
       </c>
       <c r="F38" s="7">
-        <v>74.05</v>
+        <v>63.55</v>
       </c>
       <c r="G38" s="7">
-        <v>34.696</v>
+        <v>63.528</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>44578.1</v>
+        <v>266910</v>
       </c>
       <c r="J38" s="7">
-        <v>23691.22</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>13</v>
+        <v>92.96</v>
+      </c>
+      <c r="K38" s="7">
+        <v>10038</v>
       </c>
       <c r="L38" s="8">
-        <v>113.43</v>
+        <v>0.03</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="B39" s="6">
+        <v>603987</v>
       </c>
       <c r="C39" s="6">
-        <v>5300</v>
+        <v>54200</v>
       </c>
       <c r="D39" s="6">
-        <v>5300</v>
+        <v>54200</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="7">
-        <v>57.19</v>
+        <v>17.31</v>
       </c>
       <c r="G39" s="7">
-        <v>55.937</v>
+        <v>14.285</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="I39" s="7">
-        <v>303107</v>
+        <v>938202</v>
       </c>
       <c r="J39" s="7">
-        <v>6643.46</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>13</v>
+        <v>163928.11</v>
+      </c>
+      <c r="K39" s="7">
+        <v>18970</v>
       </c>
       <c r="L39" s="8">
-        <v>2.24</v>
+        <v>21.18</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B40" s="6">
-        <v>300607</v>
+        <v>300391</v>
       </c>
       <c r="C40" s="6">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="D40" s="6">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
       </c>
       <c r="F40" s="7">
-        <v>70.85</v>
+        <v>13.14</v>
       </c>
       <c r="G40" s="7">
-        <v>68.688</v>
+        <v>0</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>375505</v>
+        <v>0</v>
       </c>
       <c r="J40" s="7">
-        <v>11459.34</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>13</v>
+        <v>720.18</v>
+      </c>
+      <c r="K40" s="7">
+        <v>-515.19</v>
       </c>
       <c r="L40" s="8">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>25</v>
@@ -2333,348 +2345,348 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="6">
+        <v>601100</v>
+      </c>
+      <c r="C41" s="6">
+        <v>602</v>
+      </c>
+      <c r="D41" s="6">
+        <v>602</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>80.2</v>
+      </c>
+      <c r="G41" s="7">
+        <v>34.696</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>48280.4</v>
+      </c>
+      <c r="J41" s="7">
+        <v>27393.52</v>
+      </c>
+      <c r="K41" s="7">
+        <v>3016.02</v>
+      </c>
+      <c r="L41" s="8">
+        <v>131.15</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C42" s="6">
+        <v>5300</v>
+      </c>
+      <c r="D42" s="6">
+        <v>5300</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>64</v>
+      </c>
+      <c r="G42" s="7">
+        <v>55.937</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>339200</v>
+      </c>
+      <c r="J42" s="7">
+        <v>42736.46</v>
+      </c>
+      <c r="K42" s="7">
+        <v>23691</v>
+      </c>
+      <c r="L42" s="8">
+        <v>14.41</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="6">
+      <c r="B43" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="6">
         <v>28900</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D43" s="6">
         <v>28900</v>
       </c>
-      <c r="E41" s="6">
-        <v>0</v>
-      </c>
-      <c r="F41" s="7">
-        <v>12.6</v>
-      </c>
-      <c r="G41" s="7">
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>12.75</v>
+      </c>
+      <c r="G43" s="7">
         <v>12.302</v>
       </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <v>364140</v>
-      </c>
-      <c r="J41" s="7">
-        <v>8616.33</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L41" s="8">
-        <v>2.42</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="10">
-        <v>600785</v>
-      </c>
-      <c r="C42" s="10">
-        <v>100</v>
-      </c>
-      <c r="D42" s="10">
-        <v>100</v>
-      </c>
-      <c r="E42" s="10">
-        <v>0</v>
-      </c>
-      <c r="F42" s="11">
-        <v>16.2</v>
-      </c>
-      <c r="G42" s="11">
-        <v>32.591</v>
-      </c>
-      <c r="H42" s="11">
-        <v>0</v>
-      </c>
-      <c r="I42" s="11">
-        <v>1620</v>
-      </c>
-      <c r="J42" s="11">
-        <v>-1639.14</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L42" s="9">
-        <v>-50.29</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N42" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="10">
-        <v>300609</v>
-      </c>
-      <c r="C43" s="10">
-        <v>6100</v>
-      </c>
-      <c r="D43" s="10">
-        <v>6100</v>
-      </c>
-      <c r="E43" s="10">
-        <v>0</v>
-      </c>
-      <c r="F43" s="11">
-        <v>41.1</v>
-      </c>
-      <c r="G43" s="11">
-        <v>45.386</v>
-      </c>
-      <c r="H43" s="11">
-        <v>0</v>
-      </c>
-      <c r="I43" s="11">
-        <v>250710</v>
-      </c>
-      <c r="J43" s="11">
-        <v>-26147.48</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L43" s="9">
-        <v>-9.44</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N43" s="9" t="s">
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>368475</v>
+      </c>
+      <c r="J43" s="7">
+        <v>12951.33</v>
+      </c>
+      <c r="K43" s="7">
+        <v>9537</v>
+      </c>
+      <c r="L43" s="8">
+        <v>3.64</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="6">
-        <v>603208</v>
-      </c>
       <c r="C44" s="6">
-        <v>1200</v>
+        <v>21400</v>
       </c>
       <c r="D44" s="6">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E44" s="6">
-        <v>0</v>
+        <v>21400</v>
       </c>
       <c r="F44" s="7">
-        <v>114.2</v>
+        <v>18.39</v>
       </c>
       <c r="G44" s="7">
-        <v>101.821</v>
+        <v>18.128</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>137040</v>
+        <v>393546</v>
       </c>
       <c r="J44" s="7">
-        <v>14854.91</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>13</v>
+        <v>5609.46</v>
+      </c>
+      <c r="K44" s="7">
+        <v>5609.46</v>
       </c>
       <c r="L44" s="8">
-        <v>12.16</v>
+        <v>1.45</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="10">
+        <v>300609</v>
+      </c>
+      <c r="C45" s="10">
+        <v>6100</v>
+      </c>
+      <c r="D45" s="10">
+        <v>6100</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
+        <v>36.7</v>
+      </c>
+      <c r="G45" s="11">
+        <v>45.386</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11">
+        <v>223870</v>
+      </c>
+      <c r="J45" s="11">
+        <v>-52987.48</v>
+      </c>
+      <c r="K45" s="11">
+        <v>732</v>
+      </c>
+      <c r="L45" s="9">
+        <v>-19.14</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="10">
-        <v>25900</v>
-      </c>
-      <c r="D45" s="10">
-        <v>25900</v>
-      </c>
-      <c r="E45" s="10">
-        <v>0</v>
-      </c>
-      <c r="F45" s="11">
-        <v>14.21</v>
-      </c>
-      <c r="G45" s="11">
-        <v>14.356</v>
-      </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
-        <v>368039</v>
-      </c>
-      <c r="J45" s="11">
-        <v>-3772.6</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L45" s="9">
-        <v>-1.02</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="6">
-        <v>300454</v>
-      </c>
-      <c r="C46" s="6">
-        <v>5200</v>
-      </c>
-      <c r="D46" s="6">
-        <v>5200</v>
-      </c>
-      <c r="E46" s="6">
-        <v>0</v>
-      </c>
-      <c r="F46" s="7">
-        <v>180.8</v>
-      </c>
-      <c r="G46" s="7">
-        <v>179.614</v>
-      </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>940160</v>
-      </c>
-      <c r="J46" s="7">
-        <v>6164.96</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L46" s="8">
-        <v>0.66</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>24</v>
+      <c r="B46" s="10">
+        <v>603208</v>
+      </c>
+      <c r="C46" s="10">
+        <v>1200</v>
+      </c>
+      <c r="D46" s="10">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>97.4</v>
+      </c>
+      <c r="G46" s="11">
+        <v>101.821</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11">
+        <v>116880</v>
+      </c>
+      <c r="J46" s="11">
+        <v>-5305.09</v>
+      </c>
+      <c r="K46" s="11">
+        <v>1692</v>
+      </c>
+      <c r="L46" s="9">
+        <v>-4.34</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="10">
-        <v>601028</v>
-      </c>
       <c r="C47" s="10">
-        <v>36200</v>
+        <v>0</v>
       </c>
       <c r="D47" s="10">
-        <v>36200</v>
+        <v>0</v>
       </c>
       <c r="E47" s="10">
         <v>0</v>
       </c>
       <c r="F47" s="11">
-        <v>9.7</v>
+        <v>12.5</v>
       </c>
       <c r="G47" s="11">
-        <v>10.005</v>
+        <v>0</v>
       </c>
       <c r="H47" s="11">
         <v>0</v>
       </c>
       <c r="I47" s="11">
-        <v>351140</v>
+        <v>0</v>
       </c>
       <c r="J47" s="11">
-        <v>-11049.7</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>13</v>
+        <v>-38568.27</v>
+      </c>
+      <c r="K47" s="11">
+        <v>-2312.6</v>
       </c>
       <c r="L47" s="9">
-        <v>-3.05</v>
+        <v>0</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>88</v>
+      <c r="B48" s="6">
+        <v>300454</v>
       </c>
       <c r="C48" s="6">
-        <v>8000</v>
+        <v>5200</v>
       </c>
       <c r="D48" s="6">
-        <v>8000</v>
+        <v>5200</v>
       </c>
       <c r="E48" s="6">
         <v>0</v>
       </c>
       <c r="F48" s="7">
-        <v>43.77</v>
+        <v>205.96</v>
       </c>
       <c r="G48" s="7">
-        <v>42.075</v>
+        <v>179.614</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>350160</v>
+        <v>1070992</v>
       </c>
       <c r="J48" s="7">
-        <v>13562.6</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>13</v>
+        <v>136996.96</v>
+      </c>
+      <c r="K48" s="7">
+        <v>68016</v>
       </c>
       <c r="L48" s="8">
-        <v>4.03</v>
+        <v>14.67</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>25</v>
@@ -2685,392 +2697,392 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="6">
-        <v>603181</v>
-      </c>
       <c r="C49" s="6">
-        <v>24100</v>
+        <v>14300</v>
       </c>
       <c r="D49" s="6">
-        <v>24100</v>
+        <v>14300</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
       </c>
       <c r="F49" s="7">
-        <v>21.32</v>
+        <v>26.08</v>
       </c>
       <c r="G49" s="7">
-        <v>19.052</v>
+        <v>26.04</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>513812</v>
+        <v>372944</v>
       </c>
       <c r="J49" s="7">
-        <v>54657.39</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>13</v>
+        <v>572.31</v>
+      </c>
+      <c r="K49" s="7">
+        <v>10868</v>
       </c>
       <c r="L49" s="8">
-        <v>11.9</v>
+        <v>0.15</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>91</v>
+      <c r="B50" s="6">
+        <v>601028</v>
       </c>
       <c r="C50" s="6">
-        <v>3700</v>
+        <v>36200</v>
       </c>
       <c r="D50" s="6">
-        <v>3700</v>
+        <v>36200</v>
       </c>
       <c r="E50" s="6">
         <v>0</v>
       </c>
       <c r="F50" s="7">
-        <v>38.15</v>
+        <v>12.03</v>
       </c>
       <c r="G50" s="7">
-        <v>35.951</v>
+        <v>10.005</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>141155</v>
+        <v>435486</v>
       </c>
       <c r="J50" s="7">
-        <v>8135.36</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>13</v>
+        <v>73296.3</v>
+      </c>
+      <c r="K50" s="7">
+        <v>29684</v>
       </c>
       <c r="L50" s="8">
-        <v>6.12</v>
+        <v>20.24</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="6">
-        <v>603806</v>
-      </c>
       <c r="C51" s="6">
-        <v>1800</v>
+        <v>8000</v>
       </c>
       <c r="D51" s="6">
-        <v>1800</v>
+        <v>8000</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="7">
-        <v>44.55</v>
+        <v>45.32</v>
       </c>
       <c r="G51" s="7">
-        <v>42.447</v>
+        <v>42.075</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>80190</v>
+        <v>362560</v>
       </c>
       <c r="J51" s="7">
-        <v>3785.3</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>13</v>
+        <v>25962.6</v>
+      </c>
+      <c r="K51" s="7">
+        <v>20160</v>
       </c>
       <c r="L51" s="8">
-        <v>4.95</v>
+        <v>7.71</v>
       </c>
       <c r="M51" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="6">
+        <v>603181</v>
+      </c>
+      <c r="C52" s="6">
+        <v>24100</v>
+      </c>
+      <c r="D52" s="6">
+        <v>24100</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>22.7</v>
+      </c>
+      <c r="G52" s="7">
+        <v>19.052</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>547070</v>
+      </c>
+      <c r="J52" s="7">
+        <v>87915.39</v>
+      </c>
+      <c r="K52" s="7">
+        <v>21931</v>
+      </c>
+      <c r="L52" s="8">
+        <v>19.15</v>
+      </c>
+      <c r="M52" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N51" s="8" t="s">
+      <c r="N52" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="12" t="s">
+    <row r="53" spans="1:14">
+      <c r="A53" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="13">
-        <v>2446500</v>
-      </c>
-      <c r="D52" s="13">
-        <v>2446500</v>
-      </c>
-      <c r="E52" s="13">
-        <v>0</v>
-      </c>
-      <c r="F52" s="14">
-        <v>0</v>
-      </c>
-      <c r="G52" s="14">
-        <v>0</v>
-      </c>
-      <c r="H52" s="14">
-        <v>0</v>
-      </c>
-      <c r="I52" s="14">
-        <v>0</v>
-      </c>
-      <c r="J52" s="14">
-        <v>0</v>
-      </c>
-      <c r="K52" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L52" s="12">
-        <v>0</v>
-      </c>
-      <c r="M52" s="12" t="s">
+      <c r="B53" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="6">
+        <v>3700</v>
+      </c>
+      <c r="D53" s="6">
+        <v>3700</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>39.03</v>
+      </c>
+      <c r="G53" s="7">
+        <v>35.911</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>144411</v>
+      </c>
+      <c r="J53" s="7">
+        <v>11539.36</v>
+      </c>
+      <c r="K53" s="7">
+        <v>111</v>
+      </c>
+      <c r="L53" s="8">
+        <v>8.69</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="13">
+        <v>2851000</v>
+      </c>
+      <c r="D54" s="13">
+        <v>2851000</v>
+      </c>
+      <c r="E54" s="13">
+        <v>0</v>
+      </c>
+      <c r="F54" s="14">
+        <v>0</v>
+      </c>
+      <c r="G54" s="14">
+        <v>0</v>
+      </c>
+      <c r="H54" s="14">
+        <v>0</v>
+      </c>
+      <c r="I54" s="14">
+        <v>0</v>
+      </c>
+      <c r="J54" s="14">
+        <v>0</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="12">
+        <v>0</v>
+      </c>
+      <c r="M54" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N52" s="12" t="s">
+      <c r="N54" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="10">
+    <row r="55" spans="1:14">
+      <c r="A55" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="6">
+        <v>6600</v>
+      </c>
+      <c r="D55" s="6">
+        <v>6600</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>37.43</v>
+      </c>
+      <c r="G55" s="7">
+        <v>36.812</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>247038</v>
+      </c>
+      <c r="J55" s="7">
+        <v>4078.85</v>
+      </c>
+      <c r="K55" s="7">
+        <v>8184</v>
+      </c>
+      <c r="L55" s="8">
+        <v>1.68</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="10">
         <v>300662</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C56" s="10">
         <v>4900</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D56" s="10">
         <v>4900</v>
       </c>
-      <c r="E53" s="10">
-        <v>0</v>
-      </c>
-      <c r="F53" s="11">
-        <v>42.98</v>
-      </c>
-      <c r="G53" s="11">
+      <c r="E56" s="10">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>44.5</v>
+      </c>
+      <c r="G56" s="11">
         <v>44.509</v>
       </c>
-      <c r="H53" s="11">
-        <v>0</v>
-      </c>
-      <c r="I53" s="11">
-        <v>210602</v>
-      </c>
-      <c r="J53" s="11">
-        <v>-7490.16</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L53" s="9">
-        <v>-3.44</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N53" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="6">
-        <v>300709</v>
-      </c>
-      <c r="C54" s="6">
-        <v>10530</v>
-      </c>
-      <c r="D54" s="6">
-        <v>10530</v>
-      </c>
-      <c r="E54" s="6">
-        <v>0</v>
-      </c>
-      <c r="F54" s="7">
-        <v>92.21</v>
-      </c>
-      <c r="G54" s="7">
-        <v>89.349</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7">
-        <v>970971.3</v>
-      </c>
-      <c r="J54" s="7">
-        <v>30131.15</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L54" s="8">
-        <v>3.2</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N54" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="10">
-        <v>300439</v>
-      </c>
-      <c r="C55" s="10">
-        <v>12300</v>
-      </c>
-      <c r="D55" s="10">
-        <v>12300</v>
-      </c>
-      <c r="E55" s="10">
-        <v>0</v>
-      </c>
-      <c r="F55" s="11">
-        <v>17.21</v>
-      </c>
-      <c r="G55" s="11">
-        <v>17.278</v>
-      </c>
-      <c r="H55" s="11">
-        <v>0</v>
-      </c>
-      <c r="I55" s="11">
-        <v>211683</v>
-      </c>
-      <c r="J55" s="11">
-        <v>-833.54</v>
-      </c>
-      <c r="K55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L55" s="9">
-        <v>-0.39</v>
-      </c>
-      <c r="M55" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N55" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B56" s="6">
-        <v>603916</v>
-      </c>
-      <c r="C56" s="6">
-        <v>7800</v>
-      </c>
-      <c r="D56" s="6">
-        <v>7800</v>
-      </c>
-      <c r="E56" s="6">
-        <v>0</v>
-      </c>
-      <c r="F56" s="7">
-        <v>30.73</v>
-      </c>
-      <c r="G56" s="7">
-        <v>30.51</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>239694</v>
-      </c>
-      <c r="J56" s="7">
-        <v>1715.7</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L56" s="8">
-        <v>0.72</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N56" s="8" t="s">
-        <v>22</v>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
+        <v>218050</v>
+      </c>
+      <c r="J56" s="11">
+        <v>-42.16</v>
+      </c>
+      <c r="K56" s="11">
+        <v>12152</v>
+      </c>
+      <c r="L56" s="9">
+        <v>-0.02</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="B57" s="6">
+        <v>300709</v>
       </c>
       <c r="C57" s="6">
-        <v>52200</v>
+        <v>430</v>
       </c>
       <c r="D57" s="6">
-        <v>52200</v>
+        <v>430</v>
       </c>
       <c r="E57" s="6">
         <v>0</v>
       </c>
       <c r="F57" s="7">
-        <v>12.81</v>
+        <v>96.15</v>
       </c>
       <c r="G57" s="7">
-        <v>9.726</v>
+        <v>-40.749</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>668682</v>
+        <v>41344.5</v>
       </c>
       <c r="J57" s="7">
-        <v>161004.33</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>13</v>
+        <v>58866.76</v>
+      </c>
+      <c r="K57" s="7">
+        <v>2257.5</v>
       </c>
       <c r="L57" s="8">
-        <v>31.71</v>
+        <v>0</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>25</v>
@@ -3081,216 +3093,216 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B58" s="10">
+        <v>603916</v>
+      </c>
+      <c r="C58" s="10">
+        <v>7800</v>
+      </c>
+      <c r="D58" s="10">
+        <v>7800</v>
+      </c>
+      <c r="E58" s="10">
+        <v>0</v>
+      </c>
+      <c r="F58" s="11">
+        <v>25.15</v>
+      </c>
+      <c r="G58" s="11">
+        <v>30.51</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0</v>
+      </c>
+      <c r="I58" s="11">
+        <v>196170</v>
+      </c>
+      <c r="J58" s="11">
+        <v>-41808.3</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" s="9">
+        <v>-17.57</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="6">
+        <v>52221</v>
+      </c>
+      <c r="D59" s="6">
+        <v>52221</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>13.17</v>
+      </c>
+      <c r="G59" s="7">
+        <v>9.731</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>687750.57</v>
+      </c>
+      <c r="J59" s="7">
+        <v>179611.89</v>
+      </c>
+      <c r="K59" s="7">
+        <v>-13055.25</v>
+      </c>
+      <c r="L59" s="8">
+        <v>35.34</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="6">
         <v>300677</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C60" s="6">
         <v>3300</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D60" s="6">
         <v>3300</v>
       </c>
-      <c r="E58" s="10">
-        <v>0</v>
-      </c>
-      <c r="F58" s="11">
-        <v>112</v>
-      </c>
-      <c r="G58" s="11">
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>127.8</v>
+      </c>
+      <c r="G60" s="7">
         <v>115.627</v>
       </c>
-      <c r="H58" s="11">
-        <v>0</v>
-      </c>
-      <c r="I58" s="11">
-        <v>369600</v>
-      </c>
-      <c r="J58" s="11">
-        <v>-11967.8</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L58" s="9">
-        <v>-3.14</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N58" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" s="10">
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>421740</v>
+      </c>
+      <c r="J60" s="7">
+        <v>40172.2</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="8">
+        <v>10.53</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="10">
         <v>600</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D61" s="10">
         <v>600</v>
       </c>
-      <c r="E59" s="10">
-        <v>0</v>
-      </c>
-      <c r="F59" s="11">
-        <v>33.17</v>
-      </c>
-      <c r="G59" s="11">
-        <v>80.583</v>
-      </c>
-      <c r="H59" s="11">
-        <v>0</v>
-      </c>
-      <c r="I59" s="11">
-        <v>19902</v>
-      </c>
-      <c r="J59" s="11">
-        <v>-28447.7</v>
-      </c>
-      <c r="K59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L59" s="9">
-        <v>-58.84</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N59" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" s="10">
-        <v>5610</v>
-      </c>
-      <c r="D60" s="10">
-        <v>5610</v>
-      </c>
-      <c r="E60" s="10">
-        <v>0</v>
-      </c>
-      <c r="F60" s="11">
-        <v>26.58</v>
-      </c>
-      <c r="G60" s="11">
-        <v>26.603</v>
-      </c>
-      <c r="H60" s="11">
-        <v>0</v>
-      </c>
-      <c r="I60" s="11">
-        <v>149113.8</v>
-      </c>
-      <c r="J60" s="11">
-        <v>-130.7</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L60" s="9">
-        <v>-0.09</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N60" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="6">
-        <v>300530</v>
-      </c>
-      <c r="C61" s="6">
-        <v>1000</v>
-      </c>
-      <c r="D61" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E61" s="6">
-        <v>0</v>
-      </c>
-      <c r="F61" s="7">
-        <v>39.42</v>
-      </c>
-      <c r="G61" s="7">
-        <v>35.762</v>
-      </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7">
-        <v>39420</v>
-      </c>
-      <c r="J61" s="7">
-        <v>3657.7</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L61" s="8">
-        <v>10.23</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N61" s="8" t="s">
+      <c r="E61" s="10">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11">
+        <v>29.91</v>
+      </c>
+      <c r="G61" s="11">
+        <v>80.233</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11">
+        <v>17946</v>
+      </c>
+      <c r="J61" s="11">
+        <v>-30193.7</v>
+      </c>
+      <c r="K61" s="11">
+        <v>108</v>
+      </c>
+      <c r="L61" s="9">
+        <v>-62.72</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B62" s="6">
-        <v>300760</v>
+        <v>108</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="C62" s="6">
-        <v>1300</v>
+        <v>10300</v>
       </c>
       <c r="D62" s="6">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E62" s="6">
-        <v>0</v>
+        <v>10300</v>
       </c>
       <c r="F62" s="7">
-        <v>294.35</v>
+        <v>30.11</v>
       </c>
       <c r="G62" s="7">
-        <v>278.793</v>
+        <v>30.001</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
       </c>
       <c r="I62" s="7">
-        <v>382655</v>
+        <v>310133</v>
       </c>
       <c r="J62" s="7">
-        <v>20223.53</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>13</v>
+        <v>1124</v>
+      </c>
+      <c r="K62" s="7">
+        <v>1124</v>
       </c>
       <c r="L62" s="8">
-        <v>5.58</v>
+        <v>0.36</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>25</v>
@@ -3301,84 +3313,84 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="B63" s="6">
+        <v>600988</v>
       </c>
       <c r="C63" s="6">
-        <v>4200</v>
+        <v>31000</v>
       </c>
       <c r="D63" s="6">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="E63" s="6">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="F63" s="7">
-        <v>17.59</v>
+        <v>11.9</v>
       </c>
       <c r="G63" s="7">
-        <v>17.568</v>
+        <v>11.898</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
       </c>
       <c r="I63" s="7">
-        <v>73878</v>
+        <v>368900</v>
       </c>
       <c r="J63" s="7">
-        <v>94.15</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>13</v>
+        <v>62.81</v>
+      </c>
+      <c r="K63" s="7">
+        <v>62.81</v>
       </c>
       <c r="L63" s="8">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B64" s="8" t="s">
         <v>111</v>
       </c>
+      <c r="B64" s="6">
+        <v>300530</v>
+      </c>
       <c r="C64" s="6">
-        <v>10500</v>
+        <v>1000</v>
       </c>
       <c r="D64" s="6">
-        <v>10500</v>
+        <v>1000</v>
       </c>
       <c r="E64" s="6">
         <v>0</v>
       </c>
       <c r="F64" s="7">
-        <v>17.13</v>
+        <v>41.28</v>
       </c>
       <c r="G64" s="7">
-        <v>16.202</v>
+        <v>35.762</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
       </c>
       <c r="I64" s="7">
-        <v>179865</v>
+        <v>41280</v>
       </c>
       <c r="J64" s="7">
-        <v>9740.43</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>13</v>
+        <v>5517.7</v>
+      </c>
+      <c r="K64" s="7">
+        <v>-400</v>
       </c>
       <c r="L64" s="8">
-        <v>5.73</v>
+        <v>15.43</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>25</v>
@@ -3388,46 +3400,46 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B65" s="6">
-        <v>603868</v>
-      </c>
-      <c r="C65" s="6">
-        <v>10500</v>
-      </c>
-      <c r="D65" s="6">
-        <v>10500</v>
-      </c>
-      <c r="E65" s="6">
-        <v>0</v>
-      </c>
-      <c r="F65" s="7">
-        <v>50.04</v>
-      </c>
-      <c r="G65" s="7">
-        <v>45.434</v>
-      </c>
-      <c r="H65" s="7">
-        <v>0</v>
-      </c>
-      <c r="I65" s="7">
-        <v>525420</v>
-      </c>
-      <c r="J65" s="7">
-        <v>48365.27</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L65" s="8">
-        <v>10.14</v>
-      </c>
-      <c r="M65" s="8" t="s">
+      <c r="B65" s="10">
+        <v>600438</v>
+      </c>
+      <c r="C65" s="10">
+        <v>21500</v>
+      </c>
+      <c r="D65" s="10">
+        <v>21500</v>
+      </c>
+      <c r="E65" s="10">
+        <v>0</v>
+      </c>
+      <c r="F65" s="11">
+        <v>17.38</v>
+      </c>
+      <c r="G65" s="11">
+        <v>17.418</v>
+      </c>
+      <c r="H65" s="11">
+        <v>0</v>
+      </c>
+      <c r="I65" s="11">
+        <v>373670</v>
+      </c>
+      <c r="J65" s="11">
+        <v>-825.43</v>
+      </c>
+      <c r="K65" s="11">
+        <v>-430</v>
+      </c>
+      <c r="L65" s="9">
+        <v>-0.22</v>
+      </c>
+      <c r="M65" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N65" s="8" t="s">
+      <c r="N65" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3435,38 +3447,38 @@
       <c r="A66" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B66" s="10">
-        <v>300423</v>
+      <c r="B66" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="C66" s="10">
-        <v>10700</v>
+        <v>32000</v>
       </c>
       <c r="D66" s="10">
-        <v>10700</v>
+        <v>32000</v>
       </c>
       <c r="E66" s="10">
         <v>0</v>
       </c>
       <c r="F66" s="11">
-        <v>12.71</v>
+        <v>12.24</v>
       </c>
       <c r="G66" s="11">
-        <v>13.201</v>
+        <v>12.3</v>
       </c>
       <c r="H66" s="11">
         <v>0</v>
       </c>
       <c r="I66" s="11">
-        <v>135997</v>
+        <v>391680</v>
       </c>
       <c r="J66" s="11">
-        <v>-5256.95</v>
-      </c>
-      <c r="K66" s="11" t="s">
-        <v>13</v>
+        <v>-1934.24</v>
+      </c>
+      <c r="K66" s="11">
+        <v>7040</v>
       </c>
       <c r="L66" s="9">
-        <v>-3.72</v>
+        <v>-0.49</v>
       </c>
       <c r="M66" s="9" t="s">
         <v>25</v>
@@ -3477,40 +3489,40 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67" s="8" t="s">
         <v>115</v>
       </c>
+      <c r="B67" s="6">
+        <v>300132</v>
+      </c>
       <c r="C67" s="6">
-        <v>6800</v>
+        <v>13700</v>
       </c>
       <c r="D67" s="6">
-        <v>6800</v>
+        <v>13700</v>
       </c>
       <c r="E67" s="6">
         <v>0</v>
       </c>
       <c r="F67" s="7">
-        <v>16.01</v>
+        <v>23.1</v>
       </c>
       <c r="G67" s="7">
-        <v>15.896</v>
+        <v>22.537</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
       </c>
       <c r="I67" s="7">
-        <v>108868</v>
+        <v>316470</v>
       </c>
       <c r="J67" s="7">
-        <v>773.01</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>13</v>
+        <v>7715</v>
+      </c>
+      <c r="K67" s="7">
+        <v>8768</v>
       </c>
       <c r="L67" s="8">
-        <v>0.72</v>
+        <v>2.5</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>25</v>
@@ -3523,43 +3535,175 @@
       <c r="A68" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="6">
+        <v>12600</v>
+      </c>
+      <c r="D68" s="6">
+        <v>12600</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>29.19</v>
+      </c>
+      <c r="G68" s="7">
+        <v>29.116</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <v>367794</v>
+      </c>
+      <c r="J68" s="7">
+        <v>932.98</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L68" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="10">
+        <v>300423</v>
+      </c>
+      <c r="C69" s="10">
+        <v>7700</v>
+      </c>
+      <c r="D69" s="10">
+        <v>7700</v>
+      </c>
+      <c r="E69" s="10">
+        <v>0</v>
+      </c>
+      <c r="F69" s="11">
+        <v>12.36</v>
+      </c>
+      <c r="G69" s="11">
+        <v>13.647</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0</v>
+      </c>
+      <c r="I69" s="11">
+        <v>95172</v>
+      </c>
+      <c r="J69" s="11">
+        <v>-9912.49</v>
+      </c>
+      <c r="K69" s="11">
+        <v>2079</v>
+      </c>
+      <c r="L69" s="9">
+        <v>-9.43</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="6">
+        <v>300438</v>
+      </c>
+      <c r="C70" s="6">
+        <v>15400</v>
+      </c>
+      <c r="D70" s="6">
+        <v>15400</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>17.45</v>
+      </c>
+      <c r="G70" s="7">
+        <v>15.969</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <v>268730</v>
+      </c>
+      <c r="J70" s="7">
+        <v>22812.5</v>
+      </c>
+      <c r="K70" s="7">
+        <v>2926</v>
+      </c>
+      <c r="L70" s="8">
+        <v>9.27</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N70" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="6">
         <v>300054</v>
       </c>
-      <c r="C68" s="6">
-        <v>14500</v>
-      </c>
-      <c r="D68" s="6">
-        <v>14500</v>
-      </c>
-      <c r="E68" s="6">
-        <v>0</v>
-      </c>
-      <c r="F68" s="7">
-        <v>14.23</v>
-      </c>
-      <c r="G68" s="7">
-        <v>13.924</v>
-      </c>
-      <c r="H68" s="7">
-        <v>0</v>
-      </c>
-      <c r="I68" s="7">
-        <v>206335</v>
-      </c>
-      <c r="J68" s="7">
-        <v>4431.77</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L68" s="8">
-        <v>2.2</v>
-      </c>
-      <c r="M68" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N68" s="8" t="s">
+      <c r="C71" s="6">
+        <v>14900</v>
+      </c>
+      <c r="D71" s="6">
+        <v>14900</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="7">
+        <v>16.6</v>
+      </c>
+      <c r="G71" s="7">
+        <v>13.982</v>
+      </c>
+      <c r="H71" s="7">
+        <v>0</v>
+      </c>
+      <c r="I71" s="7">
+        <v>247340</v>
+      </c>
+      <c r="J71" s="7">
+        <v>39012</v>
+      </c>
+      <c r="K71" s="7">
+        <v>7450</v>
+      </c>
+      <c r="L71" s="8">
+        <v>18.72</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N71" s="8" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
+++ b/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="125">
   <si>
     <t>资金</t>
   </si>
@@ -133,12 +133,12 @@
     <t>交易市场</t>
   </si>
   <si>
+    <t>DR恒立液</t>
+  </si>
+  <si>
     <t>三安光电</t>
   </si>
   <si>
-    <t>上海机场</t>
-  </si>
-  <si>
     <t>上海洗霸</t>
   </si>
   <si>
@@ -151,13 +151,19 @@
     <t>东方财富</t>
   </si>
   <si>
+    <t>中源协和</t>
+  </si>
+  <si>
     <t>中环股份</t>
   </si>
   <si>
     <t>002129</t>
   </si>
   <si>
-    <t>中石科技</t>
+    <t>中航光电</t>
+  </si>
+  <si>
+    <t>002179</t>
   </si>
   <si>
     <t>九洲药业</t>
@@ -181,10 +187,7 @@
     <t>华北制药</t>
   </si>
   <si>
-    <t>华夏航空</t>
-  </si>
-  <si>
-    <t>002928</t>
+    <t>华大基因</t>
   </si>
   <si>
     <t>华宝添益</t>
@@ -241,24 +244,27 @@
     <t>康德莱</t>
   </si>
   <si>
-    <t>康跃科技</t>
-  </si>
-  <si>
-    <t>恒立液压</t>
-  </si>
-  <si>
     <t>恒铭达</t>
   </si>
   <si>
     <t>002947</t>
   </si>
   <si>
+    <t>拓普集团</t>
+  </si>
+  <si>
     <t>捷顺科技</t>
   </si>
   <si>
     <t>002609</t>
   </si>
   <si>
+    <t>晶澳科技</t>
+  </si>
+  <si>
+    <t>002459</t>
+  </si>
+  <si>
     <t>欧菲光</t>
   </si>
   <si>
@@ -271,12 +277,6 @@
     <t>江山欧派</t>
   </si>
   <si>
-    <t>沙钢股份</t>
-  </si>
-  <si>
-    <t>002075</t>
-  </si>
-  <si>
     <t>深信服</t>
   </si>
   <si>
@@ -349,10 +349,22 @@
     <t>赤峰黄金</t>
   </si>
   <si>
+    <t>达安基因</t>
+  </si>
+  <si>
+    <t>002030</t>
+  </si>
+  <si>
     <t>达志科技</t>
   </si>
   <si>
+    <t>通化东宝</t>
+  </si>
+  <si>
     <t>通威股份</t>
+  </si>
+  <si>
+    <t>金城医药</t>
   </si>
   <si>
     <t>金财互联</t>
@@ -768,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -848,28 +860,28 @@
         <v>1720175912</v>
       </c>
       <c r="C3" s="4">
-        <v>2321806.68</v>
+        <v>2528295.65</v>
       </c>
       <c r="D3" s="4">
-        <v>2527334.14</v>
+        <v>3063917.61</v>
       </c>
       <c r="E3" s="4">
-        <v>2321806.68</v>
+        <v>2528295.65</v>
       </c>
       <c r="F3" s="4">
-        <v>-205527.46</v>
+        <v>-535621.96</v>
       </c>
       <c r="G3" s="4">
-        <v>22952426.68</v>
+        <v>22259477.19</v>
       </c>
       <c r="H3" s="4">
-        <v>25479760.82</v>
+        <v>25323394.8</v>
       </c>
       <c r="I3" s="4">
-        <v>1416594.37</v>
+        <v>1266570.37</v>
       </c>
       <c r="J3" s="4">
-        <v>538630.51</v>
+        <v>-157168.62</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -976,10 +988,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="4">
-        <v>2851000</v>
+        <v>2947000</v>
       </c>
       <c r="C8" s="4">
-        <v>2851000</v>
+        <v>2947000</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -993,7 +1005,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="4">
-        <v>5783000</v>
+        <v>6094000</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -1072,37 +1084,37 @@
         <v>39</v>
       </c>
       <c r="B12" s="6">
-        <v>600703</v>
+        <v>601100</v>
       </c>
       <c r="C12" s="6">
-        <v>15700</v>
+        <v>891</v>
       </c>
       <c r="D12" s="6">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="E12" s="6">
-        <v>15700</v>
+        <v>289</v>
       </c>
       <c r="F12" s="7">
-        <v>25</v>
+        <v>53.25</v>
       </c>
       <c r="G12" s="7">
-        <v>24.711</v>
+        <v>23.037</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>392500</v>
+        <v>47445.75</v>
       </c>
       <c r="J12" s="7">
-        <v>4532.53</v>
+        <v>26920.07</v>
       </c>
       <c r="K12" s="7">
-        <v>4532.53</v>
+        <v>-475.79</v>
       </c>
       <c r="L12" s="8">
-        <v>1.17</v>
+        <v>131.15</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>23</v>
@@ -1112,46 +1124,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="6">
-        <v>600009</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>72.07</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
-        <v>6073</v>
-      </c>
-      <c r="K13" s="7">
-        <v>6308.32</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8" t="s">
+      <c r="B13" s="10">
+        <v>600703</v>
+      </c>
+      <c r="C13" s="10">
+        <v>15700</v>
+      </c>
+      <c r="D13" s="10">
+        <v>15700</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>24.71</v>
+      </c>
+      <c r="G13" s="11">
+        <v>24.711</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>387947</v>
+      </c>
+      <c r="J13" s="11">
+        <v>-19.33</v>
+      </c>
+      <c r="K13" s="11">
+        <v>-4553</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1172,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="11">
-        <v>40.89</v>
+        <v>40.91</v>
       </c>
       <c r="G14" s="11">
         <v>43.525</v>
@@ -1181,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I14" s="11">
-        <v>339387</v>
+        <v>339553</v>
       </c>
       <c r="J14" s="11">
-        <v>-21873.63</v>
+        <v>-21707.63</v>
       </c>
       <c r="K14" s="11">
-        <v>-2573</v>
+        <v>166</v>
       </c>
       <c r="L14" s="9">
-        <v>-6.05</v>
+        <v>-6.01</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>23</v>
@@ -1216,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>15.31</v>
+        <v>15.32</v>
       </c>
       <c r="G15" s="7">
         <v>15.036</v>
@@ -1225,16 +1237,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>359785</v>
+        <v>360020</v>
       </c>
       <c r="J15" s="7">
-        <v>6442.61</v>
+        <v>6677.61</v>
       </c>
       <c r="K15" s="7">
-        <v>4935</v>
+        <v>235</v>
       </c>
       <c r="L15" s="8">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>25</v>
@@ -1254,31 +1266,31 @@
         <v>19900</v>
       </c>
       <c r="D16" s="6">
-        <v>19300</v>
+        <v>19900</v>
       </c>
       <c r="E16" s="6">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>20.2</v>
+        <v>20.24</v>
       </c>
       <c r="G16" s="7">
-        <v>18.565</v>
+        <v>18.564</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>401980</v>
+        <v>402776</v>
       </c>
       <c r="J16" s="7">
-        <v>32544.11</v>
+        <v>33343.68</v>
       </c>
       <c r="K16" s="7">
-        <v>32973</v>
+        <v>796</v>
       </c>
       <c r="L16" s="8">
-        <v>8.81</v>
+        <v>9.03</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>25</v>
@@ -1288,85 +1300,85 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="6">
-        <v>19100</v>
-      </c>
-      <c r="D17" s="6">
-        <v>19100</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>22.46</v>
-      </c>
-      <c r="G17" s="7">
-        <v>21.087</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>428986</v>
-      </c>
-      <c r="J17" s="7">
-        <v>26230.6</v>
-      </c>
-      <c r="K17" s="7">
-        <v>24066</v>
-      </c>
-      <c r="L17" s="8">
-        <v>6.51</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>24</v>
+      <c r="B17" s="10">
+        <v>600645</v>
+      </c>
+      <c r="C17" s="10">
+        <v>13300</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>13300</v>
+      </c>
+      <c r="F17" s="11">
+        <v>27.61</v>
+      </c>
+      <c r="G17" s="11">
+        <v>27.72</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>367213</v>
+      </c>
+      <c r="J17" s="11">
+        <v>-1464.76</v>
+      </c>
+      <c r="K17" s="11">
+        <v>-1464.76</v>
+      </c>
+      <c r="L17" s="9">
+        <v>-0.4</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="6">
-        <v>300684</v>
-      </c>
       <c r="C18" s="6">
-        <v>0</v>
+        <v>19100</v>
       </c>
       <c r="D18" s="6">
-        <v>0</v>
+        <v>19100</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>34.7</v>
+        <v>22.63</v>
       </c>
       <c r="G18" s="7">
-        <v>0</v>
+        <v>21.087</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>432233</v>
       </c>
       <c r="J18" s="7">
-        <v>69794.41</v>
+        <v>29477.6</v>
       </c>
       <c r="K18" s="7">
-        <v>34182.21</v>
+        <v>3247</v>
       </c>
       <c r="L18" s="8">
-        <v>0</v>
+        <v>7.32</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>25</v>
@@ -1376,173 +1388,173 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="6">
+        <v>4700</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4700</v>
+      </c>
+      <c r="F19" s="7">
+        <v>40.63</v>
+      </c>
+      <c r="G19" s="7">
+        <v>40.005</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>190961</v>
+      </c>
+      <c r="J19" s="7">
+        <v>2938.44</v>
+      </c>
+      <c r="K19" s="7">
+        <v>2938.44</v>
+      </c>
+      <c r="L19" s="8">
+        <v>1.56</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="10">
         <v>603456</v>
       </c>
-      <c r="C19" s="10">
-        <v>12320</v>
-      </c>
-      <c r="D19" s="10">
-        <v>12320</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <v>27.1</v>
-      </c>
-      <c r="G19" s="11">
-        <v>28.456</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>333872</v>
-      </c>
-      <c r="J19" s="11">
-        <v>-16708.1</v>
-      </c>
-      <c r="K19" s="11">
-        <v>-5297.6</v>
-      </c>
-      <c r="L19" s="9">
-        <v>-4.77</v>
-      </c>
-      <c r="M19" s="9" t="s">
+      <c r="C20" s="10">
+        <v>20</v>
+      </c>
+      <c r="D20" s="10">
+        <v>20</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <v>28.2</v>
+      </c>
+      <c r="G20" s="11">
+        <v>261.789</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <v>564</v>
+      </c>
+      <c r="J20" s="11">
+        <v>-4671.78</v>
+      </c>
+      <c r="K20" s="11">
+        <v>12036.32</v>
+      </c>
+      <c r="L20" s="9">
+        <v>-89.23</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="6">
-        <v>603666</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3900</v>
-      </c>
-      <c r="D20" s="6">
-        <v>3900</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>87.76</v>
-      </c>
-      <c r="G20" s="7">
-        <v>72.526</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>342264</v>
-      </c>
-      <c r="J20" s="7">
-        <v>59413.28</v>
-      </c>
-      <c r="K20" s="7">
-        <v>27768</v>
-      </c>
-      <c r="L20" s="8">
-        <v>21</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="8" t="s">
+      <c r="N20" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="6">
-        <v>300673</v>
+        <v>603666</v>
       </c>
       <c r="C21" s="6">
-        <v>4900</v>
+        <v>3900</v>
       </c>
       <c r="D21" s="6">
-        <v>4900</v>
+        <v>3900</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="7">
-        <v>38.88</v>
+        <v>89.7</v>
       </c>
       <c r="G21" s="7">
-        <v>36.102</v>
+        <v>72.526</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>190512</v>
+        <v>349830</v>
       </c>
       <c r="J21" s="7">
-        <v>13610.83</v>
+        <v>66979.28</v>
       </c>
       <c r="K21" s="7">
-        <v>-392</v>
+        <v>7566</v>
       </c>
       <c r="L21" s="8">
-        <v>7.69</v>
+        <v>23.68</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="6">
-        <v>300136</v>
+        <v>300673</v>
       </c>
       <c r="C22" s="6">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="D22" s="6">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>53.02</v>
+        <v>39.82</v>
       </c>
       <c r="G22" s="7">
-        <v>47.773</v>
+        <v>18</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>185570</v>
+        <v>31856</v>
       </c>
       <c r="J22" s="7">
-        <v>18365.94</v>
+        <v>17456.01</v>
       </c>
       <c r="K22" s="7">
-        <v>16870</v>
+        <v>3845.18</v>
       </c>
       <c r="L22" s="8">
-        <v>10.98</v>
+        <v>121.22</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>25</v>
@@ -1553,178 +1565,178 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="6">
-        <v>603707</v>
+        <v>300136</v>
       </c>
       <c r="C23" s="6">
-        <v>5700</v>
+        <v>7100</v>
       </c>
       <c r="D23" s="6">
-        <v>5700</v>
+        <v>3500</v>
       </c>
       <c r="E23" s="6">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="F23" s="7">
-        <v>64.57</v>
+        <v>53.66</v>
       </c>
       <c r="G23" s="7">
-        <v>61.884</v>
+        <v>50.973</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>368049</v>
+        <v>380986</v>
       </c>
       <c r="J23" s="7">
-        <v>15312.67</v>
+        <v>19074.88</v>
       </c>
       <c r="K23" s="7">
-        <v>20406</v>
+        <v>708.94</v>
       </c>
       <c r="L23" s="8">
-        <v>4.34</v>
+        <v>5.27</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" s="6">
-        <v>300161</v>
+        <v>603707</v>
       </c>
       <c r="C24" s="6">
-        <v>4900</v>
+        <v>5700</v>
       </c>
       <c r="D24" s="6">
-        <v>4900</v>
+        <v>5700</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>23.98</v>
+        <v>63.5</v>
       </c>
       <c r="G24" s="7">
-        <v>22.39</v>
+        <v>61.884</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>117502</v>
+        <v>361950</v>
       </c>
       <c r="J24" s="7">
-        <v>7792.84</v>
+        <v>9213.67</v>
       </c>
       <c r="K24" s="7">
-        <v>7791</v>
+        <v>-6099</v>
       </c>
       <c r="L24" s="8">
-        <v>7.1</v>
+        <v>2.61</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" s="6">
+        <v>300161</v>
+      </c>
+      <c r="C25" s="6">
+        <v>4900</v>
+      </c>
+      <c r="D25" s="6">
+        <v>4900</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="G25" s="7">
+        <v>22.39</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>120050</v>
+      </c>
+      <c r="J25" s="7">
+        <v>10340.84</v>
+      </c>
+      <c r="K25" s="7">
+        <v>2548</v>
+      </c>
+      <c r="L25" s="8">
+        <v>9.42</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="6">
         <v>600812</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C26" s="6">
         <v>24800</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D26" s="6">
         <v>24800</v>
       </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>12.89</v>
-      </c>
-      <c r="G25" s="7">
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>12.79</v>
+      </c>
+      <c r="G26" s="7">
         <v>12.066</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>319672</v>
-      </c>
-      <c r="J25" s="7">
-        <v>20444.11</v>
-      </c>
-      <c r="K25" s="7">
-        <v>21824</v>
-      </c>
-      <c r="L25" s="8">
-        <v>6.83</v>
-      </c>
-      <c r="M25" s="8" t="s">
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>317192</v>
+      </c>
+      <c r="J26" s="7">
+        <v>17964.11</v>
+      </c>
+      <c r="K26" s="7">
+        <v>-2480</v>
+      </c>
+      <c r="L26" s="8">
+        <v>6</v>
+      </c>
+      <c r="M26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="8" t="s">
+      <c r="N26" s="8" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="10">
-        <v>0</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0</v>
-      </c>
-      <c r="F26" s="11">
-        <v>15.05</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0</v>
-      </c>
-      <c r="H26" s="11">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11">
-        <v>0</v>
-      </c>
-      <c r="J26" s="11">
-        <v>-44888.44</v>
-      </c>
-      <c r="K26" s="11">
-        <v>15751.92</v>
-      </c>
-      <c r="L26" s="9">
-        <v>0</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1732,125 +1744,125 @@
         <v>57</v>
       </c>
       <c r="B27" s="6">
-        <v>511990</v>
+        <v>300676</v>
       </c>
       <c r="C27" s="6">
-        <v>40015</v>
+        <v>2400</v>
       </c>
       <c r="D27" s="6">
-        <v>40015</v>
+        <v>0</v>
       </c>
       <c r="E27" s="6">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F27" s="7">
-        <v>99.974</v>
+        <v>154.4</v>
       </c>
       <c r="G27" s="7">
-        <v>95.849</v>
+        <v>154.243</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>4000459.61</v>
+        <v>370560</v>
       </c>
       <c r="J27" s="7">
-        <v>165069.6</v>
+        <v>375.81</v>
       </c>
       <c r="K27" s="7">
-        <v>-40.02</v>
+        <v>375.81</v>
       </c>
       <c r="L27" s="8">
-        <v>4.3</v>
+        <v>0.1</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>59</v>
+      <c r="B28" s="6">
+        <v>511990</v>
       </c>
       <c r="C28" s="6">
-        <v>57600</v>
+        <v>40017</v>
       </c>
       <c r="D28" s="6">
-        <v>57600</v>
+        <v>40017</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
       </c>
       <c r="F28" s="7">
-        <v>17.32</v>
+        <v>99.976</v>
       </c>
       <c r="G28" s="7">
-        <v>16.314</v>
+        <v>95.844</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>997632</v>
+        <v>4000739.59</v>
       </c>
       <c r="J28" s="7">
-        <v>57928.23</v>
+        <v>165349.58</v>
       </c>
       <c r="K28" s="7">
-        <v>35712</v>
+        <v>80.03</v>
       </c>
       <c r="L28" s="8">
-        <v>6.17</v>
+        <v>4.31</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="C29" s="6">
-        <v>11700</v>
+        <v>57600</v>
       </c>
       <c r="D29" s="6">
-        <v>11700</v>
+        <v>57600</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>74.13</v>
+        <v>17.51</v>
       </c>
       <c r="G29" s="7">
-        <v>65.958</v>
+        <v>16.314</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>867321</v>
+        <v>1008576</v>
       </c>
       <c r="J29" s="7">
-        <v>95613.39</v>
+        <v>68872.23</v>
       </c>
       <c r="K29" s="7">
-        <v>3861</v>
+        <v>10944</v>
       </c>
       <c r="L29" s="8">
-        <v>12.39</v>
+        <v>7.33</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>25</v>
@@ -1861,128 +1873,128 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="6">
+      <c r="C30" s="6">
+        <v>11700</v>
+      </c>
+      <c r="D30" s="6">
+        <v>11700</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>71.36</v>
+      </c>
+      <c r="G30" s="7">
+        <v>65.958</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>834912</v>
+      </c>
+      <c r="J30" s="7">
+        <v>63204.39</v>
+      </c>
+      <c r="K30" s="7">
+        <v>-32409</v>
+      </c>
+      <c r="L30" s="8">
+        <v>8.19</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="10">
         <v>603520</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C31" s="10">
         <v>4600</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D31" s="10">
         <v>4600</v>
       </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>84.06</v>
-      </c>
-      <c r="G30" s="7">
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <v>75.65</v>
+      </c>
+      <c r="G31" s="11">
         <v>81.155</v>
       </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>386676</v>
-      </c>
-      <c r="J30" s="7">
-        <v>13364.8</v>
-      </c>
-      <c r="K30" s="7">
-        <v>-2944</v>
-      </c>
-      <c r="L30" s="8">
-        <v>3.58</v>
-      </c>
-      <c r="M30" s="8" t="s">
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>347990</v>
+      </c>
+      <c r="J31" s="11">
+        <v>-25321.2</v>
+      </c>
+      <c r="K31" s="11">
+        <v>-38686</v>
+      </c>
+      <c r="L31" s="9">
+        <v>-6.78</v>
+      </c>
+      <c r="M31" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N30" s="8" t="s">
+      <c r="N31" s="9" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="6">
-        <v>300636</v>
-      </c>
-      <c r="C31" s="6">
-        <v>2720</v>
-      </c>
-      <c r="D31" s="6">
-        <v>2720</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <v>40.03</v>
-      </c>
-      <c r="G31" s="7">
-        <v>37.925</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>108881.6</v>
-      </c>
-      <c r="J31" s="7">
-        <v>5725.2</v>
-      </c>
-      <c r="K31" s="7">
-        <v>-81.6</v>
-      </c>
-      <c r="L31" s="8">
-        <v>5.55</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>65</v>
+      <c r="B32" s="6">
+        <v>300636</v>
       </c>
       <c r="C32" s="6">
-        <v>4300</v>
+        <v>2720</v>
       </c>
       <c r="D32" s="6">
-        <v>4300</v>
+        <v>2720</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="F32" s="7">
-        <v>94.09</v>
+        <v>40.37</v>
       </c>
       <c r="G32" s="7">
-        <v>83.3</v>
+        <v>37.925</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>404587</v>
+        <v>109806.4</v>
       </c>
       <c r="J32" s="7">
-        <v>46397.89</v>
+        <v>6650</v>
       </c>
       <c r="K32" s="7">
-        <v>8987</v>
+        <v>924.8</v>
       </c>
       <c r="L32" s="8">
-        <v>12.95</v>
+        <v>6.45</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>25</v>
@@ -1993,40 +2005,40 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="C33" s="6">
-        <v>55800</v>
+        <v>4300</v>
       </c>
       <c r="D33" s="6">
-        <v>55800</v>
+        <v>4300</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
       <c r="F33" s="7">
-        <v>15.54</v>
+        <v>88.33</v>
       </c>
       <c r="G33" s="7">
-        <v>15.136</v>
+        <v>83.3</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
       </c>
       <c r="I33" s="7">
-        <v>867132</v>
+        <v>379819</v>
       </c>
       <c r="J33" s="7">
-        <v>22533.57</v>
+        <v>21629.89</v>
       </c>
       <c r="K33" s="7">
-        <v>-2232</v>
+        <v>-24768</v>
       </c>
       <c r="L33" s="8">
-        <v>2.67</v>
+        <v>6.04</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>25</v>
@@ -2037,128 +2049,128 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="6">
+      <c r="C34" s="6">
+        <v>55800</v>
+      </c>
+      <c r="D34" s="6">
+        <v>55800</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>15.84</v>
+      </c>
+      <c r="G34" s="7">
+        <v>15.136</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>883872</v>
+      </c>
+      <c r="J34" s="7">
+        <v>39273.57</v>
+      </c>
+      <c r="K34" s="7">
+        <v>16740</v>
+      </c>
+      <c r="L34" s="8">
+        <v>4.65</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="10">
         <v>300738</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C35" s="10">
         <v>4300</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D35" s="10">
         <v>4300</v>
       </c>
-      <c r="E34" s="6">
-        <v>0</v>
-      </c>
-      <c r="F34" s="7">
-        <v>57.68</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="E35" s="10">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11">
+        <v>55.95</v>
+      </c>
+      <c r="G35" s="11">
         <v>57.07</v>
       </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>248024</v>
-      </c>
-      <c r="J34" s="7">
-        <v>2622.57</v>
-      </c>
-      <c r="K34" s="7">
-        <v>473</v>
-      </c>
-      <c r="L34" s="8">
-        <v>1.07</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="6">
-        <v>22400</v>
-      </c>
-      <c r="D35" s="6">
-        <v>22400</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0</v>
-      </c>
-      <c r="F35" s="7">
-        <v>12.87</v>
-      </c>
-      <c r="G35" s="7">
-        <v>12.235</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>288288</v>
-      </c>
-      <c r="J35" s="7">
-        <v>14235.15</v>
-      </c>
-      <c r="K35" s="7">
-        <v>1792</v>
-      </c>
-      <c r="L35" s="8">
-        <v>5.19</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" s="8" t="s">
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>240585</v>
+      </c>
+      <c r="J35" s="11">
+        <v>-4816.43</v>
+      </c>
+      <c r="K35" s="11">
+        <v>-7439</v>
+      </c>
+      <c r="L35" s="9">
+        <v>-1.96</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="6">
-        <v>300750</v>
-      </c>
       <c r="C36" s="6">
-        <v>2200</v>
+        <v>22400</v>
       </c>
       <c r="D36" s="6">
-        <v>2200</v>
+        <v>22400</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
       </c>
       <c r="F36" s="7">
-        <v>174.36</v>
+        <v>13.15</v>
       </c>
       <c r="G36" s="7">
-        <v>167.885</v>
+        <v>12.235</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>383592</v>
+        <v>294560</v>
       </c>
       <c r="J36" s="7">
-        <v>14244.68</v>
+        <v>20507.15</v>
       </c>
       <c r="K36" s="7">
-        <v>7304</v>
+        <v>6272</v>
       </c>
       <c r="L36" s="8">
-        <v>3.86</v>
+        <v>7.48</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>25</v>
@@ -2172,37 +2184,37 @@
         <v>72</v>
       </c>
       <c r="B37" s="6">
-        <v>300674</v>
+        <v>300750</v>
       </c>
       <c r="C37" s="6">
-        <v>8800</v>
+        <v>2200</v>
       </c>
       <c r="D37" s="6">
-        <v>8800</v>
+        <v>2200</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="7">
-        <v>43.15</v>
+        <v>169.4</v>
       </c>
       <c r="G37" s="7">
-        <v>41.59</v>
+        <v>167.885</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>379720</v>
+        <v>372680</v>
       </c>
       <c r="J37" s="7">
-        <v>13728.06</v>
+        <v>3332.68</v>
       </c>
       <c r="K37" s="7">
-        <v>17160</v>
+        <v>-10912</v>
       </c>
       <c r="L37" s="8">
-        <v>3.75</v>
+        <v>0.9</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>25</v>
@@ -2216,37 +2228,37 @@
         <v>73</v>
       </c>
       <c r="B38" s="6">
-        <v>300572</v>
+        <v>300674</v>
       </c>
       <c r="C38" s="6">
-        <v>4200</v>
+        <v>8800</v>
       </c>
       <c r="D38" s="6">
-        <v>4200</v>
+        <v>8800</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
       </c>
       <c r="F38" s="7">
-        <v>63.55</v>
+        <v>42</v>
       </c>
       <c r="G38" s="7">
-        <v>63.528</v>
+        <v>41.59</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>266910</v>
+        <v>369600</v>
       </c>
       <c r="J38" s="7">
-        <v>92.96</v>
+        <v>3608.06</v>
       </c>
       <c r="K38" s="7">
-        <v>10038</v>
+        <v>-10120</v>
       </c>
       <c r="L38" s="8">
-        <v>0.03</v>
+        <v>0.99</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>25</v>
@@ -2260,43 +2272,43 @@
         <v>74</v>
       </c>
       <c r="B39" s="6">
-        <v>603987</v>
+        <v>300572</v>
       </c>
       <c r="C39" s="6">
-        <v>54200</v>
+        <v>4200</v>
       </c>
       <c r="D39" s="6">
-        <v>54200</v>
+        <v>4200</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="7">
-        <v>17.31</v>
+        <v>67.63</v>
       </c>
       <c r="G39" s="7">
-        <v>14.285</v>
+        <v>63.528</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="I39" s="7">
-        <v>938202</v>
+        <v>284046</v>
       </c>
       <c r="J39" s="7">
-        <v>163928.11</v>
+        <v>17228.96</v>
       </c>
       <c r="K39" s="7">
-        <v>18970</v>
+        <v>17136</v>
       </c>
       <c r="L39" s="8">
-        <v>21.18</v>
+        <v>6.46</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2304,131 +2316,131 @@
         <v>75</v>
       </c>
       <c r="B40" s="6">
-        <v>300391</v>
+        <v>603987</v>
       </c>
       <c r="C40" s="6">
-        <v>0</v>
+        <v>54200</v>
       </c>
       <c r="D40" s="6">
-        <v>0</v>
+        <v>54200</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
       </c>
       <c r="F40" s="7">
-        <v>13.14</v>
+        <v>16.91</v>
       </c>
       <c r="G40" s="7">
-        <v>0</v>
+        <v>14.285</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>0</v>
+        <v>916522</v>
       </c>
       <c r="J40" s="7">
-        <v>720.18</v>
+        <v>142248.11</v>
       </c>
       <c r="K40" s="7">
-        <v>-515.19</v>
+        <v>-21680</v>
       </c>
       <c r="L40" s="8">
-        <v>0</v>
+        <v>18.38</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="6">
-        <v>601100</v>
+      <c r="B41" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="C41" s="6">
-        <v>602</v>
+        <v>5300</v>
       </c>
       <c r="D41" s="6">
-        <v>602</v>
+        <v>5300</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41" s="7">
-        <v>80.2</v>
+        <v>65.15</v>
       </c>
       <c r="G41" s="7">
-        <v>34.696</v>
+        <v>55.937</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>48280.4</v>
+        <v>345295</v>
       </c>
       <c r="J41" s="7">
-        <v>27393.52</v>
+        <v>48831.46</v>
       </c>
       <c r="K41" s="7">
-        <v>3016.02</v>
+        <v>6095</v>
       </c>
       <c r="L41" s="8">
-        <v>131.15</v>
+        <v>16.47</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="8" t="s">
         <v>78</v>
       </c>
+      <c r="B42" s="6">
+        <v>601689</v>
+      </c>
       <c r="C42" s="6">
-        <v>5300</v>
+        <v>600</v>
       </c>
       <c r="D42" s="6">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="E42" s="6">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F42" s="7">
-        <v>64</v>
+        <v>27.51</v>
       </c>
       <c r="G42" s="7">
-        <v>55.937</v>
+        <v>27.339</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>339200</v>
+        <v>16506</v>
       </c>
       <c r="J42" s="7">
-        <v>42736.46</v>
+        <v>102.67</v>
       </c>
       <c r="K42" s="7">
-        <v>23691</v>
+        <v>102.67</v>
       </c>
       <c r="L42" s="8">
-        <v>14.41</v>
+        <v>0.63</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2448,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="7">
-        <v>12.75</v>
+        <v>12.31</v>
       </c>
       <c r="G43" s="7">
         <v>12.302</v>
@@ -2457,16 +2469,16 @@
         <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>368475</v>
+        <v>355759</v>
       </c>
       <c r="J43" s="7">
-        <v>12951.33</v>
+        <v>235.33</v>
       </c>
       <c r="K43" s="7">
-        <v>9537</v>
+        <v>-12716</v>
       </c>
       <c r="L43" s="8">
-        <v>3.64</v>
+        <v>0.07</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>25</v>
@@ -2476,144 +2488,144 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="10">
+        <v>5100</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+      <c r="E44" s="10">
+        <v>5100</v>
+      </c>
+      <c r="F44" s="11">
+        <v>18.23</v>
+      </c>
+      <c r="G44" s="11">
+        <v>18.371</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <v>92973</v>
+      </c>
+      <c r="J44" s="11">
+        <v>-719</v>
+      </c>
+      <c r="K44" s="11">
+        <v>-719</v>
+      </c>
+      <c r="L44" s="9">
+        <v>-0.77</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="6">
         <v>21400</v>
       </c>
-      <c r="D44" s="6">
-        <v>0</v>
-      </c>
-      <c r="E44" s="6">
+      <c r="D45" s="6">
         <v>21400</v>
       </c>
-      <c r="F44" s="7">
-        <v>18.39</v>
-      </c>
-      <c r="G44" s="7">
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>18.91</v>
+      </c>
+      <c r="G45" s="7">
         <v>18.128</v>
       </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>393546</v>
-      </c>
-      <c r="J44" s="7">
-        <v>5609.46</v>
-      </c>
-      <c r="K44" s="7">
-        <v>5609.46</v>
-      </c>
-      <c r="L44" s="8">
-        <v>1.45</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="10">
-        <v>300609</v>
-      </c>
-      <c r="C45" s="10">
-        <v>6100</v>
-      </c>
-      <c r="D45" s="10">
-        <v>6100</v>
-      </c>
-      <c r="E45" s="10">
-        <v>0</v>
-      </c>
-      <c r="F45" s="11">
-        <v>36.7</v>
-      </c>
-      <c r="G45" s="11">
-        <v>45.386</v>
-      </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
-        <v>223870</v>
-      </c>
-      <c r="J45" s="11">
-        <v>-52987.48</v>
-      </c>
-      <c r="K45" s="11">
-        <v>732</v>
-      </c>
-      <c r="L45" s="9">
-        <v>-19.14</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N45" s="9" t="s">
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>404674</v>
+      </c>
+      <c r="J45" s="7">
+        <v>16737.46</v>
+      </c>
+      <c r="K45" s="7">
+        <v>11128</v>
+      </c>
+      <c r="L45" s="8">
+        <v>4.31</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B46" s="10">
-        <v>603208</v>
+        <v>300609</v>
       </c>
       <c r="C46" s="10">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="D46" s="10">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E46" s="10">
         <v>0</v>
       </c>
       <c r="F46" s="11">
-        <v>97.4</v>
+        <v>37.23</v>
       </c>
       <c r="G46" s="11">
-        <v>101.821</v>
+        <v>0</v>
       </c>
       <c r="H46" s="11">
         <v>0</v>
       </c>
       <c r="I46" s="11">
-        <v>116880</v>
+        <v>0</v>
       </c>
       <c r="J46" s="11">
-        <v>-5305.09</v>
+        <v>-51828.95</v>
       </c>
       <c r="K46" s="11">
-        <v>1692</v>
+        <v>1158.53</v>
       </c>
       <c r="L46" s="9">
-        <v>-4.34</v>
+        <v>0</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="9" t="s">
         <v>86</v>
       </c>
+      <c r="B47" s="10">
+        <v>603208</v>
+      </c>
       <c r="C47" s="10">
         <v>0</v>
       </c>
@@ -2624,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="11">
-        <v>12.5</v>
+        <v>101.86</v>
       </c>
       <c r="G47" s="11">
         <v>0</v>
@@ -2636,19 +2648,19 @@
         <v>0</v>
       </c>
       <c r="J47" s="11">
-        <v>-38568.27</v>
+        <v>-173.7</v>
       </c>
       <c r="K47" s="11">
-        <v>-2312.6</v>
+        <v>5131.39</v>
       </c>
       <c r="L47" s="9">
         <v>0</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2659,34 +2671,34 @@
         <v>300454</v>
       </c>
       <c r="C48" s="6">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="D48" s="6">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="E48" s="6">
         <v>0</v>
       </c>
       <c r="F48" s="7">
-        <v>205.96</v>
+        <v>198</v>
       </c>
       <c r="G48" s="7">
-        <v>179.614</v>
+        <v>0</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>1070992</v>
+        <v>0</v>
       </c>
       <c r="J48" s="7">
-        <v>136996.96</v>
+        <v>85974.32</v>
       </c>
       <c r="K48" s="7">
-        <v>68016</v>
+        <v>-51022.64</v>
       </c>
       <c r="L48" s="8">
-        <v>14.67</v>
+        <v>0</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>25</v>
@@ -2696,46 +2708,46 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="10">
         <v>14300</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="10">
         <v>14300</v>
       </c>
-      <c r="E49" s="6">
-        <v>0</v>
-      </c>
-      <c r="F49" s="7">
-        <v>26.08</v>
-      </c>
-      <c r="G49" s="7">
+      <c r="E49" s="10">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11">
+        <v>25.53</v>
+      </c>
+      <c r="G49" s="11">
         <v>26.04</v>
       </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>372944</v>
-      </c>
-      <c r="J49" s="7">
-        <v>572.31</v>
-      </c>
-      <c r="K49" s="7">
-        <v>10868</v>
-      </c>
-      <c r="L49" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N49" s="8" t="s">
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
+        <v>365079</v>
+      </c>
+      <c r="J49" s="11">
+        <v>-7292.69</v>
+      </c>
+      <c r="K49" s="11">
+        <v>-7865</v>
+      </c>
+      <c r="L49" s="9">
+        <v>-1.96</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2756,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="7">
-        <v>12.03</v>
+        <v>12.39</v>
       </c>
       <c r="G50" s="7">
         <v>10.005</v>
@@ -2765,16 +2777,16 @@
         <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>435486</v>
+        <v>448518</v>
       </c>
       <c r="J50" s="7">
-        <v>73296.3</v>
+        <v>86328.3</v>
       </c>
       <c r="K50" s="7">
-        <v>29684</v>
+        <v>13032</v>
       </c>
       <c r="L50" s="8">
-        <v>20.24</v>
+        <v>23.84</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>23</v>
@@ -2791,34 +2803,34 @@
         <v>92</v>
       </c>
       <c r="C51" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="D51" s="6">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="7">
-        <v>45.32</v>
+        <v>45.16</v>
       </c>
       <c r="G51" s="7">
-        <v>42.075</v>
+        <v>0</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>362560</v>
+        <v>0</v>
       </c>
       <c r="J51" s="7">
-        <v>25962.6</v>
+        <v>20709.7</v>
       </c>
       <c r="K51" s="7">
-        <v>20160</v>
+        <v>-5252.9</v>
       </c>
       <c r="L51" s="8">
-        <v>7.71</v>
+        <v>0</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>25</v>
@@ -2844,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="7">
-        <v>22.7</v>
+        <v>22.29</v>
       </c>
       <c r="G52" s="7">
         <v>19.052</v>
@@ -2853,16 +2865,16 @@
         <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>547070</v>
+        <v>537189</v>
       </c>
       <c r="J52" s="7">
-        <v>87915.39</v>
+        <v>78034.39</v>
       </c>
       <c r="K52" s="7">
-        <v>21931</v>
+        <v>-9881</v>
       </c>
       <c r="L52" s="8">
-        <v>19.15</v>
+        <v>17</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>23</v>
@@ -2888,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="7">
-        <v>39.03</v>
+        <v>37.57</v>
       </c>
       <c r="G53" s="7">
         <v>35.911</v>
@@ -2897,16 +2909,16 @@
         <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>144411</v>
+        <v>139009</v>
       </c>
       <c r="J53" s="7">
-        <v>11539.36</v>
+        <v>6137.36</v>
       </c>
       <c r="K53" s="7">
-        <v>111</v>
+        <v>-5402</v>
       </c>
       <c r="L53" s="8">
-        <v>8.69</v>
+        <v>4.62</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>25</v>
@@ -2923,10 +2935,10 @@
         <v>97</v>
       </c>
       <c r="C54" s="13">
-        <v>2851000</v>
+        <v>2947000</v>
       </c>
       <c r="D54" s="13">
-        <v>2851000</v>
+        <v>2947000</v>
       </c>
       <c r="E54" s="13">
         <v>0</v>
@@ -2967,34 +2979,34 @@
         <v>99</v>
       </c>
       <c r="C55" s="6">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="D55" s="6">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
       </c>
       <c r="F55" s="7">
-        <v>37.43</v>
+        <v>37.22</v>
       </c>
       <c r="G55" s="7">
-        <v>36.812</v>
+        <v>0</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>247038</v>
+        <v>0</v>
       </c>
       <c r="J55" s="7">
-        <v>4078.85</v>
+        <v>709.03</v>
       </c>
       <c r="K55" s="7">
-        <v>8184</v>
+        <v>-3369.82</v>
       </c>
       <c r="L55" s="8">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>25</v>
@@ -3020,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="11">
-        <v>44.5</v>
+        <v>42.16</v>
       </c>
       <c r="G56" s="11">
         <v>44.509</v>
@@ -3029,16 +3041,16 @@
         <v>0</v>
       </c>
       <c r="I56" s="11">
-        <v>218050</v>
+        <v>206584</v>
       </c>
       <c r="J56" s="11">
-        <v>-42.16</v>
+        <v>-11508.16</v>
       </c>
       <c r="K56" s="11">
-        <v>12152</v>
+        <v>-11466</v>
       </c>
       <c r="L56" s="9">
-        <v>-0.02</v>
+        <v>-5.28</v>
       </c>
       <c r="M56" s="9" t="s">
         <v>25</v>
@@ -3064,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="7">
-        <v>96.15</v>
+        <v>97.42</v>
       </c>
       <c r="G57" s="7">
         <v>-40.749</v>
@@ -3073,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>41344.5</v>
+        <v>41890.6</v>
       </c>
       <c r="J57" s="7">
-        <v>58866.76</v>
+        <v>59412.86</v>
       </c>
       <c r="K57" s="7">
-        <v>2257.5</v>
+        <v>546.1</v>
       </c>
       <c r="L57" s="8">
         <v>0</v>
@@ -3099,34 +3111,34 @@
         <v>603916</v>
       </c>
       <c r="C58" s="10">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="D58" s="10">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="E58" s="10">
         <v>0</v>
       </c>
       <c r="F58" s="11">
-        <v>25.15</v>
+        <v>26.11</v>
       </c>
       <c r="G58" s="11">
-        <v>30.51</v>
+        <v>0</v>
       </c>
       <c r="H58" s="11">
         <v>0</v>
       </c>
       <c r="I58" s="11">
-        <v>196170</v>
+        <v>0</v>
       </c>
       <c r="J58" s="11">
-        <v>-41808.3</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>14</v>
+        <v>-35948.67</v>
+      </c>
+      <c r="K58" s="11">
+        <v>5859.63</v>
       </c>
       <c r="L58" s="9">
-        <v>-17.57</v>
+        <v>0</v>
       </c>
       <c r="M58" s="9" t="s">
         <v>23</v>
@@ -3152,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="7">
-        <v>13.17</v>
+        <v>12.85</v>
       </c>
       <c r="G59" s="7">
         <v>9.731</v>
@@ -3161,16 +3173,16 @@
         <v>0</v>
       </c>
       <c r="I59" s="7">
-        <v>687750.57</v>
+        <v>671039.85</v>
       </c>
       <c r="J59" s="7">
-        <v>179611.89</v>
+        <v>162901.17</v>
       </c>
       <c r="K59" s="7">
-        <v>-13055.25</v>
+        <v>-16710.72</v>
       </c>
       <c r="L59" s="8">
-        <v>35.34</v>
+        <v>32.05</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>25</v>
@@ -3196,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="7">
-        <v>127.8</v>
+        <v>122.55</v>
       </c>
       <c r="G60" s="7">
         <v>115.627</v>
@@ -3205,16 +3217,16 @@
         <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>421740</v>
+        <v>404415</v>
       </c>
       <c r="J60" s="7">
-        <v>40172.2</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>14</v>
+        <v>22847.2</v>
+      </c>
+      <c r="K60" s="7">
+        <v>-17325</v>
       </c>
       <c r="L60" s="8">
-        <v>10.53</v>
+        <v>5.99</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>25</v>
@@ -3231,83 +3243,83 @@
         <v>107</v>
       </c>
       <c r="C61" s="10">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="D61" s="10">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E61" s="10">
         <v>0</v>
       </c>
       <c r="F61" s="11">
-        <v>29.91</v>
+        <v>30.51</v>
       </c>
       <c r="G61" s="11">
-        <v>80.233</v>
+        <v>0</v>
       </c>
       <c r="H61" s="11">
         <v>0</v>
       </c>
       <c r="I61" s="11">
-        <v>17946</v>
+        <v>0</v>
       </c>
       <c r="J61" s="11">
-        <v>-30193.7</v>
+        <v>-29940.92</v>
       </c>
       <c r="K61" s="11">
+        <v>252.78</v>
+      </c>
+      <c r="L61" s="9">
+        <v>0</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="L61" s="9">
-        <v>-62.72</v>
-      </c>
-      <c r="M61" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N61" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="10">
         <v>10300</v>
       </c>
-      <c r="D62" s="6">
-        <v>0</v>
-      </c>
-      <c r="E62" s="6">
+      <c r="D62" s="10">
         <v>10300</v>
       </c>
-      <c r="F62" s="7">
-        <v>30.11</v>
-      </c>
-      <c r="G62" s="7">
-        <v>30.001</v>
-      </c>
-      <c r="H62" s="7">
-        <v>0</v>
-      </c>
-      <c r="I62" s="7">
-        <v>310133</v>
-      </c>
-      <c r="J62" s="7">
-        <v>1124</v>
-      </c>
-      <c r="K62" s="7">
-        <v>1124</v>
-      </c>
-      <c r="L62" s="8">
-        <v>0.36</v>
-      </c>
-      <c r="M62" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N62" s="8" t="s">
+      <c r="E62" s="10">
+        <v>0</v>
+      </c>
+      <c r="F62" s="11">
+        <v>29.25</v>
+      </c>
+      <c r="G62" s="11">
+        <v>29.996</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0</v>
+      </c>
+      <c r="I62" s="11">
+        <v>301275</v>
+      </c>
+      <c r="J62" s="11">
+        <v>-7681.07</v>
+      </c>
+      <c r="K62" s="11">
+        <v>-8858</v>
+      </c>
+      <c r="L62" s="9">
+        <v>-2.49</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N62" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3319,34 +3331,34 @@
         <v>600988</v>
       </c>
       <c r="C63" s="6">
+        <v>31500</v>
+      </c>
+      <c r="D63" s="6">
         <v>31000</v>
       </c>
-      <c r="D63" s="6">
-        <v>0</v>
-      </c>
       <c r="E63" s="6">
-        <v>31000</v>
+        <v>500</v>
       </c>
       <c r="F63" s="7">
-        <v>11.9</v>
+        <v>11.94</v>
       </c>
       <c r="G63" s="7">
-        <v>11.898</v>
+        <v>11.899</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
       </c>
       <c r="I63" s="7">
-        <v>368900</v>
+        <v>376110</v>
       </c>
       <c r="J63" s="7">
-        <v>62.81</v>
+        <v>1298.26</v>
       </c>
       <c r="K63" s="7">
-        <v>62.81</v>
+        <v>1219.88</v>
       </c>
       <c r="L63" s="8">
-        <v>0.02</v>
+        <v>0.34</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>23</v>
@@ -3359,132 +3371,132 @@
       <c r="A64" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="6">
+        <v>13700</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6">
+        <v>13700</v>
+      </c>
+      <c r="F64" s="7">
+        <v>26.27</v>
+      </c>
+      <c r="G64" s="7">
+        <v>26.162</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>359899</v>
+      </c>
+      <c r="J64" s="7">
+        <v>1479.57</v>
+      </c>
+      <c r="K64" s="7">
+        <v>1479.57</v>
+      </c>
+      <c r="L64" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="6">
         <v>300530</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C65" s="6">
         <v>1000</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D65" s="6">
         <v>1000</v>
       </c>
-      <c r="E64" s="6">
-        <v>0</v>
-      </c>
-      <c r="F64" s="7">
-        <v>41.28</v>
-      </c>
-      <c r="G64" s="7">
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>40.5</v>
+      </c>
+      <c r="G65" s="7">
         <v>35.762</v>
       </c>
-      <c r="H64" s="7">
-        <v>0</v>
-      </c>
-      <c r="I64" s="7">
-        <v>41280</v>
-      </c>
-      <c r="J64" s="7">
-        <v>5517.7</v>
-      </c>
-      <c r="K64" s="7">
-        <v>-400</v>
-      </c>
-      <c r="L64" s="8">
-        <v>15.43</v>
-      </c>
-      <c r="M64" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N64" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" s="10">
-        <v>600438</v>
-      </c>
-      <c r="C65" s="10">
-        <v>21500</v>
-      </c>
-      <c r="D65" s="10">
-        <v>21500</v>
-      </c>
-      <c r="E65" s="10">
-        <v>0</v>
-      </c>
-      <c r="F65" s="11">
-        <v>17.38</v>
-      </c>
-      <c r="G65" s="11">
-        <v>17.418</v>
-      </c>
-      <c r="H65" s="11">
-        <v>0</v>
-      </c>
-      <c r="I65" s="11">
-        <v>373670</v>
-      </c>
-      <c r="J65" s="11">
-        <v>-825.43</v>
-      </c>
-      <c r="K65" s="11">
-        <v>-430</v>
-      </c>
-      <c r="L65" s="9">
-        <v>-0.22</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N65" s="9" t="s">
-        <v>22</v>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>40500</v>
+      </c>
+      <c r="J65" s="7">
+        <v>4737.7</v>
+      </c>
+      <c r="K65" s="7">
+        <v>-780</v>
+      </c>
+      <c r="L65" s="8">
+        <v>13.25</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" s="9" t="s">
         <v>114</v>
       </c>
+      <c r="B66" s="10">
+        <v>600867</v>
+      </c>
       <c r="C66" s="10">
-        <v>32000</v>
+        <v>21500</v>
       </c>
       <c r="D66" s="10">
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="E66" s="10">
-        <v>0</v>
+        <v>21500</v>
       </c>
       <c r="F66" s="11">
-        <v>12.24</v>
+        <v>16.86</v>
       </c>
       <c r="G66" s="11">
-        <v>12.3</v>
+        <v>16.867</v>
       </c>
       <c r="H66" s="11">
         <v>0</v>
       </c>
       <c r="I66" s="11">
-        <v>391680</v>
+        <v>362490</v>
       </c>
       <c r="J66" s="11">
-        <v>-1934.24</v>
+        <v>-152.06</v>
       </c>
       <c r="K66" s="11">
-        <v>7040</v>
+        <v>-152.06</v>
       </c>
       <c r="L66" s="9">
-        <v>-0.49</v>
+        <v>-0.04</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3492,81 +3504,81 @@
         <v>115</v>
       </c>
       <c r="B67" s="6">
-        <v>300132</v>
+        <v>600438</v>
       </c>
       <c r="C67" s="6">
-        <v>13700</v>
+        <v>21500</v>
       </c>
       <c r="D67" s="6">
-        <v>13700</v>
+        <v>21500</v>
       </c>
       <c r="E67" s="6">
         <v>0</v>
       </c>
       <c r="F67" s="7">
-        <v>23.1</v>
+        <v>18.17</v>
       </c>
       <c r="G67" s="7">
-        <v>22.537</v>
+        <v>17.418</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
       </c>
       <c r="I67" s="7">
-        <v>316470</v>
+        <v>390655</v>
       </c>
       <c r="J67" s="7">
-        <v>7715</v>
+        <v>16159.57</v>
       </c>
       <c r="K67" s="7">
-        <v>8768</v>
+        <v>16985</v>
       </c>
       <c r="L67" s="8">
-        <v>2.5</v>
+        <v>4.32</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>117</v>
+      <c r="B68" s="6">
+        <v>300233</v>
       </c>
       <c r="C68" s="6">
-        <v>12600</v>
+        <v>6200</v>
       </c>
       <c r="D68" s="6">
-        <v>12600</v>
+        <v>0</v>
       </c>
       <c r="E68" s="6">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="F68" s="7">
-        <v>29.19</v>
+        <v>32.98</v>
       </c>
       <c r="G68" s="7">
-        <v>29.116</v>
+        <v>32.532</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
       </c>
       <c r="I68" s="7">
-        <v>367794</v>
+        <v>204476</v>
       </c>
       <c r="J68" s="7">
-        <v>932.98</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>14</v>
+        <v>2778</v>
+      </c>
+      <c r="K68" s="7">
+        <v>2778</v>
       </c>
       <c r="L68" s="8">
-        <v>0.25</v>
+        <v>1.38</v>
       </c>
       <c r="M68" s="8" t="s">
         <v>25</v>
@@ -3577,40 +3589,40 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B69" s="10">
-        <v>300423</v>
-      </c>
       <c r="C69" s="10">
-        <v>7700</v>
+        <v>32000</v>
       </c>
       <c r="D69" s="10">
-        <v>7700</v>
+        <v>32000</v>
       </c>
       <c r="E69" s="10">
         <v>0</v>
       </c>
       <c r="F69" s="11">
-        <v>12.36</v>
+        <v>12.11</v>
       </c>
       <c r="G69" s="11">
-        <v>13.647</v>
+        <v>12.3</v>
       </c>
       <c r="H69" s="11">
         <v>0</v>
       </c>
       <c r="I69" s="11">
-        <v>95172</v>
+        <v>387520</v>
       </c>
       <c r="J69" s="11">
-        <v>-9912.49</v>
+        <v>-6094.24</v>
       </c>
       <c r="K69" s="11">
-        <v>2079</v>
+        <v>-4160</v>
       </c>
       <c r="L69" s="9">
-        <v>-9.43</v>
+        <v>-1.54</v>
       </c>
       <c r="M69" s="9" t="s">
         <v>25</v>
@@ -3624,86 +3636,218 @@
         <v>119</v>
       </c>
       <c r="B70" s="6">
+        <v>300132</v>
+      </c>
+      <c r="C70" s="6">
+        <v>13700</v>
+      </c>
+      <c r="D70" s="6">
+        <v>13700</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>23.15</v>
+      </c>
+      <c r="G70" s="7">
+        <v>22.537</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <v>317155</v>
+      </c>
+      <c r="J70" s="7">
+        <v>8400</v>
+      </c>
+      <c r="K70" s="7">
+        <v>685</v>
+      </c>
+      <c r="L70" s="8">
+        <v>2.72</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N70" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="10">
+        <v>12600</v>
+      </c>
+      <c r="D71" s="10">
+        <v>12600</v>
+      </c>
+      <c r="E71" s="10">
+        <v>0</v>
+      </c>
+      <c r="F71" s="11">
+        <v>28.98</v>
+      </c>
+      <c r="G71" s="11">
+        <v>29.116</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0</v>
+      </c>
+      <c r="I71" s="11">
+        <v>365148</v>
+      </c>
+      <c r="J71" s="11">
+        <v>-1713.02</v>
+      </c>
+      <c r="K71" s="11">
+        <v>-2646</v>
+      </c>
+      <c r="L71" s="9">
+        <v>-0.47</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="10">
+        <v>300423</v>
+      </c>
+      <c r="C72" s="10">
+        <v>7700</v>
+      </c>
+      <c r="D72" s="10">
+        <v>7700</v>
+      </c>
+      <c r="E72" s="10">
+        <v>0</v>
+      </c>
+      <c r="F72" s="11">
+        <v>12.21</v>
+      </c>
+      <c r="G72" s="11">
+        <v>13.647</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0</v>
+      </c>
+      <c r="I72" s="11">
+        <v>94017</v>
+      </c>
+      <c r="J72" s="11">
+        <v>-11067.49</v>
+      </c>
+      <c r="K72" s="11">
+        <v>-1155</v>
+      </c>
+      <c r="L72" s="9">
+        <v>-10.53</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N72" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="6">
         <v>300438</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C73" s="6">
         <v>15400</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D73" s="6">
         <v>15400</v>
       </c>
-      <c r="E70" s="6">
-        <v>0</v>
-      </c>
-      <c r="F70" s="7">
-        <v>17.45</v>
-      </c>
-      <c r="G70" s="7">
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>17.66</v>
+      </c>
+      <c r="G73" s="7">
         <v>15.969</v>
       </c>
-      <c r="H70" s="7">
-        <v>0</v>
-      </c>
-      <c r="I70" s="7">
-        <v>268730</v>
-      </c>
-      <c r="J70" s="7">
-        <v>22812.5</v>
-      </c>
-      <c r="K70" s="7">
-        <v>2926</v>
-      </c>
-      <c r="L70" s="8">
-        <v>9.27</v>
-      </c>
-      <c r="M70" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N70" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="6">
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>271964</v>
+      </c>
+      <c r="J73" s="7">
+        <v>26046.5</v>
+      </c>
+      <c r="K73" s="7">
+        <v>3234</v>
+      </c>
+      <c r="L73" s="8">
+        <v>10.59</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" s="6">
         <v>300054</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C74" s="6">
         <v>14900</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D74" s="6">
         <v>14900</v>
       </c>
-      <c r="E71" s="6">
-        <v>0</v>
-      </c>
-      <c r="F71" s="7">
-        <v>16.6</v>
-      </c>
-      <c r="G71" s="7">
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>17.08</v>
+      </c>
+      <c r="G74" s="7">
         <v>13.982</v>
       </c>
-      <c r="H71" s="7">
-        <v>0</v>
-      </c>
-      <c r="I71" s="7">
-        <v>247340</v>
-      </c>
-      <c r="J71" s="7">
-        <v>39012</v>
-      </c>
-      <c r="K71" s="7">
-        <v>7450</v>
-      </c>
-      <c r="L71" s="8">
-        <v>18.72</v>
-      </c>
-      <c r="M71" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N71" s="8" t="s">
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="I74" s="7">
+        <v>254492</v>
+      </c>
+      <c r="J74" s="7">
+        <v>46164</v>
+      </c>
+      <c r="K74" s="7">
+        <v>7152</v>
+      </c>
+      <c r="L74" s="8">
+        <v>22.16</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N74" s="8" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
+++ b/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="133">
   <si>
     <t>资金</t>
   </si>
@@ -133,9 +133,6 @@
     <t>交易市场</t>
   </si>
   <si>
-    <t>DR恒立液</t>
-  </si>
-  <si>
     <t>三安光电</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
     <t>同和药业</t>
   </si>
   <si>
+    <t>国药股份</t>
+  </si>
+  <si>
     <t>坚朗五金</t>
   </si>
   <si>
@@ -223,6 +223,21 @@
     <t>000910</t>
   </si>
   <si>
+    <t>天士力</t>
+  </si>
+  <si>
+    <t>天邦股份</t>
+  </si>
+  <si>
+    <t>002124</t>
+  </si>
+  <si>
+    <t>天齐锂业</t>
+  </si>
+  <si>
+    <t>002466</t>
+  </si>
+  <si>
     <t>奥飞数据</t>
   </si>
   <si>
@@ -244,6 +259,12 @@
     <t>康德莱</t>
   </si>
   <si>
+    <t>开立医疗</t>
+  </si>
+  <si>
+    <t>恒立液压</t>
+  </si>
+  <si>
     <t>恒铭达</t>
   </si>
   <si>
@@ -259,6 +280,9 @@
     <t>002609</t>
   </si>
   <si>
+    <t>数据港</t>
+  </si>
+  <si>
     <t>晶澳科技</t>
   </si>
   <si>
@@ -271,13 +295,10 @@
     <t>002456</t>
   </si>
   <si>
-    <t>汇纳科技</t>
-  </si>
-  <si>
-    <t>江山欧派</t>
-  </si>
-  <si>
-    <t>深信服</t>
+    <t>泸州老窖</t>
+  </si>
+  <si>
+    <t>000568</t>
   </si>
   <si>
     <t>游族网络</t>
@@ -289,12 +310,6 @@
     <t>玉龙股份</t>
   </si>
   <si>
-    <t>百润股份</t>
-  </si>
-  <si>
-    <t>002568</t>
-  </si>
-  <si>
     <t>皇马科技</t>
   </si>
   <si>
@@ -310,21 +325,12 @@
     <t>SHKCED</t>
   </si>
   <si>
-    <t>科大讯飞</t>
-  </si>
-  <si>
-    <t>002230</t>
-  </si>
-  <si>
     <t>科锐国际</t>
   </si>
   <si>
     <t>精研科技</t>
   </si>
   <si>
-    <t>苏博特</t>
-  </si>
-  <si>
     <t>苏州固锝</t>
   </si>
   <si>
@@ -334,10 +340,7 @@
     <t>英科医疗</t>
   </si>
   <si>
-    <t>蒙娜丽莎</t>
-  </si>
-  <si>
-    <t>002918</t>
+    <t>药石科技</t>
   </si>
   <si>
     <t>蓝帆医疗</t>
@@ -346,6 +349,12 @@
     <t>002382</t>
   </si>
   <si>
+    <t>贝达药业</t>
+  </si>
+  <si>
+    <t>赢合科技</t>
+  </si>
+  <si>
     <t>赤峰黄金</t>
   </si>
   <si>
@@ -358,6 +367,9 @@
     <t>达志科技</t>
   </si>
   <si>
+    <t>迪安诊断</t>
+  </si>
+  <si>
     <t>通化东宝</t>
   </si>
   <si>
@@ -376,6 +388,12 @@
     <t>青松股份</t>
   </si>
   <si>
+    <t>领益智造</t>
+  </si>
+  <si>
+    <t>002600</t>
+  </si>
+  <si>
     <t>风华高科</t>
   </si>
   <si>
@@ -383,6 +401,12 @@
   </si>
   <si>
     <t>鲁亿通</t>
+  </si>
+  <si>
+    <t>鸿合科技</t>
+  </si>
+  <si>
+    <t>002955</t>
   </si>
   <si>
     <t>鹏辉能源</t>
@@ -780,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -860,28 +884,28 @@
         <v>1720175912</v>
       </c>
       <c r="C3" s="4">
-        <v>2528295.65</v>
+        <v>3064832.48</v>
       </c>
       <c r="D3" s="4">
-        <v>3063917.61</v>
+        <v>1494523.15</v>
       </c>
       <c r="E3" s="4">
-        <v>2528295.65</v>
+        <v>1494523.15</v>
       </c>
       <c r="F3" s="4">
-        <v>-535621.96</v>
+        <v>1570309.33</v>
       </c>
       <c r="G3" s="4">
-        <v>22259477.19</v>
+        <v>23470925.61</v>
       </c>
       <c r="H3" s="4">
-        <v>25323394.8</v>
+        <v>25378668.6</v>
       </c>
       <c r="I3" s="4">
-        <v>1266570.37</v>
+        <v>1331902.99</v>
       </c>
       <c r="J3" s="4">
-        <v>-157168.62</v>
+        <v>54158.98</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -988,10 +1012,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="4">
-        <v>2947000</v>
+        <v>3043000</v>
       </c>
       <c r="C8" s="4">
-        <v>2947000</v>
+        <v>3043500</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -1005,7 +1029,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="4">
-        <v>6094000</v>
+        <v>6411000</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -1084,37 +1108,37 @@
         <v>39</v>
       </c>
       <c r="B12" s="6">
-        <v>601100</v>
+        <v>600703</v>
       </c>
       <c r="C12" s="6">
-        <v>891</v>
+        <v>15700</v>
       </c>
       <c r="D12" s="6">
-        <v>602</v>
+        <v>15700</v>
       </c>
       <c r="E12" s="6">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>53.25</v>
+        <v>25.13</v>
       </c>
       <c r="G12" s="7">
-        <v>23.037</v>
+        <v>24.711</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>47445.75</v>
+        <v>394541</v>
       </c>
       <c r="J12" s="7">
-        <v>26920.07</v>
+        <v>6574.67</v>
       </c>
       <c r="K12" s="7">
-        <v>-475.79</v>
+        <v>6594</v>
       </c>
       <c r="L12" s="8">
-        <v>131.15</v>
+        <v>1.7</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>23</v>
@@ -1128,37 +1152,37 @@
         <v>40</v>
       </c>
       <c r="B13" s="10">
-        <v>600703</v>
+        <v>603200</v>
       </c>
       <c r="C13" s="10">
-        <v>15700</v>
+        <v>8300</v>
       </c>
       <c r="D13" s="10">
-        <v>15700</v>
+        <v>8300</v>
       </c>
       <c r="E13" s="10">
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>24.71</v>
+        <v>40.62</v>
       </c>
       <c r="G13" s="11">
-        <v>24.711</v>
+        <v>43.525</v>
       </c>
       <c r="H13" s="11">
         <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>387947</v>
+        <v>337146</v>
       </c>
       <c r="J13" s="11">
-        <v>-19.33</v>
+        <v>-24114.63</v>
       </c>
       <c r="K13" s="11">
-        <v>-4553</v>
+        <v>-2407</v>
       </c>
       <c r="L13" s="9">
-        <v>0</v>
+        <v>-6.67</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>23</v>
@@ -1168,85 +1192,85 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="10">
-        <v>603200</v>
-      </c>
-      <c r="C14" s="10">
-        <v>8300</v>
-      </c>
-      <c r="D14" s="10">
-        <v>8300</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>40.91</v>
-      </c>
-      <c r="G14" s="11">
-        <v>43.525</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>339553</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-21707.63</v>
-      </c>
-      <c r="K14" s="11">
-        <v>166</v>
-      </c>
-      <c r="L14" s="9">
-        <v>-6.01</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>22</v>
+      <c r="B14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="6">
+        <v>23500</v>
+      </c>
+      <c r="D14" s="6">
+        <v>23500</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>15.22</v>
+      </c>
+      <c r="G14" s="7">
+        <v>15.036</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>357670</v>
+      </c>
+      <c r="J14" s="7">
+        <v>4327.61</v>
+      </c>
+      <c r="K14" s="7">
+        <v>-2350</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1.22</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="B15" s="6">
+        <v>300059</v>
+      </c>
       <c r="C15" s="6">
-        <v>23500</v>
+        <v>19900</v>
       </c>
       <c r="D15" s="6">
-        <v>23500</v>
+        <v>19900</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>15.32</v>
+        <v>21.9</v>
       </c>
       <c r="G15" s="7">
-        <v>15.036</v>
+        <v>18.564</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>360020</v>
+        <v>435810</v>
       </c>
       <c r="J15" s="7">
-        <v>6677.61</v>
+        <v>66377.68</v>
       </c>
       <c r="K15" s="7">
-        <v>235</v>
+        <v>33034</v>
       </c>
       <c r="L15" s="8">
-        <v>1.89</v>
+        <v>17.97</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>25</v>
@@ -1256,129 +1280,129 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="6">
-        <v>300059</v>
-      </c>
-      <c r="C16" s="6">
-        <v>19900</v>
-      </c>
-      <c r="D16" s="6">
-        <v>19900</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>20.24</v>
-      </c>
-      <c r="G16" s="7">
-        <v>18.564</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>402776</v>
-      </c>
-      <c r="J16" s="7">
-        <v>33343.68</v>
-      </c>
-      <c r="K16" s="7">
-        <v>796</v>
-      </c>
-      <c r="L16" s="8">
-        <v>9.03</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>24</v>
+      <c r="B16" s="10">
+        <v>600645</v>
+      </c>
+      <c r="C16" s="10">
+        <v>13300</v>
+      </c>
+      <c r="D16" s="10">
+        <v>13300</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>27.65</v>
+      </c>
+      <c r="G16" s="11">
+        <v>27.715</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>367745</v>
+      </c>
+      <c r="J16" s="11">
+        <v>-866.65</v>
+      </c>
+      <c r="K16" s="11">
+        <v>532</v>
+      </c>
+      <c r="L16" s="9">
+        <v>-0.23</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="10">
-        <v>600645</v>
-      </c>
-      <c r="C17" s="10">
-        <v>13300</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10">
-        <v>13300</v>
-      </c>
-      <c r="F17" s="11">
-        <v>27.61</v>
-      </c>
-      <c r="G17" s="11">
-        <v>27.72</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>367213</v>
-      </c>
-      <c r="J17" s="11">
-        <v>-1464.76</v>
-      </c>
-      <c r="K17" s="11">
-        <v>-1464.76</v>
-      </c>
-      <c r="L17" s="9">
-        <v>-0.4</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>22</v>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>22.59</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>30614.63</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1137.03</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="6">
-        <v>19100</v>
+        <v>4700</v>
       </c>
       <c r="D18" s="6">
-        <v>19100</v>
+        <v>4700</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>22.63</v>
+        <v>40.22</v>
       </c>
       <c r="G18" s="7">
-        <v>21.087</v>
+        <v>40.005</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>432233</v>
+        <v>189034</v>
       </c>
       <c r="J18" s="7">
-        <v>29477.6</v>
+        <v>1011.44</v>
       </c>
       <c r="K18" s="7">
-        <v>3247</v>
+        <v>-1927</v>
       </c>
       <c r="L18" s="8">
-        <v>7.32</v>
+        <v>0.54</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>25</v>
@@ -1388,90 +1412,90 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="6">
-        <v>4700</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>4700</v>
-      </c>
-      <c r="F19" s="7">
-        <v>40.63</v>
-      </c>
-      <c r="G19" s="7">
-        <v>40.005</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>190961</v>
-      </c>
-      <c r="J19" s="7">
-        <v>2938.44</v>
-      </c>
-      <c r="K19" s="7">
-        <v>2938.44</v>
-      </c>
-      <c r="L19" s="8">
-        <v>1.56</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>24</v>
+      <c r="B19" s="10">
+        <v>603456</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>29.16</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>-4590.54</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1.82</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="10">
-        <v>603456</v>
-      </c>
-      <c r="C20" s="10">
-        <v>20</v>
-      </c>
-      <c r="D20" s="10">
-        <v>20</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
-      <c r="F20" s="11">
-        <v>28.2</v>
-      </c>
-      <c r="G20" s="11">
-        <v>261.789</v>
-      </c>
-      <c r="H20" s="11">
-        <v>0</v>
-      </c>
-      <c r="I20" s="11">
-        <v>564</v>
-      </c>
-      <c r="J20" s="11">
-        <v>-4671.78</v>
-      </c>
-      <c r="K20" s="11">
-        <v>12036.32</v>
-      </c>
-      <c r="L20" s="9">
-        <v>-89.23</v>
-      </c>
-      <c r="M20" s="9" t="s">
+      <c r="B20" s="6">
+        <v>603666</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3900</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3900</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>90.1</v>
+      </c>
+      <c r="G20" s="7">
+        <v>72.526</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>351390</v>
+      </c>
+      <c r="J20" s="7">
+        <v>68539.28</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1560</v>
+      </c>
+      <c r="L20" s="8">
+        <v>24.23</v>
+      </c>
+      <c r="M20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="9" t="s">
+      <c r="N20" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1480,43 +1504,43 @@
         <v>51</v>
       </c>
       <c r="B21" s="6">
-        <v>603666</v>
+        <v>300673</v>
       </c>
       <c r="C21" s="6">
-        <v>3900</v>
+        <v>800</v>
       </c>
       <c r="D21" s="6">
-        <v>3900</v>
+        <v>800</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="7">
-        <v>89.7</v>
+        <v>38.65</v>
       </c>
       <c r="G21" s="7">
-        <v>72.526</v>
+        <v>17.837</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>349830</v>
+        <v>30920</v>
       </c>
       <c r="J21" s="7">
-        <v>66979.28</v>
+        <v>16650.44</v>
       </c>
       <c r="K21" s="7">
-        <v>7566</v>
+        <v>-936</v>
       </c>
       <c r="L21" s="8">
-        <v>23.68</v>
+        <v>116.68</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1524,37 +1548,37 @@
         <v>52</v>
       </c>
       <c r="B22" s="6">
-        <v>300673</v>
+        <v>300136</v>
       </c>
       <c r="C22" s="6">
-        <v>800</v>
+        <v>7100</v>
       </c>
       <c r="D22" s="6">
-        <v>800</v>
+        <v>7100</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>39.82</v>
+        <v>53.12</v>
       </c>
       <c r="G22" s="7">
-        <v>18</v>
+        <v>50.973</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>31856</v>
+        <v>377152</v>
       </c>
       <c r="J22" s="7">
-        <v>17456.01</v>
+        <v>15244.58</v>
       </c>
       <c r="K22" s="7">
-        <v>3845.18</v>
+        <v>-3834</v>
       </c>
       <c r="L22" s="8">
-        <v>121.22</v>
+        <v>4.21</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>25</v>
@@ -1568,43 +1592,43 @@
         <v>53</v>
       </c>
       <c r="B23" s="6">
-        <v>300136</v>
+        <v>603707</v>
       </c>
       <c r="C23" s="6">
-        <v>7100</v>
+        <v>5700</v>
       </c>
       <c r="D23" s="6">
-        <v>3500</v>
+        <v>5700</v>
       </c>
       <c r="E23" s="6">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="F23" s="7">
-        <v>53.66</v>
+        <v>62.52</v>
       </c>
       <c r="G23" s="7">
-        <v>50.973</v>
+        <v>61.884</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>380986</v>
+        <v>356364</v>
       </c>
       <c r="J23" s="7">
-        <v>19074.88</v>
+        <v>3627.67</v>
       </c>
       <c r="K23" s="7">
-        <v>708.94</v>
+        <v>-5586</v>
       </c>
       <c r="L23" s="8">
-        <v>5.27</v>
+        <v>1.03</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1612,43 +1636,43 @@
         <v>54</v>
       </c>
       <c r="B24" s="6">
-        <v>603707</v>
+        <v>300161</v>
       </c>
       <c r="C24" s="6">
-        <v>5700</v>
+        <v>4900</v>
       </c>
       <c r="D24" s="6">
-        <v>5700</v>
+        <v>4900</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>63.5</v>
+        <v>23.55</v>
       </c>
       <c r="G24" s="7">
-        <v>61.884</v>
+        <v>22.39</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>361950</v>
+        <v>115395</v>
       </c>
       <c r="J24" s="7">
-        <v>9213.67</v>
+        <v>5685.84</v>
       </c>
       <c r="K24" s="7">
-        <v>-6099</v>
+        <v>-4655</v>
       </c>
       <c r="L24" s="8">
-        <v>2.61</v>
+        <v>5.18</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1656,87 +1680,87 @@
         <v>55</v>
       </c>
       <c r="B25" s="6">
-        <v>300161</v>
+        <v>600812</v>
       </c>
       <c r="C25" s="6">
-        <v>4900</v>
+        <v>24800</v>
       </c>
       <c r="D25" s="6">
-        <v>4900</v>
+        <v>24800</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="F25" s="7">
-        <v>24.5</v>
+        <v>12.6</v>
       </c>
       <c r="G25" s="7">
-        <v>22.39</v>
+        <v>12.066</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>120050</v>
+        <v>312480</v>
       </c>
       <c r="J25" s="7">
-        <v>10340.84</v>
+        <v>13252.11</v>
       </c>
       <c r="K25" s="7">
-        <v>2548</v>
+        <v>-4712</v>
       </c>
       <c r="L25" s="8">
-        <v>9.42</v>
+        <v>4.43</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="6">
-        <v>600812</v>
-      </c>
-      <c r="C26" s="6">
-        <v>24800</v>
-      </c>
-      <c r="D26" s="6">
-        <v>24800</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>12.79</v>
-      </c>
-      <c r="G26" s="7">
-        <v>12.066</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>317192</v>
-      </c>
-      <c r="J26" s="7">
-        <v>17964.11</v>
-      </c>
-      <c r="K26" s="7">
-        <v>-2480</v>
-      </c>
-      <c r="L26" s="8">
-        <v>6</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>22</v>
+      <c r="B26" s="10">
+        <v>300676</v>
+      </c>
+      <c r="C26" s="10">
+        <v>2400</v>
+      </c>
+      <c r="D26" s="10">
+        <v>2400</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>151.8</v>
+      </c>
+      <c r="G26" s="11">
+        <v>154.234</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>364320</v>
+      </c>
+      <c r="J26" s="11">
+        <v>-5841.41</v>
+      </c>
+      <c r="K26" s="11">
+        <v>-6240</v>
+      </c>
+      <c r="L26" s="9">
+        <v>-1.58</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1744,125 +1768,125 @@
         <v>57</v>
       </c>
       <c r="B27" s="6">
-        <v>300676</v>
+        <v>511990</v>
       </c>
       <c r="C27" s="6">
-        <v>2400</v>
+        <v>40019</v>
       </c>
       <c r="D27" s="6">
-        <v>0</v>
+        <v>40019</v>
       </c>
       <c r="E27" s="6">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>154.4</v>
+        <v>99.97</v>
       </c>
       <c r="G27" s="7">
-        <v>154.243</v>
+        <v>95.839</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>370560</v>
+        <v>4000699.43</v>
       </c>
       <c r="J27" s="7">
-        <v>375.81</v>
+        <v>165309.42</v>
       </c>
       <c r="K27" s="7">
-        <v>375.81</v>
+        <v>-240.11</v>
       </c>
       <c r="L27" s="8">
-        <v>0.1</v>
+        <v>4.31</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="6">
-        <v>511990</v>
+      <c r="B28" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="C28" s="6">
-        <v>40017</v>
+        <v>57600</v>
       </c>
       <c r="D28" s="6">
-        <v>40017</v>
+        <v>57600</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
       </c>
       <c r="F28" s="7">
-        <v>99.976</v>
+        <v>18.1</v>
       </c>
       <c r="G28" s="7">
-        <v>95.844</v>
+        <v>16.314</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>4000739.59</v>
+        <v>1042560</v>
       </c>
       <c r="J28" s="7">
-        <v>165349.58</v>
+        <v>102856.23</v>
       </c>
       <c r="K28" s="7">
-        <v>80.03</v>
+        <v>33984</v>
       </c>
       <c r="L28" s="8">
-        <v>4.31</v>
+        <v>10.95</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="6">
-        <v>57600</v>
+        <v>11700</v>
       </c>
       <c r="D29" s="6">
-        <v>57600</v>
+        <v>11700</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>17.51</v>
+        <v>74.5</v>
       </c>
       <c r="G29" s="7">
-        <v>16.314</v>
+        <v>65.958</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>1008576</v>
+        <v>871650</v>
       </c>
       <c r="J29" s="7">
-        <v>68872.23</v>
+        <v>99942.39</v>
       </c>
       <c r="K29" s="7">
-        <v>10944</v>
+        <v>36738</v>
       </c>
       <c r="L29" s="8">
-        <v>7.33</v>
+        <v>12.95</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>25</v>
@@ -1872,91 +1896,91 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="6">
-        <v>11700</v>
-      </c>
-      <c r="D30" s="6">
-        <v>11700</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>71.36</v>
-      </c>
-      <c r="G30" s="7">
-        <v>65.958</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>834912</v>
-      </c>
-      <c r="J30" s="7">
-        <v>63204.39</v>
-      </c>
-      <c r="K30" s="7">
-        <v>-32409</v>
-      </c>
-      <c r="L30" s="8">
-        <v>8.19</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>24</v>
+      <c r="B30" s="10">
+        <v>603520</v>
+      </c>
+      <c r="C30" s="10">
+        <v>4600</v>
+      </c>
+      <c r="D30" s="10">
+        <v>4600</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
+        <v>75.79</v>
+      </c>
+      <c r="G30" s="11">
+        <v>81.155</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>348634</v>
+      </c>
+      <c r="J30" s="11">
+        <v>-24677.2</v>
+      </c>
+      <c r="K30" s="11">
+        <v>644</v>
+      </c>
+      <c r="L30" s="9">
+        <v>-6.61</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="10">
-        <v>603520</v>
-      </c>
-      <c r="C31" s="10">
-        <v>4600</v>
-      </c>
-      <c r="D31" s="10">
-        <v>4600</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0</v>
-      </c>
-      <c r="F31" s="11">
-        <v>75.65</v>
-      </c>
-      <c r="G31" s="11">
-        <v>81.155</v>
-      </c>
-      <c r="H31" s="11">
-        <v>0</v>
-      </c>
-      <c r="I31" s="11">
-        <v>347990</v>
-      </c>
-      <c r="J31" s="11">
-        <v>-25321.2</v>
-      </c>
-      <c r="K31" s="11">
-        <v>-38686</v>
-      </c>
-      <c r="L31" s="9">
-        <v>-6.78</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>22</v>
+      <c r="B31" s="6">
+        <v>300636</v>
+      </c>
+      <c r="C31" s="6">
+        <v>2720</v>
+      </c>
+      <c r="D31" s="6">
+        <v>2720</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>39.93</v>
+      </c>
+      <c r="G31" s="7">
+        <v>37.925</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>108609.6</v>
+      </c>
+      <c r="J31" s="7">
+        <v>5453.2</v>
+      </c>
+      <c r="K31" s="7">
+        <v>-1196.8</v>
+      </c>
+      <c r="L31" s="8">
+        <v>5.29</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1964,86 +1988,86 @@
         <v>64</v>
       </c>
       <c r="B32" s="6">
-        <v>300636</v>
+        <v>600511</v>
       </c>
       <c r="C32" s="6">
-        <v>2720</v>
+        <v>9600</v>
       </c>
       <c r="D32" s="6">
-        <v>2720</v>
+        <v>0</v>
       </c>
       <c r="E32" s="6">
-        <v>0</v>
+        <v>9600</v>
       </c>
       <c r="F32" s="7">
-        <v>40.37</v>
+        <v>38.63</v>
       </c>
       <c r="G32" s="7">
-        <v>37.925</v>
+        <v>38.597</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>109806.4</v>
+        <v>370848</v>
       </c>
       <c r="J32" s="7">
-        <v>6650</v>
+        <v>318.07</v>
       </c>
       <c r="K32" s="7">
-        <v>924.8</v>
+        <v>318.07</v>
       </c>
       <c r="L32" s="8">
-        <v>6.45</v>
+        <v>0.09</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="6">
-        <v>4300</v>
-      </c>
-      <c r="D33" s="6">
-        <v>4300</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7">
-        <v>88.33</v>
-      </c>
-      <c r="G33" s="7">
-        <v>83.3</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>379819</v>
-      </c>
-      <c r="J33" s="7">
-        <v>21629.89</v>
-      </c>
-      <c r="K33" s="7">
-        <v>-24768</v>
-      </c>
-      <c r="L33" s="8">
-        <v>6.04</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N33" s="8" t="s">
+      <c r="C33" s="10">
+        <v>0</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11">
+        <v>82</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <v>-6876.08</v>
+      </c>
+      <c r="K33" s="11">
+        <v>-28505.97</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2064,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>15.84</v>
+        <v>15.65</v>
       </c>
       <c r="G34" s="7">
         <v>15.136</v>
@@ -2073,16 +2097,16 @@
         <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>883872</v>
+        <v>873270</v>
       </c>
       <c r="J34" s="7">
-        <v>39273.57</v>
+        <v>28671.57</v>
       </c>
       <c r="K34" s="7">
-        <v>16740</v>
+        <v>-10602</v>
       </c>
       <c r="L34" s="8">
-        <v>4.65</v>
+        <v>3.4</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>25</v>
@@ -2092,217 +2116,217 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="6">
+        <v>600535</v>
+      </c>
+      <c r="C35" s="6">
+        <v>21100</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>21100</v>
+      </c>
+      <c r="F35" s="7">
+        <v>17.87</v>
+      </c>
+      <c r="G35" s="7">
+        <v>17.842</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>377057</v>
+      </c>
+      <c r="J35" s="7">
+        <v>599.28</v>
+      </c>
+      <c r="K35" s="7">
+        <v>599.28</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="10">
+        <v>29200</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <v>29200</v>
+      </c>
+      <c r="F36" s="11">
+        <v>13.11</v>
+      </c>
+      <c r="G36" s="11">
+        <v>13.165</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>382812</v>
+      </c>
+      <c r="J36" s="11">
+        <v>-1604.06</v>
+      </c>
+      <c r="K36" s="11">
+        <v>-1604.06</v>
+      </c>
+      <c r="L36" s="9">
+        <v>-0.42</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="10">
+        <v>17000</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10">
+        <v>17000</v>
+      </c>
+      <c r="F37" s="11">
+        <v>22.07</v>
+      </c>
+      <c r="G37" s="11">
+        <v>22.076</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>375190</v>
+      </c>
+      <c r="J37" s="11">
+        <v>-105.45</v>
+      </c>
+      <c r="K37" s="11">
+        <v>-105.45</v>
+      </c>
+      <c r="L37" s="9">
+        <v>-0.03</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="10">
         <v>300738</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C38" s="10">
         <v>4300</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D38" s="10">
         <v>4300</v>
       </c>
-      <c r="E35" s="10">
-        <v>0</v>
-      </c>
-      <c r="F35" s="11">
-        <v>55.95</v>
-      </c>
-      <c r="G35" s="11">
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>55.15</v>
+      </c>
+      <c r="G38" s="11">
         <v>57.07</v>
       </c>
-      <c r="H35" s="11">
-        <v>0</v>
-      </c>
-      <c r="I35" s="11">
-        <v>240585</v>
-      </c>
-      <c r="J35" s="11">
-        <v>-4816.43</v>
-      </c>
-      <c r="K35" s="11">
-        <v>-7439</v>
-      </c>
-      <c r="L35" s="9">
-        <v>-1.96</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="6">
-        <v>22400</v>
-      </c>
-      <c r="D36" s="6">
-        <v>22400</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="7">
-        <v>13.15</v>
-      </c>
-      <c r="G36" s="7">
-        <v>12.235</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>294560</v>
-      </c>
-      <c r="J36" s="7">
-        <v>20507.15</v>
-      </c>
-      <c r="K36" s="7">
-        <v>6272</v>
-      </c>
-      <c r="L36" s="8">
-        <v>7.48</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="6">
-        <v>300750</v>
-      </c>
-      <c r="C37" s="6">
-        <v>2200</v>
-      </c>
-      <c r="D37" s="6">
-        <v>2200</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="7">
-        <v>169.4</v>
-      </c>
-      <c r="G37" s="7">
-        <v>167.885</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>372680</v>
-      </c>
-      <c r="J37" s="7">
-        <v>3332.68</v>
-      </c>
-      <c r="K37" s="7">
-        <v>-10912</v>
-      </c>
-      <c r="L37" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="6">
-        <v>300674</v>
-      </c>
-      <c r="C38" s="6">
-        <v>8800</v>
-      </c>
-      <c r="D38" s="6">
-        <v>8800</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7">
-        <v>42</v>
-      </c>
-      <c r="G38" s="7">
-        <v>41.59</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>369600</v>
-      </c>
-      <c r="J38" s="7">
-        <v>3608.06</v>
-      </c>
-      <c r="K38" s="7">
-        <v>-10120</v>
-      </c>
-      <c r="L38" s="8">
-        <v>0.99</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N38" s="8" t="s">
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>237145</v>
+      </c>
+      <c r="J38" s="11">
+        <v>-8256.43</v>
+      </c>
+      <c r="K38" s="11">
+        <v>-3440</v>
+      </c>
+      <c r="L38" s="9">
+        <v>-3.36</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="6">
-        <v>300572</v>
+        <v>75</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C39" s="6">
-        <v>4200</v>
+        <v>22400</v>
       </c>
       <c r="D39" s="6">
-        <v>4200</v>
+        <v>22400</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="7">
-        <v>67.63</v>
+        <v>14.4</v>
       </c>
       <c r="G39" s="7">
-        <v>63.528</v>
+        <v>12.235</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="I39" s="7">
-        <v>284046</v>
+        <v>322560</v>
       </c>
       <c r="J39" s="7">
-        <v>17228.96</v>
+        <v>48507.15</v>
       </c>
       <c r="K39" s="7">
-        <v>17136</v>
+        <v>28000</v>
       </c>
       <c r="L39" s="8">
-        <v>6.46</v>
+        <v>17.7</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>25</v>
@@ -2312,85 +2336,85 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="6">
-        <v>603987</v>
-      </c>
-      <c r="C40" s="6">
-        <v>54200</v>
-      </c>
-      <c r="D40" s="6">
-        <v>54200</v>
-      </c>
-      <c r="E40" s="6">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>16.91</v>
-      </c>
-      <c r="G40" s="7">
-        <v>14.285</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>916522</v>
-      </c>
-      <c r="J40" s="7">
-        <v>142248.11</v>
-      </c>
-      <c r="K40" s="7">
-        <v>-21680</v>
-      </c>
-      <c r="L40" s="8">
-        <v>18.38</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>22</v>
+      <c r="A40" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="10">
+        <v>300750</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>167.2</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>-1972.24</v>
+      </c>
+      <c r="K40" s="11">
+        <v>-5304.92</v>
+      </c>
+      <c r="L40" s="9">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="B41" s="6">
+        <v>300674</v>
       </c>
       <c r="C41" s="6">
-        <v>5300</v>
+        <v>8800</v>
       </c>
       <c r="D41" s="6">
-        <v>5300</v>
+        <v>8800</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41" s="7">
-        <v>65.15</v>
+        <v>42.68</v>
       </c>
       <c r="G41" s="7">
-        <v>55.937</v>
+        <v>41.59</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>345295</v>
+        <v>375584</v>
       </c>
       <c r="J41" s="7">
-        <v>48831.46</v>
+        <v>9592.06</v>
       </c>
       <c r="K41" s="7">
-        <v>6095</v>
+        <v>5984</v>
       </c>
       <c r="L41" s="8">
-        <v>16.47</v>
+        <v>2.62</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>25</v>
@@ -2401,128 +2425,128 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B42" s="6">
-        <v>601689</v>
+        <v>300572</v>
       </c>
       <c r="C42" s="6">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="D42" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E42" s="6">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F42" s="7">
-        <v>27.51</v>
+        <v>69.14</v>
       </c>
       <c r="G42" s="7">
-        <v>27.339</v>
+        <v>-154.512</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>16506</v>
+        <v>6914</v>
       </c>
       <c r="J42" s="7">
-        <v>102.67</v>
+        <v>22365.24</v>
       </c>
       <c r="K42" s="7">
-        <v>102.67</v>
+        <v>5136.28</v>
       </c>
       <c r="L42" s="8">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="8" t="s">
         <v>80</v>
       </c>
+      <c r="B43" s="6">
+        <v>603987</v>
+      </c>
       <c r="C43" s="6">
-        <v>28900</v>
+        <v>54200</v>
       </c>
       <c r="D43" s="6">
-        <v>28900</v>
+        <v>54200</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="7">
-        <v>12.31</v>
+        <v>16.67</v>
       </c>
       <c r="G43" s="7">
-        <v>12.302</v>
+        <v>14.285</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>355759</v>
+        <v>903514</v>
       </c>
       <c r="J43" s="7">
-        <v>235.33</v>
+        <v>129240.11</v>
       </c>
       <c r="K43" s="7">
-        <v>-12716</v>
+        <v>-13008</v>
       </c>
       <c r="L43" s="8">
-        <v>0.07</v>
+        <v>16.7</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>82</v>
+      <c r="B44" s="10">
+        <v>300633</v>
       </c>
       <c r="C44" s="10">
-        <v>5100</v>
+        <v>700</v>
       </c>
       <c r="D44" s="10">
         <v>0</v>
       </c>
       <c r="E44" s="10">
-        <v>5100</v>
+        <v>700</v>
       </c>
       <c r="F44" s="11">
-        <v>18.23</v>
+        <v>36.72</v>
       </c>
       <c r="G44" s="11">
-        <v>18.371</v>
+        <v>36.806</v>
       </c>
       <c r="H44" s="11">
         <v>0</v>
       </c>
       <c r="I44" s="11">
-        <v>92973</v>
+        <v>25704</v>
       </c>
       <c r="J44" s="11">
-        <v>-719</v>
+        <v>-60</v>
       </c>
       <c r="K44" s="11">
-        <v>-719</v>
+        <v>-60</v>
       </c>
       <c r="L44" s="9">
-        <v>-0.77</v>
+        <v>-0.23</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>25</v>
@@ -2533,128 +2557,128 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="6">
+        <v>601100</v>
+      </c>
+      <c r="C45" s="6">
+        <v>91</v>
+      </c>
+      <c r="D45" s="6">
+        <v>91</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>50.43</v>
+      </c>
+      <c r="G45" s="7">
+        <v>-217.54</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>4589.13</v>
+      </c>
+      <c r="J45" s="7">
+        <v>24385.27</v>
+      </c>
+      <c r="K45" s="7">
+        <v>-2534.8</v>
+      </c>
+      <c r="L45" s="8">
+        <v>0</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="6">
-        <v>21400</v>
-      </c>
-      <c r="D45" s="6">
-        <v>21400</v>
-      </c>
-      <c r="E45" s="6">
-        <v>0</v>
-      </c>
-      <c r="F45" s="7">
-        <v>18.91</v>
-      </c>
-      <c r="G45" s="7">
-        <v>18.128</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>404674</v>
-      </c>
-      <c r="J45" s="7">
-        <v>16737.46</v>
-      </c>
-      <c r="K45" s="7">
-        <v>11128</v>
-      </c>
-      <c r="L45" s="8">
-        <v>4.31</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="10">
-        <v>300609</v>
-      </c>
-      <c r="C46" s="10">
-        <v>0</v>
-      </c>
-      <c r="D46" s="10">
-        <v>0</v>
-      </c>
-      <c r="E46" s="10">
-        <v>0</v>
-      </c>
-      <c r="F46" s="11">
-        <v>37.23</v>
-      </c>
-      <c r="G46" s="11">
-        <v>0</v>
-      </c>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>-51828.95</v>
-      </c>
-      <c r="K46" s="11">
-        <v>1158.53</v>
-      </c>
-      <c r="L46" s="9">
-        <v>0</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N46" s="9" t="s">
+      <c r="C46" s="6">
+        <v>5300</v>
+      </c>
+      <c r="D46" s="6">
+        <v>5300</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>63.3</v>
+      </c>
+      <c r="G46" s="7">
+        <v>55.937</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>335490</v>
+      </c>
+      <c r="J46" s="7">
+        <v>39026.46</v>
+      </c>
+      <c r="K46" s="7">
+        <v>-9805</v>
+      </c>
+      <c r="L46" s="8">
+        <v>13.16</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47" s="10">
-        <v>603208</v>
+        <v>601689</v>
       </c>
       <c r="C47" s="10">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D47" s="10">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E47" s="10">
         <v>0</v>
       </c>
       <c r="F47" s="11">
-        <v>101.86</v>
+        <v>27.11</v>
       </c>
       <c r="G47" s="11">
-        <v>0</v>
+        <v>27.334</v>
       </c>
       <c r="H47" s="11">
         <v>0</v>
       </c>
       <c r="I47" s="11">
-        <v>0</v>
+        <v>16266</v>
       </c>
       <c r="J47" s="11">
-        <v>-173.7</v>
+        <v>-134.3</v>
       </c>
       <c r="K47" s="11">
-        <v>5131.39</v>
+        <v>-240</v>
       </c>
       <c r="L47" s="9">
-        <v>0</v>
+        <v>-0.82</v>
       </c>
       <c r="M47" s="9" t="s">
         <v>23</v>
@@ -2665,40 +2689,40 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="6">
-        <v>300454</v>
-      </c>
       <c r="C48" s="6">
-        <v>0</v>
+        <v>28900</v>
       </c>
       <c r="D48" s="6">
-        <v>0</v>
+        <v>28900</v>
       </c>
       <c r="E48" s="6">
         <v>0</v>
       </c>
       <c r="F48" s="7">
-        <v>198</v>
+        <v>12.4</v>
       </c>
       <c r="G48" s="7">
-        <v>0</v>
+        <v>12.302</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>0</v>
+        <v>358360</v>
       </c>
       <c r="J48" s="7">
-        <v>85974.32</v>
+        <v>2836.33</v>
       </c>
       <c r="K48" s="7">
-        <v>-51022.64</v>
+        <v>2601</v>
       </c>
       <c r="L48" s="8">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>25</v>
@@ -2711,88 +2735,88 @@
       <c r="A49" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>89</v>
+      <c r="B49" s="10">
+        <v>603881</v>
       </c>
       <c r="C49" s="10">
-        <v>14300</v>
+        <v>3500</v>
       </c>
       <c r="D49" s="10">
-        <v>14300</v>
+        <v>0</v>
       </c>
       <c r="E49" s="10">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="F49" s="11">
-        <v>25.53</v>
+        <v>100.25</v>
       </c>
       <c r="G49" s="11">
-        <v>26.04</v>
+        <v>100.502</v>
       </c>
       <c r="H49" s="11">
         <v>0</v>
       </c>
       <c r="I49" s="11">
-        <v>365079</v>
+        <v>350875</v>
       </c>
       <c r="J49" s="11">
-        <v>-7292.69</v>
+        <v>-881.84</v>
       </c>
       <c r="K49" s="11">
-        <v>-7865</v>
+        <v>-881.84</v>
       </c>
       <c r="L49" s="9">
-        <v>-1.96</v>
+        <v>-0.25</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="6">
-        <v>601028</v>
-      </c>
       <c r="C50" s="6">
-        <v>36200</v>
+        <v>5100</v>
       </c>
       <c r="D50" s="6">
-        <v>36200</v>
+        <v>5100</v>
       </c>
       <c r="E50" s="6">
         <v>0</v>
       </c>
       <c r="F50" s="7">
-        <v>12.39</v>
+        <v>18.63</v>
       </c>
       <c r="G50" s="7">
-        <v>10.005</v>
+        <v>18.363</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>448518</v>
+        <v>95013</v>
       </c>
       <c r="J50" s="7">
-        <v>86328.3</v>
+        <v>1359.77</v>
       </c>
       <c r="K50" s="7">
-        <v>13032</v>
+        <v>2040</v>
       </c>
       <c r="L50" s="8">
-        <v>23.84</v>
+        <v>1.45</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2812,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="7">
-        <v>45.16</v>
+        <v>18.79</v>
       </c>
       <c r="G51" s="7">
         <v>0</v>
@@ -2824,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="J51" s="7">
-        <v>20709.7</v>
+        <v>13333.09</v>
       </c>
       <c r="K51" s="7">
-        <v>-5252.9</v>
+        <v>-3404.37</v>
       </c>
       <c r="L51" s="8">
         <v>0</v>
@@ -2840,134 +2864,134 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="6">
-        <v>603181</v>
-      </c>
-      <c r="C52" s="6">
-        <v>24100</v>
-      </c>
-      <c r="D52" s="6">
-        <v>24100</v>
-      </c>
-      <c r="E52" s="6">
-        <v>0</v>
-      </c>
-      <c r="F52" s="7">
-        <v>22.29</v>
-      </c>
-      <c r="G52" s="7">
-        <v>19.052</v>
-      </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>537189</v>
-      </c>
-      <c r="J52" s="7">
-        <v>78034.39</v>
-      </c>
-      <c r="K52" s="7">
-        <v>-9881</v>
-      </c>
-      <c r="L52" s="8">
-        <v>17</v>
-      </c>
-      <c r="M52" s="8" t="s">
+      <c r="B52" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="10">
+        <v>3800</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0</v>
+      </c>
+      <c r="E52" s="10">
+        <v>3800</v>
+      </c>
+      <c r="F52" s="11">
+        <v>107.61</v>
+      </c>
+      <c r="G52" s="11">
+        <v>108.197</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11">
+        <v>408918</v>
+      </c>
+      <c r="J52" s="11">
+        <v>-2231.94</v>
+      </c>
+      <c r="K52" s="11">
+        <v>-2231.94</v>
+      </c>
+      <c r="L52" s="9">
+        <v>-0.54</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="10">
+        <v>14300</v>
+      </c>
+      <c r="D53" s="10">
+        <v>14300</v>
+      </c>
+      <c r="E53" s="10">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
+        <v>25.54</v>
+      </c>
+      <c r="G53" s="11">
+        <v>26.04</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0</v>
+      </c>
+      <c r="I53" s="11">
+        <v>365222</v>
+      </c>
+      <c r="J53" s="11">
+        <v>-7149.69</v>
+      </c>
+      <c r="K53" s="11">
+        <v>143</v>
+      </c>
+      <c r="L53" s="9">
+        <v>-1.92</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="6">
+        <v>601028</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>11.99</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
+        <v>71469.36</v>
+      </c>
+      <c r="K54" s="7">
+        <v>-14858.94</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0</v>
+      </c>
+      <c r="M54" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N52" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="6">
-        <v>3700</v>
-      </c>
-      <c r="D53" s="6">
-        <v>3700</v>
-      </c>
-      <c r="E53" s="6">
-        <v>0</v>
-      </c>
-      <c r="F53" s="7">
-        <v>37.57</v>
-      </c>
-      <c r="G53" s="7">
-        <v>35.911</v>
-      </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
-        <v>139009</v>
-      </c>
-      <c r="J53" s="7">
-        <v>6137.36</v>
-      </c>
-      <c r="K53" s="7">
-        <v>-5402</v>
-      </c>
-      <c r="L53" s="8">
-        <v>4.62</v>
-      </c>
-      <c r="M53" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N53" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="13">
-        <v>2947000</v>
-      </c>
-      <c r="D54" s="13">
-        <v>2947000</v>
-      </c>
-      <c r="E54" s="13">
-        <v>0</v>
-      </c>
-      <c r="F54" s="14">
-        <v>0</v>
-      </c>
-      <c r="G54" s="14">
-        <v>0</v>
-      </c>
-      <c r="H54" s="14">
-        <v>0</v>
-      </c>
-      <c r="I54" s="14">
-        <v>0</v>
-      </c>
-      <c r="J54" s="14">
-        <v>0</v>
-      </c>
-      <c r="K54" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L54" s="12">
-        <v>0</v>
-      </c>
-      <c r="M54" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N54" s="12" t="s">
+      <c r="N54" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2975,214 +2999,214 @@
       <c r="A55" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="6">
+        <v>603181</v>
+      </c>
+      <c r="C55" s="6">
+        <v>24100</v>
+      </c>
+      <c r="D55" s="6">
+        <v>24100</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>21.86</v>
+      </c>
+      <c r="G55" s="7">
+        <v>19.052</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>526826</v>
+      </c>
+      <c r="J55" s="7">
+        <v>67671.39</v>
+      </c>
+      <c r="K55" s="7">
+        <v>-10363</v>
+      </c>
+      <c r="L55" s="8">
+        <v>14.74</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="6">
-        <v>0</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0</v>
-      </c>
-      <c r="E55" s="6">
-        <v>0</v>
-      </c>
-      <c r="F55" s="7">
-        <v>37.22</v>
-      </c>
-      <c r="G55" s="7">
-        <v>0</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
-        <v>0</v>
-      </c>
-      <c r="J55" s="7">
-        <v>709.03</v>
-      </c>
-      <c r="K55" s="7">
-        <v>-3369.82</v>
-      </c>
-      <c r="L55" s="8">
-        <v>0</v>
-      </c>
-      <c r="M55" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N55" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="10">
-        <v>300662</v>
-      </c>
-      <c r="C56" s="10">
-        <v>4900</v>
-      </c>
-      <c r="D56" s="10">
-        <v>4900</v>
-      </c>
-      <c r="E56" s="10">
-        <v>0</v>
-      </c>
-      <c r="F56" s="11">
-        <v>42.16</v>
-      </c>
-      <c r="G56" s="11">
-        <v>44.509</v>
-      </c>
-      <c r="H56" s="11">
-        <v>0</v>
-      </c>
-      <c r="I56" s="11">
-        <v>206584</v>
-      </c>
-      <c r="J56" s="11">
-        <v>-11508.16</v>
-      </c>
-      <c r="K56" s="11">
-        <v>-11466</v>
-      </c>
-      <c r="L56" s="9">
-        <v>-5.28</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N56" s="9" t="s">
+      <c r="C56" s="6">
+        <v>3700</v>
+      </c>
+      <c r="D56" s="6">
+        <v>3700</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>37.4</v>
+      </c>
+      <c r="G56" s="7">
+        <v>35.911</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>138380</v>
+      </c>
+      <c r="J56" s="7">
+        <v>5508.36</v>
+      </c>
+      <c r="K56" s="7">
+        <v>-629</v>
+      </c>
+      <c r="L56" s="8">
+        <v>4.15</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="6">
-        <v>300709</v>
-      </c>
-      <c r="C57" s="6">
-        <v>430</v>
-      </c>
-      <c r="D57" s="6">
-        <v>430</v>
-      </c>
-      <c r="E57" s="6">
-        <v>0</v>
-      </c>
-      <c r="F57" s="7">
-        <v>97.42</v>
-      </c>
-      <c r="G57" s="7">
-        <v>-40.749</v>
-      </c>
-      <c r="H57" s="7">
-        <v>0</v>
-      </c>
-      <c r="I57" s="7">
-        <v>41890.6</v>
-      </c>
-      <c r="J57" s="7">
-        <v>59412.86</v>
-      </c>
-      <c r="K57" s="7">
-        <v>546.1</v>
-      </c>
-      <c r="L57" s="8">
-        <v>0</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>24</v>
+      <c r="B57" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="13">
+        <v>3043500</v>
+      </c>
+      <c r="D57" s="13">
+        <v>3043500</v>
+      </c>
+      <c r="E57" s="13">
+        <v>0</v>
+      </c>
+      <c r="F57" s="14">
+        <v>0</v>
+      </c>
+      <c r="G57" s="14">
+        <v>0</v>
+      </c>
+      <c r="H57" s="14">
+        <v>0</v>
+      </c>
+      <c r="I57" s="14">
+        <v>0</v>
+      </c>
+      <c r="J57" s="14">
+        <v>0</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="12">
+        <v>0</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N57" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B58" s="10">
-        <v>603916</v>
+        <v>300662</v>
       </c>
       <c r="C58" s="10">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="D58" s="10">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="E58" s="10">
         <v>0</v>
       </c>
       <c r="F58" s="11">
-        <v>26.11</v>
+        <v>43.61</v>
       </c>
       <c r="G58" s="11">
-        <v>0</v>
+        <v>44.509</v>
       </c>
       <c r="H58" s="11">
         <v>0</v>
       </c>
       <c r="I58" s="11">
-        <v>0</v>
+        <v>213689</v>
       </c>
       <c r="J58" s="11">
-        <v>-35948.67</v>
+        <v>-4403.16</v>
       </c>
       <c r="K58" s="11">
-        <v>5859.63</v>
+        <v>7105</v>
       </c>
       <c r="L58" s="9">
-        <v>0</v>
+        <v>-2.02</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N58" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B59" s="8" t="s">
         <v>104</v>
       </c>
+      <c r="B59" s="6">
+        <v>300709</v>
+      </c>
       <c r="C59" s="6">
-        <v>52221</v>
+        <v>430</v>
       </c>
       <c r="D59" s="6">
-        <v>52221</v>
+        <v>430</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
       </c>
       <c r="F59" s="7">
-        <v>12.85</v>
+        <v>94.05</v>
       </c>
       <c r="G59" s="7">
-        <v>9.731</v>
+        <v>-40.749</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
       </c>
       <c r="I59" s="7">
-        <v>671039.85</v>
+        <v>40441.5</v>
       </c>
       <c r="J59" s="7">
-        <v>162901.17</v>
+        <v>57963.76</v>
       </c>
       <c r="K59" s="7">
-        <v>-16710.72</v>
+        <v>-1449.1</v>
       </c>
       <c r="L59" s="8">
-        <v>32.05</v>
+        <v>0</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>25</v>
@@ -3195,87 +3219,87 @@
       <c r="A60" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="6">
+        <v>52221</v>
+      </c>
+      <c r="D60" s="6">
+        <v>52221</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>12.95</v>
+      </c>
+      <c r="G60" s="7">
+        <v>9.731</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>676261.95</v>
+      </c>
+      <c r="J60" s="7">
+        <v>168123.27</v>
+      </c>
+      <c r="K60" s="7">
+        <v>5222.1</v>
+      </c>
+      <c r="L60" s="8">
+        <v>33.08</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="6">
         <v>300677</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C61" s="6">
         <v>3300</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D61" s="6">
         <v>3300</v>
       </c>
-      <c r="E60" s="6">
-        <v>0</v>
-      </c>
-      <c r="F60" s="7">
-        <v>122.55</v>
-      </c>
-      <c r="G60" s="7">
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>124</v>
+      </c>
+      <c r="G61" s="7">
         <v>115.627</v>
       </c>
-      <c r="H60" s="7">
-        <v>0</v>
-      </c>
-      <c r="I60" s="7">
-        <v>404415</v>
-      </c>
-      <c r="J60" s="7">
-        <v>22847.2</v>
-      </c>
-      <c r="K60" s="7">
-        <v>-17325</v>
-      </c>
-      <c r="L60" s="8">
-        <v>5.99</v>
-      </c>
-      <c r="M60" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N60" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="10">
-        <v>0</v>
-      </c>
-      <c r="D61" s="10">
-        <v>0</v>
-      </c>
-      <c r="E61" s="10">
-        <v>0</v>
-      </c>
-      <c r="F61" s="11">
-        <v>30.51</v>
-      </c>
-      <c r="G61" s="11">
-        <v>0</v>
-      </c>
-      <c r="H61" s="11">
-        <v>0</v>
-      </c>
-      <c r="I61" s="11">
-        <v>0</v>
-      </c>
-      <c r="J61" s="11">
-        <v>-29940.92</v>
-      </c>
-      <c r="K61" s="11">
-        <v>252.78</v>
-      </c>
-      <c r="L61" s="9">
-        <v>0</v>
-      </c>
-      <c r="M61" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N61" s="9" t="s">
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>409200</v>
+      </c>
+      <c r="J61" s="7">
+        <v>27632.2</v>
+      </c>
+      <c r="K61" s="7">
+        <v>4785</v>
+      </c>
+      <c r="L61" s="8">
+        <v>7.24</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3283,214 +3307,214 @@
       <c r="A62" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="10">
+        <v>300725</v>
+      </c>
+      <c r="C62" s="10">
+        <v>1100</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0</v>
+      </c>
+      <c r="E62" s="10">
+        <v>1100</v>
+      </c>
+      <c r="F62" s="11">
+        <v>117.7</v>
+      </c>
+      <c r="G62" s="11">
+        <v>118.182</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0</v>
+      </c>
+      <c r="I62" s="11">
+        <v>129470</v>
+      </c>
+      <c r="J62" s="11">
+        <v>-530</v>
+      </c>
+      <c r="K62" s="11">
+        <v>-530</v>
+      </c>
+      <c r="L62" s="9">
+        <v>-0.41</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="10">
+      <c r="B63" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="10">
         <v>10300</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D63" s="10">
         <v>10300</v>
       </c>
-      <c r="E62" s="10">
-        <v>0</v>
-      </c>
-      <c r="F62" s="11">
-        <v>29.25</v>
-      </c>
-      <c r="G62" s="11">
+      <c r="E63" s="10">
+        <v>0</v>
+      </c>
+      <c r="F63" s="11">
+        <v>29.21</v>
+      </c>
+      <c r="G63" s="11">
         <v>29.996</v>
       </c>
-      <c r="H62" s="11">
-        <v>0</v>
-      </c>
-      <c r="I62" s="11">
-        <v>301275</v>
-      </c>
-      <c r="J62" s="11">
-        <v>-7681.07</v>
-      </c>
-      <c r="K62" s="11">
-        <v>-8858</v>
-      </c>
-      <c r="L62" s="9">
-        <v>-2.49</v>
-      </c>
-      <c r="M62" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N62" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" s="6">
-        <v>600988</v>
-      </c>
-      <c r="C63" s="6">
-        <v>31500</v>
-      </c>
-      <c r="D63" s="6">
-        <v>31000</v>
-      </c>
-      <c r="E63" s="6">
-        <v>500</v>
-      </c>
-      <c r="F63" s="7">
-        <v>11.94</v>
-      </c>
-      <c r="G63" s="7">
-        <v>11.899</v>
-      </c>
-      <c r="H63" s="7">
-        <v>0</v>
-      </c>
-      <c r="I63" s="7">
-        <v>376110</v>
-      </c>
-      <c r="J63" s="7">
-        <v>1298.26</v>
-      </c>
-      <c r="K63" s="7">
-        <v>1219.88</v>
-      </c>
-      <c r="L63" s="8">
-        <v>0.34</v>
-      </c>
-      <c r="M63" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N63" s="8" t="s">
-        <v>22</v>
+      <c r="H63" s="11">
+        <v>0</v>
+      </c>
+      <c r="I63" s="11">
+        <v>300863</v>
+      </c>
+      <c r="J63" s="11">
+        <v>-8093.07</v>
+      </c>
+      <c r="K63" s="11">
+        <v>-412</v>
+      </c>
+      <c r="L63" s="9">
+        <v>-2.62</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="10">
+        <v>300558</v>
+      </c>
+      <c r="C64" s="10">
+        <v>2200</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0</v>
+      </c>
+      <c r="E64" s="10">
+        <v>2200</v>
+      </c>
+      <c r="F64" s="11">
+        <v>134.9</v>
+      </c>
+      <c r="G64" s="11">
+        <v>134.93</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0</v>
+      </c>
+      <c r="I64" s="11">
+        <v>296780</v>
+      </c>
+      <c r="J64" s="11">
+        <v>-65.15</v>
+      </c>
+      <c r="K64" s="11">
+        <v>-65.15</v>
+      </c>
+      <c r="L64" s="9">
+        <v>-0.02</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="6">
-        <v>13700</v>
-      </c>
-      <c r="D64" s="6">
-        <v>0</v>
-      </c>
-      <c r="E64" s="6">
-        <v>13700</v>
-      </c>
-      <c r="F64" s="7">
-        <v>26.27</v>
-      </c>
-      <c r="G64" s="7">
-        <v>26.162</v>
-      </c>
-      <c r="H64" s="7">
-        <v>0</v>
-      </c>
-      <c r="I64" s="7">
-        <v>359899</v>
-      </c>
-      <c r="J64" s="7">
-        <v>1479.57</v>
-      </c>
-      <c r="K64" s="7">
-        <v>1479.57</v>
-      </c>
-      <c r="L64" s="8">
-        <v>0.41</v>
-      </c>
-      <c r="M64" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N64" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="6">
-        <v>300530</v>
-      </c>
-      <c r="C65" s="6">
-        <v>1000</v>
-      </c>
-      <c r="D65" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E65" s="6">
-        <v>0</v>
-      </c>
-      <c r="F65" s="7">
-        <v>40.5</v>
-      </c>
-      <c r="G65" s="7">
-        <v>35.762</v>
-      </c>
-      <c r="H65" s="7">
-        <v>0</v>
-      </c>
-      <c r="I65" s="7">
-        <v>40500</v>
-      </c>
-      <c r="J65" s="7">
-        <v>4737.7</v>
-      </c>
-      <c r="K65" s="7">
-        <v>-780</v>
-      </c>
-      <c r="L65" s="8">
-        <v>13.25</v>
-      </c>
-      <c r="M65" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N65" s="8" t="s">
+      <c r="B65" s="10">
+        <v>300457</v>
+      </c>
+      <c r="C65" s="10">
+        <v>12000</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0</v>
+      </c>
+      <c r="E65" s="10">
+        <v>12000</v>
+      </c>
+      <c r="F65" s="11">
+        <v>31.94</v>
+      </c>
+      <c r="G65" s="11">
+        <v>31.944</v>
+      </c>
+      <c r="H65" s="11">
+        <v>0</v>
+      </c>
+      <c r="I65" s="11">
+        <v>383280</v>
+      </c>
+      <c r="J65" s="11">
+        <v>-53.73</v>
+      </c>
+      <c r="K65" s="11">
+        <v>-53.73</v>
+      </c>
+      <c r="L65" s="9">
+        <v>-0.01</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B66" s="10">
-        <v>600867</v>
+        <v>600988</v>
       </c>
       <c r="C66" s="10">
-        <v>21500</v>
+        <v>31500</v>
       </c>
       <c r="D66" s="10">
-        <v>0</v>
+        <v>31500</v>
       </c>
       <c r="E66" s="10">
-        <v>21500</v>
+        <v>0</v>
       </c>
       <c r="F66" s="11">
-        <v>16.86</v>
+        <v>11.6</v>
       </c>
       <c r="G66" s="11">
-        <v>16.867</v>
+        <v>11.899</v>
       </c>
       <c r="H66" s="11">
         <v>0</v>
       </c>
       <c r="I66" s="11">
-        <v>362490</v>
+        <v>365400</v>
       </c>
       <c r="J66" s="11">
-        <v>-152.06</v>
+        <v>-9407.46</v>
       </c>
       <c r="K66" s="11">
-        <v>-152.06</v>
+        <v>-10710</v>
       </c>
       <c r="L66" s="9">
-        <v>-0.04</v>
+        <v>-2.51</v>
       </c>
       <c r="M66" s="9" t="s">
         <v>23</v>
@@ -3501,46 +3525,46 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B67" s="6">
-        <v>600438</v>
-      </c>
       <c r="C67" s="6">
-        <v>21500</v>
+        <v>14300</v>
       </c>
       <c r="D67" s="6">
-        <v>21500</v>
+        <v>13700</v>
       </c>
       <c r="E67" s="6">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F67" s="7">
-        <v>18.17</v>
+        <v>26.45</v>
       </c>
       <c r="G67" s="7">
-        <v>17.418</v>
+        <v>26.173</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
       </c>
       <c r="I67" s="7">
-        <v>390655</v>
+        <v>378235</v>
       </c>
       <c r="J67" s="7">
-        <v>16159.57</v>
+        <v>3957.39</v>
       </c>
       <c r="K67" s="7">
-        <v>16985</v>
+        <v>2461</v>
       </c>
       <c r="L67" s="8">
-        <v>4.32</v>
+        <v>1.06</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3548,37 +3572,37 @@
         <v>116</v>
       </c>
       <c r="B68" s="6">
-        <v>300233</v>
+        <v>300530</v>
       </c>
       <c r="C68" s="6">
-        <v>6200</v>
+        <v>0</v>
       </c>
       <c r="D68" s="6">
         <v>0</v>
       </c>
       <c r="E68" s="6">
-        <v>6200</v>
+        <v>0</v>
       </c>
       <c r="F68" s="7">
-        <v>32.98</v>
+        <v>39.38</v>
       </c>
       <c r="G68" s="7">
-        <v>32.532</v>
+        <v>0</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
       </c>
       <c r="I68" s="7">
-        <v>204476</v>
+        <v>0</v>
       </c>
       <c r="J68" s="7">
-        <v>2778</v>
+        <v>3425.43</v>
       </c>
       <c r="K68" s="7">
-        <v>2778</v>
+        <v>-1312.27</v>
       </c>
       <c r="L68" s="8">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="M68" s="8" t="s">
         <v>25</v>
@@ -3591,170 +3615,170 @@
       <c r="A69" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="10">
+        <v>300244</v>
+      </c>
+      <c r="C69" s="10">
+        <v>200</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0</v>
+      </c>
+      <c r="E69" s="10">
+        <v>200</v>
+      </c>
+      <c r="F69" s="11">
+        <v>33.7</v>
+      </c>
+      <c r="G69" s="11">
+        <v>33.995</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0</v>
+      </c>
+      <c r="I69" s="11">
+        <v>6740</v>
+      </c>
+      <c r="J69" s="11">
+        <v>-59</v>
+      </c>
+      <c r="K69" s="11">
+        <v>-59</v>
+      </c>
+      <c r="L69" s="9">
+        <v>-0.87</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C69" s="10">
-        <v>32000</v>
-      </c>
-      <c r="D69" s="10">
-        <v>32000</v>
-      </c>
-      <c r="E69" s="10">
-        <v>0</v>
-      </c>
-      <c r="F69" s="11">
-        <v>12.11</v>
-      </c>
-      <c r="G69" s="11">
-        <v>12.3</v>
-      </c>
-      <c r="H69" s="11">
-        <v>0</v>
-      </c>
-      <c r="I69" s="11">
-        <v>387520</v>
-      </c>
-      <c r="J69" s="11">
-        <v>-6094.24</v>
-      </c>
-      <c r="K69" s="11">
-        <v>-4160</v>
-      </c>
-      <c r="L69" s="9">
-        <v>-1.54</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N69" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="8" t="s">
+      <c r="B70" s="10">
+        <v>600867</v>
+      </c>
+      <c r="C70" s="10">
+        <v>21500</v>
+      </c>
+      <c r="D70" s="10">
+        <v>21500</v>
+      </c>
+      <c r="E70" s="10">
+        <v>0</v>
+      </c>
+      <c r="F70" s="11">
+        <v>16.72</v>
+      </c>
+      <c r="G70" s="11">
+        <v>16.867</v>
+      </c>
+      <c r="H70" s="11">
+        <v>0</v>
+      </c>
+      <c r="I70" s="11">
+        <v>359480</v>
+      </c>
+      <c r="J70" s="11">
+        <v>-3153.74</v>
+      </c>
+      <c r="K70" s="11">
+        <v>-3010</v>
+      </c>
+      <c r="L70" s="9">
+        <v>-0.87</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B70" s="6">
-        <v>300132</v>
-      </c>
-      <c r="C70" s="6">
-        <v>13700</v>
-      </c>
-      <c r="D70" s="6">
-        <v>13700</v>
-      </c>
-      <c r="E70" s="6">
-        <v>0</v>
-      </c>
-      <c r="F70" s="7">
-        <v>23.15</v>
-      </c>
-      <c r="G70" s="7">
-        <v>22.537</v>
-      </c>
-      <c r="H70" s="7">
-        <v>0</v>
-      </c>
-      <c r="I70" s="7">
-        <v>317155</v>
-      </c>
-      <c r="J70" s="7">
-        <v>8400</v>
-      </c>
-      <c r="K70" s="7">
-        <v>685</v>
-      </c>
-      <c r="L70" s="8">
-        <v>2.72</v>
-      </c>
-      <c r="M70" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N70" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71" s="10">
-        <v>12600</v>
-      </c>
-      <c r="D71" s="10">
-        <v>12600</v>
-      </c>
-      <c r="E71" s="10">
-        <v>0</v>
-      </c>
-      <c r="F71" s="11">
-        <v>28.98</v>
-      </c>
-      <c r="G71" s="11">
-        <v>29.116</v>
-      </c>
-      <c r="H71" s="11">
-        <v>0</v>
-      </c>
-      <c r="I71" s="11">
-        <v>365148</v>
-      </c>
-      <c r="J71" s="11">
-        <v>-1713.02</v>
-      </c>
-      <c r="K71" s="11">
-        <v>-2646</v>
-      </c>
-      <c r="L71" s="9">
-        <v>-0.47</v>
-      </c>
-      <c r="M71" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N71" s="9" t="s">
-        <v>24</v>
+      <c r="B71" s="6">
+        <v>600438</v>
+      </c>
+      <c r="C71" s="6">
+        <v>21500</v>
+      </c>
+      <c r="D71" s="6">
+        <v>21500</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="7">
+        <v>19.04</v>
+      </c>
+      <c r="G71" s="7">
+        <v>17.418</v>
+      </c>
+      <c r="H71" s="7">
+        <v>0</v>
+      </c>
+      <c r="I71" s="7">
+        <v>409360</v>
+      </c>
+      <c r="J71" s="7">
+        <v>34864.57</v>
+      </c>
+      <c r="K71" s="7">
+        <v>18705</v>
+      </c>
+      <c r="L71" s="8">
+        <v>9.31</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B72" s="10">
-        <v>300423</v>
+        <v>300233</v>
       </c>
       <c r="C72" s="10">
-        <v>7700</v>
+        <v>6200</v>
       </c>
       <c r="D72" s="10">
-        <v>7700</v>
+        <v>6200</v>
       </c>
       <c r="E72" s="10">
         <v>0</v>
       </c>
       <c r="F72" s="11">
-        <v>12.21</v>
+        <v>31.95</v>
       </c>
       <c r="G72" s="11">
-        <v>13.647</v>
+        <v>32.516</v>
       </c>
       <c r="H72" s="11">
         <v>0</v>
       </c>
       <c r="I72" s="11">
-        <v>94017</v>
+        <v>198090</v>
       </c>
       <c r="J72" s="11">
-        <v>-11067.49</v>
+        <v>-3507.16</v>
       </c>
       <c r="K72" s="11">
-        <v>-1155</v>
+        <v>-6386</v>
       </c>
       <c r="L72" s="9">
-        <v>-10.53</v>
+        <v>-1.74</v>
       </c>
       <c r="M72" s="9" t="s">
         <v>25</v>
@@ -3765,89 +3789,353 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="6">
+        <v>0</v>
+      </c>
+      <c r="D73" s="6">
+        <v>0</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>12.66</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>0</v>
+      </c>
+      <c r="J73" s="7">
+        <v>11921.67</v>
+      </c>
+      <c r="K73" s="7">
+        <v>18015.91</v>
+      </c>
+      <c r="L73" s="8">
+        <v>0</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B74" s="10">
+        <v>300132</v>
+      </c>
+      <c r="C74" s="10">
+        <v>13700</v>
+      </c>
+      <c r="D74" s="10">
+        <v>13700</v>
+      </c>
+      <c r="E74" s="10">
+        <v>0</v>
+      </c>
+      <c r="F74" s="11">
+        <v>22.26</v>
+      </c>
+      <c r="G74" s="11">
+        <v>22.537</v>
+      </c>
+      <c r="H74" s="11">
+        <v>0</v>
+      </c>
+      <c r="I74" s="11">
+        <v>304962</v>
+      </c>
+      <c r="J74" s="11">
+        <v>-3793</v>
+      </c>
+      <c r="K74" s="11">
+        <v>-12193</v>
+      </c>
+      <c r="L74" s="9">
+        <v>-1.23</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="6">
+        <v>36300</v>
+      </c>
+      <c r="D75" s="6">
+        <v>0</v>
+      </c>
+      <c r="E75" s="6">
+        <v>36300</v>
+      </c>
+      <c r="F75" s="7">
+        <v>11.16</v>
+      </c>
+      <c r="G75" s="7">
+        <v>11.079</v>
+      </c>
+      <c r="H75" s="7">
+        <v>0</v>
+      </c>
+      <c r="I75" s="7">
+        <v>405108</v>
+      </c>
+      <c r="J75" s="7">
+        <v>2923.44</v>
+      </c>
+      <c r="K75" s="7">
+        <v>2923.44</v>
+      </c>
+      <c r="L75" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="6">
+        <v>12600</v>
+      </c>
+      <c r="D76" s="6">
+        <v>12600</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>29.87</v>
+      </c>
+      <c r="G76" s="7">
+        <v>29.116</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>376362</v>
+      </c>
+      <c r="J76" s="7">
+        <v>9500.98</v>
+      </c>
+      <c r="K76" s="7">
+        <v>11214</v>
+      </c>
+      <c r="L76" s="8">
+        <v>2.59</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N76" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" s="10">
+        <v>300423</v>
+      </c>
+      <c r="C77" s="10">
+        <v>7700</v>
+      </c>
+      <c r="D77" s="10">
+        <v>7700</v>
+      </c>
+      <c r="E77" s="10">
+        <v>0</v>
+      </c>
+      <c r="F77" s="11">
+        <v>12.56</v>
+      </c>
+      <c r="G77" s="11">
+        <v>13.647</v>
+      </c>
+      <c r="H77" s="11">
+        <v>0</v>
+      </c>
+      <c r="I77" s="11">
+        <v>96712</v>
+      </c>
+      <c r="J77" s="11">
+        <v>-8372.49</v>
+      </c>
+      <c r="K77" s="11">
+        <v>2695</v>
+      </c>
+      <c r="L77" s="9">
+        <v>-7.97</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="10">
+        <v>12500</v>
+      </c>
+      <c r="D78" s="10">
+        <v>0</v>
+      </c>
+      <c r="E78" s="10">
+        <v>12500</v>
+      </c>
+      <c r="F78" s="11">
+        <v>30.43</v>
+      </c>
+      <c r="G78" s="11">
+        <v>30.524</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0</v>
+      </c>
+      <c r="I78" s="11">
+        <v>380375</v>
+      </c>
+      <c r="J78" s="11">
+        <v>-1173.5</v>
+      </c>
+      <c r="K78" s="11">
+        <v>-1173.5</v>
+      </c>
+      <c r="L78" s="9">
+        <v>-0.31</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B79" s="6">
         <v>300438</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C79" s="6">
         <v>15400</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D79" s="6">
         <v>15400</v>
       </c>
-      <c r="E73" s="6">
-        <v>0</v>
-      </c>
-      <c r="F73" s="7">
-        <v>17.66</v>
-      </c>
-      <c r="G73" s="7">
+      <c r="E79" s="6">
+        <v>0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>17.58</v>
+      </c>
+      <c r="G79" s="7">
         <v>15.969</v>
       </c>
-      <c r="H73" s="7">
-        <v>0</v>
-      </c>
-      <c r="I73" s="7">
-        <v>271964</v>
-      </c>
-      <c r="J73" s="7">
-        <v>26046.5</v>
-      </c>
-      <c r="K73" s="7">
-        <v>3234</v>
-      </c>
-      <c r="L73" s="8">
-        <v>10.59</v>
-      </c>
-      <c r="M73" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N73" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B74" s="6">
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" s="7">
+        <v>270732</v>
+      </c>
+      <c r="J79" s="7">
+        <v>24814.5</v>
+      </c>
+      <c r="K79" s="7">
+        <v>-1232</v>
+      </c>
+      <c r="L79" s="8">
+        <v>10.09</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B80" s="6">
         <v>300054</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C80" s="6">
         <v>14900</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D80" s="6">
         <v>14900</v>
       </c>
-      <c r="E74" s="6">
-        <v>0</v>
-      </c>
-      <c r="F74" s="7">
-        <v>17.08</v>
-      </c>
-      <c r="G74" s="7">
+      <c r="E80" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>17.23</v>
+      </c>
+      <c r="G80" s="7">
         <v>13.982</v>
       </c>
-      <c r="H74" s="7">
-        <v>0</v>
-      </c>
-      <c r="I74" s="7">
-        <v>254492</v>
-      </c>
-      <c r="J74" s="7">
-        <v>46164</v>
-      </c>
-      <c r="K74" s="7">
-        <v>7152</v>
-      </c>
-      <c r="L74" s="8">
-        <v>22.16</v>
-      </c>
-      <c r="M74" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N74" s="8" t="s">
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>256727</v>
+      </c>
+      <c r="J80" s="7">
+        <v>48399</v>
+      </c>
+      <c r="K80" s="7">
+        <v>2235</v>
+      </c>
+      <c r="L80" s="8">
+        <v>23.23</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N80" s="8" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
+++ b/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="133">
   <si>
     <t>资金</t>
   </si>
@@ -151,10 +151,7 @@
     <t>中源协和</t>
   </si>
   <si>
-    <t>中环股份</t>
-  </si>
-  <si>
-    <t>002129</t>
+    <t>中科曙光</t>
   </si>
   <si>
     <t>中航光电</t>
@@ -163,7 +160,10 @@
     <t>002179</t>
   </si>
   <si>
-    <t>九洲药业</t>
+    <t>亚厦股份</t>
+  </si>
+  <si>
+    <t>002375</t>
   </si>
   <si>
     <t>亿嘉和</t>
@@ -211,12 +211,6 @@
     <t>国药股份</t>
   </si>
   <si>
-    <t>坚朗五金</t>
-  </si>
-  <si>
-    <t>002791</t>
-  </si>
-  <si>
     <t>大亚圣象</t>
   </si>
   <si>
@@ -247,15 +241,18 @@
     <t>002240</t>
   </si>
   <si>
-    <t>宁德时代</t>
-  </si>
-  <si>
     <t>宇信科技</t>
   </si>
   <si>
+    <t>安科生物</t>
+  </si>
+  <si>
     <t>安车检测</t>
   </si>
   <si>
+    <t>密尔克卫</t>
+  </si>
+  <si>
     <t>康德莱</t>
   </si>
   <si>
@@ -289,10 +286,7 @@
     <t>002459</t>
   </si>
   <si>
-    <t>欧菲光</t>
-  </si>
-  <si>
-    <t>002456</t>
+    <t>江化微</t>
   </si>
   <si>
     <t>泸州老窖</t>
@@ -307,9 +301,6 @@
     <t>002174</t>
   </si>
   <si>
-    <t>玉龙股份</t>
-  </si>
-  <si>
     <t>皇马科技</t>
   </si>
   <si>
@@ -331,6 +322,12 @@
     <t>精研科技</t>
   </si>
   <si>
+    <t>紫光国微</t>
+  </si>
+  <si>
+    <t>002049</t>
+  </si>
+  <si>
     <t>苏州固锝</t>
   </si>
   <si>
@@ -349,6 +346,12 @@
     <t>002382</t>
   </si>
   <si>
+    <t>贝因美</t>
+  </si>
+  <si>
+    <t>002570</t>
+  </si>
+  <si>
     <t>贝达药业</t>
   </si>
   <si>
@@ -364,9 +367,6 @@
     <t>002030</t>
   </si>
   <si>
-    <t>达志科技</t>
-  </si>
-  <si>
     <t>迪安诊断</t>
   </si>
   <si>
@@ -376,13 +376,13 @@
     <t>通威股份</t>
   </si>
   <si>
+    <t>酒鬼酒</t>
+  </si>
+  <si>
+    <t>000799</t>
+  </si>
+  <si>
     <t>金城医药</t>
-  </si>
-  <si>
-    <t>金财互联</t>
-  </si>
-  <si>
-    <t>002530</t>
   </si>
   <si>
     <t>青松股份</t>
@@ -884,28 +884,28 @@
         <v>1720175912</v>
       </c>
       <c r="C3" s="4">
-        <v>3064832.48</v>
+        <v>1908514.59</v>
       </c>
       <c r="D3" s="4">
-        <v>1494523.15</v>
+        <v>2050923.67</v>
       </c>
       <c r="E3" s="4">
-        <v>1494523.15</v>
+        <v>1908514.59</v>
       </c>
       <c r="F3" s="4">
-        <v>1570309.33</v>
+        <v>-142409.08</v>
       </c>
       <c r="G3" s="4">
-        <v>23470925.61</v>
+        <v>23362579.58</v>
       </c>
       <c r="H3" s="4">
-        <v>25378668.6</v>
+        <v>25413503.25</v>
       </c>
       <c r="I3" s="4">
-        <v>1331902.99</v>
+        <v>1249237.46</v>
       </c>
       <c r="J3" s="4">
-        <v>54158.98</v>
+        <v>33963.08</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="4">
-        <v>3043000</v>
+        <v>3123000</v>
       </c>
       <c r="C8" s="4">
-        <v>3043500</v>
+        <v>3123000</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="4">
-        <v>6411000</v>
+        <v>6631000</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>25.13</v>
+        <v>25.28</v>
       </c>
       <c r="G12" s="7">
         <v>24.711</v>
@@ -1129,16 +1129,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>394541</v>
+        <v>396896</v>
       </c>
       <c r="J12" s="7">
-        <v>6574.67</v>
+        <v>8929.67</v>
       </c>
       <c r="K12" s="7">
-        <v>6594</v>
+        <v>2355</v>
       </c>
       <c r="L12" s="8">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>23</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>40.62</v>
+        <v>41.12</v>
       </c>
       <c r="G13" s="11">
         <v>43.525</v>
@@ -1173,16 +1173,16 @@
         <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>337146</v>
+        <v>341296</v>
       </c>
       <c r="J13" s="11">
-        <v>-24114.63</v>
+        <v>-19964.63</v>
       </c>
       <c r="K13" s="11">
-        <v>-2407</v>
+        <v>4150</v>
       </c>
       <c r="L13" s="9">
-        <v>-6.67</v>
+        <v>-5.53</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>23</v>
@@ -1199,34 +1199,34 @@
         <v>42</v>
       </c>
       <c r="C14" s="6">
-        <v>23500</v>
+        <v>0</v>
       </c>
       <c r="D14" s="6">
-        <v>23500</v>
+        <v>0</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>15.22</v>
+        <v>15.54</v>
       </c>
       <c r="G14" s="7">
-        <v>15.036</v>
+        <v>0</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>357670</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7">
-        <v>4327.61</v>
+        <v>12015.69</v>
       </c>
       <c r="K14" s="7">
-        <v>-2350</v>
+        <v>7688.08</v>
       </c>
       <c r="L14" s="8">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>25</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>21.9</v>
+        <v>22.8</v>
       </c>
       <c r="G15" s="7">
         <v>18.564</v>
@@ -1261,16 +1261,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>435810</v>
+        <v>453720</v>
       </c>
       <c r="J15" s="7">
-        <v>66377.68</v>
+        <v>84287.68</v>
       </c>
       <c r="K15" s="7">
-        <v>33034</v>
+        <v>17910</v>
       </c>
       <c r="L15" s="8">
-        <v>17.97</v>
+        <v>22.82</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>25</v>
@@ -1310,8 +1310,8 @@
       <c r="J16" s="11">
         <v>-866.65</v>
       </c>
-      <c r="K16" s="11">
-        <v>532</v>
+      <c r="K16" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="L16" s="9">
         <v>-0.23</v>
@@ -1327,132 +1327,132 @@
       <c r="A17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6">
+        <v>603019</v>
+      </c>
+      <c r="C17" s="6">
+        <v>9000</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>9000</v>
+      </c>
+      <c r="F17" s="7">
+        <v>41.25</v>
+      </c>
+      <c r="G17" s="7">
+        <v>41.184</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>371250</v>
+      </c>
+      <c r="J17" s="7">
+        <v>594.57</v>
+      </c>
+      <c r="K17" s="7">
+        <v>594.57</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>22.59</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
-        <v>30614.63</v>
-      </c>
-      <c r="K17" s="7">
-        <v>1137.03</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="C18" s="10">
         <v>4700</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="10">
         <v>4700</v>
       </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>40.22</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
+        <v>39.91</v>
+      </c>
+      <c r="G18" s="11">
         <v>40.005</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>189034</v>
-      </c>
-      <c r="J18" s="7">
-        <v>1011.44</v>
-      </c>
-      <c r="K18" s="7">
-        <v>-1927</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0.54</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="8" t="s">
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <v>187577</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-445.56</v>
+      </c>
+      <c r="K18" s="11">
+        <v>-1457</v>
+      </c>
+      <c r="L18" s="9">
+        <v>-0.24</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="10">
-        <v>603456</v>
-      </c>
       <c r="C19" s="10">
-        <v>0</v>
+        <v>20200</v>
       </c>
       <c r="D19" s="10">
         <v>0</v>
       </c>
       <c r="E19" s="10">
-        <v>0</v>
+        <v>20200</v>
       </c>
       <c r="F19" s="11">
-        <v>29.16</v>
+        <v>9.91</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>9.961</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
+        <v>200182</v>
       </c>
       <c r="J19" s="11">
-        <v>-4590.54</v>
+        <v>-1035</v>
       </c>
       <c r="K19" s="11">
-        <v>1.82</v>
+        <v>-1035</v>
       </c>
       <c r="L19" s="9">
-        <v>0</v>
+        <v>-0.51</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>90.1</v>
+        <v>91.9</v>
       </c>
       <c r="G20" s="7">
         <v>72.526</v>
@@ -1481,16 +1481,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>351390</v>
+        <v>358410</v>
       </c>
       <c r="J20" s="7">
-        <v>68539.28</v>
+        <v>75559.28</v>
       </c>
       <c r="K20" s="7">
-        <v>1560</v>
+        <v>7020</v>
       </c>
       <c r="L20" s="8">
-        <v>24.23</v>
+        <v>26.71</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>23</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="7">
-        <v>38.65</v>
+        <v>37.35</v>
       </c>
       <c r="G21" s="7">
         <v>17.837</v>
@@ -1525,16 +1525,16 @@
         <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>30920</v>
+        <v>29880</v>
       </c>
       <c r="J21" s="7">
-        <v>16650.44</v>
+        <v>15610.44</v>
       </c>
       <c r="K21" s="7">
-        <v>-936</v>
+        <v>-1040</v>
       </c>
       <c r="L21" s="8">
-        <v>116.68</v>
+        <v>109.4</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>25</v>
@@ -1551,34 +1551,34 @@
         <v>300136</v>
       </c>
       <c r="C22" s="6">
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="D22" s="6">
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>53.12</v>
+        <v>53.19</v>
       </c>
       <c r="G22" s="7">
-        <v>50.973</v>
+        <v>0</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>377152</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7">
-        <v>15244.58</v>
+        <v>15686.92</v>
       </c>
       <c r="K22" s="7">
-        <v>-3834</v>
+        <v>442.34</v>
       </c>
       <c r="L22" s="8">
-        <v>4.21</v>
+        <v>0</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>25</v>
@@ -1588,46 +1588,46 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="10">
         <v>603707</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="10">
         <v>5700</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="10">
         <v>5700</v>
       </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>62.52</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>61.6</v>
+      </c>
+      <c r="G23" s="11">
         <v>61.884</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>356364</v>
-      </c>
-      <c r="J23" s="7">
-        <v>3627.67</v>
-      </c>
-      <c r="K23" s="7">
-        <v>-5586</v>
-      </c>
-      <c r="L23" s="8">
-        <v>1.03</v>
-      </c>
-      <c r="M23" s="8" t="s">
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>351120</v>
+      </c>
+      <c r="J23" s="11">
+        <v>-1616.33</v>
+      </c>
+      <c r="K23" s="11">
+        <v>-5244</v>
+      </c>
+      <c r="L23" s="9">
+        <v>-0.46</v>
+      </c>
+      <c r="M23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="N23" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>23.55</v>
+        <v>23.11</v>
       </c>
       <c r="G24" s="7">
         <v>22.39</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>115395</v>
+        <v>113239</v>
       </c>
       <c r="J24" s="7">
-        <v>5685.84</v>
+        <v>3529.84</v>
       </c>
       <c r="K24" s="7">
-        <v>-4655</v>
+        <v>-2156</v>
       </c>
       <c r="L24" s="8">
-        <v>5.18</v>
+        <v>3.22</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>25</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="7">
-        <v>12.6</v>
+        <v>12.21</v>
       </c>
       <c r="G25" s="7">
         <v>12.066</v>
@@ -1701,16 +1701,16 @@
         <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>312480</v>
+        <v>302808</v>
       </c>
       <c r="J25" s="7">
-        <v>13252.11</v>
+        <v>3580.11</v>
       </c>
       <c r="K25" s="7">
-        <v>-4712</v>
+        <v>-9672</v>
       </c>
       <c r="L25" s="8">
-        <v>4.43</v>
+        <v>1.19</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>23</v>
@@ -1720,46 +1720,46 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="6">
         <v>300676</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="6">
         <v>2400</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="6">
         <v>2400</v>
       </c>
-      <c r="E26" s="10">
-        <v>0</v>
-      </c>
-      <c r="F26" s="11">
-        <v>151.8</v>
-      </c>
-      <c r="G26" s="11">
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>164.41</v>
+      </c>
+      <c r="G26" s="7">
         <v>154.234</v>
       </c>
-      <c r="H26" s="11">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11">
-        <v>364320</v>
-      </c>
-      <c r="J26" s="11">
-        <v>-5841.41</v>
-      </c>
-      <c r="K26" s="11">
-        <v>-6240</v>
-      </c>
-      <c r="L26" s="9">
-        <v>-1.58</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N26" s="9" t="s">
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>394584</v>
+      </c>
+      <c r="J26" s="7">
+        <v>24422.59</v>
+      </c>
+      <c r="K26" s="7">
+        <v>30264</v>
+      </c>
+      <c r="L26" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1771,34 +1771,34 @@
         <v>511990</v>
       </c>
       <c r="C27" s="6">
-        <v>40019</v>
+        <v>40020</v>
       </c>
       <c r="D27" s="6">
-        <v>40019</v>
+        <v>40020</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>99.97</v>
+        <v>99.986</v>
       </c>
       <c r="G27" s="7">
-        <v>95.839</v>
+        <v>95.837</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>4000699.43</v>
+        <v>4001439.72</v>
       </c>
       <c r="J27" s="7">
-        <v>165309.42</v>
+        <v>166049.71</v>
       </c>
       <c r="K27" s="7">
-        <v>-240.11</v>
+        <v>640.32</v>
       </c>
       <c r="L27" s="8">
-        <v>4.31</v>
+        <v>4.33</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>23</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="7">
-        <v>18.1</v>
+        <v>17.16</v>
       </c>
       <c r="G28" s="7">
         <v>16.314</v>
@@ -1833,16 +1833,16 @@
         <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>1042560</v>
+        <v>988416</v>
       </c>
       <c r="J28" s="7">
-        <v>102856.23</v>
+        <v>48712.23</v>
       </c>
       <c r="K28" s="7">
-        <v>33984</v>
+        <v>-54144</v>
       </c>
       <c r="L28" s="8">
-        <v>10.95</v>
+        <v>5.19</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>25</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>74.5</v>
+        <v>71.5</v>
       </c>
       <c r="G29" s="7">
         <v>65.958</v>
@@ -1877,16 +1877,16 @@
         <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>871650</v>
+        <v>836550</v>
       </c>
       <c r="J29" s="7">
-        <v>99942.39</v>
+        <v>64842.39</v>
       </c>
       <c r="K29" s="7">
-        <v>36738</v>
+        <v>-35100</v>
       </c>
       <c r="L29" s="8">
-        <v>12.95</v>
+        <v>8.4</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>25</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="11">
-        <v>75.79</v>
+        <v>76.2</v>
       </c>
       <c r="G30" s="11">
         <v>81.155</v>
@@ -1921,16 +1921,16 @@
         <v>0</v>
       </c>
       <c r="I30" s="11">
-        <v>348634</v>
+        <v>350520</v>
       </c>
       <c r="J30" s="11">
-        <v>-24677.2</v>
+        <v>-22791.2</v>
       </c>
       <c r="K30" s="11">
-        <v>644</v>
+        <v>1886</v>
       </c>
       <c r="L30" s="9">
-        <v>-6.61</v>
+        <v>-6.11</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>23</v>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="7">
-        <v>39.93</v>
+        <v>39.6</v>
       </c>
       <c r="G31" s="7">
         <v>37.925</v>
@@ -1965,16 +1965,16 @@
         <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>108609.6</v>
+        <v>107712</v>
       </c>
       <c r="J31" s="7">
-        <v>5453.2</v>
+        <v>4555.6</v>
       </c>
       <c r="K31" s="7">
-        <v>-1196.8</v>
+        <v>-897.6</v>
       </c>
       <c r="L31" s="8">
-        <v>5.29</v>
+        <v>4.42</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>25</v>
@@ -1994,31 +1994,31 @@
         <v>9600</v>
       </c>
       <c r="D32" s="6">
-        <v>0</v>
+        <v>9600</v>
       </c>
       <c r="E32" s="6">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="F32" s="7">
-        <v>38.63</v>
+        <v>38.9</v>
       </c>
       <c r="G32" s="7">
-        <v>38.597</v>
+        <v>38.594</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>370848</v>
+        <v>373440</v>
       </c>
       <c r="J32" s="7">
-        <v>318.07</v>
+        <v>2934.14</v>
       </c>
       <c r="K32" s="7">
-        <v>318.07</v>
+        <v>2592</v>
       </c>
       <c r="L32" s="8">
-        <v>0.09</v>
+        <v>0.79</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>23</v>
@@ -2028,178 +2028,178 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="10">
-        <v>0</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0</v>
-      </c>
-      <c r="F33" s="11">
-        <v>82</v>
-      </c>
-      <c r="G33" s="11">
-        <v>0</v>
-      </c>
-      <c r="H33" s="11">
-        <v>0</v>
-      </c>
-      <c r="I33" s="11">
-        <v>0</v>
-      </c>
-      <c r="J33" s="11">
-        <v>-6876.08</v>
-      </c>
-      <c r="K33" s="11">
-        <v>-28505.97</v>
-      </c>
-      <c r="L33" s="9">
-        <v>0</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N33" s="9" t="s">
+      <c r="C33" s="6">
+        <v>55800</v>
+      </c>
+      <c r="D33" s="6">
+        <v>55800</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>15.59</v>
+      </c>
+      <c r="G33" s="7">
+        <v>15.136</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>869922</v>
+      </c>
+      <c r="J33" s="7">
+        <v>25323.57</v>
+      </c>
+      <c r="K33" s="7">
+        <v>-3348</v>
+      </c>
+      <c r="L33" s="8">
+        <v>3</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="6">
-        <v>55800</v>
-      </c>
-      <c r="D34" s="6">
-        <v>55800</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0</v>
-      </c>
-      <c r="F34" s="7">
-        <v>15.65</v>
-      </c>
-      <c r="G34" s="7">
-        <v>15.136</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>873270</v>
-      </c>
-      <c r="J34" s="7">
-        <v>28671.57</v>
-      </c>
-      <c r="K34" s="7">
-        <v>-10602</v>
-      </c>
-      <c r="L34" s="8">
-        <v>3.4</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>24</v>
+      <c r="B34" s="10">
+        <v>600535</v>
+      </c>
+      <c r="C34" s="10">
+        <v>21100</v>
+      </c>
+      <c r="D34" s="10">
+        <v>21100</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <v>17.18</v>
+      </c>
+      <c r="G34" s="11">
+        <v>17.841</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>362498</v>
+      </c>
+      <c r="J34" s="11">
+        <v>-13952.71</v>
+      </c>
+      <c r="K34" s="11">
+        <v>-14559</v>
+      </c>
+      <c r="L34" s="9">
+        <v>-3.7</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="6">
-        <v>600535</v>
-      </c>
       <c r="C35" s="6">
-        <v>21100</v>
+        <v>29200</v>
       </c>
       <c r="D35" s="6">
-        <v>0</v>
+        <v>29200</v>
       </c>
       <c r="E35" s="6">
-        <v>21100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="7">
-        <v>17.87</v>
+        <v>13.81</v>
       </c>
       <c r="G35" s="7">
-        <v>17.842</v>
+        <v>13.165</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>377057</v>
+        <v>403252</v>
       </c>
       <c r="J35" s="7">
-        <v>599.28</v>
+        <v>18840.88</v>
       </c>
       <c r="K35" s="7">
-        <v>599.28</v>
+        <v>20440</v>
       </c>
       <c r="L35" s="8">
-        <v>0.16</v>
+        <v>4.9</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="10">
-        <v>29200</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0</v>
-      </c>
-      <c r="E36" s="10">
-        <v>29200</v>
-      </c>
-      <c r="F36" s="11">
-        <v>13.11</v>
-      </c>
-      <c r="G36" s="11">
-        <v>13.165</v>
-      </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11">
-        <v>382812</v>
-      </c>
-      <c r="J36" s="11">
-        <v>-1604.06</v>
-      </c>
-      <c r="K36" s="11">
-        <v>-1604.06</v>
-      </c>
-      <c r="L36" s="9">
-        <v>-0.42</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" s="9" t="s">
+      <c r="C36" s="6">
+        <v>17300</v>
+      </c>
+      <c r="D36" s="6">
+        <v>17000</v>
+      </c>
+      <c r="E36" s="6">
+        <v>300</v>
+      </c>
+      <c r="F36" s="7">
+        <v>22.52</v>
+      </c>
+      <c r="G36" s="7">
+        <v>22.082</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>389596</v>
+      </c>
+      <c r="J36" s="7">
+        <v>7573.06</v>
+      </c>
+      <c r="K36" s="7">
+        <v>7651</v>
+      </c>
+      <c r="L36" s="8">
+        <v>1.98</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2207,87 +2207,87 @@
       <c r="A37" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="10">
+        <v>300738</v>
+      </c>
+      <c r="C37" s="10">
+        <v>4300</v>
+      </c>
+      <c r="D37" s="10">
+        <v>4300</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <v>55.62</v>
+      </c>
+      <c r="G37" s="11">
+        <v>57.07</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>239166</v>
+      </c>
+      <c r="J37" s="11">
+        <v>-6235.43</v>
+      </c>
+      <c r="K37" s="11">
+        <v>2021</v>
+      </c>
+      <c r="L37" s="9">
+        <v>-2.54</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="10">
-        <v>17000</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0</v>
-      </c>
-      <c r="E37" s="10">
-        <v>17000</v>
-      </c>
-      <c r="F37" s="11">
-        <v>22.07</v>
-      </c>
-      <c r="G37" s="11">
-        <v>22.076</v>
-      </c>
-      <c r="H37" s="11">
-        <v>0</v>
-      </c>
-      <c r="I37" s="11">
-        <v>375190</v>
-      </c>
-      <c r="J37" s="11">
-        <v>-105.45</v>
-      </c>
-      <c r="K37" s="11">
-        <v>-105.45</v>
-      </c>
-      <c r="L37" s="9">
-        <v>-0.03</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="10">
-        <v>300738</v>
-      </c>
-      <c r="C38" s="10">
-        <v>4300</v>
-      </c>
-      <c r="D38" s="10">
-        <v>4300</v>
-      </c>
-      <c r="E38" s="10">
-        <v>0</v>
-      </c>
-      <c r="F38" s="11">
-        <v>55.15</v>
-      </c>
-      <c r="G38" s="11">
-        <v>57.07</v>
-      </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11">
-        <v>237145</v>
-      </c>
-      <c r="J38" s="11">
-        <v>-8256.43</v>
-      </c>
-      <c r="K38" s="11">
-        <v>-3440</v>
-      </c>
-      <c r="L38" s="9">
-        <v>-3.36</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N38" s="9" t="s">
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>13.74</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7">
+        <v>30743.92</v>
+      </c>
+      <c r="K38" s="7">
+        <v>-17763.23</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2295,181 +2295,181 @@
       <c r="A39" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="6">
+        <v>300674</v>
+      </c>
+      <c r="C39" s="6">
+        <v>8800</v>
+      </c>
+      <c r="D39" s="6">
+        <v>8800</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>44.24</v>
+      </c>
+      <c r="G39" s="7">
+        <v>41.59</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>389312</v>
+      </c>
+      <c r="J39" s="7">
+        <v>23320.06</v>
+      </c>
+      <c r="K39" s="7">
+        <v>13728</v>
+      </c>
+      <c r="L39" s="8">
+        <v>6.37</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="6">
-        <v>22400</v>
-      </c>
-      <c r="D39" s="6">
-        <v>22400</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7">
-        <v>14.4</v>
-      </c>
-      <c r="G39" s="7">
-        <v>12.235</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>322560</v>
-      </c>
-      <c r="J39" s="7">
-        <v>48507.15</v>
-      </c>
-      <c r="K39" s="7">
-        <v>28000</v>
-      </c>
-      <c r="L39" s="8">
-        <v>17.7</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="10">
-        <v>300750</v>
-      </c>
-      <c r="C40" s="10">
-        <v>0</v>
-      </c>
-      <c r="D40" s="10">
-        <v>0</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0</v>
-      </c>
-      <c r="F40" s="11">
-        <v>167.2</v>
-      </c>
-      <c r="G40" s="11">
-        <v>0</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-      <c r="J40" s="11">
-        <v>-1972.24</v>
-      </c>
-      <c r="K40" s="11">
-        <v>-5304.92</v>
-      </c>
-      <c r="L40" s="9">
-        <v>0</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N40" s="9" t="s">
+      <c r="B40" s="6">
+        <v>300009</v>
+      </c>
+      <c r="C40" s="6">
+        <v>18100</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>18100</v>
+      </c>
+      <c r="F40" s="7">
+        <v>16.65</v>
+      </c>
+      <c r="G40" s="7">
+        <v>16.635</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>301365</v>
+      </c>
+      <c r="J40" s="7">
+        <v>273.64</v>
+      </c>
+      <c r="K40" s="7">
+        <v>273.64</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="6">
+        <v>300572</v>
+      </c>
+      <c r="C41" s="6">
+        <v>100</v>
+      </c>
+      <c r="D41" s="6">
+        <v>100</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>67.8</v>
+      </c>
+      <c r="G41" s="7">
+        <v>-155.973</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>6780</v>
+      </c>
+      <c r="J41" s="7">
+        <v>22377.27</v>
+      </c>
+      <c r="K41" s="7">
+        <v>-134</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="6">
-        <v>300674</v>
-      </c>
-      <c r="C41" s="6">
-        <v>8800</v>
-      </c>
-      <c r="D41" s="6">
-        <v>8800</v>
-      </c>
-      <c r="E41" s="6">
-        <v>0</v>
-      </c>
-      <c r="F41" s="7">
-        <v>42.68</v>
-      </c>
-      <c r="G41" s="7">
-        <v>41.59</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <v>375584</v>
-      </c>
-      <c r="J41" s="7">
-        <v>9592.06</v>
-      </c>
-      <c r="K41" s="7">
-        <v>5984</v>
-      </c>
-      <c r="L41" s="8">
-        <v>2.62</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="6">
-        <v>300572</v>
-      </c>
-      <c r="C42" s="6">
-        <v>100</v>
-      </c>
-      <c r="D42" s="6">
-        <v>100</v>
-      </c>
-      <c r="E42" s="6">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7">
-        <v>69.14</v>
-      </c>
-      <c r="G42" s="7">
-        <v>-154.512</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>6914</v>
-      </c>
-      <c r="J42" s="7">
-        <v>22365.24</v>
-      </c>
-      <c r="K42" s="7">
-        <v>5136.28</v>
-      </c>
-      <c r="L42" s="8">
-        <v>0</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>24</v>
+      <c r="B42" s="10">
+        <v>603713</v>
+      </c>
+      <c r="C42" s="10">
+        <v>3900</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10">
+        <v>3900</v>
+      </c>
+      <c r="F42" s="11">
+        <v>96.16</v>
+      </c>
+      <c r="G42" s="11">
+        <v>96.589</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>375024</v>
+      </c>
+      <c r="J42" s="11">
+        <v>-1671.43</v>
+      </c>
+      <c r="K42" s="11">
+        <v>-1671.43</v>
+      </c>
+      <c r="L42" s="9">
+        <v>-0.44</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" s="6">
         <v>603987</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="7">
-        <v>16.67</v>
+        <v>16.59</v>
       </c>
       <c r="G43" s="7">
         <v>14.285</v>
@@ -2493,16 +2493,16 @@
         <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>903514</v>
+        <v>899178</v>
       </c>
       <c r="J43" s="7">
-        <v>129240.11</v>
+        <v>124904.11</v>
       </c>
       <c r="K43" s="7">
-        <v>-13008</v>
+        <v>-4336</v>
       </c>
       <c r="L43" s="8">
-        <v>16.7</v>
+        <v>16.14</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>23</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="10">
         <v>300633</v>
@@ -2522,31 +2522,31 @@
         <v>700</v>
       </c>
       <c r="D44" s="10">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E44" s="10">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="F44" s="11">
-        <v>36.72</v>
+        <v>36.33</v>
       </c>
       <c r="G44" s="11">
-        <v>36.806</v>
+        <v>36.782</v>
       </c>
       <c r="H44" s="11">
         <v>0</v>
       </c>
       <c r="I44" s="11">
-        <v>25704</v>
+        <v>25431</v>
       </c>
       <c r="J44" s="11">
-        <v>-60</v>
+        <v>-316.08</v>
       </c>
       <c r="K44" s="11">
-        <v>-60</v>
+        <v>-273</v>
       </c>
       <c r="L44" s="9">
-        <v>-0.23</v>
+        <v>-1.23</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>25</v>
@@ -2557,37 +2557,37 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" s="6">
         <v>601100</v>
       </c>
       <c r="C45" s="6">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D45" s="6">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="E45" s="6">
         <v>0</v>
       </c>
       <c r="F45" s="7">
-        <v>50.43</v>
+        <v>51.03</v>
       </c>
       <c r="G45" s="7">
-        <v>-217.54</v>
+        <v>0</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
       </c>
       <c r="I45" s="7">
-        <v>4589.13</v>
+        <v>0</v>
       </c>
       <c r="J45" s="7">
-        <v>24385.27</v>
+        <v>24421.21</v>
       </c>
       <c r="K45" s="7">
-        <v>-2534.8</v>
+        <v>35.78</v>
       </c>
       <c r="L45" s="8">
         <v>0</v>
@@ -2601,98 +2601,98 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="C46" s="6">
+        <v>5000</v>
+      </c>
+      <c r="D46" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>63.01</v>
+      </c>
+      <c r="G46" s="7">
+        <v>55.522</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>315050</v>
+      </c>
+      <c r="J46" s="7">
+        <v>37438.56</v>
+      </c>
+      <c r="K46" s="7">
+        <v>-1587.9</v>
+      </c>
+      <c r="L46" s="8">
+        <v>13.49</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="6">
-        <v>5300</v>
-      </c>
-      <c r="D46" s="6">
-        <v>5300</v>
-      </c>
-      <c r="E46" s="6">
-        <v>0</v>
-      </c>
-      <c r="F46" s="7">
-        <v>63.3</v>
-      </c>
-      <c r="G46" s="7">
-        <v>55.937</v>
-      </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>335490</v>
-      </c>
-      <c r="J46" s="7">
-        <v>39026.46</v>
-      </c>
-      <c r="K46" s="7">
-        <v>-9805</v>
-      </c>
-      <c r="L46" s="8">
-        <v>13.16</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="10">
+      <c r="B47" s="6">
         <v>601689</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="6">
         <v>600</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="6">
         <v>600</v>
       </c>
-      <c r="E47" s="10">
-        <v>0</v>
-      </c>
-      <c r="F47" s="11">
-        <v>27.11</v>
-      </c>
-      <c r="G47" s="11">
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>28.3</v>
+      </c>
+      <c r="G47" s="7">
         <v>27.334</v>
       </c>
-      <c r="H47" s="11">
-        <v>0</v>
-      </c>
-      <c r="I47" s="11">
-        <v>16266</v>
-      </c>
-      <c r="J47" s="11">
-        <v>-134.3</v>
-      </c>
-      <c r="K47" s="11">
-        <v>-240</v>
-      </c>
-      <c r="L47" s="9">
-        <v>-0.82</v>
-      </c>
-      <c r="M47" s="9" t="s">
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>16980</v>
+      </c>
+      <c r="J47" s="7">
+        <v>579.7</v>
+      </c>
+      <c r="K47" s="7">
+        <v>714</v>
+      </c>
+      <c r="L47" s="8">
+        <v>3.53</v>
+      </c>
+      <c r="M47" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N47" s="9" t="s">
+      <c r="N47" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="C48" s="6">
         <v>28900</v>
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="7">
-        <v>12.4</v>
+        <v>12.37</v>
       </c>
       <c r="G48" s="7">
         <v>12.302</v>
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>358360</v>
+        <v>357493</v>
       </c>
       <c r="J48" s="7">
-        <v>2836.33</v>
+        <v>1969.33</v>
       </c>
       <c r="K48" s="7">
-        <v>2601</v>
+        <v>-867</v>
       </c>
       <c r="L48" s="8">
-        <v>0.8</v>
+        <v>0.55</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>25</v>
@@ -2732,217 +2732,217 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="6">
+        <v>603881</v>
+      </c>
+      <c r="C49" s="6">
+        <v>3500</v>
+      </c>
+      <c r="D49" s="6">
+        <v>3500</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>100.94</v>
+      </c>
+      <c r="G49" s="7">
+        <v>100.489</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>353290</v>
+      </c>
+      <c r="J49" s="7">
+        <v>1576.78</v>
+      </c>
+      <c r="K49" s="7">
+        <v>2415</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="10">
-        <v>603881</v>
-      </c>
-      <c r="C49" s="10">
-        <v>3500</v>
-      </c>
-      <c r="D49" s="10">
-        <v>0</v>
-      </c>
-      <c r="E49" s="10">
-        <v>3500</v>
-      </c>
-      <c r="F49" s="11">
-        <v>100.25</v>
-      </c>
-      <c r="G49" s="11">
-        <v>100.502</v>
-      </c>
-      <c r="H49" s="11">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11">
-        <v>350875</v>
-      </c>
-      <c r="J49" s="11">
-        <v>-881.84</v>
-      </c>
-      <c r="K49" s="11">
-        <v>-881.84</v>
-      </c>
-      <c r="L49" s="9">
+      <c r="B50" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="10">
+        <v>5100</v>
+      </c>
+      <c r="D50" s="10">
+        <v>5100</v>
+      </c>
+      <c r="E50" s="10">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11">
+        <v>18.3</v>
+      </c>
+      <c r="G50" s="11">
+        <v>18.363</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>93330</v>
+      </c>
+      <c r="J50" s="11">
+        <v>-323.23</v>
+      </c>
+      <c r="K50" s="11">
+        <v>-1683</v>
+      </c>
+      <c r="L50" s="9">
+        <v>-0.34</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="10">
+        <v>603078</v>
+      </c>
+      <c r="C51" s="10">
+        <v>1200</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="10">
+        <v>1200</v>
+      </c>
+      <c r="F51" s="11">
+        <v>43.37</v>
+      </c>
+      <c r="G51" s="11">
+        <v>43.477</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11">
+        <v>52044</v>
+      </c>
+      <c r="J51" s="11">
+        <v>-128.04</v>
+      </c>
+      <c r="K51" s="11">
+        <v>-128.04</v>
+      </c>
+      <c r="L51" s="9">
         <v>-0.25</v>
       </c>
-      <c r="M49" s="9" t="s">
+      <c r="M51" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N49" s="9" t="s">
+      <c r="N51" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="6">
-        <v>5100</v>
-      </c>
-      <c r="D50" s="6">
-        <v>5100</v>
-      </c>
-      <c r="E50" s="6">
-        <v>0</v>
-      </c>
-      <c r="F50" s="7">
-        <v>18.63</v>
-      </c>
-      <c r="G50" s="7">
-        <v>18.363</v>
-      </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>95013</v>
-      </c>
-      <c r="J50" s="7">
-        <v>1359.77</v>
-      </c>
-      <c r="K50" s="7">
-        <v>2040</v>
-      </c>
-      <c r="L50" s="8">
-        <v>1.45</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N50" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="8" t="s">
+    <row r="52" spans="1:14">
+      <c r="A52" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B52" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="6">
-        <v>0</v>
-      </c>
-      <c r="D51" s="6">
-        <v>0</v>
-      </c>
-      <c r="E51" s="6">
-        <v>0</v>
-      </c>
-      <c r="F51" s="7">
-        <v>18.79</v>
-      </c>
-      <c r="G51" s="7">
-        <v>0</v>
-      </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7">
-        <v>0</v>
-      </c>
-      <c r="J51" s="7">
-        <v>13333.09</v>
-      </c>
-      <c r="K51" s="7">
-        <v>-3404.37</v>
-      </c>
-      <c r="L51" s="8">
-        <v>0</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N51" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="10">
+      <c r="C52" s="6">
         <v>3800</v>
       </c>
-      <c r="D52" s="10">
-        <v>0</v>
-      </c>
-      <c r="E52" s="10">
+      <c r="D52" s="6">
         <v>3800</v>
       </c>
-      <c r="F52" s="11">
-        <v>107.61</v>
-      </c>
-      <c r="G52" s="11">
-        <v>108.197</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>408918</v>
-      </c>
-      <c r="J52" s="11">
-        <v>-2231.94</v>
-      </c>
-      <c r="K52" s="11">
-        <v>-2231.94</v>
-      </c>
-      <c r="L52" s="9">
-        <v>-0.54</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N52" s="9" t="s">
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>110.1</v>
+      </c>
+      <c r="G52" s="7">
+        <v>108.189</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>418380</v>
+      </c>
+      <c r="J52" s="7">
+        <v>7261.68</v>
+      </c>
+      <c r="K52" s="7">
+        <v>9462</v>
+      </c>
+      <c r="L52" s="8">
+        <v>1.77</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C53" s="10">
-        <v>14300</v>
+        <v>0</v>
       </c>
       <c r="D53" s="10">
-        <v>14300</v>
+        <v>0</v>
       </c>
       <c r="E53" s="10">
         <v>0</v>
       </c>
       <c r="F53" s="11">
-        <v>25.54</v>
+        <v>25.53</v>
       </c>
       <c r="G53" s="11">
-        <v>26.04</v>
+        <v>0</v>
       </c>
       <c r="H53" s="11">
         <v>0</v>
       </c>
       <c r="I53" s="11">
-        <v>365222</v>
+        <v>0</v>
       </c>
       <c r="J53" s="11">
-        <v>-7149.69</v>
+        <v>-7165.46</v>
       </c>
       <c r="K53" s="11">
-        <v>143</v>
+        <v>-15.77</v>
       </c>
       <c r="L53" s="9">
-        <v>-1.92</v>
+        <v>0</v>
       </c>
       <c r="M53" s="9" t="s">
         <v>25</v>
@@ -2953,40 +2953,40 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B54" s="6">
-        <v>601028</v>
+        <v>603181</v>
       </c>
       <c r="C54" s="6">
-        <v>0</v>
+        <v>24100</v>
       </c>
       <c r="D54" s="6">
-        <v>0</v>
+        <v>24100</v>
       </c>
       <c r="E54" s="6">
         <v>0</v>
       </c>
       <c r="F54" s="7">
-        <v>11.99</v>
+        <v>21.64</v>
       </c>
       <c r="G54" s="7">
-        <v>0</v>
+        <v>19.052</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
       <c r="I54" s="7">
-        <v>0</v>
+        <v>521524</v>
       </c>
       <c r="J54" s="7">
-        <v>71469.36</v>
+        <v>62369.39</v>
       </c>
       <c r="K54" s="7">
-        <v>-14858.94</v>
+        <v>-5302</v>
       </c>
       <c r="L54" s="8">
-        <v>0</v>
+        <v>13.58</v>
       </c>
       <c r="M54" s="8" t="s">
         <v>23</v>
@@ -2997,230 +2997,230 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="6">
+        <v>3700</v>
+      </c>
+      <c r="D55" s="6">
+        <v>3700</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>37.16</v>
+      </c>
+      <c r="G55" s="7">
+        <v>35.911</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>137492</v>
+      </c>
+      <c r="J55" s="7">
+        <v>4620.36</v>
+      </c>
+      <c r="K55" s="7">
+        <v>-888</v>
+      </c>
+      <c r="L55" s="8">
+        <v>3.48</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="6">
-        <v>603181</v>
-      </c>
-      <c r="C55" s="6">
-        <v>24100</v>
-      </c>
-      <c r="D55" s="6">
-        <v>24100</v>
-      </c>
-      <c r="E55" s="6">
-        <v>0</v>
-      </c>
-      <c r="F55" s="7">
-        <v>21.86</v>
-      </c>
-      <c r="G55" s="7">
-        <v>19.052</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
-        <v>526826</v>
-      </c>
-      <c r="J55" s="7">
-        <v>67671.39</v>
-      </c>
-      <c r="K55" s="7">
-        <v>-10363</v>
-      </c>
-      <c r="L55" s="8">
-        <v>14.74</v>
-      </c>
-      <c r="M55" s="8" t="s">
+      <c r="B56" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="13">
+        <v>3123000</v>
+      </c>
+      <c r="D56" s="13">
+        <v>3123000</v>
+      </c>
+      <c r="E56" s="13">
+        <v>0</v>
+      </c>
+      <c r="F56" s="14">
+        <v>0</v>
+      </c>
+      <c r="G56" s="14">
+        <v>0</v>
+      </c>
+      <c r="H56" s="14">
+        <v>0</v>
+      </c>
+      <c r="I56" s="14">
+        <v>0</v>
+      </c>
+      <c r="J56" s="14">
+        <v>0</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="12">
+        <v>0</v>
+      </c>
+      <c r="M56" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N55" s="8" t="s">
+      <c r="N56" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" s="8" t="s">
+    <row r="57" spans="1:14">
+      <c r="A57" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="6">
-        <v>3700</v>
-      </c>
-      <c r="D56" s="6">
-        <v>3700</v>
-      </c>
-      <c r="E56" s="6">
-        <v>0</v>
-      </c>
-      <c r="F56" s="7">
-        <v>37.4</v>
-      </c>
-      <c r="G56" s="7">
-        <v>35.911</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>138380</v>
-      </c>
-      <c r="J56" s="7">
-        <v>5508.36</v>
-      </c>
-      <c r="K56" s="7">
-        <v>-629</v>
-      </c>
-      <c r="L56" s="8">
-        <v>4.15</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N56" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="12" t="s">
+      <c r="B57" s="6">
+        <v>300662</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>46.62</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
+      <c r="J57" s="7">
+        <v>8262.09</v>
+      </c>
+      <c r="K57" s="7">
+        <v>12665.25</v>
+      </c>
+      <c r="L57" s="8">
+        <v>0</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B58" s="6">
+        <v>300709</v>
+      </c>
+      <c r="C58" s="6">
+        <v>430</v>
+      </c>
+      <c r="D58" s="6">
+        <v>430</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>97.2</v>
+      </c>
+      <c r="G58" s="7">
+        <v>-40.749</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>41796</v>
+      </c>
+      <c r="J58" s="7">
+        <v>59318.26</v>
+      </c>
+      <c r="K58" s="7">
+        <v>1354.5</v>
+      </c>
+      <c r="L58" s="8">
+        <v>0</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="13">
-        <v>3043500</v>
-      </c>
-      <c r="D57" s="13">
-        <v>3043500</v>
-      </c>
-      <c r="E57" s="13">
-        <v>0</v>
-      </c>
-      <c r="F57" s="14">
-        <v>0</v>
-      </c>
-      <c r="G57" s="14">
-        <v>0</v>
-      </c>
-      <c r="H57" s="14">
-        <v>0</v>
-      </c>
-      <c r="I57" s="14">
-        <v>0</v>
-      </c>
-      <c r="J57" s="14">
-        <v>0</v>
-      </c>
-      <c r="K57" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L57" s="12">
-        <v>0</v>
-      </c>
-      <c r="M57" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N57" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="9" t="s">
+      <c r="B59" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B58" s="10">
-        <v>300662</v>
-      </c>
-      <c r="C58" s="10">
-        <v>4900</v>
-      </c>
-      <c r="D58" s="10">
-        <v>4900</v>
-      </c>
-      <c r="E58" s="10">
-        <v>0</v>
-      </c>
-      <c r="F58" s="11">
-        <v>43.61</v>
-      </c>
-      <c r="G58" s="11">
-        <v>44.509</v>
-      </c>
-      <c r="H58" s="11">
-        <v>0</v>
-      </c>
-      <c r="I58" s="11">
-        <v>213689</v>
-      </c>
-      <c r="J58" s="11">
-        <v>-4403.16</v>
-      </c>
-      <c r="K58" s="11">
-        <v>7105</v>
-      </c>
-      <c r="L58" s="9">
-        <v>-2.02</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N58" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B59" s="6">
-        <v>300709</v>
-      </c>
-      <c r="C59" s="6">
-        <v>430</v>
-      </c>
-      <c r="D59" s="6">
-        <v>430</v>
-      </c>
-      <c r="E59" s="6">
-        <v>0</v>
-      </c>
-      <c r="F59" s="7">
-        <v>94.05</v>
-      </c>
-      <c r="G59" s="7">
-        <v>-40.749</v>
-      </c>
-      <c r="H59" s="7">
-        <v>0</v>
-      </c>
-      <c r="I59" s="7">
-        <v>40441.5</v>
-      </c>
-      <c r="J59" s="7">
-        <v>57963.76</v>
-      </c>
-      <c r="K59" s="7">
-        <v>-1449.1</v>
-      </c>
-      <c r="L59" s="8">
-        <v>0</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N59" s="8" t="s">
+      <c r="C59" s="10">
+        <v>4300</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10">
+        <v>4300</v>
+      </c>
+      <c r="F59" s="11">
+        <v>96.83</v>
+      </c>
+      <c r="G59" s="11">
+        <v>96.843</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0</v>
+      </c>
+      <c r="I59" s="11">
+        <v>416369</v>
+      </c>
+      <c r="J59" s="11">
+        <v>-56.48</v>
+      </c>
+      <c r="K59" s="11">
+        <v>-56.48</v>
+      </c>
+      <c r="L59" s="9">
+        <v>-0.01</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="C60" s="6">
         <v>52221</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="7">
-        <v>12.95</v>
+        <v>12.66</v>
       </c>
       <c r="G60" s="7">
         <v>9.731</v>
@@ -3241,16 +3241,16 @@
         <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>676261.95</v>
+        <v>661117.86</v>
       </c>
       <c r="J60" s="7">
-        <v>168123.27</v>
+        <v>152979.18</v>
       </c>
       <c r="K60" s="7">
-        <v>5222.1</v>
+        <v>-15144.09</v>
       </c>
       <c r="L60" s="8">
-        <v>33.08</v>
+        <v>30.1</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>25</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B61" s="6">
         <v>300677</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="7">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G61" s="7">
         <v>115.627</v>
@@ -3285,16 +3285,16 @@
         <v>0</v>
       </c>
       <c r="I61" s="7">
-        <v>409200</v>
+        <v>442200</v>
       </c>
       <c r="J61" s="7">
-        <v>27632.2</v>
+        <v>60632.2</v>
       </c>
       <c r="K61" s="7">
-        <v>4785</v>
+        <v>33000</v>
       </c>
       <c r="L61" s="8">
-        <v>7.24</v>
+        <v>15.89</v>
       </c>
       <c r="M61" s="8" t="s">
         <v>25</v>
@@ -3304,55 +3304,55 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" s="10">
+      <c r="A62" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="6">
         <v>300725</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="6">
         <v>1100</v>
       </c>
-      <c r="D62" s="10">
-        <v>0</v>
-      </c>
-      <c r="E62" s="10">
+      <c r="D62" s="6">
         <v>1100</v>
       </c>
-      <c r="F62" s="11">
-        <v>117.7</v>
-      </c>
-      <c r="G62" s="11">
-        <v>118.182</v>
-      </c>
-      <c r="H62" s="11">
-        <v>0</v>
-      </c>
-      <c r="I62" s="11">
-        <v>129470</v>
-      </c>
-      <c r="J62" s="11">
-        <v>-530</v>
-      </c>
-      <c r="K62" s="11">
-        <v>-530</v>
-      </c>
-      <c r="L62" s="9">
-        <v>-0.41</v>
-      </c>
-      <c r="M62" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N62" s="9" t="s">
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>124.88</v>
+      </c>
+      <c r="G62" s="7">
+        <v>118.173</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>137368</v>
+      </c>
+      <c r="J62" s="7">
+        <v>7377.4</v>
+      </c>
+      <c r="K62" s="7">
+        <v>7898</v>
+      </c>
+      <c r="L62" s="8">
+        <v>5.68</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N62" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="C63" s="10">
         <v>10300</v>
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="11">
-        <v>29.21</v>
+        <v>29.8</v>
       </c>
       <c r="G63" s="11">
         <v>29.996</v>
@@ -3373,16 +3373,16 @@
         <v>0</v>
       </c>
       <c r="I63" s="11">
-        <v>300863</v>
+        <v>306940</v>
       </c>
       <c r="J63" s="11">
-        <v>-8093.07</v>
+        <v>-2016.07</v>
       </c>
       <c r="K63" s="11">
-        <v>-412</v>
+        <v>6077</v>
       </c>
       <c r="L63" s="9">
-        <v>-2.62</v>
+        <v>-0.65</v>
       </c>
       <c r="M63" s="9" t="s">
         <v>25</v>
@@ -3393,89 +3393,89 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="10">
+      <c r="C64" s="10">
+        <v>6500</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0</v>
+      </c>
+      <c r="E64" s="10">
+        <v>6500</v>
+      </c>
+      <c r="F64" s="11">
+        <v>6.31</v>
+      </c>
+      <c r="G64" s="11">
+        <v>6.33</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0</v>
+      </c>
+      <c r="I64" s="11">
+        <v>41015</v>
+      </c>
+      <c r="J64" s="11">
+        <v>-129</v>
+      </c>
+      <c r="K64" s="11">
+        <v>-129</v>
+      </c>
+      <c r="L64" s="9">
+        <v>-0.32</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="6">
         <v>300558</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C65" s="6">
         <v>2200</v>
       </c>
-      <c r="D64" s="10">
-        <v>0</v>
-      </c>
-      <c r="E64" s="10">
+      <c r="D65" s="6">
         <v>2200</v>
       </c>
-      <c r="F64" s="11">
-        <v>134.9</v>
-      </c>
-      <c r="G64" s="11">
-        <v>134.93</v>
-      </c>
-      <c r="H64" s="11">
-        <v>0</v>
-      </c>
-      <c r="I64" s="11">
-        <v>296780</v>
-      </c>
-      <c r="J64" s="11">
-        <v>-65.15</v>
-      </c>
-      <c r="K64" s="11">
-        <v>-65.15</v>
-      </c>
-      <c r="L64" s="9">
-        <v>-0.02</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N64" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" s="10">
-        <v>300457</v>
-      </c>
-      <c r="C65" s="10">
-        <v>12000</v>
-      </c>
-      <c r="D65" s="10">
-        <v>0</v>
-      </c>
-      <c r="E65" s="10">
-        <v>12000</v>
-      </c>
-      <c r="F65" s="11">
-        <v>31.94</v>
-      </c>
-      <c r="G65" s="11">
-        <v>31.944</v>
-      </c>
-      <c r="H65" s="11">
-        <v>0</v>
-      </c>
-      <c r="I65" s="11">
-        <v>383280</v>
-      </c>
-      <c r="J65" s="11">
-        <v>-53.73</v>
-      </c>
-      <c r="K65" s="11">
-        <v>-53.73</v>
-      </c>
-      <c r="L65" s="9">
-        <v>-0.01</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N65" s="9" t="s">
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>139.62</v>
+      </c>
+      <c r="G65" s="7">
+        <v>134.907</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>307164</v>
+      </c>
+      <c r="J65" s="7">
+        <v>10368.23</v>
+      </c>
+      <c r="K65" s="7">
+        <v>10384</v>
+      </c>
+      <c r="L65" s="8">
+        <v>3.49</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3484,125 +3484,125 @@
         <v>113</v>
       </c>
       <c r="B66" s="10">
+        <v>300457</v>
+      </c>
+      <c r="C66" s="10">
+        <v>12000</v>
+      </c>
+      <c r="D66" s="10">
+        <v>12000</v>
+      </c>
+      <c r="E66" s="10">
+        <v>0</v>
+      </c>
+      <c r="F66" s="11">
+        <v>31.81</v>
+      </c>
+      <c r="G66" s="11">
+        <v>31.938</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0</v>
+      </c>
+      <c r="I66" s="11">
+        <v>381720</v>
+      </c>
+      <c r="J66" s="11">
+        <v>-1532.46</v>
+      </c>
+      <c r="K66" s="11">
+        <v>-1560</v>
+      </c>
+      <c r="L66" s="9">
+        <v>-0.4</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="10">
         <v>600988</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C67" s="10">
         <v>31500</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D67" s="10">
         <v>31500</v>
       </c>
-      <c r="E66" s="10">
-        <v>0</v>
-      </c>
-      <c r="F66" s="11">
-        <v>11.6</v>
-      </c>
-      <c r="G66" s="11">
+      <c r="E67" s="10">
+        <v>0</v>
+      </c>
+      <c r="F67" s="11">
+        <v>11.58</v>
+      </c>
+      <c r="G67" s="11">
         <v>11.899</v>
       </c>
-      <c r="H66" s="11">
-        <v>0</v>
-      </c>
-      <c r="I66" s="11">
-        <v>365400</v>
-      </c>
-      <c r="J66" s="11">
-        <v>-9407.46</v>
-      </c>
-      <c r="K66" s="11">
-        <v>-10710</v>
-      </c>
-      <c r="L66" s="9">
-        <v>-2.51</v>
-      </c>
-      <c r="M66" s="9" t="s">
+      <c r="H67" s="11">
+        <v>0</v>
+      </c>
+      <c r="I67" s="11">
+        <v>364770</v>
+      </c>
+      <c r="J67" s="11">
+        <v>-10037.46</v>
+      </c>
+      <c r="K67" s="11">
+        <v>-630</v>
+      </c>
+      <c r="L67" s="9">
+        <v>-2.68</v>
+      </c>
+      <c r="M67" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N66" s="9" t="s">
+      <c r="N67" s="9" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C67" s="6">
-        <v>14300</v>
-      </c>
-      <c r="D67" s="6">
-        <v>13700</v>
-      </c>
-      <c r="E67" s="6">
-        <v>600</v>
-      </c>
-      <c r="F67" s="7">
-        <v>26.45</v>
-      </c>
-      <c r="G67" s="7">
-        <v>26.173</v>
-      </c>
-      <c r="H67" s="7">
-        <v>0</v>
-      </c>
-      <c r="I67" s="7">
-        <v>378235</v>
-      </c>
-      <c r="J67" s="7">
-        <v>3957.39</v>
-      </c>
-      <c r="K67" s="7">
-        <v>2461</v>
-      </c>
-      <c r="L67" s="8">
-        <v>1.06</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N67" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B68" s="6">
-        <v>300530</v>
-      </c>
       <c r="C68" s="6">
-        <v>0</v>
+        <v>14400</v>
       </c>
       <c r="D68" s="6">
-        <v>0</v>
+        <v>14300</v>
       </c>
       <c r="E68" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F68" s="7">
-        <v>39.38</v>
+        <v>27.69</v>
       </c>
       <c r="G68" s="7">
-        <v>0</v>
+        <v>26.186</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
       </c>
       <c r="I68" s="7">
-        <v>0</v>
+        <v>398736</v>
       </c>
       <c r="J68" s="7">
-        <v>3425.43</v>
+        <v>21657.49</v>
       </c>
       <c r="K68" s="7">
-        <v>-1312.27</v>
+        <v>17697</v>
       </c>
       <c r="L68" s="8">
-        <v>0</v>
+        <v>5.74</v>
       </c>
       <c r="M68" s="8" t="s">
         <v>25</v>
@@ -3612,46 +3612,46 @@
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="6">
         <v>300244</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="6">
         <v>200</v>
       </c>
-      <c r="D69" s="10">
-        <v>0</v>
-      </c>
-      <c r="E69" s="10">
+      <c r="D69" s="6">
         <v>200</v>
       </c>
-      <c r="F69" s="11">
-        <v>33.7</v>
-      </c>
-      <c r="G69" s="11">
-        <v>33.995</v>
-      </c>
-      <c r="H69" s="11">
-        <v>0</v>
-      </c>
-      <c r="I69" s="11">
-        <v>6740</v>
-      </c>
-      <c r="J69" s="11">
-        <v>-59</v>
-      </c>
-      <c r="K69" s="11">
-        <v>-59</v>
-      </c>
-      <c r="L69" s="9">
-        <v>-0.87</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N69" s="9" t="s">
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>34.2</v>
+      </c>
+      <c r="G69" s="7">
+        <v>33.974</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>6840</v>
+      </c>
+      <c r="J69" s="7">
+        <v>45.18</v>
+      </c>
+      <c r="K69" s="7">
+        <v>100</v>
+      </c>
+      <c r="L69" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3663,34 +3663,34 @@
         <v>600867</v>
       </c>
       <c r="C70" s="10">
-        <v>21500</v>
+        <v>0</v>
       </c>
       <c r="D70" s="10">
-        <v>21500</v>
+        <v>0</v>
       </c>
       <c r="E70" s="10">
         <v>0</v>
       </c>
       <c r="F70" s="11">
-        <v>16.72</v>
+        <v>16.62</v>
       </c>
       <c r="G70" s="11">
-        <v>16.867</v>
+        <v>0</v>
       </c>
       <c r="H70" s="11">
         <v>0</v>
       </c>
       <c r="I70" s="11">
-        <v>359480</v>
+        <v>0</v>
       </c>
       <c r="J70" s="11">
-        <v>-3153.74</v>
+        <v>-5988.84</v>
       </c>
       <c r="K70" s="11">
-        <v>-3010</v>
+        <v>-2835.1</v>
       </c>
       <c r="L70" s="9">
-        <v>-0.87</v>
+        <v>0</v>
       </c>
       <c r="M70" s="9" t="s">
         <v>23</v>
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="7">
-        <v>19.04</v>
+        <v>19.01</v>
       </c>
       <c r="G71" s="7">
         <v>17.418</v>
@@ -3725,16 +3725,16 @@
         <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>409360</v>
+        <v>408715</v>
       </c>
       <c r="J71" s="7">
-        <v>34864.57</v>
+        <v>34219.57</v>
       </c>
       <c r="K71" s="7">
-        <v>18705</v>
+        <v>-645</v>
       </c>
       <c r="L71" s="8">
-        <v>9.31</v>
+        <v>9.14</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>23</v>
@@ -3747,38 +3747,38 @@
       <c r="A72" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B72" s="10">
-        <v>300233</v>
+      <c r="B72" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="C72" s="10">
-        <v>6200</v>
+        <v>4700</v>
       </c>
       <c r="D72" s="10">
-        <v>6200</v>
+        <v>0</v>
       </c>
       <c r="E72" s="10">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="F72" s="11">
-        <v>31.95</v>
+        <v>73.95</v>
       </c>
       <c r="G72" s="11">
-        <v>32.516</v>
+        <v>74.119</v>
       </c>
       <c r="H72" s="11">
         <v>0</v>
       </c>
       <c r="I72" s="11">
-        <v>198090</v>
+        <v>347565</v>
       </c>
       <c r="J72" s="11">
-        <v>-3507.16</v>
+        <v>-792.79</v>
       </c>
       <c r="K72" s="11">
-        <v>-6386</v>
+        <v>-792.79</v>
       </c>
       <c r="L72" s="9">
-        <v>-1.74</v>
+        <v>-0.23</v>
       </c>
       <c r="M72" s="9" t="s">
         <v>25</v>
@@ -3789,40 +3789,40 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B73" s="8" t="s">
         <v>122</v>
       </c>
+      <c r="B73" s="6">
+        <v>300233</v>
+      </c>
       <c r="C73" s="6">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="D73" s="6">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="E73" s="6">
         <v>0</v>
       </c>
       <c r="F73" s="7">
-        <v>12.66</v>
+        <v>34.29</v>
       </c>
       <c r="G73" s="7">
-        <v>0</v>
+        <v>32.516</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
       </c>
       <c r="I73" s="7">
-        <v>0</v>
+        <v>212598</v>
       </c>
       <c r="J73" s="7">
-        <v>11921.67</v>
+        <v>11000.84</v>
       </c>
       <c r="K73" s="7">
-        <v>18015.91</v>
+        <v>14508</v>
       </c>
       <c r="L73" s="8">
-        <v>0</v>
+        <v>5.46</v>
       </c>
       <c r="M73" s="8" t="s">
         <v>25</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="11">
-        <v>22.26</v>
+        <v>22</v>
       </c>
       <c r="G74" s="11">
         <v>22.537</v>
@@ -3857,16 +3857,16 @@
         <v>0</v>
       </c>
       <c r="I74" s="11">
-        <v>304962</v>
+        <v>301400</v>
       </c>
       <c r="J74" s="11">
-        <v>-3793</v>
+        <v>-7355</v>
       </c>
       <c r="K74" s="11">
-        <v>-12193</v>
+        <v>-3562</v>
       </c>
       <c r="L74" s="9">
-        <v>-1.23</v>
+        <v>-2.38</v>
       </c>
       <c r="M74" s="9" t="s">
         <v>25</v>
@@ -3876,46 +3876,46 @@
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="10">
         <v>36300</v>
       </c>
-      <c r="D75" s="6">
-        <v>0</v>
-      </c>
-      <c r="E75" s="6">
+      <c r="D75" s="10">
         <v>36300</v>
       </c>
-      <c r="F75" s="7">
-        <v>11.16</v>
-      </c>
-      <c r="G75" s="7">
+      <c r="E75" s="10">
+        <v>0</v>
+      </c>
+      <c r="F75" s="11">
+        <v>11.03</v>
+      </c>
+      <c r="G75" s="11">
         <v>11.079</v>
       </c>
-      <c r="H75" s="7">
-        <v>0</v>
-      </c>
-      <c r="I75" s="7">
-        <v>405108</v>
-      </c>
-      <c r="J75" s="7">
-        <v>2923.44</v>
-      </c>
-      <c r="K75" s="7">
-        <v>2923.44</v>
-      </c>
-      <c r="L75" s="8">
-        <v>0.73</v>
-      </c>
-      <c r="M75" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N75" s="8" t="s">
+      <c r="H75" s="11">
+        <v>0</v>
+      </c>
+      <c r="I75" s="11">
+        <v>400389</v>
+      </c>
+      <c r="J75" s="11">
+        <v>-1782.24</v>
+      </c>
+      <c r="K75" s="11">
+        <v>-4719</v>
+      </c>
+      <c r="L75" s="9">
+        <v>-0.44</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N75" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="7">
-        <v>29.87</v>
+        <v>29.7</v>
       </c>
       <c r="G76" s="7">
         <v>29.116</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="I76" s="7">
-        <v>376362</v>
+        <v>374220</v>
       </c>
       <c r="J76" s="7">
-        <v>9500.98</v>
+        <v>7358.98</v>
       </c>
       <c r="K76" s="7">
-        <v>11214</v>
+        <v>-2142</v>
       </c>
       <c r="L76" s="8">
-        <v>2.59</v>
+        <v>2.01</v>
       </c>
       <c r="M76" s="8" t="s">
         <v>25</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="11">
-        <v>12.56</v>
+        <v>12.58</v>
       </c>
       <c r="G77" s="11">
         <v>13.647</v>
@@ -3989,16 +3989,16 @@
         <v>0</v>
       </c>
       <c r="I77" s="11">
-        <v>96712</v>
+        <v>96866</v>
       </c>
       <c r="J77" s="11">
-        <v>-8372.49</v>
+        <v>-8218.49</v>
       </c>
       <c r="K77" s="11">
-        <v>2695</v>
+        <v>154</v>
       </c>
       <c r="L77" s="9">
-        <v>-7.97</v>
+        <v>-7.82</v>
       </c>
       <c r="M77" s="9" t="s">
         <v>25</v>
@@ -4008,46 +4008,46 @@
       </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="6">
         <v>12500</v>
       </c>
-      <c r="D78" s="10">
-        <v>0</v>
-      </c>
-      <c r="E78" s="10">
+      <c r="D78" s="6">
         <v>12500</v>
       </c>
-      <c r="F78" s="11">
-        <v>30.43</v>
-      </c>
-      <c r="G78" s="11">
-        <v>30.524</v>
-      </c>
-      <c r="H78" s="11">
-        <v>0</v>
-      </c>
-      <c r="I78" s="11">
-        <v>380375</v>
-      </c>
-      <c r="J78" s="11">
-        <v>-1173.5</v>
-      </c>
-      <c r="K78" s="11">
-        <v>-1173.5</v>
-      </c>
-      <c r="L78" s="9">
-        <v>-0.31</v>
-      </c>
-      <c r="M78" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N78" s="9" t="s">
+      <c r="E78" s="6">
+        <v>0</v>
+      </c>
+      <c r="F78" s="7">
+        <v>30.93</v>
+      </c>
+      <c r="G78" s="7">
+        <v>30.513</v>
+      </c>
+      <c r="H78" s="7">
+        <v>0</v>
+      </c>
+      <c r="I78" s="7">
+        <v>386625</v>
+      </c>
+      <c r="J78" s="7">
+        <v>5210.71</v>
+      </c>
+      <c r="K78" s="7">
+        <v>6250</v>
+      </c>
+      <c r="L78" s="8">
+        <v>1.37</v>
+      </c>
+      <c r="M78" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N78" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="7">
-        <v>17.58</v>
+        <v>17.81</v>
       </c>
       <c r="G79" s="7">
         <v>15.969</v>
@@ -4077,16 +4077,16 @@
         <v>0</v>
       </c>
       <c r="I79" s="7">
-        <v>270732</v>
+        <v>274274</v>
       </c>
       <c r="J79" s="7">
-        <v>24814.5</v>
+        <v>28356.5</v>
       </c>
       <c r="K79" s="7">
-        <v>-1232</v>
+        <v>3542</v>
       </c>
       <c r="L79" s="8">
-        <v>10.09</v>
+        <v>11.53</v>
       </c>
       <c r="M79" s="8" t="s">
         <v>25</v>
@@ -4103,34 +4103,34 @@
         <v>300054</v>
       </c>
       <c r="C80" s="6">
-        <v>14900</v>
+        <v>0</v>
       </c>
       <c r="D80" s="6">
-        <v>14900</v>
+        <v>0</v>
       </c>
       <c r="E80" s="6">
         <v>0</v>
       </c>
       <c r="F80" s="7">
-        <v>17.23</v>
+        <v>16.03</v>
       </c>
       <c r="G80" s="7">
-        <v>13.982</v>
+        <v>0</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
       </c>
       <c r="I80" s="7">
-        <v>256727</v>
+        <v>0</v>
       </c>
       <c r="J80" s="7">
-        <v>48399</v>
+        <v>31967.03</v>
       </c>
       <c r="K80" s="7">
-        <v>2235</v>
+        <v>-16431.97</v>
       </c>
       <c r="L80" s="8">
-        <v>23.23</v>
+        <v>0</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>25</v>

--- a/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
+++ b/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="156">
   <si>
     <t>资金</t>
   </si>
@@ -133,21 +133,33 @@
     <t>交易市场</t>
   </si>
   <si>
+    <t>TCL科技</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
     <t>三安光电</t>
   </si>
   <si>
+    <t>三角防务</t>
+  </si>
+  <si>
     <t>上海洗霸</t>
   </si>
   <si>
-    <t>世纪华通</t>
-  </si>
-  <si>
-    <t>002602</t>
+    <t>世嘉科技</t>
+  </si>
+  <si>
+    <t>002796</t>
   </si>
   <si>
     <t>东方财富</t>
   </si>
   <si>
+    <t>中再资环</t>
+  </si>
+  <si>
     <t>中源协和</t>
   </si>
   <si>
@@ -172,12 +184,27 @@
     <t>佩蒂股份</t>
   </si>
   <si>
-    <t>信维通信</t>
+    <t>供销大集</t>
+  </si>
+  <si>
+    <t>000564</t>
   </si>
   <si>
     <t>健友股份</t>
   </si>
   <si>
+    <t>兆驰股份</t>
+  </si>
+  <si>
+    <t>002429</t>
+  </si>
+  <si>
+    <t>农 产 品</t>
+  </si>
+  <si>
+    <t>000061</t>
+  </si>
+  <si>
     <t>华中数控</t>
   </si>
   <si>
@@ -208,6 +235,12 @@
     <t>同和药业</t>
   </si>
   <si>
+    <t>国新能源</t>
+  </si>
+  <si>
+    <t>国电南自</t>
+  </si>
+  <si>
     <t>国药股份</t>
   </si>
   <si>
@@ -235,12 +268,6 @@
     <t>奥飞数据</t>
   </si>
   <si>
-    <t>威华股份</t>
-  </si>
-  <si>
-    <t>002240</t>
-  </si>
-  <si>
     <t>宇信科技</t>
   </si>
   <si>
@@ -259,15 +286,18 @@
     <t>开立医疗</t>
   </si>
   <si>
-    <t>恒立液压</t>
-  </si>
-  <si>
     <t>恒铭达</t>
   </si>
   <si>
     <t>002947</t>
   </si>
   <si>
+    <t>慈文传媒</t>
+  </si>
+  <si>
+    <t>002343</t>
+  </si>
+  <si>
     <t>拓普集团</t>
   </si>
   <si>
@@ -280,12 +310,21 @@
     <t>数据港</t>
   </si>
   <si>
+    <t>春兴精工</t>
+  </si>
+  <si>
+    <t>002547</t>
+  </si>
+  <si>
     <t>晶澳科技</t>
   </si>
   <si>
     <t>002459</t>
   </si>
   <si>
+    <t>歌华有线</t>
+  </si>
+  <si>
     <t>江化微</t>
   </si>
   <si>
@@ -295,10 +334,13 @@
     <t>000568</t>
   </si>
   <si>
-    <t>游族网络</t>
-  </si>
-  <si>
-    <t>002174</t>
+    <t>炼石航空</t>
+  </si>
+  <si>
+    <t>000697</t>
+  </si>
+  <si>
+    <t>百合花</t>
   </si>
   <si>
     <t>皇马科技</t>
@@ -310,13 +352,25 @@
     <t>002153</t>
   </si>
   <si>
+    <t>硕贝德</t>
+  </si>
+  <si>
+    <t>神剑股份</t>
+  </si>
+  <si>
+    <t>002361</t>
+  </si>
+  <si>
     <t>科创额度</t>
   </si>
   <si>
     <t>SHKCED</t>
   </si>
   <si>
-    <t>科锐国际</t>
+    <t>科森科技</t>
+  </si>
+  <si>
+    <t>精准信息</t>
   </si>
   <si>
     <t>精研科技</t>
@@ -328,6 +382,12 @@
     <t>002049</t>
   </si>
   <si>
+    <t>美锦能源</t>
+  </si>
+  <si>
+    <t>000723</t>
+  </si>
+  <si>
     <t>苏州固锝</t>
   </si>
   <si>
@@ -370,9 +430,6 @@
     <t>迪安诊断</t>
   </si>
   <si>
-    <t>通化东宝</t>
-  </si>
-  <si>
     <t>通威股份</t>
   </si>
   <si>
@@ -385,9 +442,24 @@
     <t>金城医药</t>
   </si>
   <si>
+    <t>锦江投资</t>
+  </si>
+  <si>
+    <t>露笑科技</t>
+  </si>
+  <si>
+    <t>002617</t>
+  </si>
+  <si>
     <t>青松股份</t>
   </si>
   <si>
+    <t>顺灏股份</t>
+  </si>
+  <si>
+    <t>002565</t>
+  </si>
+  <si>
     <t>领益智造</t>
   </si>
   <si>
@@ -410,9 +482,6 @@
   </si>
   <si>
     <t>鹏辉能源</t>
-  </si>
-  <si>
-    <t>鼎龙股份</t>
   </si>
 </sst>
 </file>
@@ -432,12 +501,12 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFCA4949"/>
+      <color rgb="FF007AD0"/>
       <name val="SimSun"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF007AD0"/>
+      <color rgb="FFCA4949"/>
       <name val="SimSun"/>
     </font>
     <font>
@@ -804,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -884,28 +953,28 @@
         <v>1720175912</v>
       </c>
       <c r="C3" s="4">
-        <v>1908514.59</v>
+        <v>1551319.03</v>
       </c>
       <c r="D3" s="4">
-        <v>2050923.67</v>
+        <v>1425648.58</v>
       </c>
       <c r="E3" s="4">
-        <v>1908514.59</v>
+        <v>1425648.58</v>
       </c>
       <c r="F3" s="4">
-        <v>-142409.08</v>
+        <v>125670.45</v>
       </c>
       <c r="G3" s="4">
-        <v>23362579.58</v>
+        <v>23961293.77</v>
       </c>
       <c r="H3" s="4">
-        <v>25413503.25</v>
+        <v>25386942.35</v>
       </c>
       <c r="I3" s="4">
-        <v>1249237.46</v>
+        <v>1612722.94</v>
       </c>
       <c r="J3" s="4">
-        <v>33963.08</v>
+        <v>472843.77</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -1012,10 +1081,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="4">
-        <v>3123000</v>
+        <v>3181000</v>
       </c>
       <c r="C8" s="4">
-        <v>3123000</v>
+        <v>3181500</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -1029,7 +1098,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="4">
-        <v>6631000</v>
+        <v>6760500</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -1107,82 +1176,82 @@
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="6">
-        <v>600703</v>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="6">
-        <v>15700</v>
+        <v>62600</v>
       </c>
       <c r="D12" s="6">
-        <v>15700</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
+        <v>62600</v>
       </c>
       <c r="F12" s="7">
-        <v>25.28</v>
+        <v>6.51</v>
       </c>
       <c r="G12" s="7">
-        <v>24.711</v>
+        <v>6.531</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>396896</v>
+        <v>407526</v>
       </c>
       <c r="J12" s="7">
-        <v>8929.67</v>
+        <v>-1301.05</v>
       </c>
       <c r="K12" s="7">
-        <v>2355</v>
+        <v>-1301.05</v>
       </c>
       <c r="L12" s="8">
-        <v>2.3</v>
+        <v>-0.32</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="10">
-        <v>603200</v>
+        <v>600703</v>
       </c>
       <c r="C13" s="10">
-        <v>8300</v>
+        <v>15700</v>
       </c>
       <c r="D13" s="10">
-        <v>8300</v>
+        <v>15700</v>
       </c>
       <c r="E13" s="10">
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>41.12</v>
+        <v>27.35</v>
       </c>
       <c r="G13" s="11">
-        <v>43.525</v>
+        <v>24.711</v>
       </c>
       <c r="H13" s="11">
         <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>341296</v>
+        <v>429395</v>
       </c>
       <c r="J13" s="11">
-        <v>-19964.63</v>
+        <v>41428.67</v>
       </c>
       <c r="K13" s="11">
-        <v>4150</v>
+        <v>32499</v>
       </c>
       <c r="L13" s="9">
-        <v>-5.53</v>
+        <v>10.68</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>23</v>
@@ -1192,46 +1261,46 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>15.54</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <v>12015.69</v>
-      </c>
-      <c r="K14" s="7">
-        <v>7688.08</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="8" t="s">
+      <c r="B14" s="10">
+        <v>300775</v>
+      </c>
+      <c r="C14" s="10">
+        <v>14100</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>14100</v>
+      </c>
+      <c r="F14" s="11">
+        <v>23.57</v>
+      </c>
+      <c r="G14" s="11">
+        <v>23.47</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>332337</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1416</v>
+      </c>
+      <c r="K14" s="11">
+        <v>1416</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1240,389 +1309,389 @@
         <v>43</v>
       </c>
       <c r="B15" s="6">
-        <v>300059</v>
+        <v>603200</v>
       </c>
       <c r="C15" s="6">
-        <v>19900</v>
+        <v>9400</v>
       </c>
       <c r="D15" s="6">
-        <v>19900</v>
+        <v>8300</v>
       </c>
       <c r="E15" s="6">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F15" s="7">
-        <v>22.8</v>
+        <v>42.03</v>
       </c>
       <c r="G15" s="7">
-        <v>18.564</v>
+        <v>43.334</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>453720</v>
+        <v>395082</v>
       </c>
       <c r="J15" s="7">
-        <v>84287.68</v>
+        <v>-12254.51</v>
       </c>
       <c r="K15" s="7">
-        <v>17910</v>
+        <v>7710.12</v>
       </c>
       <c r="L15" s="8">
-        <v>22.82</v>
+        <v>-3.01</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="10">
-        <v>600645</v>
+      <c r="B16" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C16" s="10">
-        <v>13300</v>
+        <v>16800</v>
       </c>
       <c r="D16" s="10">
-        <v>13300</v>
+        <v>0</v>
       </c>
       <c r="E16" s="10">
-        <v>0</v>
+        <v>16800</v>
       </c>
       <c r="F16" s="11">
-        <v>27.65</v>
+        <v>22.67</v>
       </c>
       <c r="G16" s="11">
-        <v>27.715</v>
+        <v>22.621</v>
       </c>
       <c r="H16" s="11">
         <v>0</v>
       </c>
       <c r="I16" s="11">
-        <v>367745</v>
+        <v>380856</v>
       </c>
       <c r="J16" s="11">
-        <v>-866.65</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>14</v>
+        <v>815.83</v>
+      </c>
+      <c r="K16" s="11">
+        <v>815.83</v>
       </c>
       <c r="L16" s="9">
-        <v>-0.23</v>
+        <v>0.22</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="6">
-        <v>603019</v>
-      </c>
-      <c r="C17" s="6">
-        <v>9000</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>9000</v>
-      </c>
-      <c r="F17" s="7">
-        <v>41.25</v>
-      </c>
-      <c r="G17" s="7">
-        <v>41.184</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>371250</v>
-      </c>
-      <c r="J17" s="7">
-        <v>594.57</v>
-      </c>
-      <c r="K17" s="7">
-        <v>594.57</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>22</v>
+      <c r="A17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="10">
+        <v>300059</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>24.8</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>115931.48</v>
+      </c>
+      <c r="K17" s="11">
+        <v>31643.8</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="9" t="s">
         <v>47</v>
       </c>
+      <c r="B18" s="10">
+        <v>600217</v>
+      </c>
       <c r="C18" s="10">
-        <v>4700</v>
+        <v>78300</v>
       </c>
       <c r="D18" s="10">
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="E18" s="10">
-        <v>0</v>
+        <v>78300</v>
       </c>
       <c r="F18" s="11">
-        <v>39.91</v>
+        <v>5.11</v>
       </c>
       <c r="G18" s="11">
-        <v>40.005</v>
+        <v>5.091</v>
       </c>
       <c r="H18" s="11">
         <v>0</v>
       </c>
       <c r="I18" s="11">
-        <v>187577</v>
+        <v>400113</v>
       </c>
       <c r="J18" s="11">
-        <v>-445.56</v>
+        <v>1525</v>
       </c>
       <c r="K18" s="11">
-        <v>-1457</v>
+        <v>1525</v>
       </c>
       <c r="L18" s="9">
-        <v>-0.24</v>
+        <v>0.37</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6">
+        <v>600645</v>
+      </c>
+      <c r="C19" s="6">
+        <v>13300</v>
+      </c>
+      <c r="D19" s="6">
+        <v>13300</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>27.44</v>
+      </c>
+      <c r="G19" s="7">
+        <v>27.715</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>364952</v>
+      </c>
+      <c r="J19" s="7">
+        <v>-3659.65</v>
+      </c>
+      <c r="K19" s="7">
+        <v>-2793</v>
+      </c>
+      <c r="L19" s="8">
+        <v>-0.99</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="10">
+      <c r="B20" s="10">
+        <v>603019</v>
+      </c>
+      <c r="C20" s="10">
+        <v>9000</v>
+      </c>
+      <c r="D20" s="10">
+        <v>9000</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <v>43.44</v>
+      </c>
+      <c r="G20" s="11">
+        <v>41.184</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <v>390960</v>
+      </c>
+      <c r="J20" s="11">
+        <v>20306.11</v>
+      </c>
+      <c r="K20" s="11">
+        <v>19710</v>
+      </c>
+      <c r="L20" s="9">
+        <v>5.48</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>41.23</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>4443.72</v>
+      </c>
+      <c r="K21" s="11">
+        <v>4889.28</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="10">
         <v>20200</v>
       </c>
-      <c r="D19" s="10">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="D22" s="10">
         <v>20200</v>
       </c>
-      <c r="F19" s="11">
-        <v>9.91</v>
-      </c>
-      <c r="G19" s="11">
-        <v>9.961</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>200182</v>
-      </c>
-      <c r="J19" s="11">
-        <v>-1035</v>
-      </c>
-      <c r="K19" s="11">
-        <v>-1035</v>
-      </c>
-      <c r="L19" s="9">
-        <v>-0.51</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="6">
-        <v>603666</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3900</v>
-      </c>
-      <c r="D20" s="6">
-        <v>3900</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>91.9</v>
-      </c>
-      <c r="G20" s="7">
-        <v>72.526</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>358410</v>
-      </c>
-      <c r="J20" s="7">
-        <v>75559.28</v>
-      </c>
-      <c r="K20" s="7">
-        <v>7020</v>
-      </c>
-      <c r="L20" s="8">
-        <v>26.71</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="6">
-        <v>300673</v>
-      </c>
-      <c r="C21" s="6">
-        <v>800</v>
-      </c>
-      <c r="D21" s="6">
-        <v>800</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>37.35</v>
-      </c>
-      <c r="G21" s="7">
-        <v>17.837</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>29880</v>
-      </c>
-      <c r="J21" s="7">
-        <v>15610.44</v>
-      </c>
-      <c r="K21" s="7">
-        <v>-1040</v>
-      </c>
-      <c r="L21" s="8">
-        <v>109.4</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="6">
-        <v>300136</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>53.19</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7">
-        <v>15686.92</v>
-      </c>
-      <c r="K22" s="7">
-        <v>442.34</v>
-      </c>
-      <c r="L22" s="8">
-        <v>0</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" s="8" t="s">
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>10.72</v>
+      </c>
+      <c r="G22" s="11">
+        <v>9.955</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>216544</v>
+      </c>
+      <c r="J22" s="11">
+        <v>15452.81</v>
+      </c>
+      <c r="K22" s="11">
+        <v>16362</v>
+      </c>
+      <c r="L22" s="9">
+        <v>7.68</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="10">
-        <v>603707</v>
+        <v>603666</v>
       </c>
       <c r="C23" s="10">
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="D23" s="10">
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="E23" s="10">
         <v>0</v>
       </c>
       <c r="F23" s="11">
-        <v>61.6</v>
+        <v>91.12</v>
       </c>
       <c r="G23" s="11">
-        <v>61.884</v>
+        <v>0</v>
       </c>
       <c r="H23" s="11">
         <v>0</v>
       </c>
       <c r="I23" s="11">
-        <v>351120</v>
+        <v>0</v>
       </c>
       <c r="J23" s="11">
-        <v>-1616.33</v>
+        <v>73123.1</v>
       </c>
       <c r="K23" s="11">
-        <v>-5244</v>
+        <v>-2436.18</v>
       </c>
       <c r="L23" s="9">
-        <v>-0.46</v>
+        <v>0</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>23</v>
@@ -1632,305 +1701,305 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="6">
-        <v>300161</v>
-      </c>
-      <c r="C24" s="6">
-        <v>4900</v>
-      </c>
-      <c r="D24" s="6">
-        <v>4900</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>23.11</v>
-      </c>
-      <c r="G24" s="7">
-        <v>22.39</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>113239</v>
-      </c>
-      <c r="J24" s="7">
-        <v>3529.84</v>
-      </c>
-      <c r="K24" s="7">
-        <v>-2156</v>
-      </c>
-      <c r="L24" s="8">
-        <v>3.22</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="8" t="s">
+      <c r="A24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="10">
+        <v>300673</v>
+      </c>
+      <c r="C24" s="10">
+        <v>800</v>
+      </c>
+      <c r="D24" s="10">
+        <v>800</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>37.48</v>
+      </c>
+      <c r="G24" s="11">
+        <v>17.837</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>29984</v>
+      </c>
+      <c r="J24" s="11">
+        <v>15714.44</v>
+      </c>
+      <c r="K24" s="11">
+        <v>104</v>
+      </c>
+      <c r="L24" s="9">
+        <v>110.13</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="6">
-        <v>600812</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="C25" s="6">
-        <v>24800</v>
+        <v>90800</v>
       </c>
       <c r="D25" s="6">
-        <v>24800</v>
+        <v>0</v>
       </c>
       <c r="E25" s="6">
-        <v>0</v>
+        <v>90800</v>
       </c>
       <c r="F25" s="7">
-        <v>12.21</v>
+        <v>4.53</v>
       </c>
       <c r="G25" s="7">
-        <v>12.066</v>
+        <v>4.57</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>302808</v>
+        <v>411324</v>
       </c>
       <c r="J25" s="7">
-        <v>3580.11</v>
+        <v>-3620.78</v>
       </c>
       <c r="K25" s="7">
-        <v>-9672</v>
+        <v>-3620.78</v>
       </c>
       <c r="L25" s="8">
-        <v>1.19</v>
+        <v>-0.88</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B26" s="6">
-        <v>300676</v>
+        <v>603707</v>
       </c>
       <c r="C26" s="6">
-        <v>2400</v>
+        <v>5700</v>
       </c>
       <c r="D26" s="6">
-        <v>2400</v>
+        <v>5700</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
       </c>
       <c r="F26" s="7">
-        <v>164.41</v>
+        <v>59.91</v>
       </c>
       <c r="G26" s="7">
-        <v>154.234</v>
+        <v>61.884</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>394584</v>
+        <v>341487</v>
       </c>
       <c r="J26" s="7">
-        <v>24422.59</v>
+        <v>-11249.33</v>
       </c>
       <c r="K26" s="7">
-        <v>30264</v>
+        <v>-9633</v>
       </c>
       <c r="L26" s="8">
-        <v>6.6</v>
+        <v>-3.19</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="6">
-        <v>511990</v>
+        <v>59</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="C27" s="6">
-        <v>40020</v>
+        <v>8300</v>
       </c>
       <c r="D27" s="6">
-        <v>40020</v>
+        <v>0</v>
       </c>
       <c r="E27" s="6">
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="F27" s="7">
-        <v>99.986</v>
+        <v>5.51</v>
       </c>
       <c r="G27" s="7">
-        <v>95.837</v>
+        <v>5.511</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>4001439.72</v>
+        <v>45733</v>
       </c>
       <c r="J27" s="7">
-        <v>166049.71</v>
+        <v>-5.49</v>
       </c>
       <c r="K27" s="7">
-        <v>640.32</v>
+        <v>-5.49</v>
       </c>
       <c r="L27" s="8">
-        <v>4.33</v>
+        <v>-0.02</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="6">
-        <v>57600</v>
-      </c>
-      <c r="D28" s="6">
-        <v>57600</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>17.16</v>
-      </c>
-      <c r="G28" s="7">
-        <v>16.314</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>988416</v>
-      </c>
-      <c r="J28" s="7">
-        <v>48712.23</v>
-      </c>
-      <c r="K28" s="7">
-        <v>-54144</v>
-      </c>
-      <c r="L28" s="8">
-        <v>5.19</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" s="8" t="s">
+      <c r="A28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="10">
+        <v>25100</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
+        <v>25100</v>
+      </c>
+      <c r="F28" s="11">
+        <v>7.78</v>
+      </c>
+      <c r="G28" s="11">
+        <v>7.762</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>195278</v>
+      </c>
+      <c r="J28" s="11">
+        <v>446.04</v>
+      </c>
+      <c r="K28" s="11">
+        <v>446.04</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="6">
-        <v>11700</v>
-      </c>
-      <c r="D29" s="6">
-        <v>11700</v>
-      </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>71.5</v>
-      </c>
-      <c r="G29" s="7">
-        <v>65.958</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>836550</v>
-      </c>
-      <c r="J29" s="7">
-        <v>64842.39</v>
-      </c>
-      <c r="K29" s="7">
-        <v>-35100</v>
-      </c>
-      <c r="L29" s="8">
-        <v>8.4</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N29" s="8" t="s">
+      <c r="A29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="10">
+        <v>300161</v>
+      </c>
+      <c r="C29" s="10">
+        <v>4900</v>
+      </c>
+      <c r="D29" s="10">
+        <v>4900</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>24.96</v>
+      </c>
+      <c r="G29" s="11">
+        <v>22.39</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>122304</v>
+      </c>
+      <c r="J29" s="11">
+        <v>12594.84</v>
+      </c>
+      <c r="K29" s="11">
+        <v>9065</v>
+      </c>
+      <c r="L29" s="9">
+        <v>11.48</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B30" s="10">
-        <v>603520</v>
+        <v>600812</v>
       </c>
       <c r="C30" s="10">
-        <v>4600</v>
+        <v>24800</v>
       </c>
       <c r="D30" s="10">
-        <v>4600</v>
+        <v>24800</v>
       </c>
       <c r="E30" s="10">
         <v>0</v>
       </c>
       <c r="F30" s="11">
-        <v>76.2</v>
+        <v>13.15</v>
       </c>
       <c r="G30" s="11">
-        <v>81.155</v>
+        <v>12.066</v>
       </c>
       <c r="H30" s="11">
         <v>0</v>
       </c>
       <c r="I30" s="11">
-        <v>350520</v>
+        <v>326120</v>
       </c>
       <c r="J30" s="11">
-        <v>-22791.2</v>
+        <v>26892.11</v>
       </c>
       <c r="K30" s="11">
-        <v>1886</v>
+        <v>23312</v>
       </c>
       <c r="L30" s="9">
-        <v>-6.11</v>
+        <v>8.98</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>23</v>
@@ -1940,882 +2009,882 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="6">
-        <v>300636</v>
-      </c>
-      <c r="C31" s="6">
-        <v>2720</v>
-      </c>
-      <c r="D31" s="6">
-        <v>2720</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <v>39.6</v>
-      </c>
-      <c r="G31" s="7">
-        <v>37.925</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>107712</v>
-      </c>
-      <c r="J31" s="7">
-        <v>4555.6</v>
-      </c>
-      <c r="K31" s="7">
-        <v>-897.6</v>
-      </c>
-      <c r="L31" s="8">
-        <v>4.42</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N31" s="8" t="s">
+      <c r="A31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="10">
+        <v>300676</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <v>162.1</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <v>18399.72</v>
+      </c>
+      <c r="K31" s="11">
+        <v>-6022.87</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="6">
-        <v>600511</v>
-      </c>
-      <c r="C32" s="6">
-        <v>9600</v>
-      </c>
-      <c r="D32" s="6">
-        <v>9600</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7">
-        <v>38.9</v>
-      </c>
-      <c r="G32" s="7">
-        <v>38.594</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>373440</v>
-      </c>
-      <c r="J32" s="7">
-        <v>2934.14</v>
-      </c>
-      <c r="K32" s="7">
-        <v>2592</v>
-      </c>
-      <c r="L32" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="M32" s="8" t="s">
+      <c r="A32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="10">
+        <v>511990</v>
+      </c>
+      <c r="C32" s="10">
+        <v>40022</v>
+      </c>
+      <c r="D32" s="10">
+        <v>40022</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>99.952</v>
+      </c>
+      <c r="G32" s="11">
+        <v>95.832</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>4000278.94</v>
+      </c>
+      <c r="J32" s="11">
+        <v>164888.93</v>
+      </c>
+      <c r="K32" s="11">
+        <v>-1360.75</v>
+      </c>
+      <c r="L32" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="M32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N32" s="8" t="s">
+      <c r="N32" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="6">
-        <v>55800</v>
-      </c>
-      <c r="D33" s="6">
-        <v>55800</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7">
-        <v>15.59</v>
-      </c>
-      <c r="G33" s="7">
-        <v>15.136</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>869922</v>
-      </c>
-      <c r="J33" s="7">
-        <v>25323.57</v>
-      </c>
-      <c r="K33" s="7">
-        <v>-3348</v>
-      </c>
-      <c r="L33" s="8">
-        <v>3</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N33" s="8" t="s">
+      <c r="A33" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="10">
+        <v>57600</v>
+      </c>
+      <c r="D33" s="10">
+        <v>57600</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11">
+        <v>17.04</v>
+      </c>
+      <c r="G33" s="11">
+        <v>16.314</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>981504</v>
+      </c>
+      <c r="J33" s="11">
+        <v>41800.23</v>
+      </c>
+      <c r="K33" s="11">
+        <v>-6912</v>
+      </c>
+      <c r="L33" s="9">
+        <v>4.45</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="10">
-        <v>600535</v>
+        <v>69</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="C34" s="10">
-        <v>21100</v>
+        <v>11700</v>
       </c>
       <c r="D34" s="10">
-        <v>21100</v>
+        <v>11700</v>
       </c>
       <c r="E34" s="10">
         <v>0</v>
       </c>
       <c r="F34" s="11">
-        <v>17.18</v>
+        <v>69.68</v>
       </c>
       <c r="G34" s="11">
-        <v>17.841</v>
+        <v>65.958</v>
       </c>
       <c r="H34" s="11">
         <v>0</v>
       </c>
       <c r="I34" s="11">
-        <v>362498</v>
+        <v>815256</v>
       </c>
       <c r="J34" s="11">
-        <v>-13952.71</v>
+        <v>43548.39</v>
       </c>
       <c r="K34" s="11">
-        <v>-14559</v>
+        <v>-21294</v>
       </c>
       <c r="L34" s="9">
-        <v>-3.7</v>
+        <v>5.64</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="B35" s="6">
+        <v>603520</v>
       </c>
       <c r="C35" s="6">
-        <v>29200</v>
+        <v>4600</v>
       </c>
       <c r="D35" s="6">
-        <v>29200</v>
+        <v>4600</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="7">
-        <v>13.81</v>
+        <v>74.7</v>
       </c>
       <c r="G35" s="7">
-        <v>13.165</v>
+        <v>81.155</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>403252</v>
+        <v>343620</v>
       </c>
       <c r="J35" s="7">
-        <v>18840.88</v>
+        <v>-29691.2</v>
       </c>
       <c r="K35" s="7">
-        <v>20440</v>
+        <v>-6900</v>
       </c>
       <c r="L35" s="8">
-        <v>4.9</v>
+        <v>-7.95</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="6">
-        <v>17300</v>
-      </c>
-      <c r="D36" s="6">
-        <v>17000</v>
-      </c>
-      <c r="E36" s="6">
-        <v>300</v>
-      </c>
-      <c r="F36" s="7">
-        <v>22.52</v>
-      </c>
-      <c r="G36" s="7">
-        <v>22.082</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>389596</v>
-      </c>
-      <c r="J36" s="7">
-        <v>7573.06</v>
-      </c>
-      <c r="K36" s="7">
-        <v>7651</v>
-      </c>
-      <c r="L36" s="8">
-        <v>1.98</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" s="8" t="s">
+      <c r="A36" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="10">
+        <v>300636</v>
+      </c>
+      <c r="C36" s="10">
+        <v>2720</v>
+      </c>
+      <c r="D36" s="10">
+        <v>2720</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>38.91</v>
+      </c>
+      <c r="G36" s="11">
+        <v>37.925</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>105835.2</v>
+      </c>
+      <c r="J36" s="11">
+        <v>2678.8</v>
+      </c>
+      <c r="K36" s="11">
+        <v>-1876.8</v>
+      </c>
+      <c r="L36" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37" s="10">
-        <v>300738</v>
+        <v>600617</v>
       </c>
       <c r="C37" s="10">
-        <v>4300</v>
+        <v>3300</v>
       </c>
       <c r="D37" s="10">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="E37" s="10">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="F37" s="11">
-        <v>55.62</v>
+        <v>4.22</v>
       </c>
       <c r="G37" s="11">
-        <v>57.07</v>
+        <v>4.202</v>
       </c>
       <c r="H37" s="11">
         <v>0</v>
       </c>
       <c r="I37" s="11">
-        <v>239166</v>
+        <v>13926</v>
       </c>
       <c r="J37" s="11">
-        <v>-6235.43</v>
+        <v>60.72</v>
       </c>
       <c r="K37" s="11">
-        <v>2021</v>
+        <v>60.72</v>
       </c>
       <c r="L37" s="9">
-        <v>-2.54</v>
+        <v>0.43</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="A38" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="6">
-        <v>0</v>
-      </c>
-      <c r="D38" s="6">
-        <v>0</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7">
-        <v>13.74</v>
-      </c>
-      <c r="G38" s="7">
-        <v>0</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7">
-        <v>30743.92</v>
-      </c>
-      <c r="K38" s="7">
-        <v>-17763.23</v>
-      </c>
-      <c r="L38" s="8">
-        <v>0</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>24</v>
+      <c r="B38" s="10">
+        <v>600268</v>
+      </c>
+      <c r="C38" s="10">
+        <v>35800</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
+        <v>35800</v>
+      </c>
+      <c r="F38" s="11">
+        <v>9.07</v>
+      </c>
+      <c r="G38" s="11">
+        <v>9.007</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>324706</v>
+      </c>
+      <c r="J38" s="11">
+        <v>2239.61</v>
+      </c>
+      <c r="K38" s="11">
+        <v>2239.61</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="6">
-        <v>300674</v>
-      </c>
-      <c r="C39" s="6">
-        <v>8800</v>
-      </c>
-      <c r="D39" s="6">
-        <v>8800</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7">
-        <v>44.24</v>
-      </c>
-      <c r="G39" s="7">
-        <v>41.59</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>389312</v>
-      </c>
-      <c r="J39" s="7">
-        <v>23320.06</v>
-      </c>
-      <c r="K39" s="7">
-        <v>13728</v>
-      </c>
-      <c r="L39" s="8">
-        <v>6.37</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>24</v>
+      <c r="B39" s="10">
+        <v>600511</v>
+      </c>
+      <c r="C39" s="10">
+        <v>9600</v>
+      </c>
+      <c r="D39" s="10">
+        <v>9600</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
+        <v>39.41</v>
+      </c>
+      <c r="G39" s="11">
+        <v>38.594</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>378336</v>
+      </c>
+      <c r="J39" s="11">
+        <v>7830.14</v>
+      </c>
+      <c r="K39" s="11">
+        <v>4896</v>
+      </c>
+      <c r="L39" s="9">
+        <v>2.11</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="6">
-        <v>300009</v>
-      </c>
-      <c r="C40" s="6">
-        <v>18100</v>
-      </c>
-      <c r="D40" s="6">
-        <v>0</v>
-      </c>
-      <c r="E40" s="6">
-        <v>18100</v>
-      </c>
-      <c r="F40" s="7">
-        <v>16.65</v>
-      </c>
-      <c r="G40" s="7">
-        <v>16.635</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>301365</v>
-      </c>
-      <c r="J40" s="7">
-        <v>273.64</v>
-      </c>
-      <c r="K40" s="7">
-        <v>273.64</v>
-      </c>
-      <c r="L40" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N40" s="8" t="s">
+      <c r="B40" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="10">
+        <v>55800</v>
+      </c>
+      <c r="D40" s="10">
+        <v>55800</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>16.15</v>
+      </c>
+      <c r="G40" s="11">
+        <v>15.136</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>901170</v>
+      </c>
+      <c r="J40" s="11">
+        <v>56571.57</v>
+      </c>
+      <c r="K40" s="11">
+        <v>31248</v>
+      </c>
+      <c r="L40" s="9">
+        <v>6.7</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" s="6">
-        <v>300572</v>
+        <v>600535</v>
       </c>
       <c r="C41" s="6">
-        <v>100</v>
+        <v>21100</v>
       </c>
       <c r="D41" s="6">
-        <v>100</v>
+        <v>21100</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41" s="7">
-        <v>67.8</v>
+        <v>17.35</v>
       </c>
       <c r="G41" s="7">
-        <v>-155.973</v>
+        <v>17.841</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>6780</v>
+        <v>366085</v>
       </c>
       <c r="J41" s="7">
-        <v>22377.27</v>
+        <v>-10365.71</v>
       </c>
       <c r="K41" s="7">
-        <v>-134</v>
+        <v>3587</v>
       </c>
       <c r="L41" s="8">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="10">
-        <v>603713</v>
+        <v>79</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="C42" s="10">
-        <v>3900</v>
+        <v>29200</v>
       </c>
       <c r="D42" s="10">
-        <v>0</v>
+        <v>29200</v>
       </c>
       <c r="E42" s="10">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="F42" s="11">
-        <v>96.16</v>
+        <v>15.19</v>
       </c>
       <c r="G42" s="11">
-        <v>96.589</v>
+        <v>13.165</v>
       </c>
       <c r="H42" s="11">
         <v>0</v>
       </c>
       <c r="I42" s="11">
-        <v>375024</v>
+        <v>443548</v>
       </c>
       <c r="J42" s="11">
-        <v>-1671.43</v>
+        <v>59136.88</v>
       </c>
       <c r="K42" s="11">
-        <v>-1671.43</v>
+        <v>40296</v>
       </c>
       <c r="L42" s="9">
-        <v>-0.44</v>
+        <v>15.38</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="6">
-        <v>603987</v>
-      </c>
-      <c r="C43" s="6">
-        <v>54200</v>
-      </c>
-      <c r="D43" s="6">
-        <v>54200</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="7">
-        <v>16.59</v>
-      </c>
-      <c r="G43" s="7">
-        <v>14.285</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>899178</v>
-      </c>
-      <c r="J43" s="7">
-        <v>124904.11</v>
-      </c>
-      <c r="K43" s="7">
-        <v>-4336</v>
-      </c>
-      <c r="L43" s="8">
-        <v>16.14</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>22</v>
+      <c r="A43" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="10">
+        <v>17300</v>
+      </c>
+      <c r="D43" s="10">
+        <v>17300</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="11">
+        <v>23.8</v>
+      </c>
+      <c r="G43" s="11">
+        <v>22.082</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <v>411740</v>
+      </c>
+      <c r="J43" s="11">
+        <v>29721.25</v>
+      </c>
+      <c r="K43" s="11">
+        <v>22144</v>
+      </c>
+      <c r="L43" s="9">
+        <v>7.78</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="10">
-        <v>300633</v>
-      </c>
-      <c r="C44" s="10">
-        <v>700</v>
-      </c>
-      <c r="D44" s="10">
-        <v>700</v>
-      </c>
-      <c r="E44" s="10">
-        <v>0</v>
-      </c>
-      <c r="F44" s="11">
-        <v>36.33</v>
-      </c>
-      <c r="G44" s="11">
-        <v>36.782</v>
-      </c>
-      <c r="H44" s="11">
-        <v>0</v>
-      </c>
-      <c r="I44" s="11">
-        <v>25431</v>
-      </c>
-      <c r="J44" s="11">
-        <v>-316.08</v>
-      </c>
-      <c r="K44" s="11">
-        <v>-273</v>
-      </c>
-      <c r="L44" s="9">
-        <v>-1.23</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N44" s="9" t="s">
+      <c r="A44" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="6">
+        <v>300738</v>
+      </c>
+      <c r="C44" s="6">
+        <v>4300</v>
+      </c>
+      <c r="D44" s="6">
+        <v>4300</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>56.01</v>
+      </c>
+      <c r="G44" s="7">
+        <v>57.07</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>240843</v>
+      </c>
+      <c r="J44" s="7">
+        <v>-4558.43</v>
+      </c>
+      <c r="K44" s="7">
+        <v>1677</v>
+      </c>
+      <c r="L44" s="8">
+        <v>-1.86</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="6">
-        <v>601100</v>
-      </c>
-      <c r="C45" s="6">
-        <v>0</v>
-      </c>
-      <c r="D45" s="6">
-        <v>0</v>
-      </c>
-      <c r="E45" s="6">
-        <v>0</v>
-      </c>
-      <c r="F45" s="7">
-        <v>51.03</v>
-      </c>
-      <c r="G45" s="7">
-        <v>0</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7">
-        <v>24421.21</v>
-      </c>
-      <c r="K45" s="7">
-        <v>35.78</v>
-      </c>
-      <c r="L45" s="8">
-        <v>0</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>22</v>
+      <c r="A45" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="10">
+        <v>300674</v>
+      </c>
+      <c r="C45" s="10">
+        <v>8800</v>
+      </c>
+      <c r="D45" s="10">
+        <v>8800</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
+        <v>48.66</v>
+      </c>
+      <c r="G45" s="11">
+        <v>41.59</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11">
+        <v>428208</v>
+      </c>
+      <c r="J45" s="11">
+        <v>62216.06</v>
+      </c>
+      <c r="K45" s="11">
+        <v>38896</v>
+      </c>
+      <c r="L45" s="9">
+        <v>17</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="6">
-        <v>5000</v>
-      </c>
-      <c r="D46" s="6">
-        <v>5000</v>
-      </c>
-      <c r="E46" s="6">
-        <v>0</v>
-      </c>
-      <c r="F46" s="7">
-        <v>63.01</v>
-      </c>
-      <c r="G46" s="7">
-        <v>55.522</v>
-      </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>315050</v>
-      </c>
-      <c r="J46" s="7">
-        <v>37438.56</v>
-      </c>
-      <c r="K46" s="7">
-        <v>-1587.9</v>
-      </c>
-      <c r="L46" s="8">
-        <v>13.49</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N46" s="8" t="s">
+      <c r="A46" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="10">
+        <v>300009</v>
+      </c>
+      <c r="C46" s="10">
+        <v>18100</v>
+      </c>
+      <c r="D46" s="10">
+        <v>18100</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>16.73</v>
+      </c>
+      <c r="G46" s="11">
+        <v>16.632</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11">
+        <v>302813</v>
+      </c>
+      <c r="J46" s="11">
+        <v>1779.86</v>
+      </c>
+      <c r="K46" s="11">
+        <v>1448</v>
+      </c>
+      <c r="L46" s="9">
+        <v>0.59</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="6">
-        <v>601689</v>
-      </c>
-      <c r="C47" s="6">
-        <v>600</v>
-      </c>
-      <c r="D47" s="6">
-        <v>600</v>
-      </c>
-      <c r="E47" s="6">
-        <v>0</v>
-      </c>
-      <c r="F47" s="7">
-        <v>28.3</v>
-      </c>
-      <c r="G47" s="7">
-        <v>27.334</v>
-      </c>
-      <c r="H47" s="7">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7">
-        <v>16980</v>
-      </c>
-      <c r="J47" s="7">
-        <v>579.7</v>
-      </c>
-      <c r="K47" s="7">
-        <v>714</v>
-      </c>
-      <c r="L47" s="8">
-        <v>3.53</v>
-      </c>
-      <c r="M47" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>22</v>
+      <c r="A47" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="10">
+        <v>300572</v>
+      </c>
+      <c r="C47" s="10">
+        <v>0</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
+      <c r="F47" s="11">
+        <v>67.84</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11">
+        <v>22296.56</v>
+      </c>
+      <c r="K47" s="11">
+        <v>-80.71</v>
+      </c>
+      <c r="L47" s="9">
+        <v>0</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="B48" s="6">
+        <v>603713</v>
       </c>
       <c r="C48" s="6">
-        <v>28900</v>
+        <v>3900</v>
       </c>
       <c r="D48" s="6">
-        <v>28900</v>
+        <v>3900</v>
       </c>
       <c r="E48" s="6">
         <v>0</v>
       </c>
       <c r="F48" s="7">
-        <v>12.37</v>
+        <v>96</v>
       </c>
       <c r="G48" s="7">
-        <v>12.302</v>
+        <v>96.555</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>357493</v>
+        <v>374400</v>
       </c>
       <c r="J48" s="7">
-        <v>1969.33</v>
+        <v>-2165.61</v>
       </c>
       <c r="K48" s="7">
-        <v>-867</v>
+        <v>-624</v>
       </c>
       <c r="L48" s="8">
-        <v>0.55</v>
+        <v>-0.57</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="6">
-        <v>603881</v>
-      </c>
-      <c r="C49" s="6">
-        <v>3500</v>
-      </c>
-      <c r="D49" s="6">
-        <v>3500</v>
-      </c>
-      <c r="E49" s="6">
-        <v>0</v>
-      </c>
-      <c r="F49" s="7">
-        <v>100.94</v>
-      </c>
-      <c r="G49" s="7">
-        <v>100.489</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>353290</v>
-      </c>
-      <c r="J49" s="7">
-        <v>1576.78</v>
-      </c>
-      <c r="K49" s="7">
-        <v>2415</v>
-      </c>
-      <c r="L49" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="M49" s="8" t="s">
+      <c r="A49" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="10">
+        <v>603987</v>
+      </c>
+      <c r="C49" s="10">
+        <v>54200</v>
+      </c>
+      <c r="D49" s="10">
+        <v>54200</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11">
+        <v>16.62</v>
+      </c>
+      <c r="G49" s="11">
+        <v>14.285</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
+        <v>900804</v>
+      </c>
+      <c r="J49" s="11">
+        <v>126530.11</v>
+      </c>
+      <c r="K49" s="11">
+        <v>1626</v>
+      </c>
+      <c r="L49" s="9">
+        <v>16.35</v>
+      </c>
+      <c r="M49" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N49" s="8" t="s">
+      <c r="N49" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="10">
-        <v>5100</v>
-      </c>
-      <c r="D50" s="10">
-        <v>5100</v>
-      </c>
-      <c r="E50" s="10">
-        <v>0</v>
-      </c>
-      <c r="F50" s="11">
-        <v>18.3</v>
-      </c>
-      <c r="G50" s="11">
-        <v>18.363</v>
-      </c>
-      <c r="H50" s="11">
-        <v>0</v>
-      </c>
-      <c r="I50" s="11">
-        <v>93330</v>
-      </c>
-      <c r="J50" s="11">
-        <v>-323.23</v>
-      </c>
-      <c r="K50" s="11">
-        <v>-1683</v>
-      </c>
-      <c r="L50" s="9">
-        <v>-0.34</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N50" s="9" t="s">
+      <c r="B50" s="6">
+        <v>300633</v>
+      </c>
+      <c r="C50" s="6">
+        <v>700</v>
+      </c>
+      <c r="D50" s="6">
+        <v>700</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>36.07</v>
+      </c>
+      <c r="G50" s="7">
+        <v>36.782</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>25249</v>
+      </c>
+      <c r="J50" s="7">
+        <v>-498.08</v>
+      </c>
+      <c r="K50" s="7">
+        <v>-182</v>
+      </c>
+      <c r="L50" s="8">
+        <v>-1.94</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2823,97 +2892,97 @@
       <c r="A51" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="10">
-        <v>603078</v>
+      <c r="B51" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="C51" s="10">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="D51" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E51" s="10">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="F51" s="11">
-        <v>43.37</v>
+        <v>64.87</v>
       </c>
       <c r="G51" s="11">
-        <v>43.477</v>
+        <v>-167.928</v>
       </c>
       <c r="H51" s="11">
         <v>0</v>
       </c>
       <c r="I51" s="11">
-        <v>52044</v>
+        <v>12974</v>
       </c>
       <c r="J51" s="11">
-        <v>-128.04</v>
+        <v>46559.61</v>
       </c>
       <c r="K51" s="11">
-        <v>-128.04</v>
+        <v>9108.33</v>
       </c>
       <c r="L51" s="9">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="8" t="s">
+      <c r="A52" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="6">
-        <v>3800</v>
-      </c>
-      <c r="D52" s="6">
-        <v>3800</v>
-      </c>
-      <c r="E52" s="6">
-        <v>0</v>
-      </c>
-      <c r="F52" s="7">
-        <v>110.1</v>
-      </c>
-      <c r="G52" s="7">
-        <v>108.189</v>
-      </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>418380</v>
-      </c>
-      <c r="J52" s="7">
-        <v>7261.68</v>
-      </c>
-      <c r="K52" s="7">
-        <v>9462</v>
-      </c>
-      <c r="L52" s="8">
-        <v>1.77</v>
-      </c>
-      <c r="M52" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N52" s="8" t="s">
+      <c r="B52" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="10">
+        <v>22900</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0</v>
+      </c>
+      <c r="E52" s="10">
+        <v>22900</v>
+      </c>
+      <c r="F52" s="11">
+        <v>9.66</v>
+      </c>
+      <c r="G52" s="11">
+        <v>9.578</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11">
+        <v>221214</v>
+      </c>
+      <c r="J52" s="11">
+        <v>1877.03</v>
+      </c>
+      <c r="K52" s="11">
+        <v>1877.03</v>
+      </c>
+      <c r="L52" s="9">
+        <v>0.86</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="9" t="s">
         <v>94</v>
       </c>
+      <c r="B53" s="10">
+        <v>601689</v>
+      </c>
       <c r="C53" s="10">
         <v>0</v>
       </c>
@@ -2924,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="11">
-        <v>25.53</v>
+        <v>28.93</v>
       </c>
       <c r="G53" s="11">
         <v>0</v>
@@ -2936,459 +3005,459 @@
         <v>0</v>
       </c>
       <c r="J53" s="11">
-        <v>-7165.46</v>
+        <v>896.01</v>
       </c>
       <c r="K53" s="11">
-        <v>-15.77</v>
+        <v>316.31</v>
       </c>
       <c r="L53" s="9">
         <v>0</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="6">
-        <v>603181</v>
-      </c>
-      <c r="C54" s="6">
-        <v>24100</v>
-      </c>
-      <c r="D54" s="6">
-        <v>24100</v>
-      </c>
-      <c r="E54" s="6">
-        <v>0</v>
-      </c>
-      <c r="F54" s="7">
-        <v>21.64</v>
-      </c>
-      <c r="G54" s="7">
-        <v>19.052</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7">
-        <v>521524</v>
-      </c>
-      <c r="J54" s="7">
-        <v>62369.39</v>
-      </c>
-      <c r="K54" s="7">
-        <v>-5302</v>
-      </c>
-      <c r="L54" s="8">
-        <v>13.58</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N54" s="8" t="s">
-        <v>22</v>
+      <c r="B54" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="10">
+        <v>28900</v>
+      </c>
+      <c r="D54" s="10">
+        <v>28900</v>
+      </c>
+      <c r="E54" s="10">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>12.95</v>
+      </c>
+      <c r="G54" s="11">
+        <v>12.302</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>374255</v>
+      </c>
+      <c r="J54" s="11">
+        <v>18731.33</v>
+      </c>
+      <c r="K54" s="11">
+        <v>16762</v>
+      </c>
+      <c r="L54" s="9">
+        <v>5.27</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B55" s="8" t="s">
         <v>97</v>
       </c>
+      <c r="B55" s="6">
+        <v>603881</v>
+      </c>
       <c r="C55" s="6">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="D55" s="6">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
       </c>
       <c r="F55" s="7">
-        <v>37.16</v>
+        <v>100.74</v>
       </c>
       <c r="G55" s="7">
-        <v>35.911</v>
+        <v>0</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>137492</v>
+        <v>0</v>
       </c>
       <c r="J55" s="7">
-        <v>4620.36</v>
+        <v>-638.26</v>
       </c>
       <c r="K55" s="7">
-        <v>-888</v>
+        <v>-2215.04</v>
       </c>
       <c r="L55" s="8">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="13">
-        <v>3123000</v>
-      </c>
-      <c r="D56" s="13">
-        <v>3123000</v>
-      </c>
-      <c r="E56" s="13">
-        <v>0</v>
-      </c>
-      <c r="F56" s="14">
-        <v>0</v>
-      </c>
-      <c r="G56" s="14">
-        <v>0</v>
-      </c>
-      <c r="H56" s="14">
-        <v>0</v>
-      </c>
-      <c r="I56" s="14">
-        <v>0</v>
-      </c>
-      <c r="J56" s="14">
-        <v>0</v>
-      </c>
-      <c r="K56" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L56" s="12">
-        <v>0</v>
-      </c>
-      <c r="M56" s="12" t="s">
+      <c r="C56" s="6">
+        <v>38600</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>38600</v>
+      </c>
+      <c r="F56" s="7">
+        <v>7.67</v>
+      </c>
+      <c r="G56" s="7">
+        <v>7.679</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>296062</v>
+      </c>
+      <c r="J56" s="7">
+        <v>-336.81</v>
+      </c>
+      <c r="K56" s="7">
+        <v>-336.81</v>
+      </c>
+      <c r="L56" s="8">
+        <v>-0.12</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="10">
+        <v>0</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+      <c r="E57" s="10">
+        <v>0</v>
+      </c>
+      <c r="F57" s="11">
+        <v>18.99</v>
+      </c>
+      <c r="G57" s="11">
+        <v>0</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0</v>
+      </c>
+      <c r="I57" s="11">
+        <v>0</v>
+      </c>
+      <c r="J57" s="11">
+        <v>2360.61</v>
+      </c>
+      <c r="K57" s="11">
+        <v>2683.84</v>
+      </c>
+      <c r="L57" s="9">
+        <v>0</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="10">
+        <v>600037</v>
+      </c>
+      <c r="C58" s="10">
+        <v>26200</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0</v>
+      </c>
+      <c r="E58" s="10">
+        <v>26200</v>
+      </c>
+      <c r="F58" s="11">
+        <v>14.99</v>
+      </c>
+      <c r="G58" s="11">
+        <v>14.974</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0</v>
+      </c>
+      <c r="I58" s="11">
+        <v>392738</v>
+      </c>
+      <c r="J58" s="11">
+        <v>417.18</v>
+      </c>
+      <c r="K58" s="11">
+        <v>417.18</v>
+      </c>
+      <c r="L58" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="M58" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N56" s="12" t="s">
+      <c r="N58" s="9" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" s="6">
-        <v>300662</v>
-      </c>
-      <c r="C57" s="6">
-        <v>0</v>
-      </c>
-      <c r="D57" s="6">
-        <v>0</v>
-      </c>
-      <c r="E57" s="6">
-        <v>0</v>
-      </c>
-      <c r="F57" s="7">
-        <v>46.62</v>
-      </c>
-      <c r="G57" s="7">
-        <v>0</v>
-      </c>
-      <c r="H57" s="7">
-        <v>0</v>
-      </c>
-      <c r="I57" s="7">
-        <v>0</v>
-      </c>
-      <c r="J57" s="7">
-        <v>8262.09</v>
-      </c>
-      <c r="K57" s="7">
-        <v>12665.25</v>
-      </c>
-      <c r="L57" s="8">
-        <v>0</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="6">
-        <v>300709</v>
-      </c>
-      <c r="C58" s="6">
-        <v>430</v>
-      </c>
-      <c r="D58" s="6">
-        <v>430</v>
-      </c>
-      <c r="E58" s="6">
-        <v>0</v>
-      </c>
-      <c r="F58" s="7">
-        <v>97.2</v>
-      </c>
-      <c r="G58" s="7">
-        <v>-40.749</v>
-      </c>
-      <c r="H58" s="7">
-        <v>0</v>
-      </c>
-      <c r="I58" s="7">
-        <v>41796</v>
-      </c>
-      <c r="J58" s="7">
-        <v>59318.26</v>
-      </c>
-      <c r="K58" s="7">
-        <v>1354.5</v>
-      </c>
-      <c r="L58" s="8">
-        <v>0</v>
-      </c>
-      <c r="M58" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N58" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" s="9" t="s">
         <v>103</v>
       </c>
+      <c r="B59" s="10">
+        <v>603078</v>
+      </c>
       <c r="C59" s="10">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="D59" s="10">
         <v>0</v>
       </c>
       <c r="E59" s="10">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="F59" s="11">
-        <v>96.83</v>
+        <v>45.9</v>
       </c>
       <c r="G59" s="11">
-        <v>96.843</v>
+        <v>0</v>
       </c>
       <c r="H59" s="11">
         <v>0</v>
       </c>
       <c r="I59" s="11">
-        <v>416369</v>
+        <v>0</v>
       </c>
       <c r="J59" s="11">
-        <v>-56.48</v>
+        <v>2900.46</v>
       </c>
       <c r="K59" s="11">
-        <v>-56.48</v>
+        <v>3019.75</v>
       </c>
       <c r="L59" s="9">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C60" s="6">
-        <v>52221</v>
-      </c>
-      <c r="D60" s="6">
-        <v>52221</v>
-      </c>
-      <c r="E60" s="6">
-        <v>0</v>
-      </c>
-      <c r="F60" s="7">
-        <v>12.66</v>
-      </c>
-      <c r="G60" s="7">
-        <v>9.731</v>
-      </c>
-      <c r="H60" s="7">
-        <v>0</v>
-      </c>
-      <c r="I60" s="7">
-        <v>661117.86</v>
-      </c>
-      <c r="J60" s="7">
-        <v>152979.18</v>
-      </c>
-      <c r="K60" s="7">
-        <v>-15144.09</v>
-      </c>
-      <c r="L60" s="8">
-        <v>30.1</v>
-      </c>
-      <c r="M60" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N60" s="8" t="s">
+      <c r="C60" s="10">
+        <v>0</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0</v>
+      </c>
+      <c r="E60" s="10">
+        <v>0</v>
+      </c>
+      <c r="F60" s="11">
+        <v>111.47</v>
+      </c>
+      <c r="G60" s="11">
+        <v>0</v>
+      </c>
+      <c r="H60" s="11">
+        <v>0</v>
+      </c>
+      <c r="I60" s="11">
+        <v>0</v>
+      </c>
+      <c r="J60" s="11">
+        <v>11412.93</v>
+      </c>
+      <c r="K60" s="11">
+        <v>4151.25</v>
+      </c>
+      <c r="L60" s="9">
+        <v>0</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N60" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="6">
-        <v>300677</v>
-      </c>
-      <c r="C61" s="6">
-        <v>3300</v>
-      </c>
-      <c r="D61" s="6">
-        <v>3300</v>
-      </c>
-      <c r="E61" s="6">
-        <v>0</v>
-      </c>
-      <c r="F61" s="7">
-        <v>134</v>
-      </c>
-      <c r="G61" s="7">
-        <v>115.627</v>
-      </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7">
-        <v>442200</v>
-      </c>
-      <c r="J61" s="7">
-        <v>60632.2</v>
-      </c>
-      <c r="K61" s="7">
-        <v>33000</v>
-      </c>
-      <c r="L61" s="8">
-        <v>15.89</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N61" s="8" t="s">
+      <c r="B61" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="10">
+        <v>1100</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0</v>
+      </c>
+      <c r="E61" s="10">
+        <v>1100</v>
+      </c>
+      <c r="F61" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="G61" s="11">
+        <v>9.989</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11">
+        <v>10989</v>
+      </c>
+      <c r="J61" s="11">
+        <v>1</v>
+      </c>
+      <c r="K61" s="11">
+        <v>1</v>
+      </c>
+      <c r="L61" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B62" s="6">
-        <v>300725</v>
+        <v>603823</v>
       </c>
       <c r="C62" s="6">
-        <v>1100</v>
+        <v>12400</v>
       </c>
       <c r="D62" s="6">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="6">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="F62" s="7">
-        <v>124.88</v>
+        <v>17.86</v>
       </c>
       <c r="G62" s="7">
-        <v>118.173</v>
+        <v>17.865</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
       </c>
       <c r="I62" s="7">
-        <v>137368</v>
+        <v>221464</v>
       </c>
       <c r="J62" s="7">
-        <v>7377.4</v>
+        <v>-59.87</v>
       </c>
       <c r="K62" s="7">
-        <v>7898</v>
+        <v>-59.87</v>
       </c>
       <c r="L62" s="8">
-        <v>5.68</v>
+        <v>-0.03</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B63" s="9" t="s">
         <v>109</v>
       </c>
+      <c r="B63" s="10">
+        <v>603181</v>
+      </c>
       <c r="C63" s="10">
-        <v>10300</v>
+        <v>24100</v>
       </c>
       <c r="D63" s="10">
-        <v>10300</v>
+        <v>24100</v>
       </c>
       <c r="E63" s="10">
         <v>0</v>
       </c>
       <c r="F63" s="11">
-        <v>29.8</v>
+        <v>21.85</v>
       </c>
       <c r="G63" s="11">
-        <v>29.996</v>
+        <v>19.052</v>
       </c>
       <c r="H63" s="11">
         <v>0</v>
       </c>
       <c r="I63" s="11">
-        <v>306940</v>
+        <v>526585</v>
       </c>
       <c r="J63" s="11">
-        <v>-2016.07</v>
+        <v>67430.39</v>
       </c>
       <c r="K63" s="11">
-        <v>6077</v>
+        <v>5061</v>
       </c>
       <c r="L63" s="9">
-        <v>-0.65</v>
+        <v>14.69</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N63" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3399,34 +3468,34 @@
         <v>111</v>
       </c>
       <c r="C64" s="10">
-        <v>6500</v>
+        <v>3700</v>
       </c>
       <c r="D64" s="10">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="E64" s="10">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="F64" s="11">
-        <v>6.31</v>
+        <v>39.7</v>
       </c>
       <c r="G64" s="11">
-        <v>6.33</v>
+        <v>35.911</v>
       </c>
       <c r="H64" s="11">
         <v>0</v>
       </c>
       <c r="I64" s="11">
-        <v>41015</v>
+        <v>146890</v>
       </c>
       <c r="J64" s="11">
-        <v>-129</v>
+        <v>14018.36</v>
       </c>
       <c r="K64" s="11">
-        <v>-129</v>
+        <v>9398</v>
       </c>
       <c r="L64" s="9">
-        <v>-0.32</v>
+        <v>10.55</v>
       </c>
       <c r="M64" s="9" t="s">
         <v>25</v>
@@ -3436,437 +3505,437 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B65" s="6">
-        <v>300558</v>
-      </c>
-      <c r="C65" s="6">
-        <v>2200</v>
-      </c>
-      <c r="D65" s="6">
-        <v>2200</v>
-      </c>
-      <c r="E65" s="6">
-        <v>0</v>
-      </c>
-      <c r="F65" s="7">
-        <v>139.62</v>
-      </c>
-      <c r="G65" s="7">
-        <v>134.907</v>
-      </c>
-      <c r="H65" s="7">
-        <v>0</v>
-      </c>
-      <c r="I65" s="7">
-        <v>307164</v>
-      </c>
-      <c r="J65" s="7">
-        <v>10368.23</v>
-      </c>
-      <c r="K65" s="7">
-        <v>10384</v>
-      </c>
-      <c r="L65" s="8">
-        <v>3.49</v>
-      </c>
-      <c r="M65" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N65" s="8" t="s">
+      <c r="B65" s="13">
+        <v>300322</v>
+      </c>
+      <c r="C65" s="13">
+        <v>200</v>
+      </c>
+      <c r="D65" s="13">
+        <v>0</v>
+      </c>
+      <c r="E65" s="13">
+        <v>200</v>
+      </c>
+      <c r="F65" s="14">
+        <v>18.24</v>
+      </c>
+      <c r="G65" s="14">
+        <v>18.24</v>
+      </c>
+      <c r="H65" s="14">
+        <v>0</v>
+      </c>
+      <c r="I65" s="14">
+        <v>3648</v>
+      </c>
+      <c r="J65" s="14">
+        <v>0</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L65" s="12">
+        <v>0</v>
+      </c>
+      <c r="M65" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B66" s="10">
-        <v>300457</v>
-      </c>
-      <c r="C66" s="10">
-        <v>12000</v>
-      </c>
-      <c r="D66" s="10">
-        <v>12000</v>
-      </c>
-      <c r="E66" s="10">
-        <v>0</v>
-      </c>
-      <c r="F66" s="11">
-        <v>31.81</v>
-      </c>
-      <c r="G66" s="11">
-        <v>31.938</v>
-      </c>
-      <c r="H66" s="11">
-        <v>0</v>
-      </c>
-      <c r="I66" s="11">
-        <v>381720</v>
-      </c>
-      <c r="J66" s="11">
-        <v>-1532.46</v>
-      </c>
-      <c r="K66" s="11">
-        <v>-1560</v>
-      </c>
-      <c r="L66" s="9">
-        <v>-0.4</v>
-      </c>
-      <c r="M66" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N66" s="9" t="s">
+      <c r="B66" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="6">
+        <v>77800</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6">
+        <v>77800</v>
+      </c>
+      <c r="F66" s="7">
+        <v>4.58</v>
+      </c>
+      <c r="G66" s="7">
+        <v>4.591</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="7">
+        <v>356324</v>
+      </c>
+      <c r="J66" s="7">
+        <v>-820.86</v>
+      </c>
+      <c r="K66" s="7">
+        <v>-820.86</v>
+      </c>
+      <c r="L66" s="8">
+        <v>-0.24</v>
+      </c>
+      <c r="M66" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67" s="10">
-        <v>600988</v>
-      </c>
-      <c r="C67" s="10">
-        <v>31500</v>
-      </c>
-      <c r="D67" s="10">
-        <v>31500</v>
-      </c>
-      <c r="E67" s="10">
-        <v>0</v>
-      </c>
-      <c r="F67" s="11">
-        <v>11.58</v>
-      </c>
-      <c r="G67" s="11">
-        <v>11.899</v>
-      </c>
-      <c r="H67" s="11">
-        <v>0</v>
-      </c>
-      <c r="I67" s="11">
-        <v>364770</v>
-      </c>
-      <c r="J67" s="11">
-        <v>-10037.46</v>
-      </c>
-      <c r="K67" s="11">
-        <v>-630</v>
-      </c>
-      <c r="L67" s="9">
-        <v>-2.68</v>
-      </c>
-      <c r="M67" s="9" t="s">
+      <c r="A67" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="13">
+        <v>3181500</v>
+      </c>
+      <c r="D67" s="13">
+        <v>3181500</v>
+      </c>
+      <c r="E67" s="13">
+        <v>0</v>
+      </c>
+      <c r="F67" s="14">
+        <v>0</v>
+      </c>
+      <c r="G67" s="14">
+        <v>0</v>
+      </c>
+      <c r="H67" s="14">
+        <v>0</v>
+      </c>
+      <c r="I67" s="14">
+        <v>0</v>
+      </c>
+      <c r="J67" s="14">
+        <v>0</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" s="12">
+        <v>0</v>
+      </c>
+      <c r="M67" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N67" s="9" t="s">
+      <c r="N67" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="B68" s="6">
+        <v>603626</v>
       </c>
       <c r="C68" s="6">
-        <v>14400</v>
+        <v>29500</v>
       </c>
       <c r="D68" s="6">
-        <v>14300</v>
+        <v>0</v>
       </c>
       <c r="E68" s="6">
-        <v>100</v>
+        <v>29500</v>
       </c>
       <c r="F68" s="7">
-        <v>27.69</v>
+        <v>12.35</v>
       </c>
       <c r="G68" s="7">
-        <v>26.186</v>
+        <v>12.465</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
       </c>
       <c r="I68" s="7">
-        <v>398736</v>
+        <v>364325</v>
       </c>
       <c r="J68" s="7">
-        <v>21657.49</v>
+        <v>-3396.02</v>
       </c>
       <c r="K68" s="7">
-        <v>17697</v>
+        <v>-3396.02</v>
       </c>
       <c r="L68" s="8">
-        <v>5.74</v>
+        <v>-0.92</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B69" s="6">
-        <v>300244</v>
-      </c>
-      <c r="C69" s="6">
-        <v>200</v>
-      </c>
-      <c r="D69" s="6">
-        <v>200</v>
-      </c>
-      <c r="E69" s="6">
-        <v>0</v>
-      </c>
-      <c r="F69" s="7">
-        <v>34.2</v>
-      </c>
-      <c r="G69" s="7">
-        <v>33.974</v>
-      </c>
-      <c r="H69" s="7">
-        <v>0</v>
-      </c>
-      <c r="I69" s="7">
-        <v>6840</v>
-      </c>
-      <c r="J69" s="7">
-        <v>45.18</v>
-      </c>
-      <c r="K69" s="7">
-        <v>100</v>
-      </c>
-      <c r="L69" s="8">
-        <v>0.67</v>
-      </c>
-      <c r="M69" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N69" s="8" t="s">
+      <c r="A69" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="10">
+        <v>300099</v>
+      </c>
+      <c r="C69" s="10">
+        <v>3800</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0</v>
+      </c>
+      <c r="E69" s="10">
+        <v>3800</v>
+      </c>
+      <c r="F69" s="11">
+        <v>5.94</v>
+      </c>
+      <c r="G69" s="11">
+        <v>5.933</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0</v>
+      </c>
+      <c r="I69" s="11">
+        <v>22572</v>
+      </c>
+      <c r="J69" s="11">
+        <v>28</v>
+      </c>
+      <c r="K69" s="11">
+        <v>28</v>
+      </c>
+      <c r="L69" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B70" s="10">
-        <v>600867</v>
+        <v>300709</v>
       </c>
       <c r="C70" s="10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D70" s="10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E70" s="10">
         <v>0</v>
       </c>
       <c r="F70" s="11">
-        <v>16.62</v>
+        <v>100.45</v>
       </c>
       <c r="G70" s="11">
-        <v>0</v>
+        <v>-1910.78</v>
       </c>
       <c r="H70" s="11">
         <v>0</v>
       </c>
       <c r="I70" s="11">
-        <v>0</v>
+        <v>3013.5</v>
       </c>
       <c r="J70" s="11">
-        <v>-5988.84</v>
+        <v>60336.9</v>
       </c>
       <c r="K70" s="11">
-        <v>-2835.1</v>
+        <v>1018.64</v>
       </c>
       <c r="L70" s="9">
         <v>0</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B71" s="6">
-        <v>600438</v>
-      </c>
-      <c r="C71" s="6">
-        <v>21500</v>
-      </c>
-      <c r="D71" s="6">
-        <v>21500</v>
-      </c>
-      <c r="E71" s="6">
-        <v>0</v>
-      </c>
-      <c r="F71" s="7">
-        <v>19.01</v>
-      </c>
-      <c r="G71" s="7">
-        <v>17.418</v>
-      </c>
-      <c r="H71" s="7">
-        <v>0</v>
-      </c>
-      <c r="I71" s="7">
-        <v>408715</v>
-      </c>
-      <c r="J71" s="7">
-        <v>34219.57</v>
-      </c>
-      <c r="K71" s="7">
-        <v>-645</v>
-      </c>
-      <c r="L71" s="8">
-        <v>9.14</v>
-      </c>
-      <c r="M71" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N71" s="8" t="s">
-        <v>22</v>
+      <c r="A71" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="10">
+        <v>4300</v>
+      </c>
+      <c r="D71" s="10">
+        <v>4300</v>
+      </c>
+      <c r="E71" s="10">
+        <v>0</v>
+      </c>
+      <c r="F71" s="11">
+        <v>106.51</v>
+      </c>
+      <c r="G71" s="11">
+        <v>96.842</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0</v>
+      </c>
+      <c r="I71" s="11">
+        <v>457993</v>
+      </c>
+      <c r="J71" s="11">
+        <v>41574.04</v>
+      </c>
+      <c r="K71" s="11">
+        <v>41624</v>
+      </c>
+      <c r="L71" s="9">
+        <v>9.98</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C72" s="10">
-        <v>4700</v>
-      </c>
-      <c r="D72" s="10">
-        <v>0</v>
-      </c>
-      <c r="E72" s="10">
-        <v>4700</v>
-      </c>
-      <c r="F72" s="11">
-        <v>73.95</v>
-      </c>
-      <c r="G72" s="11">
-        <v>74.119</v>
-      </c>
-      <c r="H72" s="11">
-        <v>0</v>
-      </c>
-      <c r="I72" s="11">
-        <v>347565</v>
-      </c>
-      <c r="J72" s="11">
-        <v>-792.79</v>
-      </c>
-      <c r="K72" s="11">
-        <v>-792.79</v>
-      </c>
-      <c r="L72" s="9">
-        <v>-0.23</v>
-      </c>
-      <c r="M72" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N72" s="9" t="s">
+      <c r="A72" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="6">
+        <v>7700</v>
+      </c>
+      <c r="D72" s="6">
+        <v>0</v>
+      </c>
+      <c r="E72" s="6">
+        <v>7700</v>
+      </c>
+      <c r="F72" s="7">
+        <v>6.91</v>
+      </c>
+      <c r="G72" s="7">
+        <v>6.915</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="I72" s="7">
+        <v>53207</v>
+      </c>
+      <c r="J72" s="7">
+        <v>-35</v>
+      </c>
+      <c r="K72" s="7">
+        <v>-35</v>
+      </c>
+      <c r="L72" s="8">
+        <v>-0.07</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N72" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B73" s="6">
-        <v>300233</v>
-      </c>
-      <c r="C73" s="6">
-        <v>6200</v>
-      </c>
-      <c r="D73" s="6">
-        <v>6200</v>
-      </c>
-      <c r="E73" s="6">
-        <v>0</v>
-      </c>
-      <c r="F73" s="7">
-        <v>34.29</v>
-      </c>
-      <c r="G73" s="7">
-        <v>32.516</v>
-      </c>
-      <c r="H73" s="7">
-        <v>0</v>
-      </c>
-      <c r="I73" s="7">
-        <v>212598</v>
-      </c>
-      <c r="J73" s="7">
-        <v>11000.84</v>
-      </c>
-      <c r="K73" s="7">
-        <v>14508</v>
-      </c>
-      <c r="L73" s="8">
-        <v>5.46</v>
-      </c>
-      <c r="M73" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N73" s="8" t="s">
+      <c r="A73" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="10">
+        <v>52221</v>
+      </c>
+      <c r="D73" s="10">
+        <v>52221</v>
+      </c>
+      <c r="E73" s="10">
+        <v>0</v>
+      </c>
+      <c r="F73" s="11">
+        <v>13.53</v>
+      </c>
+      <c r="G73" s="11">
+        <v>9.731</v>
+      </c>
+      <c r="H73" s="11">
+        <v>0</v>
+      </c>
+      <c r="I73" s="11">
+        <v>706550.13</v>
+      </c>
+      <c r="J73" s="11">
+        <v>198411.45</v>
+      </c>
+      <c r="K73" s="11">
+        <v>45432.27</v>
+      </c>
+      <c r="L73" s="9">
+        <v>39.04</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N73" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B74" s="10">
-        <v>300132</v>
+        <v>300677</v>
       </c>
       <c r="C74" s="10">
-        <v>13700</v>
+        <v>3300</v>
       </c>
       <c r="D74" s="10">
-        <v>13700</v>
+        <v>3300</v>
       </c>
       <c r="E74" s="10">
         <v>0</v>
       </c>
       <c r="F74" s="11">
-        <v>22</v>
+        <v>130.19</v>
       </c>
       <c r="G74" s="11">
-        <v>22.537</v>
+        <v>115.627</v>
       </c>
       <c r="H74" s="11">
         <v>0</v>
       </c>
       <c r="I74" s="11">
-        <v>301400</v>
+        <v>429627</v>
       </c>
       <c r="J74" s="11">
-        <v>-7355</v>
+        <v>48059.2</v>
       </c>
       <c r="K74" s="11">
-        <v>-3562</v>
+        <v>-12573</v>
       </c>
       <c r="L74" s="9">
-        <v>-2.38</v>
+        <v>12.59</v>
       </c>
       <c r="M74" s="9" t="s">
         <v>25</v>
@@ -3877,40 +3946,40 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
+      </c>
+      <c r="B75" s="10">
+        <v>300725</v>
       </c>
       <c r="C75" s="10">
-        <v>36300</v>
+        <v>0</v>
       </c>
       <c r="D75" s="10">
-        <v>36300</v>
+        <v>0</v>
       </c>
       <c r="E75" s="10">
         <v>0</v>
       </c>
       <c r="F75" s="11">
-        <v>11.03</v>
+        <v>120.4</v>
       </c>
       <c r="G75" s="11">
-        <v>11.079</v>
+        <v>0</v>
       </c>
       <c r="H75" s="11">
         <v>0</v>
       </c>
       <c r="I75" s="11">
-        <v>400389</v>
+        <v>0</v>
       </c>
       <c r="J75" s="11">
-        <v>-1782.24</v>
+        <v>2238.98</v>
       </c>
       <c r="K75" s="11">
-        <v>-4719</v>
+        <v>-5138.42</v>
       </c>
       <c r="L75" s="9">
-        <v>-0.44</v>
+        <v>0</v>
       </c>
       <c r="M75" s="9" t="s">
         <v>25</v>
@@ -3921,40 +3990,40 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C76" s="6">
-        <v>12600</v>
+        <v>10300</v>
       </c>
       <c r="D76" s="6">
-        <v>12600</v>
+        <v>10300</v>
       </c>
       <c r="E76" s="6">
         <v>0</v>
       </c>
       <c r="F76" s="7">
-        <v>29.7</v>
+        <v>29.92</v>
       </c>
       <c r="G76" s="7">
-        <v>29.116</v>
+        <v>29.996</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
       </c>
       <c r="I76" s="7">
-        <v>374220</v>
+        <v>308176</v>
       </c>
       <c r="J76" s="7">
-        <v>7358.98</v>
+        <v>-780.07</v>
       </c>
       <c r="K76" s="7">
-        <v>-2142</v>
+        <v>1236</v>
       </c>
       <c r="L76" s="8">
-        <v>2.01</v>
+        <v>-0.25</v>
       </c>
       <c r="M76" s="8" t="s">
         <v>25</v>
@@ -3965,40 +4034,40 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B77" s="10">
-        <v>300423</v>
+        <v>130</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="C77" s="10">
-        <v>7700</v>
+        <v>6500</v>
       </c>
       <c r="D77" s="10">
-        <v>7700</v>
+        <v>6500</v>
       </c>
       <c r="E77" s="10">
         <v>0</v>
       </c>
       <c r="F77" s="11">
-        <v>12.58</v>
+        <v>6.4</v>
       </c>
       <c r="G77" s="11">
-        <v>13.647</v>
+        <v>6.328</v>
       </c>
       <c r="H77" s="11">
         <v>0</v>
       </c>
       <c r="I77" s="11">
-        <v>96866</v>
+        <v>41600</v>
       </c>
       <c r="J77" s="11">
-        <v>-8218.49</v>
+        <v>471.07</v>
       </c>
       <c r="K77" s="11">
-        <v>154</v>
+        <v>585</v>
       </c>
       <c r="L77" s="9">
-        <v>-7.82</v>
+        <v>1.14</v>
       </c>
       <c r="M77" s="9" t="s">
         <v>25</v>
@@ -4009,40 +4078,40 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="B78" s="6">
+        <v>300558</v>
       </c>
       <c r="C78" s="6">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="D78" s="6">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="E78" s="6">
         <v>0</v>
       </c>
       <c r="F78" s="7">
-        <v>30.93</v>
+        <v>135.89</v>
       </c>
       <c r="G78" s="7">
-        <v>30.513</v>
+        <v>0</v>
       </c>
       <c r="H78" s="7">
         <v>0</v>
       </c>
       <c r="I78" s="7">
-        <v>386625</v>
+        <v>0</v>
       </c>
       <c r="J78" s="7">
-        <v>5210.71</v>
+        <v>-901.06</v>
       </c>
       <c r="K78" s="7">
-        <v>6250</v>
+        <v>-11269.29</v>
       </c>
       <c r="L78" s="8">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="M78" s="8" t="s">
         <v>25</v>
@@ -4052,90 +4121,706 @@
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B79" s="6">
-        <v>300438</v>
-      </c>
-      <c r="C79" s="6">
-        <v>15400</v>
-      </c>
-      <c r="D79" s="6">
-        <v>15400</v>
-      </c>
-      <c r="E79" s="6">
-        <v>0</v>
-      </c>
-      <c r="F79" s="7">
-        <v>17.81</v>
-      </c>
-      <c r="G79" s="7">
-        <v>15.969</v>
-      </c>
-      <c r="H79" s="7">
-        <v>0</v>
-      </c>
-      <c r="I79" s="7">
-        <v>274274</v>
-      </c>
-      <c r="J79" s="7">
-        <v>28356.5</v>
-      </c>
-      <c r="K79" s="7">
-        <v>3542</v>
-      </c>
-      <c r="L79" s="8">
-        <v>11.53</v>
-      </c>
-      <c r="M79" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N79" s="8" t="s">
+      <c r="A79" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="10">
+        <v>300457</v>
+      </c>
+      <c r="C79" s="10">
+        <v>12000</v>
+      </c>
+      <c r="D79" s="10">
+        <v>12000</v>
+      </c>
+      <c r="E79" s="10">
+        <v>0</v>
+      </c>
+      <c r="F79" s="11">
+        <v>34.08</v>
+      </c>
+      <c r="G79" s="11">
+        <v>31.938</v>
+      </c>
+      <c r="H79" s="11">
+        <v>0</v>
+      </c>
+      <c r="I79" s="11">
+        <v>408960</v>
+      </c>
+      <c r="J79" s="11">
+        <v>25707.54</v>
+      </c>
+      <c r="K79" s="11">
+        <v>27240</v>
+      </c>
+      <c r="L79" s="9">
+        <v>6.71</v>
+      </c>
+      <c r="M79" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N79" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B80" s="6">
-        <v>300054</v>
+        <v>600988</v>
       </c>
       <c r="C80" s="6">
-        <v>0</v>
+        <v>31500</v>
       </c>
       <c r="D80" s="6">
-        <v>0</v>
+        <v>31500</v>
       </c>
       <c r="E80" s="6">
         <v>0</v>
       </c>
       <c r="F80" s="7">
-        <v>16.03</v>
+        <v>11.75</v>
       </c>
       <c r="G80" s="7">
-        <v>0</v>
+        <v>11.899</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
       </c>
       <c r="I80" s="7">
-        <v>0</v>
+        <v>370125</v>
       </c>
       <c r="J80" s="7">
-        <v>31967.03</v>
+        <v>-4682.46</v>
       </c>
       <c r="K80" s="7">
-        <v>-16431.97</v>
+        <v>5355</v>
       </c>
       <c r="L80" s="8">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N80" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="10">
+        <v>14400</v>
+      </c>
+      <c r="D81" s="10">
+        <v>14400</v>
+      </c>
+      <c r="E81" s="10">
+        <v>0</v>
+      </c>
+      <c r="F81" s="11">
+        <v>28.03</v>
+      </c>
+      <c r="G81" s="11">
+        <v>26.186</v>
+      </c>
+      <c r="H81" s="11">
+        <v>0</v>
+      </c>
+      <c r="I81" s="11">
+        <v>403632</v>
+      </c>
+      <c r="J81" s="11">
+        <v>26558.15</v>
+      </c>
+      <c r="K81" s="11">
+        <v>4896</v>
+      </c>
+      <c r="L81" s="9">
+        <v>7.04</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="10">
+        <v>300244</v>
+      </c>
+      <c r="C82" s="10">
+        <v>5200</v>
+      </c>
+      <c r="D82" s="10">
+        <v>200</v>
+      </c>
+      <c r="E82" s="10">
+        <v>5000</v>
+      </c>
+      <c r="F82" s="11">
+        <v>33.64</v>
+      </c>
+      <c r="G82" s="11">
+        <v>33.548</v>
+      </c>
+      <c r="H82" s="11">
+        <v>0</v>
+      </c>
+      <c r="I82" s="11">
+        <v>174928</v>
+      </c>
+      <c r="J82" s="11">
+        <v>477.35</v>
+      </c>
+      <c r="K82" s="11">
+        <v>432.17</v>
+      </c>
+      <c r="L82" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" s="10">
+        <v>600438</v>
+      </c>
+      <c r="C83" s="10">
+        <v>0</v>
+      </c>
+      <c r="D83" s="10">
+        <v>0</v>
+      </c>
+      <c r="E83" s="10">
+        <v>0</v>
+      </c>
+      <c r="F83" s="11">
+        <v>19.6</v>
+      </c>
+      <c r="G83" s="11">
+        <v>0</v>
+      </c>
+      <c r="H83" s="11">
+        <v>0</v>
+      </c>
+      <c r="I83" s="11">
+        <v>0</v>
+      </c>
+      <c r="J83" s="11">
+        <v>48371.21</v>
+      </c>
+      <c r="K83" s="11">
+        <v>14151.64</v>
+      </c>
+      <c r="L83" s="9">
+        <v>0</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84" s="10">
+        <v>0</v>
+      </c>
+      <c r="D84" s="10">
+        <v>0</v>
+      </c>
+      <c r="E84" s="10">
+        <v>0</v>
+      </c>
+      <c r="F84" s="11">
+        <v>75.86</v>
+      </c>
+      <c r="G84" s="11">
+        <v>0</v>
+      </c>
+      <c r="H84" s="11">
+        <v>0</v>
+      </c>
+      <c r="I84" s="11">
+        <v>0</v>
+      </c>
+      <c r="J84" s="11">
+        <v>8644.5</v>
+      </c>
+      <c r="K84" s="11">
+        <v>9420.29</v>
+      </c>
+      <c r="L84" s="9">
+        <v>0</v>
+      </c>
+      <c r="M84" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" s="10">
+        <v>300233</v>
+      </c>
+      <c r="C85" s="10">
+        <v>0</v>
+      </c>
+      <c r="D85" s="10">
+        <v>0</v>
+      </c>
+      <c r="E85" s="10">
+        <v>0</v>
+      </c>
+      <c r="F85" s="11">
+        <v>36.31</v>
+      </c>
+      <c r="G85" s="11">
+        <v>0</v>
+      </c>
+      <c r="H85" s="11">
+        <v>0</v>
+      </c>
+      <c r="I85" s="11">
+        <v>0</v>
+      </c>
+      <c r="J85" s="11">
+        <v>23437.95</v>
+      </c>
+      <c r="K85" s="11">
+        <v>12437.11</v>
+      </c>
+      <c r="L85" s="9">
+        <v>0</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86" s="6">
+        <v>600650</v>
+      </c>
+      <c r="C86" s="6">
+        <v>1100</v>
+      </c>
+      <c r="D86" s="6">
+        <v>0</v>
+      </c>
+      <c r="E86" s="6">
+        <v>1100</v>
+      </c>
+      <c r="F86" s="7">
+        <v>10.15</v>
+      </c>
+      <c r="G86" s="7">
+        <v>10.171</v>
+      </c>
+      <c r="H86" s="7">
+        <v>0</v>
+      </c>
+      <c r="I86" s="7">
+        <v>11165</v>
+      </c>
+      <c r="J86" s="7">
+        <v>-22.76</v>
+      </c>
+      <c r="K86" s="7">
+        <v>-22.76</v>
+      </c>
+      <c r="L86" s="8">
+        <v>-0.21</v>
+      </c>
+      <c r="M86" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N86" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" s="6">
+        <v>35700</v>
+      </c>
+      <c r="D87" s="6">
+        <v>0</v>
+      </c>
+      <c r="E87" s="6">
+        <v>35700</v>
+      </c>
+      <c r="F87" s="7">
+        <v>5.42</v>
+      </c>
+      <c r="G87" s="7">
+        <v>5.423</v>
+      </c>
+      <c r="H87" s="7">
+        <v>0</v>
+      </c>
+      <c r="I87" s="7">
+        <v>193494</v>
+      </c>
+      <c r="J87" s="7">
+        <v>-124.47</v>
+      </c>
+      <c r="K87" s="7">
+        <v>-124.47</v>
+      </c>
+      <c r="L87" s="8">
+        <v>-0.06</v>
+      </c>
+      <c r="M87" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N87" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" s="6">
+        <v>300132</v>
+      </c>
+      <c r="C88" s="6">
+        <v>13700</v>
+      </c>
+      <c r="D88" s="6">
+        <v>13700</v>
+      </c>
+      <c r="E88" s="6">
+        <v>0</v>
+      </c>
+      <c r="F88" s="7">
+        <v>22.3</v>
+      </c>
+      <c r="G88" s="7">
+        <v>22.537</v>
+      </c>
+      <c r="H88" s="7">
+        <v>0</v>
+      </c>
+      <c r="I88" s="7">
+        <v>305510</v>
+      </c>
+      <c r="J88" s="7">
+        <v>-3245</v>
+      </c>
+      <c r="K88" s="7">
+        <v>4110</v>
+      </c>
+      <c r="L88" s="8">
+        <v>-1.05</v>
+      </c>
+      <c r="M88" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N88" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C89" s="6">
+        <v>14200</v>
+      </c>
+      <c r="D89" s="6">
+        <v>0</v>
+      </c>
+      <c r="E89" s="6">
+        <v>14200</v>
+      </c>
+      <c r="F89" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="G89" s="7">
+        <v>5.421</v>
+      </c>
+      <c r="H89" s="7">
+        <v>0</v>
+      </c>
+      <c r="I89" s="7">
+        <v>76680</v>
+      </c>
+      <c r="J89" s="7">
+        <v>-304</v>
+      </c>
+      <c r="K89" s="7">
+        <v>-304</v>
+      </c>
+      <c r="L89" s="8">
+        <v>-0.39</v>
+      </c>
+      <c r="M89" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N89" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90" s="10">
+        <v>36300</v>
+      </c>
+      <c r="D90" s="10">
+        <v>36300</v>
+      </c>
+      <c r="E90" s="10">
+        <v>0</v>
+      </c>
+      <c r="F90" s="11">
+        <v>11.49</v>
+      </c>
+      <c r="G90" s="11">
+        <v>11.079</v>
+      </c>
+      <c r="H90" s="11">
+        <v>0</v>
+      </c>
+      <c r="I90" s="11">
+        <v>417087</v>
+      </c>
+      <c r="J90" s="11">
+        <v>14915.76</v>
+      </c>
+      <c r="K90" s="11">
+        <v>16698</v>
+      </c>
+      <c r="L90" s="9">
+        <v>3.71</v>
+      </c>
+      <c r="M90" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N90" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C91" s="10">
+        <v>0</v>
+      </c>
+      <c r="D91" s="10">
+        <v>0</v>
+      </c>
+      <c r="E91" s="10">
+        <v>0</v>
+      </c>
+      <c r="F91" s="11">
+        <v>30.69</v>
+      </c>
+      <c r="G91" s="11">
+        <v>0</v>
+      </c>
+      <c r="H91" s="11">
+        <v>0</v>
+      </c>
+      <c r="I91" s="11">
+        <v>0</v>
+      </c>
+      <c r="J91" s="11">
+        <v>19221.25</v>
+      </c>
+      <c r="K91" s="11">
+        <v>11862.27</v>
+      </c>
+      <c r="L91" s="9">
+        <v>0</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N91" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B92" s="6">
+        <v>300423</v>
+      </c>
+      <c r="C92" s="6">
+        <v>7700</v>
+      </c>
+      <c r="D92" s="6">
+        <v>7700</v>
+      </c>
+      <c r="E92" s="6">
+        <v>0</v>
+      </c>
+      <c r="F92" s="7">
+        <v>13.32</v>
+      </c>
+      <c r="G92" s="7">
+        <v>13.647</v>
+      </c>
+      <c r="H92" s="7">
+        <v>0</v>
+      </c>
+      <c r="I92" s="7">
+        <v>102564</v>
+      </c>
+      <c r="J92" s="7">
+        <v>-2520.49</v>
+      </c>
+      <c r="K92" s="7">
+        <v>5698</v>
+      </c>
+      <c r="L92" s="8">
+        <v>-2.4</v>
+      </c>
+      <c r="M92" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N92" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C93" s="10">
+        <v>12500</v>
+      </c>
+      <c r="D93" s="10">
+        <v>12500</v>
+      </c>
+      <c r="E93" s="10">
+        <v>0</v>
+      </c>
+      <c r="F93" s="11">
+        <v>31.89</v>
+      </c>
+      <c r="G93" s="11">
+        <v>30.513</v>
+      </c>
+      <c r="H93" s="11">
+        <v>0</v>
+      </c>
+      <c r="I93" s="11">
+        <v>398625</v>
+      </c>
+      <c r="J93" s="11">
+        <v>17210.71</v>
+      </c>
+      <c r="K93" s="11">
+        <v>12000</v>
+      </c>
+      <c r="L93" s="9">
+        <v>4.51</v>
+      </c>
+      <c r="M93" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N93" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B94" s="10">
+        <v>300438</v>
+      </c>
+      <c r="C94" s="10">
+        <v>0</v>
+      </c>
+      <c r="D94" s="10">
+        <v>0</v>
+      </c>
+      <c r="E94" s="10">
+        <v>0</v>
+      </c>
+      <c r="F94" s="11">
+        <v>18.51</v>
+      </c>
+      <c r="G94" s="11">
+        <v>0</v>
+      </c>
+      <c r="H94" s="11">
+        <v>0</v>
+      </c>
+      <c r="I94" s="11">
+        <v>0</v>
+      </c>
+      <c r="J94" s="11">
+        <v>37901.96</v>
+      </c>
+      <c r="K94" s="11">
+        <v>9545.46</v>
+      </c>
+      <c r="L94" s="9">
+        <v>0</v>
+      </c>
+      <c r="M94" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N94" s="9" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
+++ b/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="164">
   <si>
     <t>资金</t>
   </si>
@@ -139,15 +139,9 @@
     <t>000100</t>
   </si>
   <si>
-    <t>万达信息</t>
-  </si>
-  <si>
     <t>万通地产</t>
   </si>
   <si>
-    <t>上海洗霸</t>
-  </si>
-  <si>
     <t>上海莱士</t>
   </si>
   <si>
@@ -163,10 +157,7 @@
     <t>中国出版</t>
   </si>
   <si>
-    <t>中泰股份</t>
-  </si>
-  <si>
-    <t>中铝国际</t>
+    <t>中科电气</t>
   </si>
   <si>
     <t>丽珠集团</t>
@@ -187,6 +178,12 @@
     <t>002623</t>
   </si>
   <si>
+    <t>京东方Ａ</t>
+  </si>
+  <si>
+    <t>000725</t>
+  </si>
+  <si>
     <t>京汉股份</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
     <t>劲胜智能</t>
   </si>
   <si>
+    <t>北信源</t>
+  </si>
+  <si>
     <t>千红制药</t>
   </si>
   <si>
@@ -271,12 +271,6 @@
     <t>博济医药</t>
   </si>
   <si>
-    <t>双塔食品</t>
-  </si>
-  <si>
-    <t>002481</t>
-  </si>
-  <si>
     <t>双林生物</t>
   </si>
   <si>
@@ -307,6 +301,9 @@
     <t>000910</t>
   </si>
   <si>
+    <t>天舟文化</t>
+  </si>
+  <si>
     <t>奥瑞金</t>
   </si>
   <si>
@@ -322,6 +319,18 @@
     <t>开立医疗</t>
   </si>
   <si>
+    <t>张家港行</t>
+  </si>
+  <si>
+    <t>002839</t>
+  </si>
+  <si>
+    <t>德赛电池</t>
+  </si>
+  <si>
+    <t>000049</t>
+  </si>
+  <si>
     <t>恒通股份</t>
   </si>
   <si>
@@ -352,6 +361,12 @@
     <t>002547</t>
   </si>
   <si>
+    <t>智光电气</t>
+  </si>
+  <si>
+    <t>002169</t>
+  </si>
+  <si>
     <t>智慧能源</t>
   </si>
   <si>
@@ -361,16 +376,22 @@
     <t>002397</t>
   </si>
   <si>
+    <t>正邦科技</t>
+  </si>
+  <si>
+    <t>002157</t>
+  </si>
+  <si>
     <t>汉缆股份</t>
   </si>
   <si>
     <t>002498</t>
   </si>
   <si>
-    <t>深科技</t>
-  </si>
-  <si>
-    <t>000021</t>
+    <t>江苏吴中</t>
+  </si>
+  <si>
+    <t>泰晶科技</t>
   </si>
   <si>
     <t>瑞康医药</t>
@@ -385,6 +406,12 @@
     <t>皇马科技</t>
   </si>
   <si>
+    <t>盛达资源</t>
+  </si>
+  <si>
+    <t>000603</t>
+  </si>
+  <si>
     <t>硕贝德</t>
   </si>
   <si>
@@ -394,6 +421,9 @@
     <t>002361</t>
   </si>
   <si>
+    <t>神州泰岳</t>
+  </si>
+  <si>
     <t>福日电子</t>
   </si>
   <si>
@@ -424,6 +454,9 @@
     <t>航民股份</t>
   </si>
   <si>
+    <t>苏交科</t>
+  </si>
+  <si>
     <t>苏州固锝</t>
   </si>
   <si>
@@ -445,10 +478,13 @@
     <t>赤峰黄金</t>
   </si>
   <si>
-    <t>露笑科技</t>
-  </si>
-  <si>
-    <t>002617</t>
+    <t>通光线缆</t>
+  </si>
+  <si>
+    <t>酒鬼酒</t>
+  </si>
+  <si>
+    <t>000799</t>
   </si>
   <si>
     <t>青松股份</t>
@@ -861,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -941,28 +977,28 @@
         <v>1720175912</v>
       </c>
       <c r="C3" s="4">
-        <v>3700133.74</v>
+        <v>3159654.3</v>
       </c>
       <c r="D3" s="4">
-        <v>3158525.01</v>
+        <v>2737010.58</v>
       </c>
       <c r="E3" s="4">
-        <v>3158525.01</v>
+        <v>2737010.58</v>
       </c>
       <c r="F3" s="4">
-        <v>541608.73</v>
+        <v>422643.72</v>
       </c>
       <c r="G3" s="4">
-        <v>22814218.65</v>
+        <v>23967477.94</v>
       </c>
       <c r="H3" s="4">
-        <v>25972743.66</v>
+        <v>26704488.52</v>
       </c>
       <c r="I3" s="4">
-        <v>1287603.13</v>
+        <v>1797471.92</v>
       </c>
       <c r="J3" s="4">
-        <v>-155367.99</v>
+        <v>730515.54</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -1069,10 +1105,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="4">
-        <v>3214000</v>
+        <v>3188000</v>
       </c>
       <c r="C8" s="4">
-        <v>3214500</v>
+        <v>3188000</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -1086,7 +1122,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="4">
-        <v>7012500</v>
+        <v>7050000</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -1177,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>6.61</v>
+        <v>6.99</v>
       </c>
       <c r="G12" s="7">
         <v>6.531</v>
@@ -1186,16 +1222,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>413786</v>
+        <v>437574</v>
       </c>
       <c r="J12" s="7">
-        <v>4958.95</v>
+        <v>28746.95</v>
       </c>
       <c r="K12" s="7">
-        <v>-16276</v>
+        <v>23788</v>
       </c>
       <c r="L12" s="8">
-        <v>1.21</v>
+        <v>7.03</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>25</v>
@@ -1205,129 +1241,129 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="6">
-        <v>300168</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
-        <v>20632.5</v>
-      </c>
-      <c r="K13" s="7">
-        <v>23331.83</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>24</v>
+      <c r="B13" s="10">
+        <v>600246</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>8.42</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>-4130.29</v>
+      </c>
+      <c r="K13" s="11">
+        <v>-603.28</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="10">
-        <v>600246</v>
-      </c>
-      <c r="C14" s="10">
-        <v>16600</v>
-      </c>
-      <c r="D14" s="10">
-        <v>16600</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>8.4</v>
-      </c>
-      <c r="G14" s="11">
-        <v>8.612</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>139440</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-3527.01</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-3984</v>
-      </c>
-      <c r="L14" s="9">
-        <v>-2.46</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>22</v>
+      <c r="B14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>10.64</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>12662.33</v>
+      </c>
+      <c r="K14" s="7">
+        <v>12901.62</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="6">
-        <v>603200</v>
+        <v>600018</v>
       </c>
       <c r="C15" s="6">
-        <v>0</v>
+        <v>75900</v>
       </c>
       <c r="D15" s="6">
-        <v>0</v>
+        <v>75900</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>47.48</v>
+        <v>4.89</v>
       </c>
       <c r="G15" s="7">
-        <v>0</v>
+        <v>4.791</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>371151</v>
       </c>
       <c r="J15" s="7">
-        <v>35521.88</v>
+        <v>7539.09</v>
       </c>
       <c r="K15" s="7">
-        <v>15484.89</v>
+        <v>6831</v>
       </c>
       <c r="L15" s="8">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>23</v>
@@ -1337,47 +1373,47 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="10">
-        <v>37200</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
-        <v>37200</v>
-      </c>
-      <c r="F16" s="11">
-        <v>10.14</v>
-      </c>
-      <c r="G16" s="11">
-        <v>10.146</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11">
-        <v>377208</v>
-      </c>
-      <c r="J16" s="11">
-        <v>-239.68</v>
-      </c>
-      <c r="K16" s="11">
-        <v>-239.68</v>
-      </c>
-      <c r="L16" s="9">
-        <v>-0.06</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>24</v>
+      <c r="B16" s="6">
+        <v>600217</v>
+      </c>
+      <c r="C16" s="6">
+        <v>78300</v>
+      </c>
+      <c r="D16" s="6">
+        <v>78300</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>5.26</v>
+      </c>
+      <c r="G16" s="7">
+        <v>5.089</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>411858</v>
+      </c>
+      <c r="J16" s="7">
+        <v>13382.29</v>
+      </c>
+      <c r="K16" s="7">
+        <v>10179</v>
+      </c>
+      <c r="L16" s="8">
+        <v>3.36</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1385,37 +1421,37 @@
         <v>46</v>
       </c>
       <c r="B17" s="6">
-        <v>600018</v>
+        <v>601949</v>
       </c>
       <c r="C17" s="6">
-        <v>75900</v>
+        <v>12600</v>
       </c>
       <c r="D17" s="6">
-        <v>75900</v>
+        <v>12600</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="G17" s="7">
-        <v>4.791</v>
+        <v>5.919</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>364320</v>
+        <v>75600</v>
       </c>
       <c r="J17" s="7">
-        <v>708.09</v>
+        <v>1025.55</v>
       </c>
       <c r="K17" s="7">
-        <v>-2277</v>
+        <v>1386</v>
       </c>
       <c r="L17" s="8">
-        <v>0.19</v>
+        <v>1.37</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>23</v>
@@ -1429,125 +1465,125 @@
         <v>47</v>
       </c>
       <c r="B18" s="6">
-        <v>600217</v>
+        <v>300035</v>
       </c>
       <c r="C18" s="6">
-        <v>78300</v>
+        <v>1800</v>
       </c>
       <c r="D18" s="6">
-        <v>78300</v>
+        <v>0</v>
       </c>
       <c r="E18" s="6">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="F18" s="7">
-        <v>5.13</v>
+        <v>10.25</v>
       </c>
       <c r="G18" s="7">
-        <v>5.089</v>
+        <v>10.101</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>401679</v>
+        <v>18450</v>
       </c>
       <c r="J18" s="7">
-        <v>3203.29</v>
+        <v>268</v>
       </c>
       <c r="K18" s="7">
-        <v>-15660</v>
+        <v>268</v>
       </c>
       <c r="L18" s="8">
-        <v>0.81</v>
+        <v>1.48</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="10">
-        <v>601949</v>
-      </c>
-      <c r="C19" s="10">
-        <v>12600</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10">
-        <v>12600</v>
-      </c>
-      <c r="F19" s="11">
-        <v>5.89</v>
-      </c>
-      <c r="G19" s="11">
-        <v>5.922</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>74214</v>
-      </c>
-      <c r="J19" s="11">
-        <v>-406.49</v>
-      </c>
-      <c r="K19" s="11">
-        <v>-406.49</v>
-      </c>
-      <c r="L19" s="9">
-        <v>-0.54</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>22</v>
+      <c r="B19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>51.61</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>21219.15</v>
+      </c>
+      <c r="K19" s="7">
+        <v>20542.75</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="6">
-        <v>300435</v>
+        <v>50</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C20" s="6">
-        <v>0</v>
+        <v>42200</v>
       </c>
       <c r="D20" s="6">
-        <v>0</v>
+        <v>42200</v>
       </c>
       <c r="E20" s="6">
         <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>11.23</v>
+        <v>8.64</v>
       </c>
       <c r="G20" s="7">
-        <v>0</v>
+        <v>8.499</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>364608</v>
       </c>
       <c r="J20" s="7">
-        <v>52.15</v>
+        <v>5939.96</v>
       </c>
       <c r="K20" s="7">
-        <v>22.09</v>
+        <v>21522</v>
       </c>
       <c r="L20" s="8">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>25</v>
@@ -1558,260 +1594,260 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="6">
-        <v>601068</v>
+        <v>52</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C21" s="6">
-        <v>0</v>
+        <v>6700</v>
       </c>
       <c r="D21" s="6">
-        <v>0</v>
+        <v>6700</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="7">
-        <v>4.45</v>
+        <v>49.48</v>
       </c>
       <c r="G21" s="7">
-        <v>0</v>
+        <v>46.966</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>331516</v>
       </c>
       <c r="J21" s="7">
-        <v>9985.09</v>
+        <v>16841.32</v>
       </c>
       <c r="K21" s="7">
-        <v>-13614.06</v>
+        <v>30150</v>
       </c>
       <c r="L21" s="8">
-        <v>0</v>
+        <v>5.35</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="6">
-        <v>7500</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>7500</v>
-      </c>
-      <c r="F22" s="7">
-        <v>48.55</v>
-      </c>
-      <c r="G22" s="7">
-        <v>48.468</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>364125</v>
-      </c>
-      <c r="J22" s="7">
-        <v>612.9</v>
-      </c>
-      <c r="K22" s="7">
-        <v>612.9</v>
-      </c>
-      <c r="L22" s="8">
-        <v>0.17</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" s="8" t="s">
+      <c r="A22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="10">
+        <v>72400</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>72400</v>
+      </c>
+      <c r="F22" s="11">
+        <v>5.26</v>
+      </c>
+      <c r="G22" s="11">
+        <v>5.271</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>380824</v>
+      </c>
+      <c r="J22" s="11">
+        <v>-769.78</v>
+      </c>
+      <c r="K22" s="11">
+        <v>-769.78</v>
+      </c>
+      <c r="L22" s="9">
+        <v>-0.21</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="10">
-        <v>42200</v>
-      </c>
-      <c r="D23" s="10">
-        <v>42200</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0</v>
-      </c>
-      <c r="F23" s="11">
-        <v>8.13</v>
-      </c>
-      <c r="G23" s="11">
-        <v>8.499</v>
-      </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
-        <v>343086</v>
-      </c>
-      <c r="J23" s="11">
-        <v>-15582.04</v>
-      </c>
-      <c r="K23" s="11">
-        <v>-16880</v>
-      </c>
-      <c r="L23" s="9">
-        <v>-4.34</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" s="9" t="s">
+      <c r="A23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2100</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2100</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>4.63</v>
+      </c>
+      <c r="G23" s="7">
+        <v>4.561</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>9723</v>
+      </c>
+      <c r="J23" s="7">
+        <v>145.85</v>
+      </c>
+      <c r="K23" s="7">
+        <v>252</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1.51</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="10">
-        <v>6700</v>
-      </c>
-      <c r="D24" s="10">
-        <v>6700</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0</v>
-      </c>
-      <c r="F24" s="11">
-        <v>44.98</v>
-      </c>
-      <c r="G24" s="11">
-        <v>46.966</v>
-      </c>
-      <c r="H24" s="11">
-        <v>0</v>
-      </c>
-      <c r="I24" s="11">
-        <v>301366</v>
-      </c>
-      <c r="J24" s="11">
-        <v>-13308.68</v>
-      </c>
-      <c r="K24" s="11">
-        <v>-12864</v>
-      </c>
-      <c r="L24" s="9">
-        <v>-4.23</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="9" t="s">
+      <c r="A24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="6">
+        <v>24000</v>
+      </c>
+      <c r="D24" s="6">
+        <v>24000</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>17.64</v>
+      </c>
+      <c r="G24" s="7">
+        <v>16.429</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>423360</v>
+      </c>
+      <c r="J24" s="7">
+        <v>29060.72</v>
+      </c>
+      <c r="K24" s="7">
+        <v>8400</v>
+      </c>
+      <c r="L24" s="8">
+        <v>7.37</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="10">
-        <v>2100</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0</v>
-      </c>
-      <c r="E25" s="10">
-        <v>2100</v>
-      </c>
-      <c r="F25" s="11">
-        <v>4.51</v>
-      </c>
-      <c r="G25" s="11">
-        <v>4.562</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <v>9471</v>
-      </c>
-      <c r="J25" s="11">
-        <v>-110</v>
-      </c>
-      <c r="K25" s="11">
-        <v>-110</v>
-      </c>
-      <c r="L25" s="9">
-        <v>-1.14</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" s="9" t="s">
+      <c r="A25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="6">
+        <v>5200</v>
+      </c>
+      <c r="D25" s="6">
+        <v>5200</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>8.44</v>
+      </c>
+      <c r="G25" s="7">
+        <v>7.582</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>43888</v>
+      </c>
+      <c r="J25" s="7">
+        <v>4462.28</v>
+      </c>
+      <c r="K25" s="7">
+        <v>312</v>
+      </c>
+      <c r="L25" s="8">
+        <v>11.32</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C26" s="6">
-        <v>24000</v>
+        <v>78800</v>
       </c>
       <c r="D26" s="6">
-        <v>24000</v>
+        <v>78800</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
       </c>
       <c r="F26" s="7">
-        <v>17.29</v>
+        <v>5.33</v>
       </c>
       <c r="G26" s="7">
-        <v>16.429</v>
+        <v>5.046</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>414960</v>
+        <v>420004</v>
       </c>
       <c r="J26" s="7">
-        <v>20660.72</v>
+        <v>22401.29</v>
       </c>
       <c r="K26" s="7">
-        <v>4560</v>
+        <v>14184</v>
       </c>
       <c r="L26" s="8">
-        <v>5.24</v>
+        <v>5.63</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>25</v>
@@ -1822,40 +1858,40 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C27" s="6">
-        <v>5200</v>
+        <v>90800</v>
       </c>
       <c r="D27" s="6">
-        <v>5200</v>
+        <v>90800</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>8.38</v>
+        <v>5.87</v>
       </c>
       <c r="G27" s="7">
-        <v>7.582</v>
+        <v>4.57</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>43576</v>
+        <v>532996</v>
       </c>
       <c r="J27" s="7">
-        <v>4150.28</v>
+        <v>118051.22</v>
       </c>
       <c r="K27" s="7">
-        <v>1820</v>
+        <v>48124</v>
       </c>
       <c r="L27" s="8">
-        <v>10.52</v>
+        <v>28.45</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>25</v>
@@ -1866,84 +1902,84 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="B28" s="6">
+        <v>600622</v>
       </c>
       <c r="C28" s="6">
-        <v>78800</v>
+        <v>30300</v>
       </c>
       <c r="D28" s="6">
-        <v>78800</v>
+        <v>30300</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
       </c>
       <c r="F28" s="7">
-        <v>5.15</v>
+        <v>4.83</v>
       </c>
       <c r="G28" s="7">
-        <v>5.046</v>
+        <v>4.652</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>405820</v>
+        <v>146349</v>
       </c>
       <c r="J28" s="7">
-        <v>8217.29</v>
+        <v>5400.25</v>
       </c>
       <c r="K28" s="7">
-        <v>-3940</v>
+        <v>6666</v>
       </c>
       <c r="L28" s="8">
-        <v>2.06</v>
+        <v>3.83</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C29" s="6">
-        <v>90800</v>
+        <v>700</v>
       </c>
       <c r="D29" s="6">
-        <v>90800</v>
+        <v>700</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>5.34</v>
+        <v>11.53</v>
       </c>
       <c r="G29" s="7">
-        <v>4.57</v>
+        <v>11.151</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>484872</v>
+        <v>8071</v>
       </c>
       <c r="J29" s="7">
-        <v>69927.22</v>
+        <v>265.06</v>
       </c>
       <c r="K29" s="7">
-        <v>44492</v>
+        <v>280</v>
       </c>
       <c r="L29" s="8">
-        <v>16.85</v>
+        <v>3.4</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>25</v>
@@ -1953,129 +1989,129 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="10">
-        <v>600622</v>
-      </c>
-      <c r="C30" s="10">
-        <v>30300</v>
-      </c>
-      <c r="D30" s="10">
-        <v>30300</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0</v>
-      </c>
-      <c r="F30" s="11">
-        <v>4.61</v>
-      </c>
-      <c r="G30" s="11">
-        <v>4.652</v>
-      </c>
-      <c r="H30" s="11">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11">
-        <v>139683</v>
-      </c>
-      <c r="J30" s="11">
-        <v>-1265.75</v>
-      </c>
-      <c r="K30" s="11">
-        <v>-2727</v>
-      </c>
-      <c r="L30" s="9">
-        <v>-0.9</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>22</v>
+      <c r="A30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="6">
+        <v>22800</v>
+      </c>
+      <c r="D30" s="6">
+        <v>22800</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>16.24</v>
+      </c>
+      <c r="G30" s="7">
+        <v>15.952</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>370272</v>
+      </c>
+      <c r="J30" s="7">
+        <v>6571.4</v>
+      </c>
+      <c r="K30" s="7">
+        <v>6156</v>
+      </c>
+      <c r="L30" s="8">
+        <v>1.81</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="10">
-        <v>700</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0</v>
-      </c>
-      <c r="E31" s="10">
-        <v>700</v>
-      </c>
-      <c r="F31" s="11">
-        <v>11.13</v>
-      </c>
-      <c r="G31" s="11">
-        <v>11.157</v>
-      </c>
-      <c r="H31" s="11">
-        <v>0</v>
-      </c>
-      <c r="I31" s="11">
-        <v>7791</v>
-      </c>
-      <c r="J31" s="11">
-        <v>-19</v>
-      </c>
-      <c r="K31" s="11">
-        <v>-19</v>
-      </c>
-      <c r="L31" s="9">
-        <v>-0.24</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N31" s="9" t="s">
+      <c r="A31" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="6">
+        <v>300326</v>
+      </c>
+      <c r="C31" s="6">
+        <v>400</v>
+      </c>
+      <c r="D31" s="6">
+        <v>400</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>30.69</v>
+      </c>
+      <c r="G31" s="7">
+        <v>-29.556</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>12276</v>
+      </c>
+      <c r="J31" s="7">
+        <v>24098.23</v>
+      </c>
+      <c r="K31" s="7">
+        <v>23699.71</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="B32" s="6">
+        <v>300296</v>
       </c>
       <c r="C32" s="6">
-        <v>22800</v>
+        <v>35600</v>
       </c>
       <c r="D32" s="6">
-        <v>0</v>
+        <v>35600</v>
       </c>
       <c r="E32" s="6">
-        <v>22800</v>
+        <v>0</v>
       </c>
       <c r="F32" s="7">
-        <v>15.97</v>
+        <v>7.43</v>
       </c>
       <c r="G32" s="7">
-        <v>15.961</v>
+        <v>7.035</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>364116</v>
+        <v>264508</v>
       </c>
       <c r="J32" s="7">
-        <v>208.83</v>
+        <v>14069.95</v>
       </c>
       <c r="K32" s="7">
-        <v>208.83</v>
+        <v>18868</v>
       </c>
       <c r="L32" s="8">
-        <v>0.06</v>
+        <v>5.61</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>25</v>
@@ -2085,349 +2121,349 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="6">
-        <v>300326</v>
-      </c>
-      <c r="C33" s="6">
-        <v>13200</v>
-      </c>
-      <c r="D33" s="6">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6">
-        <v>13200</v>
-      </c>
-      <c r="F33" s="7">
-        <v>28.76</v>
-      </c>
-      <c r="G33" s="7">
-        <v>28.733</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>379632</v>
-      </c>
-      <c r="J33" s="7">
-        <v>354.53</v>
-      </c>
-      <c r="K33" s="7">
-        <v>354.53</v>
-      </c>
-      <c r="L33" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N33" s="8" t="s">
+      <c r="A33" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="10">
+        <v>300184</v>
+      </c>
+      <c r="C33" s="10">
+        <v>51600</v>
+      </c>
+      <c r="D33" s="10">
+        <v>51600</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11">
+        <v>7.19</v>
+      </c>
+      <c r="G33" s="11">
+        <v>7.242</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>371004</v>
+      </c>
+      <c r="J33" s="11">
+        <v>-2658.83</v>
+      </c>
+      <c r="K33" s="11">
+        <v>8256</v>
+      </c>
+      <c r="L33" s="9">
+        <v>-0.72</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="10">
-        <v>300296</v>
-      </c>
-      <c r="C34" s="10">
-        <v>35600</v>
-      </c>
-      <c r="D34" s="10">
-        <v>35600</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0</v>
-      </c>
-      <c r="F34" s="11">
-        <v>6.9</v>
-      </c>
-      <c r="G34" s="11">
-        <v>7.035</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
-        <v>245640</v>
-      </c>
-      <c r="J34" s="11">
-        <v>-4798.05</v>
-      </c>
-      <c r="K34" s="11">
-        <v>-6408</v>
-      </c>
-      <c r="L34" s="9">
-        <v>-1.92</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" s="9" t="s">
+      <c r="A34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="6">
+        <v>300083</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2300</v>
+      </c>
+      <c r="D34" s="6">
+        <v>2300</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>7.82</v>
+      </c>
+      <c r="G34" s="7">
+        <v>-7.752</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>17986</v>
+      </c>
+      <c r="J34" s="7">
+        <v>35815.41</v>
+      </c>
+      <c r="K34" s="7">
+        <v>37068.39</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="10">
-        <v>300184</v>
-      </c>
-      <c r="C35" s="10">
-        <v>51600</v>
-      </c>
-      <c r="D35" s="10">
-        <v>51600</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0</v>
-      </c>
-      <c r="F35" s="11">
-        <v>7.03</v>
-      </c>
-      <c r="G35" s="11">
-        <v>7.242</v>
-      </c>
-      <c r="H35" s="11">
-        <v>0</v>
-      </c>
-      <c r="I35" s="11">
-        <v>362748</v>
-      </c>
-      <c r="J35" s="11">
-        <v>-10914.83</v>
-      </c>
-      <c r="K35" s="11">
-        <v>-9804</v>
-      </c>
-      <c r="L35" s="9">
-        <v>-2.93</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" s="9" t="s">
+      <c r="A35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="6">
+        <v>300352</v>
+      </c>
+      <c r="C35" s="6">
+        <v>30800</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>30800</v>
+      </c>
+      <c r="F35" s="7">
+        <v>8.45</v>
+      </c>
+      <c r="G35" s="7">
+        <v>8.444</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>260260</v>
+      </c>
+      <c r="J35" s="7">
+        <v>191.05</v>
+      </c>
+      <c r="K35" s="7">
+        <v>191.05</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0.07</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="10">
-        <v>300083</v>
-      </c>
-      <c r="C36" s="10">
-        <v>54900</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0</v>
-      </c>
-      <c r="E36" s="10">
-        <v>54900</v>
-      </c>
-      <c r="F36" s="11">
-        <v>7.11</v>
-      </c>
-      <c r="G36" s="11">
-        <v>7.133</v>
-      </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11">
-        <v>390339</v>
-      </c>
-      <c r="J36" s="11">
-        <v>-1270.75</v>
-      </c>
-      <c r="K36" s="11">
-        <v>-1270.75</v>
-      </c>
-      <c r="L36" s="9">
-        <v>-0.32</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" s="9" t="s">
+      <c r="A36" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="6">
+        <v>79300</v>
+      </c>
+      <c r="D36" s="6">
+        <v>79300</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>4.87</v>
+      </c>
+      <c r="G36" s="7">
+        <v>4.812</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>386191</v>
+      </c>
+      <c r="J36" s="7">
+        <v>4586.23</v>
+      </c>
+      <c r="K36" s="7">
+        <v>3965</v>
+      </c>
+      <c r="L36" s="8">
+        <v>1.21</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="B37" s="6">
+        <v>511990</v>
       </c>
       <c r="C37" s="6">
-        <v>79300</v>
+        <v>40034</v>
       </c>
       <c r="D37" s="6">
-        <v>79300</v>
+        <v>40034</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="7">
-        <v>4.82</v>
+        <v>100.01</v>
       </c>
       <c r="G37" s="7">
-        <v>4.812</v>
+        <v>95.803</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>382226</v>
+        <v>4003800.34</v>
       </c>
       <c r="J37" s="7">
-        <v>621.23</v>
+        <v>168410.33</v>
       </c>
       <c r="K37" s="7">
-        <v>-1586</v>
+        <v>-840.71</v>
       </c>
       <c r="L37" s="8">
-        <v>0.17</v>
+        <v>4.39</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="6">
-        <v>511990</v>
-      </c>
-      <c r="C38" s="6">
-        <v>40033</v>
-      </c>
-      <c r="D38" s="6">
-        <v>40033</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7">
-        <v>100.031</v>
-      </c>
-      <c r="G38" s="7">
-        <v>95.806</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>4004541.02</v>
-      </c>
-      <c r="J38" s="7">
-        <v>169151.01</v>
-      </c>
-      <c r="K38" s="7">
-        <v>1080.89</v>
-      </c>
-      <c r="L38" s="8">
-        <v>4.41</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>22</v>
+      <c r="A38" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="10">
+        <v>100</v>
+      </c>
+      <c r="D38" s="10">
+        <v>100</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>5.43</v>
+      </c>
+      <c r="G38" s="11">
+        <v>5.481</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>543</v>
+      </c>
+      <c r="J38" s="11">
+        <v>-5.07</v>
+      </c>
+      <c r="K38" s="11">
+        <v>9</v>
+      </c>
+      <c r="L38" s="9">
+        <v>-0.93</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="10">
-        <v>100</v>
-      </c>
-      <c r="D39" s="10">
-        <v>100</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0</v>
-      </c>
-      <c r="F39" s="11">
-        <v>5.34</v>
-      </c>
-      <c r="G39" s="11">
-        <v>5.481</v>
-      </c>
-      <c r="H39" s="11">
-        <v>0</v>
-      </c>
-      <c r="I39" s="11">
-        <v>534</v>
-      </c>
-      <c r="J39" s="11">
-        <v>-14.07</v>
-      </c>
-      <c r="K39" s="11">
-        <v>-17</v>
-      </c>
-      <c r="L39" s="9">
-        <v>-2.57</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N39" s="9" t="s">
+      <c r="A39" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="6">
+        <v>300027</v>
+      </c>
+      <c r="C39" s="6">
+        <v>46700</v>
+      </c>
+      <c r="D39" s="6">
+        <v>46700</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>4.84</v>
+      </c>
+      <c r="G39" s="7">
+        <v>4.255</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>226028</v>
+      </c>
+      <c r="J39" s="7">
+        <v>27320.15</v>
+      </c>
+      <c r="K39" s="7">
+        <v>5137</v>
+      </c>
+      <c r="L39" s="8">
+        <v>13.75</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="6">
-        <v>300027</v>
+        <v>82</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C40" s="6">
-        <v>46700</v>
+        <v>37900</v>
       </c>
       <c r="D40" s="6">
-        <v>46700</v>
+        <v>37900</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
       </c>
       <c r="F40" s="7">
-        <v>4.73</v>
+        <v>10.22</v>
       </c>
       <c r="G40" s="7">
-        <v>4.255</v>
+        <v>9.78</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>220891</v>
+        <v>387338</v>
       </c>
       <c r="J40" s="7">
-        <v>22183.15</v>
+        <v>16671.52</v>
       </c>
       <c r="K40" s="7">
-        <v>20081</v>
+        <v>19329</v>
       </c>
       <c r="L40" s="8">
-        <v>11.16</v>
+        <v>4.5</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>25</v>
@@ -2437,85 +2473,85 @@
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="10">
-        <v>37900</v>
-      </c>
-      <c r="D41" s="10">
-        <v>37900</v>
-      </c>
-      <c r="E41" s="10">
-        <v>0</v>
-      </c>
-      <c r="F41" s="11">
-        <v>9.71</v>
-      </c>
-      <c r="G41" s="11">
-        <v>9.78</v>
-      </c>
-      <c r="H41" s="11">
-        <v>0</v>
-      </c>
-      <c r="I41" s="11">
-        <v>368009</v>
-      </c>
-      <c r="J41" s="11">
-        <v>-2657.48</v>
-      </c>
-      <c r="K41" s="11">
-        <v>-6443</v>
-      </c>
-      <c r="L41" s="9">
-        <v>-0.72</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N41" s="9" t="s">
+      <c r="A41" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="6">
+        <v>300404</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>16.68</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7">
+        <v>41.43</v>
+      </c>
+      <c r="K41" s="7">
+        <v>-44.98</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="6">
-        <v>300404</v>
+        <v>85</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="C42" s="6">
-        <v>300</v>
+        <v>11700</v>
       </c>
       <c r="D42" s="6">
-        <v>300</v>
+        <v>11700</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
       </c>
       <c r="F42" s="7">
-        <v>16.71</v>
+        <v>75.16</v>
       </c>
       <c r="G42" s="7">
-        <v>16.422</v>
+        <v>65.958</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>5013</v>
+        <v>879372</v>
       </c>
       <c r="J42" s="7">
-        <v>86.41</v>
+        <v>107664.39</v>
       </c>
       <c r="K42" s="7">
-        <v>75</v>
+        <v>-9477</v>
       </c>
       <c r="L42" s="8">
-        <v>1.75</v>
+        <v>13.95</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>25</v>
@@ -2525,85 +2561,85 @@
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="6">
-        <v>0</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="7">
-        <v>18.82</v>
-      </c>
-      <c r="G43" s="7">
-        <v>0</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7">
-        <v>136910.04</v>
-      </c>
-      <c r="K43" s="7">
-        <v>-82298.19</v>
-      </c>
-      <c r="L43" s="8">
-        <v>0</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>24</v>
+      <c r="A43" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="10">
+        <v>603520</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="11">
+        <v>78.5</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0</v>
+      </c>
+      <c r="J43" s="11">
+        <v>-12868.52</v>
+      </c>
+      <c r="K43" s="11">
+        <v>-749.32</v>
+      </c>
+      <c r="L43" s="9">
+        <v>0</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="8" t="s">
         <v>88</v>
       </c>
+      <c r="B44" s="6">
+        <v>300477</v>
+      </c>
       <c r="C44" s="6">
-        <v>11700</v>
+        <v>49800</v>
       </c>
       <c r="D44" s="6">
-        <v>11700</v>
+        <v>49800</v>
       </c>
       <c r="E44" s="6">
         <v>0</v>
       </c>
       <c r="F44" s="7">
-        <v>75.97</v>
+        <v>7.49</v>
       </c>
       <c r="G44" s="7">
-        <v>65.958</v>
+        <v>7.323</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>888849</v>
+        <v>373002</v>
       </c>
       <c r="J44" s="7">
-        <v>117141.39</v>
+        <v>8295.25</v>
       </c>
       <c r="K44" s="7">
-        <v>42822</v>
+        <v>12450</v>
       </c>
       <c r="L44" s="8">
-        <v>15.18</v>
+        <v>2.28</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>25</v>
@@ -2613,90 +2649,90 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="10">
-        <v>603520</v>
-      </c>
-      <c r="C45" s="10">
-        <v>4600</v>
-      </c>
-      <c r="D45" s="10">
-        <v>4600</v>
-      </c>
-      <c r="E45" s="10">
-        <v>0</v>
-      </c>
-      <c r="F45" s="11">
-        <v>78.52</v>
-      </c>
-      <c r="G45" s="11">
-        <v>81.155</v>
-      </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
-        <v>361192</v>
-      </c>
-      <c r="J45" s="11">
-        <v>-12119.2</v>
-      </c>
-      <c r="K45" s="11">
-        <v>8188</v>
-      </c>
-      <c r="L45" s="9">
-        <v>-3.25</v>
-      </c>
-      <c r="M45" s="9" t="s">
+      <c r="B45" s="6">
+        <v>603399</v>
+      </c>
+      <c r="C45" s="6">
+        <v>44200</v>
+      </c>
+      <c r="D45" s="6">
+        <v>44200</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>9.09</v>
+      </c>
+      <c r="G45" s="7">
+        <v>8.183</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>401778</v>
+      </c>
+      <c r="J45" s="7">
+        <v>40077.36</v>
+      </c>
+      <c r="K45" s="7">
+        <v>36686</v>
+      </c>
+      <c r="L45" s="8">
+        <v>11.08</v>
+      </c>
+      <c r="M45" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N45" s="9" t="s">
+      <c r="N45" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="10">
-        <v>300477</v>
-      </c>
-      <c r="C46" s="10">
-        <v>49800</v>
-      </c>
-      <c r="D46" s="10">
-        <v>0</v>
-      </c>
-      <c r="E46" s="10">
-        <v>49800</v>
-      </c>
-      <c r="F46" s="11">
-        <v>7.24</v>
-      </c>
-      <c r="G46" s="11">
-        <v>7.326</v>
-      </c>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
-      <c r="I46" s="11">
-        <v>360552</v>
-      </c>
-      <c r="J46" s="11">
-        <v>-4300.53</v>
-      </c>
-      <c r="K46" s="11">
-        <v>-4300.53</v>
-      </c>
-      <c r="L46" s="9">
-        <v>-1.17</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N46" s="9" t="s">
+      <c r="B46" s="6">
+        <v>300636</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2720</v>
+      </c>
+      <c r="D46" s="6">
+        <v>2720</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>42.68</v>
+      </c>
+      <c r="G46" s="7">
+        <v>37.925</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>116089.6</v>
+      </c>
+      <c r="J46" s="7">
+        <v>12933.2</v>
+      </c>
+      <c r="K46" s="7">
+        <v>5929.6</v>
+      </c>
+      <c r="L46" s="8">
+        <v>12.54</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2705,43 +2741,43 @@
         <v>91</v>
       </c>
       <c r="B47" s="6">
-        <v>603399</v>
+        <v>300292</v>
       </c>
       <c r="C47" s="6">
-        <v>44200</v>
+        <v>62200</v>
       </c>
       <c r="D47" s="6">
-        <v>0</v>
+        <v>62200</v>
       </c>
       <c r="E47" s="6">
-        <v>44200</v>
+        <v>0</v>
       </c>
       <c r="F47" s="7">
-        <v>8.26</v>
+        <v>5.92</v>
       </c>
       <c r="G47" s="7">
-        <v>8.187</v>
+        <v>5.861</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
       </c>
       <c r="I47" s="7">
-        <v>365092</v>
+        <v>368224</v>
       </c>
       <c r="J47" s="7">
-        <v>3234.78</v>
+        <v>3665.25</v>
       </c>
       <c r="K47" s="7">
-        <v>3234.78</v>
+        <v>11196</v>
       </c>
       <c r="L47" s="8">
-        <v>0.89</v>
+        <v>1.01</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2749,169 +2785,169 @@
         <v>92</v>
       </c>
       <c r="B48" s="6">
-        <v>300636</v>
+        <v>600617</v>
       </c>
       <c r="C48" s="6">
-        <v>2720</v>
+        <v>0</v>
       </c>
       <c r="D48" s="6">
-        <v>2720</v>
+        <v>0</v>
       </c>
       <c r="E48" s="6">
         <v>0</v>
       </c>
       <c r="F48" s="7">
-        <v>40.5</v>
+        <v>4.39</v>
       </c>
       <c r="G48" s="7">
-        <v>37.925</v>
+        <v>0</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>110160</v>
+        <v>0</v>
       </c>
       <c r="J48" s="7">
-        <v>7003.6</v>
+        <v>539.35</v>
       </c>
       <c r="K48" s="7">
-        <v>-3264</v>
+        <v>79.29</v>
       </c>
       <c r="L48" s="8">
-        <v>6.79</v>
+        <v>0</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="10">
-        <v>300292</v>
-      </c>
-      <c r="C49" s="10">
-        <v>62200</v>
-      </c>
-      <c r="D49" s="10">
-        <v>62200</v>
-      </c>
-      <c r="E49" s="10">
-        <v>0</v>
-      </c>
-      <c r="F49" s="11">
-        <v>5.74</v>
-      </c>
-      <c r="G49" s="11">
-        <v>5.861</v>
-      </c>
-      <c r="H49" s="11">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11">
-        <v>357028</v>
-      </c>
-      <c r="J49" s="11">
-        <v>-7530.75</v>
-      </c>
-      <c r="K49" s="11">
-        <v>-10574</v>
-      </c>
-      <c r="L49" s="9">
-        <v>-2.06</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N49" s="9" t="s">
+      <c r="B49" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="6">
+        <v>48000</v>
+      </c>
+      <c r="D49" s="6">
+        <v>48000</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>17.57</v>
+      </c>
+      <c r="G49" s="7">
+        <v>14.758</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>843360</v>
+      </c>
+      <c r="J49" s="7">
+        <v>134979.15</v>
+      </c>
+      <c r="K49" s="7">
+        <v>13121.58</v>
+      </c>
+      <c r="L49" s="8">
+        <v>19.05</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="6">
-        <v>600617</v>
-      </c>
-      <c r="C50" s="6">
-        <v>3300</v>
-      </c>
-      <c r="D50" s="6">
-        <v>3300</v>
-      </c>
-      <c r="E50" s="6">
-        <v>0</v>
-      </c>
-      <c r="F50" s="7">
-        <v>4.34</v>
-      </c>
-      <c r="G50" s="7">
-        <v>4.201</v>
-      </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>14322</v>
-      </c>
-      <c r="J50" s="7">
-        <v>460.06</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L50" s="8">
-        <v>3.31</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N50" s="8" t="s">
-        <v>22</v>
+      <c r="A50" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="10">
+        <v>300148</v>
+      </c>
+      <c r="C50" s="10">
+        <v>65800</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10">
+        <v>65800</v>
+      </c>
+      <c r="F50" s="11">
+        <v>5.77</v>
+      </c>
+      <c r="G50" s="11">
+        <v>5.771</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>379666</v>
+      </c>
+      <c r="J50" s="11">
+        <v>-46.89</v>
+      </c>
+      <c r="K50" s="11">
+        <v>-46.89</v>
+      </c>
+      <c r="L50" s="9">
+        <v>-0.02</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C51" s="6">
-        <v>55800</v>
+        <v>74900</v>
       </c>
       <c r="D51" s="6">
-        <v>55800</v>
+        <v>74900</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="7">
-        <v>17.32</v>
+        <v>5.54</v>
       </c>
       <c r="G51" s="7">
-        <v>15.136</v>
+        <v>5.167</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>966456</v>
+        <v>414946</v>
       </c>
       <c r="J51" s="7">
-        <v>121857.57</v>
+        <v>27968.57</v>
       </c>
       <c r="K51" s="7">
-        <v>17298</v>
+        <v>31458</v>
       </c>
       <c r="L51" s="8">
-        <v>14.43</v>
+        <v>7.22</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>25</v>
@@ -2921,47 +2957,47 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="10">
-        <v>74900</v>
-      </c>
-      <c r="D52" s="10">
-        <v>0</v>
-      </c>
-      <c r="E52" s="10">
-        <v>74900</v>
-      </c>
-      <c r="F52" s="11">
-        <v>5.12</v>
-      </c>
-      <c r="G52" s="11">
-        <v>5.167</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>383488</v>
-      </c>
-      <c r="J52" s="11">
-        <v>-3539.38</v>
-      </c>
-      <c r="K52" s="11">
-        <v>-3539.38</v>
-      </c>
-      <c r="L52" s="9">
-        <v>-0.91</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N52" s="9" t="s">
-        <v>24</v>
+      <c r="B52" s="6">
+        <v>600366</v>
+      </c>
+      <c r="C52" s="6">
+        <v>56900</v>
+      </c>
+      <c r="D52" s="6">
+        <v>56900</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>6.69</v>
+      </c>
+      <c r="G52" s="7">
+        <v>6.386</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>380661</v>
+      </c>
+      <c r="J52" s="7">
+        <v>17317.15</v>
+      </c>
+      <c r="K52" s="7">
+        <v>11949</v>
+      </c>
+      <c r="L52" s="8">
+        <v>4.76</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2969,37 +3005,37 @@
         <v>99</v>
       </c>
       <c r="B53" s="6">
-        <v>600366</v>
+        <v>603713</v>
       </c>
       <c r="C53" s="6">
-        <v>56900</v>
+        <v>3900</v>
       </c>
       <c r="D53" s="6">
-        <v>56900</v>
+        <v>3900</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
       </c>
       <c r="F53" s="7">
-        <v>6.48</v>
+        <v>113</v>
       </c>
       <c r="G53" s="7">
-        <v>6.386</v>
+        <v>96.555</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>368712</v>
+        <v>440700</v>
       </c>
       <c r="J53" s="7">
-        <v>5368.15</v>
+        <v>64134.39</v>
       </c>
       <c r="K53" s="7">
-        <v>4552</v>
+        <v>-7254</v>
       </c>
       <c r="L53" s="8">
-        <v>1.47</v>
+        <v>17.03</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>23</v>
@@ -3013,81 +3049,81 @@
         <v>100</v>
       </c>
       <c r="B54" s="6">
-        <v>603713</v>
+        <v>300633</v>
       </c>
       <c r="C54" s="6">
-        <v>3900</v>
+        <v>700</v>
       </c>
       <c r="D54" s="6">
-        <v>3900</v>
+        <v>700</v>
       </c>
       <c r="E54" s="6">
         <v>0</v>
       </c>
       <c r="F54" s="7">
-        <v>114.86</v>
+        <v>39.55</v>
       </c>
       <c r="G54" s="7">
-        <v>96.555</v>
+        <v>36.756</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
       <c r="I54" s="7">
-        <v>447954</v>
+        <v>27685</v>
       </c>
       <c r="J54" s="7">
-        <v>71388.39</v>
+        <v>1956.12</v>
       </c>
       <c r="K54" s="7">
-        <v>40716</v>
+        <v>2338</v>
       </c>
       <c r="L54" s="8">
-        <v>18.96</v>
+        <v>7.6</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="10">
-        <v>300633</v>
+      <c r="B55" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="C55" s="10">
-        <v>700</v>
+        <v>55600</v>
       </c>
       <c r="D55" s="10">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E55" s="10">
-        <v>0</v>
+        <v>55600</v>
       </c>
       <c r="F55" s="11">
-        <v>36.21</v>
+        <v>6.86</v>
       </c>
       <c r="G55" s="11">
-        <v>36.756</v>
+        <v>6.883</v>
       </c>
       <c r="H55" s="11">
         <v>0</v>
       </c>
       <c r="I55" s="11">
-        <v>25347</v>
+        <v>381416</v>
       </c>
       <c r="J55" s="11">
-        <v>-381.88</v>
+        <v>-1292.05</v>
       </c>
       <c r="K55" s="11">
-        <v>-359.8</v>
+        <v>-1292.05</v>
       </c>
       <c r="L55" s="9">
-        <v>-1.49</v>
+        <v>-0.33</v>
       </c>
       <c r="M55" s="9" t="s">
         <v>25</v>
@@ -3097,217 +3133,217 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56" s="10">
+      <c r="A56" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1700</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1700</v>
+      </c>
+      <c r="F56" s="7">
+        <v>55.2</v>
+      </c>
+      <c r="G56" s="7">
+        <v>55.032</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>93840</v>
+      </c>
+      <c r="J56" s="7">
+        <v>285</v>
+      </c>
+      <c r="K56" s="7">
+        <v>285</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="6">
         <v>603223</v>
       </c>
-      <c r="C56" s="10">
-        <v>6100</v>
-      </c>
-      <c r="D56" s="10">
-        <v>6100</v>
-      </c>
-      <c r="E56" s="10">
-        <v>0</v>
-      </c>
-      <c r="F56" s="11">
-        <v>13.56</v>
-      </c>
-      <c r="G56" s="11">
-        <v>13.947</v>
-      </c>
-      <c r="H56" s="11">
-        <v>0</v>
-      </c>
-      <c r="I56" s="11">
-        <v>82716</v>
-      </c>
-      <c r="J56" s="11">
-        <v>-2362.32</v>
-      </c>
-      <c r="K56" s="11">
-        <v>-1342</v>
-      </c>
-      <c r="L56" s="9">
-        <v>-2.77</v>
-      </c>
-      <c r="M56" s="9" t="s">
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>14.18</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
+      <c r="J57" s="7">
+        <v>940.79</v>
+      </c>
+      <c r="K57" s="7">
+        <v>3303.11</v>
+      </c>
+      <c r="L57" s="8">
+        <v>0</v>
+      </c>
+      <c r="M57" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N56" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57" s="10">
-        <v>600805</v>
-      </c>
-      <c r="C57" s="10">
-        <v>10600</v>
-      </c>
-      <c r="D57" s="10">
-        <v>0</v>
-      </c>
-      <c r="E57" s="10">
-        <v>10600</v>
-      </c>
-      <c r="F57" s="11">
-        <v>4.51</v>
-      </c>
-      <c r="G57" s="11">
-        <v>4.551</v>
-      </c>
-      <c r="H57" s="11">
-        <v>0</v>
-      </c>
-      <c r="I57" s="11">
-        <v>47806</v>
-      </c>
-      <c r="J57" s="11">
-        <v>-435.37</v>
-      </c>
-      <c r="K57" s="11">
-        <v>-435.37</v>
-      </c>
-      <c r="L57" s="9">
-        <v>-0.9</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N57" s="9" t="s">
+      <c r="N57" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="B58" s="6">
+        <v>600805</v>
       </c>
       <c r="C58" s="6">
-        <v>22900</v>
+        <v>10600</v>
       </c>
       <c r="D58" s="6">
-        <v>22900</v>
+        <v>10600</v>
       </c>
       <c r="E58" s="6">
         <v>0</v>
       </c>
       <c r="F58" s="7">
-        <v>10.14</v>
+        <v>4.62</v>
       </c>
       <c r="G58" s="7">
-        <v>9.577</v>
+        <v>4.551</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
       </c>
       <c r="I58" s="7">
-        <v>232206</v>
+        <v>48972</v>
       </c>
       <c r="J58" s="7">
-        <v>12891.69</v>
+        <v>735.25</v>
       </c>
       <c r="K58" s="7">
-        <v>1603</v>
+        <v>1166</v>
       </c>
       <c r="L58" s="8">
-        <v>5.88</v>
+        <v>1.52</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B59" s="10">
-        <v>300182</v>
-      </c>
-      <c r="C59" s="10">
-        <v>75600</v>
-      </c>
-      <c r="D59" s="10">
-        <v>0</v>
-      </c>
-      <c r="E59" s="10">
-        <v>75600</v>
-      </c>
-      <c r="F59" s="11">
-        <v>4.75</v>
-      </c>
-      <c r="G59" s="11">
-        <v>4.759</v>
-      </c>
-      <c r="H59" s="11">
-        <v>0</v>
-      </c>
-      <c r="I59" s="11">
-        <v>359100</v>
-      </c>
-      <c r="J59" s="11">
-        <v>-695.17</v>
-      </c>
-      <c r="K59" s="11">
-        <v>-695.17</v>
-      </c>
-      <c r="L59" s="9">
-        <v>-0.19</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N59" s="9" t="s">
+      <c r="A59" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+      <c r="J59" s="7">
+        <v>22635.27</v>
+      </c>
+      <c r="K59" s="7">
+        <v>9743.58</v>
+      </c>
+      <c r="L59" s="8">
+        <v>0</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="B60" s="6">
+        <v>300182</v>
       </c>
       <c r="C60" s="6">
-        <v>28900</v>
+        <v>75600</v>
       </c>
       <c r="D60" s="6">
-        <v>28900</v>
+        <v>75600</v>
       </c>
       <c r="E60" s="6">
         <v>0</v>
       </c>
       <c r="F60" s="7">
-        <v>15.23</v>
+        <v>4.98</v>
       </c>
       <c r="G60" s="7">
-        <v>12.302</v>
+        <v>4.759</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>440147</v>
+        <v>376488</v>
       </c>
       <c r="J60" s="7">
-        <v>84623.33</v>
+        <v>16692.83</v>
       </c>
       <c r="K60" s="7">
-        <v>-29767</v>
+        <v>17388</v>
       </c>
       <c r="L60" s="8">
-        <v>23.8</v>
+        <v>4.64</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>25</v>
@@ -3318,40 +3354,40 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B61" s="6">
-        <v>300336</v>
+        <v>110</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="C61" s="6">
-        <v>76000</v>
+        <v>0</v>
       </c>
       <c r="D61" s="6">
-        <v>76000</v>
+        <v>0</v>
       </c>
       <c r="E61" s="6">
         <v>0</v>
       </c>
       <c r="F61" s="7">
-        <v>5.42</v>
+        <v>15.77</v>
       </c>
       <c r="G61" s="7">
-        <v>5.335</v>
+        <v>0</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
       </c>
       <c r="I61" s="7">
-        <v>411920</v>
+        <v>0</v>
       </c>
       <c r="J61" s="7">
-        <v>6446.35</v>
+        <v>98442.07</v>
       </c>
       <c r="K61" s="7">
-        <v>-5320</v>
+        <v>13818.74</v>
       </c>
       <c r="L61" s="8">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="M61" s="8" t="s">
         <v>25</v>
@@ -3362,216 +3398,216 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="B62" s="6">
+        <v>300336</v>
       </c>
       <c r="C62" s="6">
+        <v>76000</v>
+      </c>
+      <c r="D62" s="6">
+        <v>76000</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>5.54</v>
+      </c>
+      <c r="G62" s="7">
+        <v>5.335</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>421040</v>
+      </c>
+      <c r="J62" s="7">
+        <v>15566.35</v>
+      </c>
+      <c r="K62" s="7">
+        <v>9120</v>
+      </c>
+      <c r="L62" s="8">
+        <v>3.84</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="6">
         <v>38600</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D63" s="6">
         <v>38600</v>
       </c>
-      <c r="E62" s="6">
-        <v>0</v>
-      </c>
-      <c r="F62" s="7">
-        <v>7.77</v>
-      </c>
-      <c r="G62" s="7">
+      <c r="E63" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="G63" s="7">
         <v>7.678</v>
       </c>
-      <c r="H62" s="7">
-        <v>0</v>
-      </c>
-      <c r="I62" s="7">
-        <v>299922</v>
-      </c>
-      <c r="J62" s="7">
-        <v>3545.45</v>
-      </c>
-      <c r="K62" s="7">
-        <v>-12352</v>
-      </c>
-      <c r="L62" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="M62" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N62" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63" s="10">
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7">
+        <v>318450</v>
+      </c>
+      <c r="J63" s="7">
+        <v>22073.45</v>
+      </c>
+      <c r="K63" s="7">
+        <v>18528</v>
+      </c>
+      <c r="L63" s="8">
+        <v>7.45</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="6">
+        <v>31200</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6">
+        <v>31200</v>
+      </c>
+      <c r="F64" s="7">
+        <v>11.63</v>
+      </c>
+      <c r="G64" s="7">
+        <v>11.532</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>362856</v>
+      </c>
+      <c r="J64" s="7">
+        <v>3045.21</v>
+      </c>
+      <c r="K64" s="7">
+        <v>3045.21</v>
+      </c>
+      <c r="L64" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="6">
         <v>600869</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C65" s="6">
         <v>84900</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D65" s="6">
         <v>84900</v>
       </c>
-      <c r="E63" s="10">
-        <v>0</v>
-      </c>
-      <c r="F63" s="11">
-        <v>4.22</v>
-      </c>
-      <c r="G63" s="11">
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>4.32</v>
+      </c>
+      <c r="G65" s="7">
         <v>4.288</v>
       </c>
-      <c r="H63" s="11">
-        <v>0</v>
-      </c>
-      <c r="I63" s="11">
-        <v>358278</v>
-      </c>
-      <c r="J63" s="11">
-        <v>-5802.98</v>
-      </c>
-      <c r="K63" s="11">
-        <v>-8490</v>
-      </c>
-      <c r="L63" s="9">
-        <v>-1.59</v>
-      </c>
-      <c r="M63" s="9" t="s">
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>366768</v>
+      </c>
+      <c r="J65" s="7">
+        <v>2687.02</v>
+      </c>
+      <c r="K65" s="7">
+        <v>8490</v>
+      </c>
+      <c r="L65" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="M65" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N63" s="9" t="s">
+      <c r="N65" s="8" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C64" s="10">
-        <v>29000</v>
-      </c>
-      <c r="D64" s="10">
-        <v>29000</v>
-      </c>
-      <c r="E64" s="10">
-        <v>0</v>
-      </c>
-      <c r="F64" s="11">
-        <v>6.53</v>
-      </c>
-      <c r="G64" s="11">
-        <v>6.661</v>
-      </c>
-      <c r="H64" s="11">
-        <v>0</v>
-      </c>
-      <c r="I64" s="11">
-        <v>189370</v>
-      </c>
-      <c r="J64" s="11">
-        <v>-3793.19</v>
-      </c>
-      <c r="K64" s="11">
-        <v>-5800</v>
-      </c>
-      <c r="L64" s="9">
-        <v>-1.97</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N64" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65" s="10">
-        <v>67200</v>
-      </c>
-      <c r="D65" s="10">
-        <v>0</v>
-      </c>
-      <c r="E65" s="10">
-        <v>67200</v>
-      </c>
-      <c r="F65" s="11">
-        <v>5.25</v>
-      </c>
-      <c r="G65" s="11">
-        <v>5.311</v>
-      </c>
-      <c r="H65" s="11">
-        <v>0</v>
-      </c>
-      <c r="I65" s="11">
-        <v>352800</v>
-      </c>
-      <c r="J65" s="11">
-        <v>-4118.22</v>
-      </c>
-      <c r="K65" s="11">
-        <v>-4118.22</v>
-      </c>
-      <c r="L65" s="9">
-        <v>-1.15</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N65" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C66" s="6">
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="D66" s="6">
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="E66" s="6">
         <v>0</v>
       </c>
       <c r="F66" s="7">
-        <v>28.05</v>
+        <v>7.08</v>
       </c>
       <c r="G66" s="7">
-        <v>0</v>
+        <v>6.661</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>0</v>
+        <v>205320</v>
       </c>
       <c r="J66" s="7">
-        <v>15207.29</v>
+        <v>12156.81</v>
       </c>
       <c r="K66" s="7">
-        <v>4050.72</v>
+        <v>15950</v>
       </c>
       <c r="L66" s="8">
-        <v>0</v>
+        <v>6.29</v>
       </c>
       <c r="M66" s="8" t="s">
         <v>25</v>
@@ -3582,40 +3618,40 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C67" s="10">
-        <v>57600</v>
+        <v>19300</v>
       </c>
       <c r="D67" s="10">
-        <v>57600</v>
+        <v>0</v>
       </c>
       <c r="E67" s="10">
-        <v>0</v>
+        <v>19300</v>
       </c>
       <c r="F67" s="11">
-        <v>6.22</v>
+        <v>20.68</v>
       </c>
       <c r="G67" s="11">
-        <v>6.292</v>
+        <v>20.818</v>
       </c>
       <c r="H67" s="11">
         <v>0</v>
       </c>
       <c r="I67" s="11">
-        <v>358272</v>
+        <v>399124</v>
       </c>
       <c r="J67" s="11">
-        <v>-4125.48</v>
+        <v>-2661.22</v>
       </c>
       <c r="K67" s="11">
-        <v>-5184</v>
+        <v>-2661.22</v>
       </c>
       <c r="L67" s="9">
-        <v>-1.14</v>
+        <v>-0.66</v>
       </c>
       <c r="M67" s="9" t="s">
         <v>25</v>
@@ -3626,84 +3662,84 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B68" s="6">
-        <v>603823</v>
+        <v>122</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="C68" s="6">
-        <v>12400</v>
+        <v>67200</v>
       </c>
       <c r="D68" s="6">
-        <v>12400</v>
+        <v>67200</v>
       </c>
       <c r="E68" s="6">
         <v>0</v>
       </c>
       <c r="F68" s="7">
-        <v>18.34</v>
+        <v>5.78</v>
       </c>
       <c r="G68" s="7">
-        <v>17.854</v>
+        <v>5.311</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
       </c>
       <c r="I68" s="7">
-        <v>227416</v>
+        <v>388416</v>
       </c>
       <c r="J68" s="7">
-        <v>6020.57</v>
+        <v>31529.18</v>
       </c>
       <c r="K68" s="7">
-        <v>248</v>
+        <v>35616</v>
       </c>
       <c r="L68" s="8">
-        <v>2.72</v>
+        <v>8.83</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B69" s="6">
-        <v>603181</v>
+        <v>600200</v>
       </c>
       <c r="C69" s="6">
-        <v>11800</v>
+        <v>35400</v>
       </c>
       <c r="D69" s="6">
-        <v>11800</v>
+        <v>0</v>
       </c>
       <c r="E69" s="6">
-        <v>0</v>
+        <v>35400</v>
       </c>
       <c r="F69" s="7">
-        <v>22.9</v>
+        <v>7.32</v>
       </c>
       <c r="G69" s="7">
-        <v>15.647</v>
+        <v>7.272</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
       </c>
       <c r="I69" s="7">
-        <v>270220</v>
+        <v>259128</v>
       </c>
       <c r="J69" s="7">
-        <v>85581.22</v>
+        <v>1691.75</v>
       </c>
       <c r="K69" s="7">
-        <v>5546</v>
+        <v>1691.75</v>
       </c>
       <c r="L69" s="8">
-        <v>46.35</v>
+        <v>0.66</v>
       </c>
       <c r="M69" s="8" t="s">
         <v>23</v>
@@ -3713,85 +3749,85 @@
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B70" s="6">
-        <v>300322</v>
-      </c>
-      <c r="C70" s="6">
-        <v>200</v>
-      </c>
-      <c r="D70" s="6">
-        <v>200</v>
-      </c>
-      <c r="E70" s="6">
-        <v>0</v>
-      </c>
-      <c r="F70" s="7">
-        <v>18.78</v>
-      </c>
-      <c r="G70" s="7">
-        <v>18.192</v>
-      </c>
-      <c r="H70" s="7">
-        <v>0</v>
-      </c>
-      <c r="I70" s="7">
-        <v>3756</v>
-      </c>
-      <c r="J70" s="7">
-        <v>117.56</v>
-      </c>
-      <c r="K70" s="7">
-        <v>-92</v>
-      </c>
-      <c r="L70" s="8">
-        <v>3.23</v>
-      </c>
-      <c r="M70" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N70" s="8" t="s">
-        <v>24</v>
+      <c r="A70" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="10">
+        <v>603738</v>
+      </c>
+      <c r="C70" s="10">
+        <v>14700</v>
+      </c>
+      <c r="D70" s="10">
+        <v>0</v>
+      </c>
+      <c r="E70" s="10">
+        <v>14700</v>
+      </c>
+      <c r="F70" s="11">
+        <v>25.74</v>
+      </c>
+      <c r="G70" s="11">
+        <v>25.761</v>
+      </c>
+      <c r="H70" s="11">
+        <v>0</v>
+      </c>
+      <c r="I70" s="11">
+        <v>378378</v>
+      </c>
+      <c r="J70" s="11">
+        <v>-302.81</v>
+      </c>
+      <c r="K70" s="11">
+        <v>-302.81</v>
+      </c>
+      <c r="L70" s="9">
+        <v>-0.08</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C71" s="6">
-        <v>77800</v>
+        <v>0</v>
       </c>
       <c r="D71" s="6">
-        <v>77800</v>
+        <v>0</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
       </c>
       <c r="F71" s="7">
-        <v>4.79</v>
+        <v>6.57</v>
       </c>
       <c r="G71" s="7">
-        <v>4.591</v>
+        <v>0</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>372662</v>
+        <v>0</v>
       </c>
       <c r="J71" s="7">
-        <v>15517.14</v>
+        <v>12828.36</v>
       </c>
       <c r="K71" s="7">
-        <v>3112</v>
+        <v>16953.84</v>
       </c>
       <c r="L71" s="8">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>25</v>
@@ -3802,40 +3838,40 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B72" s="6">
-        <v>600203</v>
+        <v>603823</v>
       </c>
       <c r="C72" s="6">
-        <v>29700</v>
+        <v>12400</v>
       </c>
       <c r="D72" s="6">
-        <v>29700</v>
+        <v>12400</v>
       </c>
       <c r="E72" s="6">
         <v>0</v>
       </c>
       <c r="F72" s="7">
-        <v>10.54</v>
+        <v>18.92</v>
       </c>
       <c r="G72" s="7">
-        <v>10.446</v>
+        <v>17.854</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
       </c>
       <c r="I72" s="7">
-        <v>313038</v>
+        <v>234608</v>
       </c>
       <c r="J72" s="7">
-        <v>2779.58</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>14</v>
+        <v>13212.57</v>
+      </c>
+      <c r="K72" s="7">
+        <v>7192</v>
       </c>
       <c r="L72" s="8">
-        <v>0.9</v>
+        <v>5.97</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>23</v>
@@ -3845,85 +3881,85 @@
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C73" s="13">
-        <v>3214500</v>
-      </c>
-      <c r="D73" s="13">
-        <v>3214500</v>
-      </c>
-      <c r="E73" s="13">
-        <v>0</v>
-      </c>
-      <c r="F73" s="14">
-        <v>0</v>
-      </c>
-      <c r="G73" s="14">
-        <v>0</v>
-      </c>
-      <c r="H73" s="14">
-        <v>0</v>
-      </c>
-      <c r="I73" s="14">
-        <v>0</v>
-      </c>
-      <c r="J73" s="14">
-        <v>0</v>
-      </c>
-      <c r="K73" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L73" s="12">
-        <v>0</v>
-      </c>
-      <c r="M73" s="12" t="s">
+      <c r="A73" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="6">
+        <v>603181</v>
+      </c>
+      <c r="C73" s="6">
+        <v>0</v>
+      </c>
+      <c r="D73" s="6">
+        <v>0</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>23.74</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>0</v>
+      </c>
+      <c r="J73" s="7">
+        <v>92015.52</v>
+      </c>
+      <c r="K73" s="7">
+        <v>6434.3</v>
+      </c>
+      <c r="L73" s="8">
+        <v>0</v>
+      </c>
+      <c r="M73" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N73" s="12" t="s">
+      <c r="N73" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B74" s="6">
-        <v>300099</v>
+        <v>130</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="C74" s="6">
-        <v>3800</v>
+        <v>26400</v>
       </c>
       <c r="D74" s="6">
-        <v>3800</v>
+        <v>0</v>
       </c>
       <c r="E74" s="6">
-        <v>0</v>
+        <v>26400</v>
       </c>
       <c r="F74" s="7">
-        <v>6.13</v>
+        <v>14.6</v>
       </c>
       <c r="G74" s="7">
-        <v>5.931</v>
+        <v>14.569</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
       </c>
       <c r="I74" s="7">
-        <v>23294</v>
+        <v>385440</v>
       </c>
       <c r="J74" s="7">
-        <v>757.29</v>
+        <v>812.51</v>
       </c>
       <c r="K74" s="7">
-        <v>-836</v>
+        <v>812.51</v>
       </c>
       <c r="L74" s="8">
-        <v>3.36</v>
+        <v>0.21</v>
       </c>
       <c r="M74" s="8" t="s">
         <v>25</v>
@@ -3934,40 +3970,40 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B75" s="6">
-        <v>300026</v>
+        <v>300322</v>
       </c>
       <c r="C75" s="6">
-        <v>62100</v>
+        <v>200</v>
       </c>
       <c r="D75" s="6">
-        <v>62100</v>
+        <v>200</v>
       </c>
       <c r="E75" s="6">
         <v>0</v>
       </c>
       <c r="F75" s="7">
-        <v>6.05</v>
+        <v>19.38</v>
       </c>
       <c r="G75" s="7">
-        <v>5.921</v>
+        <v>18.192</v>
       </c>
       <c r="H75" s="7">
         <v>0</v>
       </c>
       <c r="I75" s="7">
-        <v>375705</v>
+        <v>3876</v>
       </c>
       <c r="J75" s="7">
-        <v>8028.88</v>
+        <v>237.56</v>
       </c>
       <c r="K75" s="7">
-        <v>7452</v>
+        <v>120</v>
       </c>
       <c r="L75" s="8">
-        <v>2.18</v>
+        <v>6.53</v>
       </c>
       <c r="M75" s="8" t="s">
         <v>25</v>
@@ -3978,40 +4014,40 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B76" s="6">
-        <v>300586</v>
+        <v>133</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="C76" s="6">
-        <v>17900</v>
+        <v>77800</v>
       </c>
       <c r="D76" s="6">
-        <v>17900</v>
+        <v>77800</v>
       </c>
       <c r="E76" s="6">
         <v>0</v>
       </c>
       <c r="F76" s="7">
-        <v>9.74</v>
+        <v>4.98</v>
       </c>
       <c r="G76" s="7">
-        <v>9.697</v>
+        <v>4.591</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
       </c>
       <c r="I76" s="7">
-        <v>174346</v>
+        <v>387444</v>
       </c>
       <c r="J76" s="7">
-        <v>775.16</v>
+        <v>30299.14</v>
       </c>
       <c r="K76" s="7">
-        <v>-2148</v>
+        <v>14782</v>
       </c>
       <c r="L76" s="8">
-        <v>0.44</v>
+        <v>8.47</v>
       </c>
       <c r="M76" s="8" t="s">
         <v>25</v>
@@ -4022,40 +4058,40 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="B77" s="6">
+        <v>300002</v>
       </c>
       <c r="C77" s="6">
-        <v>39800</v>
+        <v>50000</v>
       </c>
       <c r="D77" s="6">
-        <v>39800</v>
+        <v>0</v>
       </c>
       <c r="E77" s="6">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="F77" s="7">
-        <v>7.16</v>
+        <v>7.55</v>
       </c>
       <c r="G77" s="7">
-        <v>7.044</v>
+        <v>7.477</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
       </c>
       <c r="I77" s="7">
-        <v>284968</v>
+        <v>377500</v>
       </c>
       <c r="J77" s="7">
-        <v>4625.39</v>
+        <v>3633.25</v>
       </c>
       <c r="K77" s="7">
-        <v>-14328</v>
+        <v>3633.25</v>
       </c>
       <c r="L77" s="8">
-        <v>1.65</v>
+        <v>0.98</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>25</v>
@@ -4066,128 +4102,128 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B78" s="6">
-        <v>300204</v>
+        <v>600203</v>
       </c>
       <c r="C78" s="6">
-        <v>13400</v>
+        <v>29700</v>
       </c>
       <c r="D78" s="6">
-        <v>13400</v>
+        <v>29700</v>
       </c>
       <c r="E78" s="6">
         <v>0</v>
       </c>
       <c r="F78" s="7">
-        <v>11.7</v>
+        <v>10.78</v>
       </c>
       <c r="G78" s="7">
-        <v>11.395</v>
+        <v>10.446</v>
       </c>
       <c r="H78" s="7">
         <v>0</v>
       </c>
       <c r="I78" s="7">
-        <v>156780</v>
+        <v>320166</v>
       </c>
       <c r="J78" s="7">
-        <v>4084.69</v>
+        <v>9907.58</v>
       </c>
       <c r="K78" s="7">
-        <v>-2546</v>
+        <v>7128</v>
       </c>
       <c r="L78" s="8">
-        <v>2.68</v>
+        <v>3.2</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B79" s="10">
-        <v>600987</v>
-      </c>
-      <c r="C79" s="10">
-        <v>38100</v>
-      </c>
-      <c r="D79" s="10">
-        <v>0</v>
-      </c>
-      <c r="E79" s="10">
-        <v>38100</v>
-      </c>
-      <c r="F79" s="11">
-        <v>5.76</v>
-      </c>
-      <c r="G79" s="11">
-        <v>5.78</v>
-      </c>
-      <c r="H79" s="11">
-        <v>0</v>
-      </c>
-      <c r="I79" s="11">
-        <v>219456</v>
-      </c>
-      <c r="J79" s="11">
-        <v>-775.59</v>
-      </c>
-      <c r="K79" s="11">
-        <v>-775.59</v>
-      </c>
-      <c r="L79" s="9">
-        <v>-0.35</v>
-      </c>
-      <c r="M79" s="9" t="s">
+      <c r="A79" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" s="13">
+        <v>3188000</v>
+      </c>
+      <c r="D79" s="13">
+        <v>3188000</v>
+      </c>
+      <c r="E79" s="13">
+        <v>0</v>
+      </c>
+      <c r="F79" s="14">
+        <v>0</v>
+      </c>
+      <c r="G79" s="14">
+        <v>0</v>
+      </c>
+      <c r="H79" s="14">
+        <v>0</v>
+      </c>
+      <c r="I79" s="14">
+        <v>0</v>
+      </c>
+      <c r="J79" s="14">
+        <v>0</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L79" s="12">
+        <v>0</v>
+      </c>
+      <c r="M79" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N79" s="9" t="s">
+      <c r="N79" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="B80" s="6">
+        <v>300099</v>
       </c>
       <c r="C80" s="6">
-        <v>21</v>
+        <v>3800</v>
       </c>
       <c r="D80" s="6">
-        <v>21</v>
+        <v>3800</v>
       </c>
       <c r="E80" s="6">
         <v>0</v>
       </c>
       <c r="F80" s="7">
-        <v>14.03</v>
+        <v>6.34</v>
       </c>
       <c r="G80" s="7">
-        <v>-10594.927</v>
+        <v>5.931</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
       </c>
       <c r="I80" s="7">
-        <v>294.63</v>
+        <v>24092</v>
       </c>
       <c r="J80" s="7">
-        <v>222788.09</v>
+        <v>1555.29</v>
       </c>
       <c r="K80" s="7">
-        <v>-20011.21</v>
+        <v>798</v>
       </c>
       <c r="L80" s="8">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>25</v>
@@ -4197,129 +4233,129 @@
       </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B81" s="10">
-        <v>300006</v>
-      </c>
-      <c r="C81" s="10">
-        <v>19300</v>
-      </c>
-      <c r="D81" s="10">
-        <v>19300</v>
-      </c>
-      <c r="E81" s="10">
-        <v>0</v>
-      </c>
-      <c r="F81" s="11">
-        <v>5.39</v>
-      </c>
-      <c r="G81" s="11">
-        <v>5.42</v>
-      </c>
-      <c r="H81" s="11">
-        <v>0</v>
-      </c>
-      <c r="I81" s="11">
-        <v>104027</v>
-      </c>
-      <c r="J81" s="11">
-        <v>-579.55</v>
-      </c>
-      <c r="K81" s="11">
-        <v>-1351</v>
-      </c>
-      <c r="L81" s="9">
-        <v>-0.55</v>
-      </c>
-      <c r="M81" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N81" s="9" t="s">
+      <c r="A81" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" s="6">
+        <v>300026</v>
+      </c>
+      <c r="C81" s="6">
+        <v>0</v>
+      </c>
+      <c r="D81" s="6">
+        <v>0</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" s="7">
+        <v>6.28</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0</v>
+      </c>
+      <c r="J81" s="7">
+        <v>19173.24</v>
+      </c>
+      <c r="K81" s="7">
+        <v>11144.36</v>
+      </c>
+      <c r="L81" s="8">
+        <v>0</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B82" s="10">
-        <v>600110</v>
-      </c>
-      <c r="C82" s="10">
-        <v>3400</v>
-      </c>
-      <c r="D82" s="10">
-        <v>3400</v>
-      </c>
-      <c r="E82" s="10">
-        <v>0</v>
-      </c>
-      <c r="F82" s="11">
-        <v>5.37</v>
-      </c>
-      <c r="G82" s="11">
-        <v>5.391</v>
-      </c>
-      <c r="H82" s="11">
-        <v>0</v>
-      </c>
-      <c r="I82" s="11">
-        <v>18258</v>
-      </c>
-      <c r="J82" s="11">
-        <v>-70.57</v>
-      </c>
-      <c r="K82" s="11">
-        <v>-646</v>
-      </c>
-      <c r="L82" s="9">
-        <v>-0.39</v>
-      </c>
-      <c r="M82" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N82" s="9" t="s">
-        <v>22</v>
+      <c r="A82" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" s="6">
+        <v>300586</v>
+      </c>
+      <c r="C82" s="6">
+        <v>17900</v>
+      </c>
+      <c r="D82" s="6">
+        <v>17900</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>10.35</v>
+      </c>
+      <c r="G82" s="7">
+        <v>9.697</v>
+      </c>
+      <c r="H82" s="7">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>185265</v>
+      </c>
+      <c r="J82" s="7">
+        <v>11694.16</v>
+      </c>
+      <c r="K82" s="7">
+        <v>10919</v>
+      </c>
+      <c r="L82" s="8">
+        <v>6.73</v>
+      </c>
+      <c r="M82" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N82" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C83" s="6">
-        <v>6500</v>
+        <v>39800</v>
       </c>
       <c r="D83" s="6">
-        <v>6500</v>
+        <v>39800</v>
       </c>
       <c r="E83" s="6">
         <v>0</v>
       </c>
       <c r="F83" s="7">
-        <v>6.96</v>
+        <v>7.4</v>
       </c>
       <c r="G83" s="7">
-        <v>6.328</v>
+        <v>7.044</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
       </c>
       <c r="I83" s="7">
-        <v>45240</v>
+        <v>294520</v>
       </c>
       <c r="J83" s="7">
-        <v>4111.07</v>
+        <v>14177.39</v>
       </c>
       <c r="K83" s="7">
-        <v>-715</v>
+        <v>9552</v>
       </c>
       <c r="L83" s="8">
-        <v>9.99</v>
+        <v>5.05</v>
       </c>
       <c r="M83" s="8" t="s">
         <v>25</v>
@@ -4330,128 +4366,128 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B84" s="6">
-        <v>600988</v>
+        <v>300204</v>
       </c>
       <c r="C84" s="6">
-        <v>31500</v>
+        <v>13400</v>
       </c>
       <c r="D84" s="6">
-        <v>31500</v>
+        <v>13400</v>
       </c>
       <c r="E84" s="6">
         <v>0</v>
       </c>
       <c r="F84" s="7">
-        <v>13.01</v>
+        <v>12.1</v>
       </c>
       <c r="G84" s="7">
-        <v>11.899</v>
+        <v>11.395</v>
       </c>
       <c r="H84" s="7">
         <v>0</v>
       </c>
       <c r="I84" s="7">
-        <v>409815</v>
+        <v>162140</v>
       </c>
       <c r="J84" s="7">
-        <v>35007.54</v>
+        <v>9444.69</v>
       </c>
       <c r="K84" s="7">
-        <v>-29610</v>
+        <v>5360</v>
       </c>
       <c r="L84" s="8">
-        <v>9.34</v>
+        <v>6.19</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="B85" s="6">
+        <v>600987</v>
       </c>
       <c r="C85" s="6">
-        <v>0</v>
+        <v>38100</v>
       </c>
       <c r="D85" s="6">
-        <v>0</v>
+        <v>38100</v>
       </c>
       <c r="E85" s="6">
         <v>0</v>
       </c>
       <c r="F85" s="7">
-        <v>5.54</v>
+        <v>5.89</v>
       </c>
       <c r="G85" s="7">
-        <v>0</v>
+        <v>5.777</v>
       </c>
       <c r="H85" s="7">
         <v>0</v>
       </c>
       <c r="I85" s="7">
-        <v>0</v>
+        <v>224409</v>
       </c>
       <c r="J85" s="7">
-        <v>3376.73</v>
+        <v>4307.22</v>
       </c>
       <c r="K85" s="7">
-        <v>-3706.01</v>
+        <v>4953</v>
       </c>
       <c r="L85" s="8">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B86" s="6">
-        <v>300132</v>
+        <v>300284</v>
       </c>
       <c r="C86" s="6">
-        <v>1300</v>
+        <v>10200</v>
       </c>
       <c r="D86" s="6">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E86" s="6">
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="F86" s="7">
-        <v>24.5</v>
+        <v>8.47</v>
       </c>
       <c r="G86" s="7">
-        <v>18.013</v>
+        <v>8.466</v>
       </c>
       <c r="H86" s="7">
         <v>0</v>
       </c>
       <c r="I86" s="7">
-        <v>31850</v>
+        <v>86394</v>
       </c>
       <c r="J86" s="7">
-        <v>8433.07</v>
+        <v>38</v>
       </c>
       <c r="K86" s="7">
-        <v>689</v>
+        <v>38</v>
       </c>
       <c r="L86" s="8">
-        <v>36.01</v>
+        <v>0.05</v>
       </c>
       <c r="M86" s="8" t="s">
         <v>25</v>
@@ -4462,40 +4498,40 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C87" s="6">
-        <v>14200</v>
+        <v>0</v>
       </c>
       <c r="D87" s="6">
-        <v>14200</v>
+        <v>0</v>
       </c>
       <c r="E87" s="6">
         <v>0</v>
       </c>
       <c r="F87" s="7">
-        <v>5.73</v>
+        <v>14.67</v>
       </c>
       <c r="G87" s="7">
-        <v>5.421</v>
+        <v>0</v>
       </c>
       <c r="H87" s="7">
         <v>0</v>
       </c>
       <c r="I87" s="7">
-        <v>81366</v>
+        <v>0</v>
       </c>
       <c r="J87" s="7">
-        <v>4392.75</v>
+        <v>222816.55</v>
       </c>
       <c r="K87" s="7">
-        <v>-6532</v>
+        <v>-6.13</v>
       </c>
       <c r="L87" s="8">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="M87" s="8" t="s">
         <v>25</v>
@@ -4506,133 +4542,485 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B88" s="6">
-        <v>601700</v>
+        <v>300006</v>
       </c>
       <c r="C88" s="6">
-        <v>70300</v>
+        <v>19300</v>
       </c>
       <c r="D88" s="6">
-        <v>70300</v>
+        <v>19300</v>
       </c>
       <c r="E88" s="6">
         <v>0</v>
       </c>
       <c r="F88" s="7">
-        <v>5.67</v>
+        <v>5.76</v>
       </c>
       <c r="G88" s="7">
-        <v>5.63</v>
+        <v>5.42</v>
       </c>
       <c r="H88" s="7">
         <v>0</v>
       </c>
       <c r="I88" s="7">
-        <v>398601</v>
+        <v>111168</v>
       </c>
       <c r="J88" s="7">
-        <v>2784.58</v>
+        <v>6561.45</v>
       </c>
       <c r="K88" s="7">
-        <v>-13357</v>
+        <v>7141</v>
       </c>
       <c r="L88" s="8">
-        <v>0.71</v>
+        <v>6.27</v>
       </c>
       <c r="M88" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N88" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B89" s="6">
+        <v>600110</v>
+      </c>
+      <c r="C89" s="6">
+        <v>3400</v>
+      </c>
+      <c r="D89" s="6">
+        <v>3400</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0</v>
+      </c>
+      <c r="F89" s="7">
+        <v>5.65</v>
+      </c>
+      <c r="G89" s="7">
+        <v>5.391</v>
+      </c>
+      <c r="H89" s="7">
+        <v>0</v>
+      </c>
+      <c r="I89" s="7">
+        <v>19210</v>
+      </c>
+      <c r="J89" s="7">
+        <v>881.43</v>
+      </c>
+      <c r="K89" s="7">
+        <v>952</v>
+      </c>
+      <c r="L89" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="M89" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N88" s="8" t="s">
+      <c r="N89" s="8" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="A89" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B89" s="10">
-        <v>300423</v>
-      </c>
-      <c r="C89" s="10">
-        <v>7700</v>
-      </c>
-      <c r="D89" s="10">
-        <v>7700</v>
-      </c>
-      <c r="E89" s="10">
-        <v>0</v>
-      </c>
-      <c r="F89" s="11">
-        <v>13.13</v>
-      </c>
-      <c r="G89" s="11">
-        <v>13.647</v>
-      </c>
-      <c r="H89" s="11">
-        <v>0</v>
-      </c>
-      <c r="I89" s="11">
-        <v>101101</v>
-      </c>
-      <c r="J89" s="11">
-        <v>-3983.49</v>
-      </c>
-      <c r="K89" s="11">
-        <v>-3234</v>
-      </c>
-      <c r="L89" s="9">
-        <v>-3.79</v>
-      </c>
-      <c r="M89" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N89" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C90" s="6">
+        <v>6500</v>
+      </c>
+      <c r="D90" s="6">
+        <v>6500</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0</v>
+      </c>
+      <c r="F90" s="7">
+        <v>7.31</v>
+      </c>
+      <c r="G90" s="7">
+        <v>6.328</v>
+      </c>
+      <c r="H90" s="7">
+        <v>0</v>
+      </c>
+      <c r="I90" s="7">
+        <v>47515</v>
+      </c>
+      <c r="J90" s="7">
+        <v>6386.07</v>
+      </c>
+      <c r="K90" s="7">
+        <v>2275</v>
+      </c>
+      <c r="L90" s="8">
+        <v>15.52</v>
+      </c>
+      <c r="M90" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N90" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B91" s="6">
+        <v>600988</v>
+      </c>
+      <c r="C91" s="6">
+        <v>31500</v>
+      </c>
+      <c r="D91" s="6">
+        <v>31500</v>
+      </c>
+      <c r="E91" s="6">
+        <v>0</v>
+      </c>
+      <c r="F91" s="7">
+        <v>13.47</v>
+      </c>
+      <c r="G91" s="7">
+        <v>11.899</v>
+      </c>
+      <c r="H91" s="7">
+        <v>0</v>
+      </c>
+      <c r="I91" s="7">
+        <v>424305</v>
+      </c>
+      <c r="J91" s="7">
+        <v>49497.54</v>
+      </c>
+      <c r="K91" s="7">
+        <v>14490</v>
+      </c>
+      <c r="L91" s="8">
+        <v>13.2</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N91" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" s="6">
+        <v>300265</v>
+      </c>
+      <c r="C92" s="6">
+        <v>30100</v>
+      </c>
+      <c r="D92" s="6">
+        <v>0</v>
+      </c>
+      <c r="E92" s="6">
+        <v>30100</v>
+      </c>
+      <c r="F92" s="7">
+        <v>12.68</v>
+      </c>
+      <c r="G92" s="7">
+        <v>12.607</v>
+      </c>
+      <c r="H92" s="7">
+        <v>0</v>
+      </c>
+      <c r="I92" s="7">
+        <v>381668</v>
+      </c>
+      <c r="J92" s="7">
+        <v>2185.51</v>
+      </c>
+      <c r="K92" s="7">
+        <v>2185.51</v>
+      </c>
+      <c r="L92" s="8">
+        <v>0.58</v>
+      </c>
+      <c r="M92" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N92" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" s="6">
+        <v>4800</v>
+      </c>
+      <c r="D93" s="6">
+        <v>0</v>
+      </c>
+      <c r="E93" s="6">
+        <v>4800</v>
+      </c>
+      <c r="F93" s="7">
+        <v>77.43</v>
+      </c>
+      <c r="G93" s="7">
+        <v>76.894</v>
+      </c>
+      <c r="H93" s="7">
+        <v>0</v>
+      </c>
+      <c r="I93" s="7">
+        <v>371664</v>
+      </c>
+      <c r="J93" s="7">
+        <v>2574.87</v>
+      </c>
+      <c r="K93" s="7">
+        <v>2574.87</v>
+      </c>
+      <c r="L93" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="M93" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N93" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" s="6">
+        <v>300132</v>
+      </c>
+      <c r="C94" s="6">
+        <v>0</v>
+      </c>
+      <c r="D94" s="6">
+        <v>0</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0</v>
+      </c>
+      <c r="F94" s="7">
+        <v>26.02</v>
+      </c>
+      <c r="G94" s="7">
+        <v>0</v>
+      </c>
+      <c r="H94" s="7">
+        <v>0</v>
+      </c>
+      <c r="I94" s="7">
+        <v>0</v>
+      </c>
+      <c r="J94" s="7">
+        <v>9821.76</v>
+      </c>
+      <c r="K94" s="7">
+        <v>1388.69</v>
+      </c>
+      <c r="L94" s="8">
+        <v>0</v>
+      </c>
+      <c r="M94" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N94" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C95" s="6">
+        <v>14200</v>
+      </c>
+      <c r="D95" s="6">
+        <v>14200</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0</v>
+      </c>
+      <c r="F95" s="7">
+        <v>6.15</v>
+      </c>
+      <c r="G95" s="7">
+        <v>5.421</v>
+      </c>
+      <c r="H95" s="7">
+        <v>0</v>
+      </c>
+      <c r="I95" s="7">
+        <v>87330</v>
+      </c>
+      <c r="J95" s="7">
+        <v>10356.75</v>
+      </c>
+      <c r="K95" s="7">
+        <v>5964</v>
+      </c>
+      <c r="L95" s="8">
+        <v>13.45</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N95" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B96" s="6">
+        <v>601700</v>
+      </c>
+      <c r="C96" s="6">
+        <v>70300</v>
+      </c>
+      <c r="D96" s="6">
+        <v>70300</v>
+      </c>
+      <c r="E96" s="6">
+        <v>0</v>
+      </c>
+      <c r="F96" s="7">
+        <v>5.82</v>
+      </c>
+      <c r="G96" s="7">
+        <v>5.63</v>
+      </c>
+      <c r="H96" s="7">
+        <v>0</v>
+      </c>
+      <c r="I96" s="7">
+        <v>409146</v>
+      </c>
+      <c r="J96" s="7">
+        <v>13329.58</v>
+      </c>
+      <c r="K96" s="7">
+        <v>10545</v>
+      </c>
+      <c r="L96" s="8">
+        <v>3.37</v>
+      </c>
+      <c r="M96" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N96" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B97" s="6">
+        <v>300423</v>
+      </c>
+      <c r="C97" s="6">
+        <v>7700</v>
+      </c>
+      <c r="D97" s="6">
+        <v>7700</v>
+      </c>
+      <c r="E97" s="6">
+        <v>0</v>
+      </c>
+      <c r="F97" s="7">
+        <v>13.8</v>
+      </c>
+      <c r="G97" s="7">
+        <v>13.647</v>
+      </c>
+      <c r="H97" s="7">
+        <v>0</v>
+      </c>
+      <c r="I97" s="7">
+        <v>106260</v>
+      </c>
+      <c r="J97" s="7">
+        <v>1175.51</v>
+      </c>
+      <c r="K97" s="7">
+        <v>5159</v>
+      </c>
+      <c r="L97" s="8">
+        <v>1.12</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N97" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C98" s="6">
         <v>12500</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D98" s="6">
         <v>12500</v>
       </c>
-      <c r="E90" s="6">
-        <v>0</v>
-      </c>
-      <c r="F90" s="7">
-        <v>32.9</v>
-      </c>
-      <c r="G90" s="7">
+      <c r="E98" s="6">
+        <v>0</v>
+      </c>
+      <c r="F98" s="7">
+        <v>33.72</v>
+      </c>
+      <c r="G98" s="7">
         <v>30.513</v>
       </c>
-      <c r="H90" s="7">
-        <v>0</v>
-      </c>
-      <c r="I90" s="7">
-        <v>411250</v>
-      </c>
-      <c r="J90" s="7">
-        <v>29835.71</v>
-      </c>
-      <c r="K90" s="7">
-        <v>-14750</v>
-      </c>
-      <c r="L90" s="8">
-        <v>7.82</v>
-      </c>
-      <c r="M90" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N90" s="8" t="s">
+      <c r="H98" s="7">
+        <v>0</v>
+      </c>
+      <c r="I98" s="7">
+        <v>421500</v>
+      </c>
+      <c r="J98" s="7">
+        <v>40085.71</v>
+      </c>
+      <c r="K98" s="7">
+        <v>10250</v>
+      </c>
+      <c r="L98" s="8">
+        <v>10.51</v>
+      </c>
+      <c r="M98" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N98" s="8" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
+++ b/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1100.2</v>
+        <v>1100.12</v>
       </c>
       <c r="H3" s="4">
-        <v>1151.71</v>
+        <v>1151.63</v>
       </c>
       <c r="I3" s="4">
-        <v>168569.86</v>
+        <v>168569.78</v>
       </c>
       <c r="J3" s="4">
-        <v>-0.31</v>
+        <v>-0.09</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="4">
-        <v>2954000</v>
+        <v>2665000</v>
       </c>
       <c r="C8" s="4">
-        <v>2954000</v>
+        <v>2665000</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="4">
-        <v>7472000</v>
+        <v>7260500</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>100.018</v>
+        <v>100.011</v>
       </c>
       <c r="G12" s="7">
         <v>-15224.515</v>
@@ -842,13 +842,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>1100.2</v>
+        <v>1100.12</v>
       </c>
       <c r="J12" s="7">
-        <v>168569.86</v>
+        <v>168569.78</v>
       </c>
       <c r="K12" s="7">
-        <v>-0.31</v>
+        <v>-0.09</v>
       </c>
       <c r="L12" s="8">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>41</v>
       </c>
       <c r="C13" s="10">
-        <v>2954000</v>
+        <v>2665000</v>
       </c>
       <c r="D13" s="10">
-        <v>2954000</v>
+        <v>2665000</v>
       </c>
       <c r="E13" s="10">
         <v>0</v>

--- a/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
+++ b/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>资金</t>
   </si>
@@ -55,10 +55,10 @@
     <t>人民币</t>
   </si>
   <si>
+    <t>--</t>
+  </si>
+  <si>
     <t>港币</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
   <si>
     <t>美元</t>
@@ -617,8 +617,8 @@
       <c r="I3" s="4">
         <v>168569.78</v>
       </c>
-      <c r="J3" s="4">
-        <v>-0.09</v>
+      <c r="J3" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3">
         <v>1720175912</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="4">
-        <v>2665000</v>
+        <v>2560000</v>
       </c>
       <c r="C8" s="4">
-        <v>2665000</v>
+        <v>2560500</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="4">
-        <v>7260500</v>
+        <v>7149000</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -847,8 +847,8 @@
       <c r="J12" s="7">
         <v>168569.78</v>
       </c>
-      <c r="K12" s="7">
-        <v>-0.09</v>
+      <c r="K12" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L12" s="8">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>41</v>
       </c>
       <c r="C13" s="10">
-        <v>2665000</v>
+        <v>2560500</v>
       </c>
       <c r="D13" s="10">
-        <v>2665000</v>
+        <v>2560500</v>
       </c>
       <c r="E13" s="10">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L13" s="9">
         <v>0</v>

--- a/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
+++ b/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>资金</t>
   </si>
@@ -55,10 +55,10 @@
     <t>人民币</t>
   </si>
   <si>
+    <t>港币</t>
+  </si>
+  <si>
     <t>--</t>
-  </si>
-  <si>
-    <t>港币</t>
   </si>
   <si>
     <t>美元</t>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1100.12</v>
+        <v>1100.29</v>
       </c>
       <c r="H3" s="4">
-        <v>1151.63</v>
+        <v>1151.8</v>
       </c>
       <c r="I3" s="4">
-        <v>168569.78</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>13</v>
+        <v>168569.95</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.17</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>1720175912</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="4">
-        <v>2560000</v>
+        <v>2474000</v>
       </c>
       <c r="C8" s="4">
-        <v>2560500</v>
+        <v>2474000</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="4">
-        <v>7149000</v>
+        <v>6943000</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>100.011</v>
+        <v>100.026</v>
       </c>
       <c r="G12" s="7">
         <v>-15224.515</v>
@@ -842,13 +842,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>1100.12</v>
+        <v>1100.29</v>
       </c>
       <c r="J12" s="7">
-        <v>168569.78</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>168569.95</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.17</v>
       </c>
       <c r="L12" s="8">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>41</v>
       </c>
       <c r="C13" s="10">
-        <v>2560500</v>
+        <v>2474000</v>
       </c>
       <c r="D13" s="10">
-        <v>2560500</v>
+        <v>2474000</v>
       </c>
       <c r="E13" s="10">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L13" s="9">
         <v>0</v>

--- a/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
+++ b/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
@@ -609,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1100.29</v>
+        <v>1100.04</v>
       </c>
       <c r="H3" s="4">
-        <v>1151.8</v>
+        <v>1151.55</v>
       </c>
       <c r="I3" s="4">
-        <v>168569.95</v>
+        <v>168569.7</v>
       </c>
       <c r="J3" s="4">
         <v>0.17</v>
@@ -725,10 +725,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="4">
-        <v>2474000</v>
+        <v>2104000</v>
       </c>
       <c r="C8" s="4">
-        <v>2474000</v>
+        <v>2104000</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="4">
-        <v>6943000</v>
+        <v>6105500</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>100.026</v>
+        <v>100.004</v>
       </c>
       <c r="G12" s="7">
         <v>-15224.515</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>1100.29</v>
+        <v>1100.04</v>
       </c>
       <c r="J12" s="7">
-        <v>168569.95</v>
+        <v>168569.7</v>
       </c>
       <c r="K12" s="7">
         <v>0.17</v>
@@ -868,10 +868,10 @@
         <v>41</v>
       </c>
       <c r="C13" s="10">
-        <v>2474000</v>
+        <v>2104000</v>
       </c>
       <c r="D13" s="10">
-        <v>2474000</v>
+        <v>2104000</v>
       </c>
       <c r="E13" s="10">
         <v>0</v>

--- a/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
+++ b/data/trdrec_from_trdclient/917_c_hait_5912.xlsx
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1100.04</v>
+        <v>1100.12</v>
       </c>
       <c r="H3" s="4">
-        <v>1151.55</v>
+        <v>1151.63</v>
       </c>
       <c r="I3" s="4">
-        <v>168569.7</v>
+        <v>168569.78</v>
       </c>
       <c r="J3" s="4">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="4">
-        <v>2104000</v>
+        <v>2002000</v>
       </c>
       <c r="C8" s="4">
-        <v>2104000</v>
+        <v>2002500</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="4">
-        <v>6105500</v>
+        <v>5917500</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>100.004</v>
+        <v>100.011</v>
       </c>
       <c r="G12" s="7">
         <v>-15224.515</v>
@@ -842,13 +842,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>1100.04</v>
+        <v>1100.12</v>
       </c>
       <c r="J12" s="7">
-        <v>168569.7</v>
+        <v>168569.78</v>
       </c>
       <c r="K12" s="7">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="L12" s="8">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>41</v>
       </c>
       <c r="C13" s="10">
-        <v>2104000</v>
+        <v>2002500</v>
       </c>
       <c r="D13" s="10">
-        <v>2104000</v>
+        <v>2002500</v>
       </c>
       <c r="E13" s="10">
         <v>0</v>
